--- a/tables/aed_variable_tables.xlsx
+++ b/tables/aed_variable_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthipsey/AED Dropbox/05_Software/AED/aed-science/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58C967E-2316-EE43-8ECE-AD1C1218930D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670EAF51-AF43-1A43-B639-BB9A762479CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="41480" windowHeight="27220" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="41480" windowHeight="27220" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pelagic" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="1221">
   <si>
     <t>Oxygen</t>
   </si>
@@ -7749,8 +7749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EFC841-C7C7-094F-9A23-9203CD86122A}">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="127" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8430,9 +8430,7 @@
       <c r="C25" s="117" t="s">
         <v>799</v>
       </c>
-      <c r="D25" s="117" t="s">
-        <v>1162</v>
-      </c>
+      <c r="D25" s="117"/>
       <c r="E25" s="99" t="s">
         <v>838</v>
       </c>
@@ -10793,8 +10791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005F3198-C033-B548-8CE3-0194F9495F17}">
   <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/tables/aed_variable_tables.xlsx
+++ b/tables/aed_variable_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthipsey/AED Dropbox/05_Software/AED/aed-science/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670EAF51-AF43-1A43-B639-BB9A762479CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBFA35B-4B1B-3846-827F-B56AC3E7C3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="41480" windowHeight="27220" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2900" yWindow="500" windowWidth="41480" windowHeight="27220" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pelagic" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="aed_silica" sheetId="9" r:id="rId9"/>
     <sheet name="aed_organic_matter" sheetId="10" r:id="rId10"/>
     <sheet name="aed_phytoplankton" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="1371">
   <si>
     <t>Oxygen</t>
   </si>
@@ -3698,9 +3699,6 @@
     <t>required for PHY resuspension, set via `resus_link`</t>
   </si>
   <si>
-    <t>\mathbf{\mathcal{F}}}_{resus}</t>
-  </si>
-  <si>
     <t>PHY_mpb</t>
   </si>
   <si>
@@ -3728,84 +3726,12 @@
     <t>internal phosphorus concentration of phytoplakton `group`</t>
   </si>
   <si>
-    <t>activated when `simIPDynamics &gt;1`</t>
-  </si>
-  <si>
-    <t>activated when `simINDynamics &gt;1`</t>
-  </si>
-  <si>
-    <t>PHY_TCHLA</t>
-  </si>
-  <si>
-    <t>PHY_GPP</t>
-  </si>
-  <si>
-    <t>PHY_{group}_f{I/T/Sal/Nit/Pho/Sil}</t>
-  </si>
-  <si>
-    <t>PHY_NCP</t>
-  </si>
-  <si>
-    <t>PHY_NUP_nh4</t>
-  </si>
-  <si>
-    <t>PHY_NUP_no3</t>
-  </si>
-  <si>
-    <t>PHY_PUP</t>
-  </si>
-  <si>
-    <t>PHY_CUP</t>
-  </si>
-  <si>
-    <t>PHY_PAR</t>
-  </si>
-  <si>
-    <t>PHY_TPHYS</t>
-  </si>
-  <si>
-    <t>PHY_IN</t>
-  </si>
-  <si>
-    <t>PHY_IP</t>
-  </si>
-  <si>
-    <t>PHY_MBP</t>
-  </si>
-  <si>
-    <t>PHY_BPP</t>
-  </si>
-  <si>
-    <t>PHY_BCP</t>
-  </si>
-  <si>
-    <t>PHY_MPBV</t>
-  </si>
-  <si>
     <t>diag_level = 10+</t>
   </si>
   <si>
-    <t>PHY_PPR</t>
-  </si>
-  <si>
-    <t>PHY_NPR</t>
-  </si>
-  <si>
     <t>activated when `do_mpb &gt;0`</t>
   </si>
   <si>
-    <t>PHY_{group}_vvel</t>
-  </si>
-  <si>
-    <t>PHY_{Group}_NtoP</t>
-  </si>
-  <si>
-    <t>phytoplankton areal sedimentation flux</t>
-  </si>
-  <si>
-    <t>gross phytoplankton primary production</t>
-  </si>
-  <si>
     <t>net phytoplankton community production</t>
   </si>
   <si>
@@ -3842,12 +3768,6 @@
     <t>microphytobenthos vertical exchange</t>
   </si>
   <si>
-    <t>phytoplankton growth limitation functions for `group`</t>
-  </si>
-  <si>
-    <t>phytoplankton sedimentation velocity for `group`</t>
-  </si>
-  <si>
     <t>total phytoplankton community concentration</t>
   </si>
   <si>
@@ -3860,19 +3780,550 @@
     <t>photosynthetically active radiation</t>
   </si>
   <si>
-    <t>$I_{PAR}$</t>
-  </si>
-  <si>
-    <t>phytoplankton internal N:P ratio for `group`</t>
-  </si>
-  <si>
     <t>\mu g \, /L</t>
   </si>
   <si>
-    <t>PHY_Psed_phy</t>
-  </si>
-  <si>
-    <t>W\m^2</t>
+    <t>\mathbf{PHY}</t>
+  </si>
+  <si>
+    <t>\mathbf{PHY_N}</t>
+  </si>
+  <si>
+    <t>\mathbf{PHY_P}</t>
+  </si>
+  <si>
+    <t>\mathbf{PHY_{\rho}}</t>
+  </si>
+  <si>
+    <t>\mathbf{MPB}</t>
+  </si>
+  <si>
+    <t>0-20</t>
+  </si>
+  <si>
+    <t>900-1200</t>
+  </si>
+  <si>
+    <t>\mathbf{\mathcal{F}}_{resus}</t>
+  </si>
+  <si>
+    <t>phytoplankton group mean cell density</t>
+  </si>
+  <si>
+    <t>kg\: C/m^3</t>
+  </si>
+  <si>
+    <t>f_{gpp}^{PHY}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activated for a group when `settling=3` </t>
+  </si>
+  <si>
+    <t>activated when `simINDynamics` $\gt 1$</t>
+  </si>
+  <si>
+    <t>activated when `simIPDynamics` $\gt 1$</t>
+  </si>
+  <si>
+    <t>activated when `do_mpb` $\gt 0$</t>
+  </si>
+  <si>
+    <t>reactive silica concentration</t>
+  </si>
+  <si>
+    <t>\mathbf{\chi_{N:P}^{PHY}}</t>
+  </si>
+  <si>
+    <t>PHY_set</t>
+  </si>
+  <si>
+    <t>PHY_res</t>
+  </si>
+  <si>
+    <t>PHY_tchla</t>
+  </si>
+  <si>
+    <t>PHY_in</t>
+  </si>
+  <si>
+    <t>PHY_ip</t>
+  </si>
+  <si>
+    <t>PHY_gpp</t>
+  </si>
+  <si>
+    <t>PHY_ncp</t>
+  </si>
+  <si>
+    <t>PHY_upt_no3</t>
+  </si>
+  <si>
+    <t>PHY_upt_nh4</t>
+  </si>
+  <si>
+    <t>PHY_upt_n2</t>
+  </si>
+  <si>
+    <t>PHY_upt_po4</t>
+  </si>
+  <si>
+    <t>PHY_upt_dic</t>
+  </si>
+  <si>
+    <t>PHY_par</t>
+  </si>
+  <si>
+    <t>PHY_tphy</t>
+  </si>
+  <si>
+    <t>PHY_ppr</t>
+  </si>
+  <si>
+    <t>PHY_npr</t>
+  </si>
+  <si>
+    <t>PHY_mpb_ben</t>
+  </si>
+  <si>
+    <t>PHY_mpb_gpp</t>
+  </si>
+  <si>
+    <t>PHY_mpb_rsp</t>
+  </si>
+  <si>
+    <t>PHY_mpb_swi</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>W/m^2</t>
+  </si>
+  <si>
+    <t>0-1200</t>
+  </si>
+  <si>
+    <t>0 - 1.5</t>
+  </si>
+  <si>
+    <t>PHY_{name}_NtoP</t>
+  </si>
+  <si>
+    <t>PHY_{name}_vvel</t>
+  </si>
+  <si>
+    <t>PHY_{name}_gpp_c</t>
+  </si>
+  <si>
+    <t>PHY_{name}_rsp_c</t>
+  </si>
+  <si>
+    <t>PHY_{name}_exc_c</t>
+  </si>
+  <si>
+    <t>PHY_{name}_mor_c</t>
+  </si>
+  <si>
+    <t>PHY_{name}_set_c</t>
+  </si>
+  <si>
+    <t>PHY_{name}_gpp_n</t>
+  </si>
+  <si>
+    <t>PHY_{name}_rsp_n</t>
+  </si>
+  <si>
+    <t>PHY_{name}_exc_n</t>
+  </si>
+  <si>
+    <t>PHY_{name}_mor_n</t>
+  </si>
+  <si>
+    <t>PHY_{name}_set_n</t>
+  </si>
+  <si>
+    <t>PHY_{name}_gpp_p</t>
+  </si>
+  <si>
+    <t>PHY_{name}_rsp_p</t>
+  </si>
+  <si>
+    <t>PHY_{name}_exc_p</t>
+  </si>
+  <si>
+    <t>PHY_{name}_mor_p</t>
+  </si>
+  <si>
+    <t>PHY_{name}_fI</t>
+  </si>
+  <si>
+    <t>PHY_{name}_fNit</t>
+  </si>
+  <si>
+    <t>PHY_{name}_fPho</t>
+  </si>
+  <si>
+    <t>PHY_{name}_fSil</t>
+  </si>
+  <si>
+    <t>PHY_{name}_fT</t>
+  </si>
+  <si>
+    <t>PHY_{name}_fSal</t>
+  </si>
+  <si>
+    <t>phytoplankton growth limitation functions for the group `name`</t>
+  </si>
+  <si>
+    <t>phytoplankton sedimentation velocity for the group `name`</t>
+  </si>
+  <si>
+    <t>phytoplankton internal N:P ratio or the group `name`</t>
+  </si>
+  <si>
+    <t>phytoplankton community n2 uptake rate</t>
+  </si>
+  <si>
+    <t>gross phytoplankton community  primary production rate</t>
+  </si>
+  <si>
+    <t>phytoplankton community sedimentation flux</t>
+  </si>
+  <si>
+    <t>phytoplankton community resuspension flux</t>
+  </si>
+  <si>
+    <t>phytoplankton gross primary production for the group `name`</t>
+  </si>
+  <si>
+    <t>PHY_{name}_set_p</t>
+  </si>
+  <si>
+    <t>phytoplankton respiration rate for the group `name`</t>
+  </si>
+  <si>
+    <t>phytoplankton excretion rate for the group `name`</t>
+  </si>
+  <si>
+    <t>phytoplankton mortality rate for the group `name`</t>
+  </si>
+  <si>
+    <t>phytoplankton sedimentation rate for the group `name`</t>
+  </si>
+  <si>
+    <t>0-10000</t>
+  </si>
+  <si>
+    <t>I_{PAR}</t>
+  </si>
+  <si>
+    <t>p_initial</t>
+  </si>
+  <si>
+    <t>p0</t>
+  </si>
+  <si>
+    <t>fT_Method</t>
+  </si>
+  <si>
+    <t>lightModel</t>
+  </si>
+  <si>
+    <t>KePHY</t>
+  </si>
+  <si>
+    <t>k_fres</t>
+  </si>
+  <si>
+    <t>salTol</t>
+  </si>
+  <si>
+    <t>simDINUptake</t>
+  </si>
+  <si>
+    <t>simDONUptake</t>
+  </si>
+  <si>
+    <t>simNFixation</t>
+  </si>
+  <si>
+    <t>simINDynamics</t>
+  </si>
+  <si>
+    <t>simDIPUptake</t>
+  </si>
+  <si>
+    <t>simIPDynamics</t>
+  </si>
+  <si>
+    <t>simSiUptake</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>d_phy</t>
+  </si>
+  <si>
+    <t>PHY |_{t=0}</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>p_name</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>PHY_0</t>
+  </si>
+  <si>
+    <t>user specified name of chosen phytoplankton group, $a$</t>
+  </si>
+  <si>
+    <t>\omega_{phy}</t>
+  </si>
+  <si>
+    <t>1-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sedimentation rate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum concentration of phytoplankton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">initial concentration of phytoplankton </t>
+  </si>
+  <si>
+    <t>name of phytoplankton group</t>
+  </si>
+  <si>
+    <t>-1 - 1</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Respiration</t>
+  </si>
+  <si>
+    <t>Salinity</t>
+  </si>
+  <si>
+    <t>Settling</t>
+  </si>
+  <si>
+    <t>R_{growth}^{PHY}</t>
+  </si>
+  <si>
+    <t>\chi_{C:chla}^{PHY}</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">used if $\Theta_{set}^{phy}$ is 1 or 2 </t>
+  </si>
+  <si>
+    <t>used if $\Theta_{set}^{phy}$ is 3</t>
+  </si>
+  <si>
+    <t>used if $\Theta_{set}^{phy}$ is 4</t>
+  </si>
+  <si>
+    <t>\Theta_{set}^{phy}</t>
+  </si>
+  <si>
+    <t>\Theta_{resus}^{phy}</t>
+  </si>
+  <si>
+    <t>\Theta_{tem}^{phy}</t>
+  </si>
+  <si>
+    <t>\Theta_{lgt}^{phy}</t>
+  </si>
+  <si>
+    <t>\Theta_{sal}^{phy}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon to chlorophyll ratio </t>
+  </si>
+  <si>
+    <t>phytoplankton group maximum growth rate @20C</t>
+  </si>
+  <si>
+    <t>specifies temperature limitation function of growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 = no temperature limitation 1= CAEDYM style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrenhius temperature scaling for growth function </t>
+  </si>
+  <si>
+    <t>0.1 - 5.0</t>
+  </si>
+  <si>
+    <t>10 - 1000</t>
+  </si>
+  <si>
+    <t>mg\: C/mg\: chla</t>
+  </si>
+  <si>
+    <t>standard temperature</t>
+  </si>
+  <si>
+    <t>optimum temperature</t>
+  </si>
+  <si>
+    <t>maximum temperature</t>
+  </si>
+  <si>
+    <t>switch to assign the type of light response function</t>
+  </si>
+  <si>
+    <t>K_e</t>
+  </si>
+  <si>
+    <t>f_{pr}</t>
+  </si>
+  <si>
+    <t>R_{resp}^{PHY}</t>
+  </si>
+  <si>
+    <t>\theta_{resp}^{phy}</t>
+  </si>
+  <si>
+    <t>\theta_{growth}^{phy}</t>
+  </si>
+  <si>
+    <t>T_{std}</t>
+  </si>
+  <si>
+    <t>T_{opt}</t>
+  </si>
+  <si>
+    <t>T_{max}</t>
+  </si>
+  <si>
+    <t>k_{fres}</t>
+  </si>
+  <si>
+    <t>k_{fdom}</t>
+  </si>
+  <si>
+    <t>S_{bep}</t>
+  </si>
+  <si>
+    <t>S_{maxsp}</t>
+  </si>
+  <si>
+    <t>S_{opt}</t>
+  </si>
+  <si>
+    <t>\Theta_{din}^{phy}</t>
+  </si>
+  <si>
+    <t>\Theta_{don}^{phy}</t>
+  </si>
+  <si>
+    <t>\Theta_{n2}^{phy}</t>
+  </si>
+  <si>
+    <t>\Theta_{in}^{phy}</t>
+  </si>
+  <si>
+    <t>\chi_{nmin}^{PHY}</t>
+  </si>
+  <si>
+    <t>\chi_{ncon}^{PHY}</t>
+  </si>
+  <si>
+    <t>\chi_{nmax}^{PHY}</t>
+  </si>
+  <si>
+    <t>R_{nuptake}^{PHY}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">half saturation constant for light limitation of growth </t>
+  </si>
+  <si>
+    <t>saturating light intensity</t>
+  </si>
+  <si>
+    <t>used if $\Theta_{lgt}^{phy}$ is 1</t>
+  </si>
+  <si>
+    <t>used if $\Theta_{lgt}^{phy}$ is 0</t>
+  </si>
+  <si>
+    <t>k_{nfix}</t>
+  </si>
+  <si>
+    <t>R_{nfix}^{PHY}</t>
+  </si>
+  <si>
+    <t>\Theta_{dip}^{phy}</t>
+  </si>
+  <si>
+    <t>\Theta_{ip}^{phy}</t>
+  </si>
+  <si>
+    <t>P_o</t>
+  </si>
+  <si>
+    <t>\chi_{pcon}^{PHY}</t>
+  </si>
+  <si>
+    <t>\chi_{pmin}^{PHY}</t>
+  </si>
+  <si>
+    <t>\chi_{pmax}^{PHY}</t>
+  </si>
+  <si>
+    <t>R_{puptake}^{PHY}</t>
+  </si>
+  <si>
+    <t>c_1</t>
+  </si>
+  <si>
+    <t>c_3</t>
+  </si>
+  <si>
+    <t>f_1</t>
+  </si>
+  <si>
+    <t>f_2</t>
+  </si>
+  <si>
+    <t>d_{phy}</t>
+  </si>
+  <si>
+    <t>\chi_{sicon}^{PHY}</t>
+  </si>
+  <si>
+    <t>K_{Si}</t>
+  </si>
+  <si>
+    <t>Si_o</t>
+  </si>
+  <si>
+    <t>\Theta_{si}^{phy}</t>
   </si>
 </sst>
 </file>
@@ -4303,7 +4754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
@@ -4666,7 +5117,16 @@
     <xf numFmtId="49" fontId="9" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7749,8 +8209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EFC841-C7C7-094F-9A23-9203CD86122A}">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A74" zoomScale="127" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10789,10 +11249,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005F3198-C033-B548-8CE3-0194F9495F17}">
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="102" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10845,13 +11305,13 @@
         <v>1160</v>
       </c>
       <c r="C2" s="117" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D2" s="117" t="s">
-        <v>806</v>
+        <v>1190</v>
       </c>
       <c r="E2" s="99" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F2" s="99" t="s">
         <v>580</v>
@@ -10859,9 +11319,11 @@
       <c r="G2" s="135" t="s">
         <v>456</v>
       </c>
-      <c r="H2" s="126"/>
+      <c r="H2" s="126" t="s">
+        <v>901</v>
+      </c>
       <c r="I2" s="100" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -10872,13 +11334,13 @@
         <v>1160</v>
       </c>
       <c r="C3" s="117" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D3" s="117" t="s">
-        <v>807</v>
+        <v>1191</v>
       </c>
       <c r="E3" s="99" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F3" s="99" t="s">
         <v>828</v>
@@ -10890,7 +11352,7 @@
         <v>443</v>
       </c>
       <c r="I3" s="100" t="s">
-        <v>1173</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -10901,13 +11363,13 @@
         <v>1160</v>
       </c>
       <c r="C4" s="117" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D4" s="117" t="s">
-        <v>808</v>
+        <v>1192</v>
       </c>
       <c r="E4" s="99" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F4" s="99" t="s">
         <v>721</v>
@@ -10916,10 +11378,10 @@
         <v>456</v>
       </c>
       <c r="H4" s="126" t="s">
-        <v>444</v>
+        <v>1195</v>
       </c>
       <c r="I4" s="100" t="s">
-        <v>1172</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -10930,25 +11392,25 @@
         <v>1160</v>
       </c>
       <c r="C5" s="169" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D5" s="117" t="s">
-        <v>809</v>
+        <v>1193</v>
       </c>
       <c r="E5" s="99" t="s">
-        <v>827</v>
+        <v>1198</v>
       </c>
       <c r="F5" s="99" t="s">
-        <v>580</v>
+        <v>1199</v>
       </c>
       <c r="G5" s="135" t="s">
         <v>456</v>
       </c>
       <c r="H5" s="126" t="s">
-        <v>508</v>
-      </c>
-      <c r="I5" s="171" t="s">
-        <v>843</v>
+        <v>1196</v>
+      </c>
+      <c r="I5" s="100" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -10959,10 +11421,10 @@
         <v>1160</v>
       </c>
       <c r="C6" s="169" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D6" s="117" t="s">
-        <v>809</v>
+        <v>1194</v>
       </c>
       <c r="E6" s="99" t="s">
         <v>827</v>
@@ -10974,10 +11436,10 @@
         <v>457</v>
       </c>
       <c r="H6" s="126" t="s">
-        <v>508</v>
-      </c>
-      <c r="I6" s="171" t="s">
-        <v>843</v>
+        <v>364</v>
+      </c>
+      <c r="I6" s="100" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -11294,13 +11756,19 @@
       <c r="D18" s="117" t="s">
         <v>1133</v>
       </c>
-      <c r="E18" s="99"/>
+      <c r="E18" s="99" t="s">
+        <v>1205</v>
+      </c>
       <c r="F18" s="99" t="s">
         <v>1155</v>
       </c>
-      <c r="G18" s="135"/>
+      <c r="G18" s="135" t="s">
+        <v>456</v>
+      </c>
       <c r="H18" s="126"/>
-      <c r="I18" s="101"/>
+      <c r="I18" s="101" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="116" t="s">
@@ -11313,7 +11781,7 @@
         <v>799</v>
       </c>
       <c r="D19" s="117" t="s">
-        <v>1162</v>
+        <v>1197</v>
       </c>
       <c r="E19" s="99" t="s">
         <v>838</v>
@@ -11339,13 +11807,17 @@
         <v>468</v>
       </c>
       <c r="C20" s="119" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D20" s="119"/>
+        <v>1207</v>
+      </c>
+      <c r="D20" s="119" t="s">
+        <v>9</v>
+      </c>
       <c r="E20" s="119" t="s">
-        <v>1217</v>
-      </c>
-      <c r="F20" s="102"/>
+        <v>1258</v>
+      </c>
+      <c r="F20" s="102" t="s">
+        <v>582</v>
+      </c>
       <c r="G20" s="136" t="s">
         <v>456</v>
       </c>
@@ -11360,13 +11832,17 @@
         <v>468</v>
       </c>
       <c r="C21" s="119" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D21" s="119"/>
+        <v>1208</v>
+      </c>
+      <c r="D21" s="119" t="s">
+        <v>9</v>
+      </c>
       <c r="E21" s="119" t="s">
-        <v>1196</v>
-      </c>
-      <c r="F21" s="102"/>
+        <v>1259</v>
+      </c>
+      <c r="F21" s="102" t="s">
+        <v>583</v>
+      </c>
       <c r="G21" s="136" t="s">
         <v>456</v>
       </c>
@@ -11381,13 +11857,17 @@
         <v>468</v>
       </c>
       <c r="C22" s="119" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D22" s="119"/>
+        <v>1212</v>
+      </c>
+      <c r="D22" s="119" t="s">
+        <v>1200</v>
+      </c>
       <c r="E22" s="119" t="s">
-        <v>1197</v>
-      </c>
-      <c r="F22" s="102"/>
+        <v>1257</v>
+      </c>
+      <c r="F22" s="102" t="s">
+        <v>582</v>
+      </c>
       <c r="G22" s="136" t="s">
         <v>456</v>
       </c>
@@ -11402,13 +11882,17 @@
         <v>468</v>
       </c>
       <c r="C23" s="119" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D23" s="119"/>
+        <v>1213</v>
+      </c>
+      <c r="D23" s="119" t="s">
+        <v>9</v>
+      </c>
       <c r="E23" s="119" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F23" s="102"/>
+        <v>1173</v>
+      </c>
+      <c r="F23" s="102" t="s">
+        <v>582</v>
+      </c>
       <c r="G23" s="136" t="s">
         <v>456</v>
       </c>
@@ -11420,16 +11904,20 @@
         <v>419</v>
       </c>
       <c r="B24" s="118" t="s">
-        <v>468</v>
-      </c>
-      <c r="C24" s="119" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D24" s="119"/>
+        <v>863</v>
+      </c>
+      <c r="C24" s="182" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D24" s="119" t="s">
+        <v>9</v>
+      </c>
       <c r="E24" s="119" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F24" s="102"/>
+        <v>1174</v>
+      </c>
+      <c r="F24" s="102" t="s">
+        <v>896</v>
+      </c>
       <c r="G24" s="136" t="s">
         <v>456</v>
       </c>
@@ -11441,16 +11929,20 @@
         <v>419</v>
       </c>
       <c r="B25" s="118" t="s">
-        <v>468</v>
-      </c>
-      <c r="C25" s="119" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D25" s="119"/>
+        <v>863</v>
+      </c>
+      <c r="C25" s="182" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D25" s="119" t="s">
+        <v>9</v>
+      </c>
       <c r="E25" s="119" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F25" s="102"/>
+        <v>1175</v>
+      </c>
+      <c r="F25" s="102" t="s">
+        <v>896</v>
+      </c>
       <c r="G25" s="136" t="s">
         <v>456</v>
       </c>
@@ -11462,16 +11954,20 @@
         <v>419</v>
       </c>
       <c r="B26" s="118" t="s">
-        <v>468</v>
-      </c>
-      <c r="C26" s="119" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D26" s="119"/>
+        <v>863</v>
+      </c>
+      <c r="C26" s="182" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D26" s="119" t="s">
+        <v>9</v>
+      </c>
       <c r="E26" s="119" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F26" s="102"/>
+        <v>1256</v>
+      </c>
+      <c r="F26" s="102" t="s">
+        <v>896</v>
+      </c>
       <c r="G26" s="136" t="s">
         <v>456</v>
       </c>
@@ -11483,16 +11979,20 @@
         <v>419</v>
       </c>
       <c r="B27" s="118" t="s">
-        <v>468</v>
-      </c>
-      <c r="C27" s="119" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D27" s="119"/>
+        <v>863</v>
+      </c>
+      <c r="C27" s="182" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D27" s="119" t="s">
+        <v>9</v>
+      </c>
       <c r="E27" s="119" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F27" s="102"/>
+        <v>1176</v>
+      </c>
+      <c r="F27" s="102" t="s">
+        <v>897</v>
+      </c>
       <c r="G27" s="136" t="s">
         <v>456</v>
       </c>
@@ -11504,17 +12004,19 @@
         <v>419</v>
       </c>
       <c r="B28" s="118" t="s">
-        <v>468</v>
-      </c>
-      <c r="C28" s="119" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D28" s="119"/>
+        <v>863</v>
+      </c>
+      <c r="C28" s="182" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D28" s="119" t="s">
+        <v>9</v>
+      </c>
       <c r="E28" s="119" t="s">
-        <v>1203</v>
+        <v>1177</v>
       </c>
       <c r="F28" s="102" t="s">
-        <v>1218</v>
+        <v>582</v>
       </c>
       <c r="G28" s="136" t="s">
         <v>456</v>
@@ -11530,14 +12032,16 @@
         <v>468</v>
       </c>
       <c r="C29" s="119" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D29" s="119"/>
+        <v>1209</v>
+      </c>
+      <c r="D29" s="119" t="s">
+        <v>9</v>
+      </c>
       <c r="E29" s="119" t="s">
-        <v>1204</v>
+        <v>1178</v>
       </c>
       <c r="F29" s="102" t="s">
-        <v>896</v>
+        <v>1189</v>
       </c>
       <c r="G29" s="136" t="s">
         <v>456</v>
@@ -11553,14 +12057,16 @@
         <v>468</v>
       </c>
       <c r="C30" s="119" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D30" s="119"/>
+        <v>1210</v>
+      </c>
+      <c r="D30" s="119" t="s">
+        <v>9</v>
+      </c>
       <c r="E30" s="119" t="s">
-        <v>1205</v>
+        <v>1179</v>
       </c>
       <c r="F30" s="102" t="s">
-        <v>897</v>
+        <v>828</v>
       </c>
       <c r="G30" s="136" t="s">
         <v>456</v>
@@ -11576,22 +12082,22 @@
         <v>468</v>
       </c>
       <c r="C31" s="119" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D31" s="119"/>
+        <v>1211</v>
+      </c>
+      <c r="D31" s="119" t="s">
+        <v>9</v>
+      </c>
       <c r="E31" s="119" t="s">
-        <v>1206</v>
+        <v>1180</v>
       </c>
       <c r="F31" s="102" t="s">
-        <v>893</v>
+        <v>721</v>
       </c>
       <c r="G31" s="136" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H31" s="128"/>
-      <c r="I31" s="104" t="s">
-        <v>1193</v>
-      </c>
+      <c r="I31" s="104"/>
     </row>
     <row r="32" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="118" t="s">
@@ -11601,19 +12107,25 @@
         <v>468</v>
       </c>
       <c r="C32" s="119" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D32" s="119"/>
+        <v>1223</v>
+      </c>
+      <c r="D32" s="119" t="s">
+        <v>9</v>
+      </c>
       <c r="E32" s="119" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F32" s="102"/>
+        <v>1181</v>
+      </c>
+      <c r="F32" s="102" t="s">
+        <v>893</v>
+      </c>
       <c r="G32" s="136" t="s">
         <v>457</v>
       </c>
-      <c r="H32" s="128"/>
+      <c r="H32" s="128" t="s">
+        <v>1266</v>
+      </c>
       <c r="I32" s="104" t="s">
-        <v>1193</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -11624,19 +12136,23 @@
         <v>468</v>
       </c>
       <c r="C33" s="119" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D33" s="119"/>
+        <v>1224</v>
+      </c>
+      <c r="D33" s="119" t="s">
+        <v>9</v>
+      </c>
       <c r="E33" s="119" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F33" s="102"/>
+        <v>1182</v>
+      </c>
+      <c r="F33" s="102" t="s">
+        <v>583</v>
+      </c>
       <c r="G33" s="136" t="s">
         <v>457</v>
       </c>
       <c r="H33" s="128"/>
       <c r="I33" s="104" t="s">
-        <v>1193</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -11647,19 +12163,23 @@
         <v>468</v>
       </c>
       <c r="C34" s="119" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D34" s="119"/>
+        <v>1225</v>
+      </c>
+      <c r="D34" s="119" t="s">
+        <v>9</v>
+      </c>
       <c r="E34" s="119" t="s">
-        <v>1209</v>
-      </c>
-      <c r="F34" s="102"/>
+        <v>1183</v>
+      </c>
+      <c r="F34" s="102" t="s">
+        <v>583</v>
+      </c>
       <c r="G34" s="136" t="s">
         <v>457</v>
       </c>
       <c r="H34" s="128"/>
       <c r="I34" s="104" t="s">
-        <v>1193</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -11667,37 +12187,47 @@
         <v>419</v>
       </c>
       <c r="B35" s="118" t="s">
-        <v>1190</v>
+        <v>468</v>
       </c>
       <c r="C35" s="119" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D35" s="119"/>
+        <v>1226</v>
+      </c>
+      <c r="D35" s="119" t="s">
+        <v>9</v>
+      </c>
       <c r="E35" s="119" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F35" s="102"/>
+        <v>1184</v>
+      </c>
+      <c r="F35" s="102" t="s">
+        <v>583</v>
+      </c>
       <c r="G35" s="136" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H35" s="128"/>
-      <c r="I35" s="104"/>
+      <c r="I35" s="104" t="s">
+        <v>1172</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B36" s="118" t="s">
-        <v>1190</v>
+        <v>468</v>
       </c>
       <c r="C36" s="119" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D36" s="119"/>
+        <v>1231</v>
+      </c>
+      <c r="D36" s="119" t="s">
+        <v>1206</v>
+      </c>
       <c r="E36" s="119" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F36" s="102"/>
+        <v>1255</v>
+      </c>
+      <c r="F36" s="102" t="s">
+        <v>9</v>
+      </c>
       <c r="G36" s="136" t="s">
         <v>456</v>
       </c>
@@ -11708,18 +12238,20 @@
       <c r="A37" s="118" t="s">
         <v>419</v>
       </c>
-      <c r="B37" s="182" t="s">
-        <v>1190</v>
+      <c r="B37" s="118" t="s">
+        <v>1171</v>
       </c>
       <c r="C37" s="119" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D37" s="119"/>
+        <v>1232</v>
+      </c>
+      <c r="D37" s="119" t="s">
+        <v>9</v>
+      </c>
       <c r="E37" s="119" t="s">
-        <v>1212</v>
+        <v>1254</v>
       </c>
       <c r="F37" s="102" t="s">
-        <v>582</v>
+        <v>217</v>
       </c>
       <c r="G37" s="136" t="s">
         <v>456</v>
@@ -11727,66 +12259,74 @@
       <c r="H37" s="128"/>
       <c r="I37" s="104"/>
     </row>
-    <row r="38" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B38" s="118" t="s">
-        <v>1190</v>
+        <v>1171</v>
       </c>
       <c r="C38" s="119" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D38" s="119"/>
+        <v>1233</v>
+      </c>
+      <c r="D38" s="119" t="s">
+        <v>9</v>
+      </c>
       <c r="E38" s="119" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F38" s="102"/>
+        <v>1260</v>
+      </c>
+      <c r="F38" s="102" t="s">
+        <v>582</v>
+      </c>
       <c r="G38" s="136" t="s">
         <v>456</v>
       </c>
       <c r="H38" s="128"/>
       <c r="I38" s="104"/>
     </row>
-    <row r="39" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B39" s="118" t="s">
-        <v>1190</v>
+        <v>1171</v>
       </c>
       <c r="C39" s="119" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D39" s="119"/>
+        <v>1234</v>
+      </c>
+      <c r="D39" s="119" t="s">
+        <v>9</v>
+      </c>
       <c r="E39" s="119" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F39" s="102"/>
+        <v>1262</v>
+      </c>
+      <c r="F39" s="102" t="s">
+        <v>582</v>
+      </c>
       <c r="G39" s="136" t="s">
         <v>456</v>
       </c>
       <c r="H39" s="128"/>
       <c r="I39" s="104"/>
     </row>
-    <row r="40" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="118" t="s">
         <v>419</v>
       </c>
-      <c r="B40" s="182" t="s">
-        <v>1190</v>
+      <c r="B40" s="118" t="s">
+        <v>1171</v>
       </c>
       <c r="C40" s="119" t="s">
-        <v>1182</v>
+        <v>1235</v>
       </c>
       <c r="D40" s="119" t="s">
-        <v>1216</v>
+        <v>9</v>
       </c>
       <c r="E40" s="119" t="s">
-        <v>1215</v>
+        <v>1263</v>
       </c>
       <c r="F40" s="102" t="s">
-        <v>1220</v>
+        <v>582</v>
       </c>
       <c r="G40" s="136" t="s">
         <v>456</v>
@@ -11794,14 +12334,28 @@
       <c r="H40" s="128"/>
       <c r="I40" s="104"/>
     </row>
-    <row r="41" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="118"/>
-      <c r="B41" s="182"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="136"/>
+    <row r="41" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B41" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C41" s="119" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D41" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="119" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F41" s="102" t="s">
+        <v>582</v>
+      </c>
+      <c r="G41" s="136" t="s">
+        <v>456</v>
+      </c>
       <c r="H41" s="128"/>
       <c r="I41" s="104"/>
     </row>
@@ -11810,166 +12364,266 @@
         <v>419</v>
       </c>
       <c r="B42" s="118" t="s">
-        <v>468</v>
-      </c>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="136"/>
+        <v>1171</v>
+      </c>
+      <c r="C42" s="119" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D42" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="138" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F42" s="102" t="s">
+        <v>582</v>
+      </c>
+      <c r="G42" s="136" t="s">
+        <v>456</v>
+      </c>
       <c r="H42" s="128"/>
       <c r="I42" s="104"/>
     </row>
-    <row r="43" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B43" s="118" t="s">
-        <v>468</v>
-      </c>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="136"/>
+        <v>1171</v>
+      </c>
+      <c r="C43" s="119" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D43" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="119" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F43" s="102" t="s">
+        <v>828</v>
+      </c>
+      <c r="G43" s="136" t="s">
+        <v>456</v>
+      </c>
       <c r="H43" s="128"/>
       <c r="I43" s="104"/>
     </row>
-    <row r="44" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B44" s="118" t="s">
-        <v>863</v>
-      </c>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="136"/>
+        <v>1171</v>
+      </c>
+      <c r="C44" s="119" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D44" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="119" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F44" s="102" t="s">
+        <v>828</v>
+      </c>
+      <c r="G44" s="136" t="s">
+        <v>456</v>
+      </c>
       <c r="H44" s="128"/>
       <c r="I44" s="104"/>
     </row>
-    <row r="45" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B45" s="118" t="s">
-        <v>863</v>
-      </c>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="136"/>
+        <v>1171</v>
+      </c>
+      <c r="C45" s="119" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D45" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="119" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F45" s="102" t="s">
+        <v>828</v>
+      </c>
+      <c r="G45" s="136" t="s">
+        <v>456</v>
+      </c>
       <c r="H45" s="128"/>
       <c r="I45" s="104"/>
     </row>
-    <row r="46" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B46" s="118" t="s">
-        <v>863</v>
-      </c>
-      <c r="C46" s="138"/>
-      <c r="D46" s="119"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="136"/>
+        <v>1171</v>
+      </c>
+      <c r="C46" s="119" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D46" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="119" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F46" s="102" t="s">
+        <v>828</v>
+      </c>
+      <c r="G46" s="136" t="s">
+        <v>456</v>
+      </c>
       <c r="H46" s="128"/>
       <c r="I46" s="104"/>
     </row>
-    <row r="47" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B47" s="118" t="s">
-        <v>469</v>
-      </c>
-      <c r="C47" s="119"/>
-      <c r="D47" s="119"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="136"/>
+        <v>1171</v>
+      </c>
+      <c r="C47" s="119" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D47" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="138" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F47" s="102" t="s">
+        <v>828</v>
+      </c>
+      <c r="G47" s="136" t="s">
+        <v>456</v>
+      </c>
       <c r="H47" s="128"/>
       <c r="I47" s="104"/>
     </row>
-    <row r="48" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B48" s="118" t="s">
-        <v>469</v>
-      </c>
-      <c r="C48" s="119"/>
-      <c r="D48" s="119"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="136"/>
+        <v>1171</v>
+      </c>
+      <c r="C48" s="119" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D48" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="119" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F48" s="102" t="s">
+        <v>897</v>
+      </c>
+      <c r="G48" s="136" t="s">
+        <v>456</v>
+      </c>
       <c r="H48" s="128"/>
       <c r="I48" s="104"/>
     </row>
-    <row r="49" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B49" s="118" t="s">
-        <v>469</v>
-      </c>
-      <c r="C49" s="119"/>
-      <c r="D49" s="119"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="136"/>
+        <v>1171</v>
+      </c>
+      <c r="C49" s="119" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D49" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="119" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F49" s="102" t="s">
+        <v>897</v>
+      </c>
+      <c r="G49" s="136" t="s">
+        <v>456</v>
+      </c>
       <c r="H49" s="128"/>
       <c r="I49" s="104"/>
     </row>
-    <row r="50" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B50" s="118" t="s">
-        <v>469</v>
-      </c>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="136"/>
+        <v>1171</v>
+      </c>
+      <c r="C50" s="119" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D50" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="119" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F50" s="102" t="s">
+        <v>897</v>
+      </c>
+      <c r="G50" s="136" t="s">
+        <v>456</v>
+      </c>
       <c r="H50" s="128"/>
       <c r="I50" s="104"/>
     </row>
-    <row r="51" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B51" s="118" t="s">
-        <v>469</v>
-      </c>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="136"/>
+        <v>1171</v>
+      </c>
+      <c r="C51" s="119" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D51" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="119" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F51" s="102" t="s">
+        <v>897</v>
+      </c>
+      <c r="G51" s="136" t="s">
+        <v>456</v>
+      </c>
       <c r="H51" s="128"/>
       <c r="I51" s="104"/>
     </row>
-    <row r="52" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B52" s="118" t="s">
-        <v>469</v>
+        <v>1171</v>
       </c>
       <c r="C52" s="119" t="s">
-        <v>788</v>
+        <v>1261</v>
       </c>
       <c r="D52" s="119" t="s">
-        <v>872</v>
-      </c>
-      <c r="E52" s="102" t="s">
-        <v>1019</v>
+        <v>9</v>
+      </c>
+      <c r="E52" s="138" t="s">
+        <v>1265</v>
       </c>
       <c r="F52" s="102" t="s">
         <v>897</v>
@@ -11980,79 +12634,85 @@
       <c r="H52" s="128"/>
       <c r="I52" s="104"/>
     </row>
-    <row r="53" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B53" s="118" t="s">
-        <v>469</v>
+        <v>1171</v>
       </c>
       <c r="C53" s="119" t="s">
-        <v>847</v>
+        <v>1247</v>
       </c>
       <c r="D53" s="119" t="s">
-        <v>873</v>
-      </c>
-      <c r="E53" s="102" t="s">
-        <v>1020</v>
+        <v>9</v>
+      </c>
+      <c r="E53" s="119" t="s">
+        <v>1253</v>
       </c>
       <c r="F53" s="102" t="s">
-        <v>582</v>
+        <v>9</v>
       </c>
       <c r="G53" s="136" t="s">
         <v>456</v>
       </c>
-      <c r="H53" s="128"/>
+      <c r="H53" s="128" t="s">
+        <v>428</v>
+      </c>
       <c r="I53" s="104"/>
     </row>
-    <row r="54" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B54" s="118" t="s">
-        <v>469</v>
+        <v>1171</v>
       </c>
       <c r="C54" s="119" t="s">
-        <v>848</v>
+        <v>1248</v>
       </c>
       <c r="D54" s="119" t="s">
-        <v>874</v>
-      </c>
-      <c r="E54" s="102" t="s">
-        <v>1021</v>
+        <v>9</v>
+      </c>
+      <c r="E54" s="119" t="s">
+        <v>1253</v>
       </c>
       <c r="F54" s="102" t="s">
-        <v>896</v>
+        <v>9</v>
       </c>
       <c r="G54" s="136" t="s">
         <v>456</v>
       </c>
-      <c r="H54" s="128"/>
+      <c r="H54" s="128" t="s">
+        <v>428</v>
+      </c>
       <c r="I54" s="104"/>
     </row>
-    <row r="55" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B55" s="118" t="s">
-        <v>469</v>
+        <v>1171</v>
       </c>
       <c r="C55" s="119" t="s">
-        <v>849</v>
+        <v>1249</v>
       </c>
       <c r="D55" s="119" t="s">
-        <v>875</v>
-      </c>
-      <c r="E55" s="102" t="s">
-        <v>1022</v>
+        <v>9</v>
+      </c>
+      <c r="E55" s="119" t="s">
+        <v>1253</v>
       </c>
       <c r="F55" s="102" t="s">
-        <v>897</v>
+        <v>9</v>
       </c>
       <c r="G55" s="136" t="s">
         <v>456</v>
       </c>
-      <c r="H55" s="128"/>
+      <c r="H55" s="128" t="s">
+        <v>428</v>
+      </c>
       <c r="I55" s="104"/>
     </row>
     <row r="56" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -12060,24 +12720,26 @@
         <v>419</v>
       </c>
       <c r="B56" s="118" t="s">
-        <v>469</v>
+        <v>1171</v>
       </c>
       <c r="C56" s="119" t="s">
-        <v>866</v>
-      </c>
-      <c r="D56" s="138" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E56" s="102" t="s">
-        <v>1055</v>
+        <v>1250</v>
+      </c>
+      <c r="D56" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="119" t="s">
+        <v>1253</v>
       </c>
       <c r="F56" s="102" t="s">
-        <v>582</v>
+        <v>9</v>
       </c>
       <c r="G56" s="136" t="s">
         <v>456</v>
       </c>
-      <c r="H56" s="128"/>
+      <c r="H56" s="128" t="s">
+        <v>428</v>
+      </c>
       <c r="I56" s="104"/>
     </row>
     <row r="57" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -12085,24 +12747,26 @@
         <v>419</v>
       </c>
       <c r="B57" s="118" t="s">
-        <v>469</v>
+        <v>1171</v>
       </c>
       <c r="C57" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="D57" s="138" t="s">
-        <v>876</v>
-      </c>
-      <c r="E57" s="102" t="s">
-        <v>1023</v>
+        <v>1251</v>
+      </c>
+      <c r="D57" s="183" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E57" s="119" t="s">
+        <v>1253</v>
       </c>
       <c r="F57" s="102" t="s">
-        <v>582</v>
+        <v>9</v>
       </c>
       <c r="G57" s="136" t="s">
         <v>456</v>
       </c>
-      <c r="H57" s="128"/>
+      <c r="H57" s="128" t="s">
+        <v>1230</v>
+      </c>
       <c r="I57" s="104"/>
     </row>
     <row r="58" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -12110,46 +12774,46 @@
         <v>419</v>
       </c>
       <c r="B58" s="118" t="s">
-        <v>469</v>
+        <v>1171</v>
       </c>
       <c r="C58" s="119" t="s">
-        <v>844</v>
-      </c>
-      <c r="D58" s="138" t="s">
-        <v>877</v>
-      </c>
-      <c r="E58" s="102" t="s">
-        <v>1024</v>
+        <v>1252</v>
+      </c>
+      <c r="D58" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="119" t="s">
+        <v>1253</v>
       </c>
       <c r="F58" s="102" t="s">
-        <v>582</v>
+        <v>9</v>
       </c>
       <c r="G58" s="136" t="s">
         <v>456</v>
       </c>
-      <c r="H58" s="128"/>
-      <c r="I58" s="104" t="s">
-        <v>1124</v>
-      </c>
+      <c r="H58" s="184" t="s">
+        <v>399</v>
+      </c>
+      <c r="I58" s="104"/>
     </row>
     <row r="59" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B59" s="118" t="s">
-        <v>469</v>
+        <v>1171</v>
       </c>
       <c r="C59" s="119" t="s">
-        <v>845</v>
-      </c>
-      <c r="D59" s="138" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E59" s="102" t="s">
-        <v>1025</v>
+        <v>1220</v>
+      </c>
+      <c r="D59" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="119" t="s">
+        <v>1185</v>
       </c>
       <c r="F59" s="102" t="s">
-        <v>217</v>
+        <v>582</v>
       </c>
       <c r="G59" s="136" t="s">
         <v>456</v>
@@ -12162,19 +12826,19 @@
         <v>419</v>
       </c>
       <c r="B60" s="118" t="s">
-        <v>469</v>
+        <v>1171</v>
       </c>
       <c r="C60" s="119" t="s">
-        <v>846</v>
-      </c>
-      <c r="D60" s="138" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E60" s="102" t="s">
-        <v>1026</v>
+        <v>1221</v>
+      </c>
+      <c r="D60" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="119" t="s">
+        <v>1186</v>
       </c>
       <c r="F60" s="102" t="s">
-        <v>217</v>
+        <v>9</v>
       </c>
       <c r="G60" s="136" t="s">
         <v>456</v>
@@ -12187,19 +12851,19 @@
         <v>419</v>
       </c>
       <c r="B61" s="118" t="s">
-        <v>469</v>
+        <v>1171</v>
       </c>
       <c r="C61" s="119" t="s">
-        <v>781</v>
+        <v>1222</v>
       </c>
       <c r="D61" s="119" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E61" s="102" t="s">
-        <v>1029</v>
+        <v>9</v>
+      </c>
+      <c r="E61" s="119" t="s">
+        <v>1187</v>
       </c>
       <c r="F61" s="102" t="s">
-        <v>581</v>
+        <v>9</v>
       </c>
       <c r="G61" s="136" t="s">
         <v>456</v>
@@ -12212,340 +12876,344 @@
         <v>419</v>
       </c>
       <c r="B62" s="118" t="s">
-        <v>469</v>
+        <v>1171</v>
       </c>
       <c r="C62" s="119" t="s">
-        <v>782</v>
+        <v>1219</v>
       </c>
       <c r="D62" s="119" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E62" s="102" t="s">
-        <v>1030</v>
+        <v>1267</v>
+      </c>
+      <c r="E62" s="119" t="s">
+        <v>1188</v>
       </c>
       <c r="F62" s="102" t="s">
-        <v>581</v>
+        <v>1228</v>
       </c>
       <c r="G62" s="136" t="s">
         <v>456</v>
       </c>
-      <c r="H62" s="128"/>
+      <c r="H62" s="128" t="s">
+        <v>1229</v>
+      </c>
       <c r="I62" s="104"/>
     </row>
     <row r="63" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="118" t="s">
-        <v>419</v>
-      </c>
-      <c r="B63" s="118" t="s">
-        <v>469</v>
-      </c>
-      <c r="C63" s="119" t="s">
-        <v>783</v>
-      </c>
-      <c r="D63" s="119" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E63" s="102" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F63" s="102" t="s">
-        <v>581</v>
-      </c>
-      <c r="G63" s="136" t="s">
-        <v>456</v>
-      </c>
-      <c r="H63" s="128"/>
-      <c r="I63" s="104"/>
+      <c r="A63" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B63" s="120" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C63" s="121" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D63" s="121" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E63" s="106" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F63" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="132" t="s">
+        <v>440</v>
+      </c>
+      <c r="H63" s="130" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="123" t="s">
+        <v>1292</v>
+      </c>
     </row>
     <row r="64" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="118" t="s">
-        <v>419</v>
-      </c>
-      <c r="B64" s="118" t="s">
-        <v>469</v>
-      </c>
-      <c r="C64" s="119" t="s">
-        <v>784</v>
-      </c>
-      <c r="D64" s="119" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E64" s="173" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F64" s="102" t="s">
-        <v>581</v>
-      </c>
-      <c r="G64" s="136" t="s">
-        <v>456</v>
-      </c>
-      <c r="H64" s="128"/>
-      <c r="I64" s="104"/>
+      <c r="A64" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B64" s="120" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C64" s="121" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D64" s="121" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E64" s="106" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F64" s="105" t="s">
+        <v>580</v>
+      </c>
+      <c r="G64" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H64" s="130" t="s">
+        <v>901</v>
+      </c>
+      <c r="I64" s="123" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="65" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="118" t="s">
-        <v>419</v>
-      </c>
-      <c r="B65" s="118" t="s">
-        <v>469</v>
-      </c>
-      <c r="C65" s="119" t="s">
-        <v>854</v>
-      </c>
-      <c r="D65" s="119" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E65" s="102" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F65" s="102" t="s">
-        <v>583</v>
-      </c>
-      <c r="G65" s="136" t="s">
-        <v>457</v>
-      </c>
-      <c r="H65" s="128"/>
-      <c r="I65" s="104"/>
+      <c r="A65" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B65" s="120" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C65" s="121" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D65" s="121" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E65" s="106" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F65" s="105" t="s">
+        <v>580</v>
+      </c>
+      <c r="G65" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H65" s="130" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I65" s="123"/>
     </row>
     <row r="66" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="118" t="s">
-        <v>419</v>
-      </c>
-      <c r="B66" s="118" t="s">
-        <v>469</v>
-      </c>
-      <c r="C66" s="119" t="s">
-        <v>855</v>
-      </c>
-      <c r="D66" s="119" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E66" s="173" t="s">
-        <v>1039</v>
-      </c>
-      <c r="F66" s="102" t="s">
-        <v>583</v>
-      </c>
-      <c r="G66" s="136" t="s">
-        <v>457</v>
-      </c>
-      <c r="H66" s="128"/>
-      <c r="I66" s="104"/>
+      <c r="A66" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B66" s="120" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C66" s="121" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" s="121" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E66" s="106" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F66" s="105" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G66" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H66" s="130" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I66" s="123"/>
     </row>
     <row r="67" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="118" t="s">
-        <v>419</v>
-      </c>
-      <c r="B67" s="118" t="s">
-        <v>469</v>
-      </c>
-      <c r="C67" s="119" t="s">
-        <v>856</v>
-      </c>
-      <c r="D67" s="119" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E67" s="102" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F67" s="102" t="s">
-        <v>583</v>
-      </c>
-      <c r="G67" s="136" t="s">
-        <v>457</v>
-      </c>
-      <c r="H67" s="128"/>
-      <c r="I67" s="104"/>
+      <c r="A67" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B67" s="120" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C67" s="121" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" s="121" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E67" s="106" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F67" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="G67" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H67" s="130" t="s">
+        <v>1321</v>
+      </c>
+      <c r="I67" s="123"/>
     </row>
     <row r="68" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="118" t="s">
-        <v>419</v>
-      </c>
-      <c r="B68" s="118" t="s">
-        <v>469</v>
-      </c>
-      <c r="C68" s="119" t="s">
-        <v>857</v>
-      </c>
-      <c r="D68" s="119" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E68" s="102" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F68" s="102" t="s">
-        <v>890</v>
-      </c>
-      <c r="G68" s="136" t="s">
-        <v>457</v>
-      </c>
-      <c r="H68" s="128"/>
-      <c r="I68" s="104"/>
+      <c r="A68" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B68" s="120" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C68" s="121" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D68" s="121" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E68" s="106" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F68" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="132" t="s">
+        <v>451</v>
+      </c>
+      <c r="H68" s="130" t="s">
+        <v>365</v>
+      </c>
+      <c r="I68" s="123" t="s">
+        <v>1319</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="118" t="s">
-        <v>419</v>
-      </c>
-      <c r="B69" s="118" t="s">
-        <v>469</v>
-      </c>
-      <c r="C69" s="119" t="s">
-        <v>858</v>
-      </c>
-      <c r="D69" s="119" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E69" s="102" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F69" s="102" t="s">
-        <v>583</v>
-      </c>
-      <c r="G69" s="136" t="s">
-        <v>457</v>
-      </c>
-      <c r="H69" s="128"/>
-      <c r="I69" s="104"/>
+      <c r="A69" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B69" s="120" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C69" s="121" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" s="121" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E69" s="106" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F69" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H69" s="130" t="s">
+        <v>953</v>
+      </c>
+      <c r="I69" s="123"/>
     </row>
     <row r="70" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="118" t="s">
-        <v>419</v>
-      </c>
-      <c r="B70" s="118" t="s">
-        <v>469</v>
-      </c>
-      <c r="C70" s="119" t="s">
-        <v>859</v>
-      </c>
-      <c r="D70" s="119" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E70" s="102" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F70" s="173" t="s">
-        <v>693</v>
-      </c>
-      <c r="G70" s="136" t="s">
-        <v>457</v>
-      </c>
-      <c r="H70" s="128"/>
-      <c r="I70" s="104"/>
+      <c r="A70" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B70" s="120" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C70" s="121" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" s="121" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E70" s="106" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F70" s="105"/>
+      <c r="G70" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H70" s="130"/>
+      <c r="I70" s="123"/>
     </row>
     <row r="71" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B71" s="120" t="s">
-        <v>502</v>
+        <v>1300</v>
       </c>
       <c r="C71" s="121" t="s">
-        <v>898</v>
+        <v>139</v>
       </c>
       <c r="D71" s="121" t="s">
-        <v>899</v>
+        <v>1334</v>
       </c>
       <c r="E71" s="106" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F71" s="105" t="s">
-        <v>580</v>
-      </c>
+        <v>1325</v>
+      </c>
+      <c r="F71" s="105"/>
       <c r="G71" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H71" s="130" t="s">
-        <v>901</v>
-      </c>
-      <c r="I71" s="123" t="s">
-        <v>453</v>
-      </c>
+      <c r="H71" s="130"/>
+      <c r="I71" s="123"/>
     </row>
     <row r="72" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B72" s="120" t="s">
-        <v>502</v>
+        <v>1300</v>
       </c>
       <c r="C72" s="121" t="s">
-        <v>902</v>
+        <v>140</v>
       </c>
       <c r="D72" s="121" t="s">
-        <v>900</v>
+        <v>1335</v>
       </c>
       <c r="E72" s="106" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F72" s="105" t="s">
-        <v>580</v>
-      </c>
+        <v>1326</v>
+      </c>
+      <c r="F72" s="105"/>
       <c r="G72" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H72" s="130" t="s">
-        <v>901</v>
-      </c>
-      <c r="I72" s="123" t="s">
-        <v>453</v>
-      </c>
+      <c r="H72" s="130"/>
+      <c r="I72" s="123"/>
     </row>
     <row r="73" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B73" s="120" t="s">
-        <v>502</v>
+        <v>1301</v>
       </c>
       <c r="C73" s="121" t="s">
-        <v>903</v>
+        <v>1271</v>
       </c>
       <c r="D73" s="121" t="s">
-        <v>912</v>
+        <v>1314</v>
       </c>
       <c r="E73" s="106" t="s">
-        <v>1050</v>
+        <v>1327</v>
       </c>
       <c r="F73" s="105" t="s">
-        <v>828</v>
+        <v>9</v>
       </c>
       <c r="G73" s="132" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="H73" s="130" t="s">
-        <v>378</v>
-      </c>
-      <c r="I73" s="123" t="s">
-        <v>453</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="I73" s="123"/>
     </row>
     <row r="74" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B74" s="120" t="s">
-        <v>502</v>
+        <v>1301</v>
       </c>
       <c r="C74" s="121" t="s">
-        <v>904</v>
+        <v>151</v>
       </c>
       <c r="D74" s="121" t="s">
-        <v>911</v>
+        <v>151</v>
       </c>
       <c r="E74" s="106" t="s">
-        <v>1051</v>
+        <v>1349</v>
       </c>
       <c r="F74" s="105" t="s">
-        <v>828</v>
+        <v>1228</v>
       </c>
       <c r="G74" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H74" s="130" t="s">
-        <v>378</v>
-      </c>
+      <c r="H74" s="130"/>
       <c r="I74" s="123" t="s">
-        <v>453</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -12553,28 +13221,26 @@
         <v>470</v>
       </c>
       <c r="B75" s="120" t="s">
-        <v>502</v>
+        <v>1301</v>
       </c>
       <c r="C75" s="121" t="s">
-        <v>905</v>
+        <v>157</v>
       </c>
       <c r="D75" s="121" t="s">
-        <v>910</v>
+        <v>157</v>
       </c>
       <c r="E75" s="106" t="s">
-        <v>1052</v>
+        <v>1350</v>
       </c>
       <c r="F75" s="105" t="s">
-        <v>721</v>
+        <v>1228</v>
       </c>
       <c r="G75" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H75" s="130" t="s">
-        <v>400</v>
-      </c>
+      <c r="H75" s="130"/>
       <c r="I75" s="123" t="s">
-        <v>453</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -12582,78 +13248,58 @@
         <v>470</v>
       </c>
       <c r="B76" s="120" t="s">
-        <v>502</v>
+        <v>1301</v>
       </c>
       <c r="C76" s="121" t="s">
-        <v>906</v>
+        <v>1272</v>
       </c>
       <c r="D76" s="121" t="s">
-        <v>909</v>
-      </c>
-      <c r="E76" s="106" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F76" s="105" t="s">
-        <v>721</v>
-      </c>
+        <v>1328</v>
+      </c>
+      <c r="E76" s="106"/>
+      <c r="F76" s="105"/>
       <c r="G76" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H76" s="130" t="s">
-        <v>400</v>
-      </c>
-      <c r="I76" s="123" t="s">
-        <v>453</v>
-      </c>
+      <c r="H76" s="130"/>
+      <c r="I76" s="123"/>
     </row>
     <row r="77" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B77" s="120" t="s">
-        <v>502</v>
+        <v>1302</v>
       </c>
       <c r="C77" s="121" t="s">
-        <v>907</v>
+        <v>211</v>
       </c>
       <c r="D77" s="121" t="s">
-        <v>908</v>
-      </c>
-      <c r="E77" s="106" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F77" s="105" t="s">
-        <v>580</v>
-      </c>
+        <v>1329</v>
+      </c>
+      <c r="E77" s="106"/>
+      <c r="F77" s="105"/>
       <c r="G77" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H77" s="130" t="s">
-        <v>901</v>
-      </c>
-      <c r="I77" s="123" t="s">
-        <v>453</v>
-      </c>
+      <c r="H77" s="130"/>
+      <c r="I77" s="123"/>
     </row>
     <row r="78" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B78" s="120" t="s">
-        <v>913</v>
+        <v>1302</v>
       </c>
       <c r="C78" s="121" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="D78" s="121" t="s">
-        <v>959</v>
-      </c>
-      <c r="E78" s="106" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F78" s="105" t="s">
-        <v>51</v>
-      </c>
+        <v>1330</v>
+      </c>
+      <c r="E78" s="106"/>
+      <c r="F78" s="105"/>
       <c r="G78" s="132" t="s">
         <v>418</v>
       </c>
@@ -12665,20 +13311,16 @@
         <v>470</v>
       </c>
       <c r="B79" s="120" t="s">
-        <v>913</v>
+        <v>1302</v>
       </c>
       <c r="C79" s="121" t="s">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="D79" s="121" t="s">
-        <v>960</v>
-      </c>
-      <c r="E79" s="106" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F79" s="105" t="s">
-        <v>51</v>
-      </c>
+        <v>1331</v>
+      </c>
+      <c r="E79" s="106"/>
+      <c r="F79" s="105"/>
       <c r="G79" s="132" t="s">
         <v>418</v>
       </c>
@@ -12690,20 +13332,16 @@
         <v>470</v>
       </c>
       <c r="B80" s="120" t="s">
-        <v>913</v>
+        <v>1302</v>
       </c>
       <c r="C80" s="121" t="s">
-        <v>77</v>
+        <v>1273</v>
       </c>
       <c r="D80" s="121" t="s">
-        <v>961</v>
-      </c>
-      <c r="E80" s="106" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F80" s="105" t="s">
-        <v>51</v>
-      </c>
+        <v>1336</v>
+      </c>
+      <c r="E80" s="106"/>
+      <c r="F80" s="105"/>
       <c r="G80" s="132" t="s">
         <v>418</v>
       </c>
@@ -12715,26 +13353,20 @@
         <v>470</v>
       </c>
       <c r="B81" s="120" t="s">
-        <v>913</v>
+        <v>1302</v>
       </c>
       <c r="C81" s="121" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="D81" s="121" t="s">
-        <v>962</v>
-      </c>
-      <c r="E81" s="106" t="s">
-        <v>952</v>
-      </c>
-      <c r="F81" s="105" t="s">
-        <v>9</v>
-      </c>
+        <v>1337</v>
+      </c>
+      <c r="E81" s="106"/>
+      <c r="F81" s="105"/>
       <c r="G81" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H81" s="130" t="s">
-        <v>953</v>
-      </c>
+      <c r="H81" s="130"/>
       <c r="I81" s="123"/>
     </row>
     <row r="82" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -12742,23 +13374,17 @@
         <v>470</v>
       </c>
       <c r="B82" s="120" t="s">
-        <v>913</v>
+        <v>1303</v>
       </c>
       <c r="C82" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="D82" s="121" t="s">
-        <v>998</v>
-      </c>
-      <c r="E82" s="106" t="s">
-        <v>954</v>
-      </c>
-      <c r="F82" s="105" t="s">
-        <v>559</v>
-      </c>
-      <c r="G82" s="132" t="s">
-        <v>418</v>
-      </c>
+        <v>1274</v>
+      </c>
+      <c r="D82" s="185" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E82" s="106"/>
+      <c r="F82" s="105"/>
+      <c r="G82" s="132"/>
       <c r="H82" s="130"/>
       <c r="I82" s="123"/>
     </row>
@@ -12767,20 +13393,16 @@
         <v>470</v>
       </c>
       <c r="B83" s="120" t="s">
-        <v>913</v>
+        <v>1303</v>
       </c>
       <c r="C83" s="121" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="D83" s="121" t="s">
-        <v>964</v>
-      </c>
-      <c r="E83" s="106" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F83" s="105" t="s">
-        <v>51</v>
-      </c>
+        <v>1338</v>
+      </c>
+      <c r="E83" s="106"/>
+      <c r="F83" s="105"/>
       <c r="G83" s="132" t="s">
         <v>418</v>
       </c>
@@ -12792,20 +13414,16 @@
         <v>470</v>
       </c>
       <c r="B84" s="120" t="s">
-        <v>913</v>
+        <v>1303</v>
       </c>
       <c r="C84" s="121" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="D84" s="121" t="s">
-        <v>963</v>
-      </c>
-      <c r="E84" s="106" t="s">
-        <v>955</v>
-      </c>
-      <c r="F84" s="105" t="s">
-        <v>9</v>
-      </c>
+        <v>1339</v>
+      </c>
+      <c r="E84" s="106"/>
+      <c r="F84" s="105"/>
       <c r="G84" s="132" t="s">
         <v>418</v>
       </c>
@@ -12817,20 +13435,16 @@
         <v>470</v>
       </c>
       <c r="B85" s="120" t="s">
-        <v>913</v>
+        <v>1303</v>
       </c>
       <c r="C85" s="121" t="s">
-        <v>917</v>
+        <v>144</v>
       </c>
       <c r="D85" s="121" t="s">
-        <v>997</v>
-      </c>
-      <c r="E85" s="106" t="s">
-        <v>956</v>
-      </c>
-      <c r="F85" s="105" t="s">
-        <v>559</v>
-      </c>
+        <v>1340</v>
+      </c>
+      <c r="E85" s="106"/>
+      <c r="F85" s="105"/>
       <c r="G85" s="132" t="s">
         <v>418</v>
       </c>
@@ -12842,26 +13456,20 @@
         <v>470</v>
       </c>
       <c r="B86" s="120" t="s">
-        <v>913</v>
+        <v>21</v>
       </c>
       <c r="C86" s="121" t="s">
-        <v>918</v>
+        <v>1275</v>
       </c>
       <c r="D86" s="121" t="s">
-        <v>919</v>
-      </c>
-      <c r="E86" s="106" t="s">
-        <v>957</v>
-      </c>
-      <c r="F86" s="105" t="s">
-        <v>9</v>
-      </c>
+        <v>1341</v>
+      </c>
+      <c r="E86" s="106"/>
+      <c r="F86" s="105"/>
       <c r="G86" s="132" t="s">
         <v>451</v>
       </c>
-      <c r="H86" s="130" t="s">
-        <v>654</v>
-      </c>
+      <c r="H86" s="130"/>
       <c r="I86" s="123"/>
     </row>
     <row r="87" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -12869,368 +13477,272 @@
         <v>470</v>
       </c>
       <c r="B87" s="120" t="s">
-        <v>913</v>
+        <v>21</v>
       </c>
       <c r="C87" s="121" t="s">
-        <v>95</v>
+        <v>1276</v>
       </c>
       <c r="D87" s="121" t="s">
-        <v>965</v>
-      </c>
-      <c r="E87" s="106" t="s">
-        <v>958</v>
-      </c>
-      <c r="F87" s="105" t="s">
-        <v>9</v>
-      </c>
+        <v>1342</v>
+      </c>
+      <c r="E87" s="106"/>
+      <c r="F87" s="105"/>
       <c r="G87" s="132" t="s">
-        <v>418</v>
-      </c>
-      <c r="H87" s="176" t="s">
-        <v>428</v>
-      </c>
-      <c r="I87" s="164"/>
+        <v>451</v>
+      </c>
+      <c r="H87" s="130"/>
+      <c r="I87" s="123"/>
     </row>
     <row r="88" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B88" s="120" t="s">
-        <v>913</v>
+        <v>21</v>
       </c>
       <c r="C88" s="121" t="s">
-        <v>98</v>
-      </c>
-      <c r="D88" s="121" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E88" s="106" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F88" s="105" t="s">
-        <v>828</v>
-      </c>
+        <v>1277</v>
+      </c>
+      <c r="D88" s="185" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E88" s="106"/>
+      <c r="F88" s="105"/>
       <c r="G88" s="132" t="s">
-        <v>418</v>
-      </c>
-      <c r="H88" s="176"/>
-      <c r="I88" s="164"/>
+        <v>451</v>
+      </c>
+      <c r="H88" s="130"/>
+      <c r="I88" s="123"/>
     </row>
     <row r="89" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B89" s="120" t="s">
-        <v>913</v>
+        <v>21</v>
       </c>
       <c r="C89" s="121" t="s">
-        <v>920</v>
-      </c>
-      <c r="D89" s="121" t="s">
-        <v>488</v>
-      </c>
-      <c r="E89" s="106" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F89" s="105" t="s">
-        <v>9</v>
-      </c>
+        <v>1278</v>
+      </c>
+      <c r="D89" s="185" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E89" s="106"/>
+      <c r="F89" s="105"/>
       <c r="G89" s="132" t="s">
-        <v>440</v>
-      </c>
-      <c r="H89" s="176" t="s">
-        <v>747</v>
-      </c>
-      <c r="I89" s="164" t="s">
-        <v>1071</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="H89" s="130"/>
+      <c r="I89" s="123"/>
     </row>
     <row r="90" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B90" s="120" t="s">
-        <v>913</v>
+        <v>21</v>
       </c>
       <c r="C90" s="121" t="s">
-        <v>921</v>
+        <v>171</v>
       </c>
       <c r="D90" s="121" t="s">
-        <v>966</v>
-      </c>
-      <c r="E90" s="106" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F90" s="105" t="s">
-        <v>9</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E90" s="106"/>
+      <c r="F90" s="105"/>
       <c r="G90" s="132" t="s">
-        <v>440</v>
-      </c>
-      <c r="H90" s="176" t="s">
-        <v>1072</v>
-      </c>
-      <c r="I90" s="164" t="s">
-        <v>1073</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="H90" s="130"/>
+      <c r="I90" s="123"/>
     </row>
     <row r="91" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B91" s="120" t="s">
-        <v>913</v>
+        <v>21</v>
       </c>
       <c r="C91" s="121" t="s">
-        <v>922</v>
+        <v>176</v>
       </c>
       <c r="D91" s="121" t="s">
-        <v>967</v>
-      </c>
-      <c r="E91" s="106" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F91" s="105" t="s">
-        <v>9</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="E91" s="106"/>
+      <c r="F91" s="105"/>
       <c r="G91" s="132" t="s">
-        <v>440</v>
-      </c>
-      <c r="H91" s="176" t="s">
-        <v>1074</v>
-      </c>
-      <c r="I91" s="164" t="s">
-        <v>1085</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="H91" s="130"/>
+      <c r="I91" s="123"/>
     </row>
     <row r="92" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B92" s="120" t="s">
-        <v>913</v>
+        <v>21</v>
       </c>
       <c r="C92" s="121" t="s">
-        <v>923</v>
+        <v>186</v>
       </c>
       <c r="D92" s="121" t="s">
-        <v>968</v>
-      </c>
-      <c r="E92" s="139" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F92" s="105" t="s">
-        <v>9</v>
-      </c>
+        <v>1346</v>
+      </c>
+      <c r="E92" s="106"/>
+      <c r="F92" s="105"/>
       <c r="G92" s="132" t="s">
-        <v>440</v>
-      </c>
-      <c r="H92" s="176" t="s">
-        <v>1075</v>
-      </c>
-      <c r="I92" s="164" t="s">
-        <v>1084</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="H92" s="130"/>
+      <c r="I92" s="123"/>
     </row>
     <row r="93" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B93" s="120" t="s">
-        <v>913</v>
+        <v>21</v>
       </c>
       <c r="C93" s="121" t="s">
-        <v>924</v>
+        <v>158</v>
       </c>
       <c r="D93" s="121" t="s">
-        <v>969</v>
-      </c>
-      <c r="E93" s="139" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F93" s="105" t="s">
-        <v>9</v>
-      </c>
+        <v>1345</v>
+      </c>
+      <c r="E93" s="106"/>
+      <c r="F93" s="105"/>
       <c r="G93" s="132" t="s">
-        <v>440</v>
-      </c>
-      <c r="H93" s="176" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I93" s="164" t="s">
-        <v>1083</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="H93" s="130"/>
+      <c r="I93" s="123"/>
     </row>
     <row r="94" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B94" s="120" t="s">
-        <v>913</v>
+        <v>21</v>
       </c>
       <c r="C94" s="121" t="s">
-        <v>925</v>
+        <v>154</v>
       </c>
       <c r="D94" s="121" t="s">
-        <v>970</v>
-      </c>
-      <c r="E94" s="139" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F94" s="105" t="s">
-        <v>9</v>
-      </c>
+        <v>1347</v>
+      </c>
+      <c r="E94" s="106"/>
+      <c r="F94" s="105"/>
       <c r="G94" s="132" t="s">
-        <v>440</v>
-      </c>
-      <c r="H94" s="176" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I94" s="164" t="s">
-        <v>1082</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="H94" s="130"/>
+      <c r="I94" s="123"/>
     </row>
     <row r="95" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B95" s="120" t="s">
-        <v>913</v>
+        <v>21</v>
       </c>
       <c r="C95" s="121" t="s">
-        <v>926</v>
+        <v>193</v>
       </c>
       <c r="D95" s="121" t="s">
-        <v>971</v>
-      </c>
-      <c r="E95" s="139" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F95" s="105" t="s">
-        <v>9</v>
-      </c>
+        <v>1348</v>
+      </c>
+      <c r="E95" s="106"/>
+      <c r="F95" s="105"/>
       <c r="G95" s="132" t="s">
-        <v>440</v>
-      </c>
-      <c r="H95" s="176" t="s">
-        <v>1078</v>
-      </c>
-      <c r="I95" s="164" t="s">
-        <v>1086</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="H95" s="130"/>
+      <c r="I95" s="123"/>
     </row>
     <row r="96" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B96" s="120" t="s">
-        <v>913</v>
+        <v>21</v>
       </c>
       <c r="C96" s="121" t="s">
-        <v>927</v>
+        <v>168</v>
       </c>
       <c r="D96" s="121" t="s">
-        <v>972</v>
-      </c>
-      <c r="E96" s="139" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F96" s="105" t="s">
-        <v>9</v>
-      </c>
+        <v>1353</v>
+      </c>
+      <c r="E96" s="106"/>
+      <c r="F96" s="105"/>
       <c r="G96" s="132" t="s">
-        <v>440</v>
-      </c>
-      <c r="H96" s="176" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I96" s="164" t="s">
-        <v>1087</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="H96" s="130"/>
+      <c r="I96" s="123"/>
     </row>
     <row r="97" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B97" s="120" t="s">
-        <v>913</v>
+        <v>21</v>
       </c>
       <c r="C97" s="121" t="s">
-        <v>928</v>
+        <v>166</v>
       </c>
       <c r="D97" s="121" t="s">
-        <v>973</v>
-      </c>
-      <c r="E97" s="139" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F97" s="105" t="s">
-        <v>9</v>
-      </c>
+        <v>1354</v>
+      </c>
+      <c r="E97" s="106"/>
+      <c r="F97" s="105"/>
       <c r="G97" s="132" t="s">
-        <v>440</v>
-      </c>
-      <c r="H97" s="176" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I97" s="164" t="s">
-        <v>1088</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="H97" s="130"/>
+      <c r="I97" s="123"/>
     </row>
     <row r="98" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B98" s="120" t="s">
-        <v>913</v>
+        <v>301</v>
       </c>
       <c r="C98" s="121" t="s">
-        <v>929</v>
-      </c>
-      <c r="D98" s="121" t="s">
-        <v>974</v>
-      </c>
-      <c r="E98" s="139" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F98" s="105" t="s">
-        <v>9</v>
-      </c>
+        <v>1279</v>
+      </c>
+      <c r="D98" s="185" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E98" s="106"/>
+      <c r="F98" s="105"/>
       <c r="G98" s="132" t="s">
-        <v>440</v>
-      </c>
-      <c r="H98" s="176" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I98" s="164" t="s">
-        <v>1089</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="H98" s="130"/>
+      <c r="I98" s="123"/>
     </row>
     <row r="99" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B99" s="120" t="s">
-        <v>914</v>
+        <v>301</v>
       </c>
       <c r="C99" s="121" t="s">
-        <v>930</v>
-      </c>
-      <c r="D99" s="121" t="s">
-        <v>975</v>
-      </c>
-      <c r="E99" s="106" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F99" s="105" t="s">
-        <v>9</v>
-      </c>
+        <v>1280</v>
+      </c>
+      <c r="D99" s="185" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E99" s="106"/>
+      <c r="F99" s="105"/>
       <c r="G99" s="132" t="s">
-        <v>757</v>
-      </c>
-      <c r="H99" s="176" t="s">
-        <v>746</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="H99" s="130"/>
       <c r="I99" s="123"/>
     </row>
     <row r="100" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13238,21 +13750,17 @@
         <v>470</v>
       </c>
       <c r="B100" s="120" t="s">
-        <v>914</v>
+        <v>301</v>
       </c>
       <c r="C100" s="121" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="D100" s="121" t="s">
-        <v>976</v>
-      </c>
-      <c r="E100" s="106" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F100" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="G100" s="175" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E100" s="106"/>
+      <c r="F100" s="105"/>
+      <c r="G100" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H100" s="130"/>
@@ -13263,21 +13771,17 @@
         <v>470</v>
       </c>
       <c r="B101" s="120" t="s">
-        <v>914</v>
+        <v>301</v>
       </c>
       <c r="C101" s="121" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="D101" s="121" t="s">
-        <v>977</v>
-      </c>
-      <c r="E101" s="106" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F101" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="G101" s="175" t="s">
+        <v>177</v>
+      </c>
+      <c r="E101" s="106"/>
+      <c r="F101" s="105"/>
+      <c r="G101" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H101" s="130"/>
@@ -13288,21 +13792,17 @@
         <v>470</v>
       </c>
       <c r="B102" s="120" t="s">
-        <v>914</v>
+        <v>301</v>
       </c>
       <c r="C102" s="121" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="D102" s="121" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E102" s="106" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F102" s="105" t="s">
-        <v>944</v>
-      </c>
-      <c r="G102" s="175" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E102" s="106"/>
+      <c r="F102" s="105"/>
+      <c r="G102" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H102" s="130"/>
@@ -13313,21 +13813,17 @@
         <v>470</v>
       </c>
       <c r="B103" s="120" t="s">
-        <v>914</v>
+        <v>301</v>
       </c>
       <c r="C103" s="121" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="D103" s="121" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E103" s="106" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F103" s="105" t="s">
-        <v>945</v>
-      </c>
-      <c r="G103" s="175" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E103" s="106"/>
+      <c r="F103" s="105"/>
+      <c r="G103" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H103" s="130"/>
@@ -13338,21 +13834,17 @@
         <v>470</v>
       </c>
       <c r="B104" s="120" t="s">
-        <v>915</v>
+        <v>301</v>
       </c>
       <c r="C104" s="121" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="D104" s="121" t="s">
-        <v>978</v>
-      </c>
-      <c r="E104" s="106" t="s">
-        <v>1095</v>
-      </c>
-      <c r="F104" s="105" t="s">
-        <v>946</v>
-      </c>
-      <c r="G104" s="175" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E104" s="106"/>
+      <c r="F104" s="105"/>
+      <c r="G104" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H104" s="130"/>
@@ -13363,53 +13855,41 @@
         <v>470</v>
       </c>
       <c r="B105" s="120" t="s">
-        <v>915</v>
+        <v>301</v>
       </c>
       <c r="C105" s="121" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="D105" s="121" t="s">
-        <v>979</v>
-      </c>
-      <c r="E105" s="106" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F105" s="105" t="s">
-        <v>946</v>
-      </c>
+        <v>1361</v>
+      </c>
+      <c r="E105" s="106"/>
+      <c r="F105" s="105"/>
       <c r="G105" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H105" s="131" t="s">
-        <v>428</v>
-      </c>
-      <c r="I105" s="124"/>
+      <c r="H105" s="130"/>
+      <c r="I105" s="123"/>
     </row>
     <row r="106" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B106" s="120" t="s">
-        <v>915</v>
+        <v>20</v>
       </c>
       <c r="C106" s="121" t="s">
-        <v>119</v>
-      </c>
-      <c r="D106" s="121" t="s">
-        <v>980</v>
-      </c>
-      <c r="E106" s="139" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F106" s="105" t="s">
-        <v>946</v>
-      </c>
+        <v>1281</v>
+      </c>
+      <c r="D106" s="185" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E106" s="106"/>
+      <c r="F106" s="105"/>
       <c r="G106" s="132" t="s">
-        <v>418</v>
-      </c>
-      <c r="H106" s="130" t="s">
-        <v>446</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="H106" s="130"/>
       <c r="I106" s="123"/>
     </row>
     <row r="107" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13417,132 +13897,114 @@
         <v>470</v>
       </c>
       <c r="B107" s="120" t="s">
-        <v>915</v>
+        <v>20</v>
       </c>
       <c r="C107" s="121" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="D107" s="121" t="s">
-        <v>981</v>
-      </c>
-      <c r="E107" s="139" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F107" s="105" t="s">
-        <v>946</v>
-      </c>
+        <v>1369</v>
+      </c>
+      <c r="E107" s="106"/>
+      <c r="F107" s="105"/>
       <c r="G107" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H107" s="131" t="s">
-        <v>441</v>
-      </c>
-      <c r="I107" s="124"/>
+      <c r="H107" s="130"/>
+      <c r="I107" s="123"/>
     </row>
     <row r="108" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B108" s="120" t="s">
-        <v>915</v>
+        <v>20</v>
       </c>
       <c r="C108" s="121" t="s">
-        <v>931</v>
+        <v>184</v>
       </c>
       <c r="D108" s="121" t="s">
-        <v>982</v>
-      </c>
-      <c r="E108" s="106" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F108" s="106" t="s">
-        <v>9</v>
-      </c>
+        <v>1368</v>
+      </c>
+      <c r="E108" s="106"/>
+      <c r="F108" s="105"/>
       <c r="G108" s="132" t="s">
-        <v>757</v>
-      </c>
-      <c r="H108" s="176" t="s">
-        <v>746</v>
-      </c>
-      <c r="I108" s="124"/>
+        <v>418</v>
+      </c>
+      <c r="H108" s="130"/>
+      <c r="I108" s="123"/>
     </row>
     <row r="109" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B109" s="120" t="s">
-        <v>915</v>
+        <v>20</v>
       </c>
       <c r="C109" s="121" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="D109" s="121" t="s">
-        <v>983</v>
-      </c>
-      <c r="E109" s="106" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F109" s="106"/>
+        <v>1367</v>
+      </c>
+      <c r="E109" s="106"/>
+      <c r="F109" s="105"/>
       <c r="G109" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H109" s="131" t="s">
-        <v>1118</v>
-      </c>
-      <c r="I109" s="124"/>
+      <c r="H109" s="130"/>
+      <c r="I109" s="123"/>
     </row>
     <row r="110" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B110" s="120" t="s">
-        <v>916</v>
+        <v>1304</v>
       </c>
       <c r="C110" s="121" t="s">
-        <v>932</v>
+        <v>232</v>
       </c>
       <c r="D110" s="121" t="s">
-        <v>984</v>
+        <v>1293</v>
       </c>
       <c r="E110" s="106" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F110" s="106" t="s">
-        <v>9</v>
+        <v>1295</v>
+      </c>
+      <c r="F110" s="105" t="s">
+        <v>217</v>
       </c>
       <c r="G110" s="132" t="s">
-        <v>451</v>
-      </c>
-      <c r="H110" s="131" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I110" s="124"/>
+        <v>418</v>
+      </c>
+      <c r="H110" s="130" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I110" s="124" t="s">
+        <v>1308</v>
+      </c>
     </row>
     <row r="111" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="120" t="s">
         <v>470</v>
       </c>
       <c r="B111" s="120" t="s">
-        <v>916</v>
-      </c>
-      <c r="C111" s="174" t="s">
-        <v>216</v>
+        <v>1304</v>
+      </c>
+      <c r="C111" s="121" t="s">
+        <v>1286</v>
       </c>
       <c r="D111" s="121" t="s">
-        <v>985</v>
-      </c>
-      <c r="E111" s="161" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F111" s="106" t="s">
-        <v>217</v>
-      </c>
+        <v>1366</v>
+      </c>
+      <c r="E111" s="106"/>
+      <c r="F111" s="105"/>
       <c r="G111" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H111" s="131"/>
+      <c r="H111" s="130"/>
       <c r="I111" s="124" t="s">
-        <v>1125</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13550,26 +14012,22 @@
         <v>470</v>
       </c>
       <c r="B112" s="120" t="s">
-        <v>916</v>
+        <v>1304</v>
       </c>
       <c r="C112" s="121" t="s">
-        <v>220</v>
+        <v>1282</v>
       </c>
       <c r="D112" s="121" t="s">
-        <v>986</v>
-      </c>
-      <c r="E112" s="106" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F112" s="106" t="s">
-        <v>222</v>
-      </c>
+        <v>1362</v>
+      </c>
+      <c r="E112" s="106"/>
+      <c r="F112" s="105"/>
       <c r="G112" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H112" s="131"/>
+      <c r="H112" s="130"/>
       <c r="I112" s="124" t="s">
-        <v>1126</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13577,26 +14035,22 @@
         <v>470</v>
       </c>
       <c r="B113" s="120" t="s">
-        <v>916</v>
+        <v>1304</v>
       </c>
       <c r="C113" s="121" t="s">
-        <v>221</v>
+        <v>1283</v>
       </c>
       <c r="D113" s="121" t="s">
-        <v>987</v>
-      </c>
-      <c r="E113" s="106" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F113" s="106" t="s">
-        <v>947</v>
-      </c>
+        <v>1363</v>
+      </c>
+      <c r="E113" s="106"/>
+      <c r="F113" s="105"/>
       <c r="G113" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H113" s="131"/>
-      <c r="I113" s="177" t="s">
-        <v>1126</v>
+      <c r="H113" s="130"/>
+      <c r="I113" s="124" t="s">
+        <v>1309</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13604,26 +14058,22 @@
         <v>470</v>
       </c>
       <c r="B114" s="120" t="s">
-        <v>916</v>
+        <v>1304</v>
       </c>
       <c r="C114" s="121" t="s">
-        <v>226</v>
+        <v>1284</v>
       </c>
       <c r="D114" s="121" t="s">
-        <v>988</v>
-      </c>
-      <c r="E114" s="161" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F114" s="106" t="s">
-        <v>217</v>
-      </c>
+        <v>1364</v>
+      </c>
+      <c r="E114" s="106"/>
+      <c r="F114" s="105"/>
       <c r="G114" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H114" s="131"/>
+      <c r="H114" s="130"/>
       <c r="I114" s="124" t="s">
-        <v>1125</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13631,58 +14081,54 @@
         <v>470</v>
       </c>
       <c r="B115" s="120" t="s">
-        <v>916</v>
+        <v>1304</v>
       </c>
       <c r="C115" s="121" t="s">
-        <v>227</v>
+        <v>1285</v>
       </c>
       <c r="D115" s="121" t="s">
-        <v>989</v>
-      </c>
-      <c r="E115" s="106" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F115" s="106" t="s">
-        <v>222</v>
-      </c>
+        <v>1365</v>
+      </c>
+      <c r="E115" s="106"/>
+      <c r="F115" s="105"/>
       <c r="G115" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H115" s="131"/>
+      <c r="H115" s="130"/>
       <c r="I115" s="124" t="s">
-        <v>1126</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="120" t="s">
-        <v>470</v>
+        <v>1307</v>
       </c>
       <c r="B116" s="120" t="s">
         <v>916</v>
       </c>
       <c r="C116" s="121" t="s">
-        <v>228</v>
+        <v>932</v>
       </c>
       <c r="D116" s="121" t="s">
-        <v>990</v>
+        <v>1311</v>
       </c>
       <c r="E116" s="106" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F116" s="106" t="s">
-        <v>947</v>
+        <v>9</v>
       </c>
       <c r="G116" s="132" t="s">
-        <v>418</v>
-      </c>
-      <c r="H116" s="131"/>
-      <c r="I116" s="177" t="s">
-        <v>1126</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="H116" s="131" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I116" s="124"/>
     </row>
     <row r="117" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="120" t="s">
-        <v>470</v>
+        <v>1307</v>
       </c>
       <c r="B117" s="120" t="s">
         <v>939</v>
@@ -13691,7 +14137,7 @@
         <v>933</v>
       </c>
       <c r="D117" s="121" t="s">
-        <v>991</v>
+        <v>1312</v>
       </c>
       <c r="E117" s="106" t="s">
         <v>1109</v>
@@ -13700,7 +14146,7 @@
         <v>9</v>
       </c>
       <c r="G117" s="132" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="H117" s="130" t="s">
         <v>654</v>
@@ -13709,7 +14155,7 @@
     </row>
     <row r="118" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="120" t="s">
-        <v>470</v>
+        <v>1307</v>
       </c>
       <c r="B118" s="120" t="s">
         <v>939</v>
@@ -13734,319 +14180,19 @@
       </c>
       <c r="I118" s="123"/>
     </row>
-    <row r="119" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="120" t="s">
-        <v>470</v>
-      </c>
-      <c r="B119" s="120" t="s">
-        <v>939</v>
-      </c>
-      <c r="C119" s="121" t="s">
-        <v>935</v>
-      </c>
-      <c r="D119" s="121" t="s">
-        <v>996</v>
-      </c>
-      <c r="E119" s="106" t="s">
-        <v>1112</v>
-      </c>
-      <c r="F119" s="105" t="s">
-        <v>948</v>
-      </c>
-      <c r="G119" s="132" t="s">
-        <v>418</v>
-      </c>
-      <c r="H119" s="130"/>
-      <c r="I119" s="123"/>
-    </row>
-    <row r="120" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="120" t="s">
-        <v>470</v>
-      </c>
-      <c r="B120" s="120" t="s">
-        <v>939</v>
-      </c>
-      <c r="C120" s="121" t="s">
-        <v>936</v>
-      </c>
-      <c r="D120" s="121" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E120" s="106" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F120" s="105" t="s">
-        <v>949</v>
-      </c>
-      <c r="G120" s="132" t="s">
-        <v>418</v>
-      </c>
-      <c r="H120" s="130"/>
-      <c r="I120" s="123"/>
-    </row>
-    <row r="121" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="120" t="s">
-        <v>470</v>
-      </c>
-      <c r="B121" s="120" t="s">
-        <v>939</v>
-      </c>
-      <c r="C121" s="121" t="s">
-        <v>937</v>
-      </c>
-      <c r="D121" s="121" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E121" s="106" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F121" s="105" t="s">
-        <v>950</v>
-      </c>
-      <c r="G121" s="132" t="s">
-        <v>418</v>
-      </c>
-      <c r="H121" s="130"/>
-      <c r="I121" s="123"/>
-    </row>
-    <row r="122" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="120" t="s">
-        <v>470</v>
-      </c>
-      <c r="B122" s="120" t="s">
-        <v>939</v>
-      </c>
-      <c r="C122" s="121" t="s">
-        <v>938</v>
-      </c>
-      <c r="D122" s="121" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E122" s="106" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F122" s="105" t="s">
-        <v>951</v>
-      </c>
-      <c r="G122" s="132" t="s">
-        <v>418</v>
-      </c>
-      <c r="H122" s="130"/>
-      <c r="I122" s="123"/>
-    </row>
-    <row r="123" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="120" t="s">
-        <v>470</v>
-      </c>
-      <c r="B123" s="120" t="s">
-        <v>503</v>
-      </c>
-      <c r="C123" s="121" t="s">
-        <v>285</v>
-      </c>
-      <c r="D123" s="121" t="s">
-        <v>943</v>
-      </c>
-      <c r="E123" s="161" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F123" s="105" t="s">
-        <v>583</v>
-      </c>
-      <c r="G123" s="132" t="s">
-        <v>418</v>
-      </c>
-      <c r="H123" s="130" t="s">
-        <v>428</v>
-      </c>
-      <c r="I123" s="123"/>
-    </row>
-    <row r="124" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="120" t="s">
-        <v>470</v>
-      </c>
-      <c r="B124" s="120" t="s">
-        <v>503</v>
-      </c>
-      <c r="C124" s="121" t="s">
-        <v>293</v>
-      </c>
-      <c r="D124" s="121" t="s">
-        <v>992</v>
-      </c>
-      <c r="E124" s="161" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F124" s="105" t="s">
-        <v>890</v>
-      </c>
-      <c r="G124" s="132" t="s">
-        <v>418</v>
-      </c>
-      <c r="H124" s="130"/>
-      <c r="I124" s="123"/>
-    </row>
-    <row r="125" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="120" t="s">
-        <v>470</v>
-      </c>
-      <c r="B125" s="120" t="s">
-        <v>503</v>
-      </c>
-      <c r="C125" s="121" t="s">
-        <v>294</v>
-      </c>
-      <c r="D125" s="121" t="s">
-        <v>993</v>
-      </c>
-      <c r="E125" s="161" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F125" s="105" t="s">
-        <v>693</v>
-      </c>
-      <c r="G125" s="132" t="s">
-        <v>418</v>
-      </c>
-      <c r="H125" s="130"/>
-      <c r="I125" s="123"/>
-    </row>
-    <row r="126" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="120" t="s">
-        <v>470</v>
-      </c>
-      <c r="B126" s="120" t="s">
-        <v>503</v>
-      </c>
-      <c r="C126" s="121" t="s">
-        <v>286</v>
-      </c>
-      <c r="D126" s="121" t="s">
-        <v>994</v>
-      </c>
-      <c r="E126" s="161" t="s">
-        <v>1113</v>
-      </c>
-      <c r="F126" s="105" t="s">
-        <v>559</v>
-      </c>
-      <c r="G126" s="132" t="s">
-        <v>418</v>
-      </c>
-      <c r="H126" s="131" t="s">
-        <v>442</v>
-      </c>
-      <c r="I126" s="123"/>
-    </row>
-    <row r="127" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="120" t="s">
-        <v>470</v>
-      </c>
-      <c r="B127" s="120" t="s">
-        <v>503</v>
-      </c>
-      <c r="C127" s="121" t="s">
-        <v>287</v>
-      </c>
-      <c r="D127" s="121" t="s">
-        <v>995</v>
-      </c>
-      <c r="E127" s="161" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F127" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="G127" s="132" t="s">
-        <v>418</v>
-      </c>
-      <c r="H127" s="131" t="s">
-        <v>441</v>
-      </c>
-      <c r="I127" s="124"/>
-    </row>
-    <row r="128" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="120" t="s">
-        <v>470</v>
-      </c>
-      <c r="B128" s="120" t="s">
-        <v>503</v>
-      </c>
-      <c r="C128" s="107" t="s">
-        <v>940</v>
-      </c>
-      <c r="D128" s="107" t="s">
-        <v>815</v>
-      </c>
-      <c r="E128" s="106" t="s">
-        <v>528</v>
-      </c>
-      <c r="F128" s="105" t="s">
-        <v>583</v>
-      </c>
-      <c r="G128" s="132" t="s">
-        <v>440</v>
-      </c>
-      <c r="H128" s="132" t="s">
-        <v>999</v>
-      </c>
-      <c r="I128" s="124"/>
-    </row>
-    <row r="129" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="120" t="s">
-        <v>470</v>
-      </c>
-      <c r="B129" s="120" t="s">
-        <v>503</v>
-      </c>
-      <c r="C129" s="107" t="s">
-        <v>941</v>
-      </c>
-      <c r="D129" s="107" t="s">
-        <v>816</v>
-      </c>
-      <c r="E129" s="106" t="s">
-        <v>528</v>
-      </c>
-      <c r="F129" s="105" t="s">
-        <v>890</v>
-      </c>
-      <c r="G129" s="132" t="s">
-        <v>440</v>
-      </c>
-      <c r="H129" s="132" t="s">
-        <v>1000</v>
-      </c>
-      <c r="I129" s="124"/>
-    </row>
-    <row r="130" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="120" t="s">
-        <v>470</v>
-      </c>
-      <c r="B130" s="120" t="s">
-        <v>503</v>
-      </c>
-      <c r="C130" s="107" t="s">
-        <v>942</v>
-      </c>
-      <c r="D130" s="107" t="s">
-        <v>817</v>
-      </c>
-      <c r="E130" s="106" t="s">
-        <v>528</v>
-      </c>
-      <c r="F130" s="105" t="s">
-        <v>693</v>
-      </c>
-      <c r="G130" s="132" t="s">
-        <v>440</v>
-      </c>
-      <c r="H130" s="132" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I130" s="124"/>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B3F271-01A4-7446-AB67-7D8A099FB523}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15419,7 +15565,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView zoomScale="131" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16765,7 +16911,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/tables/aed_variable_tables.xlsx
+++ b/tables/aed_variable_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthipsey/AED Dropbox/05_Software/AED/aed-science/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBFA35B-4B1B-3846-827F-B56AC3E7C3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB38027-8FFA-C44A-8E48-C6B866485AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2900" yWindow="500" windowWidth="41480" windowHeight="27220" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="1371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3972" uniqueCount="1464">
   <si>
     <t>Oxygen</t>
   </si>
@@ -4164,9 +4164,6 @@
     <t xml:space="preserve">carbon to chlorophyll ratio </t>
   </si>
   <si>
-    <t>phytoplankton group maximum growth rate @20C</t>
-  </si>
-  <si>
     <t>specifies temperature limitation function of growth</t>
   </si>
   <si>
@@ -4263,9 +4260,6 @@
     <t xml:space="preserve">half saturation constant for light limitation of growth </t>
   </si>
   <si>
-    <t>saturating light intensity</t>
-  </si>
-  <si>
     <t>used if $\Theta_{lgt}^{phy}$ is 1</t>
   </si>
   <si>
@@ -4324,6 +4318,291 @@
   </si>
   <si>
     <t>\Theta_{si}^{phy}</t>
+  </si>
+  <si>
+    <t>saturating light intensity for optimum photosynthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specific attenuation coefficient </t>
+  </si>
+  <si>
+    <t>fraction of primary production lost to exudation</t>
+  </si>
+  <si>
+    <t>phytoplankton group maximum growth rate at $20^{\circ}C$</t>
+  </si>
+  <si>
+    <t>^{\circ}C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrhenius temperature scaling factor for respiration </t>
+  </si>
+  <si>
+    <t>phytoplankton respiration/metabolic loss rate at $20^{\circ}C$</t>
+  </si>
+  <si>
+    <t>0.01 - 0.3</t>
+  </si>
+  <si>
+    <t>fraction of metabolic loss that is true respiration</t>
+  </si>
+  <si>
+    <t>fraction of metabolic loss that is released as DOM</t>
+  </si>
+  <si>
+    <t>type of salinity limitation function</t>
+  </si>
+  <si>
+    <t>0, 1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>salinity limitation value at maximum salinity ($S_{maxsp}$)</t>
+  </si>
+  <si>
+    <t>maximum salinity where growth is possible</t>
+  </si>
+  <si>
+    <t>g/kg</t>
+  </si>
+  <si>
+    <t>optimal salinity for growth</t>
+  </si>
+  <si>
+    <t>0, 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch for the selected group to simulate $N_2$ fixation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch for the selected group to simulate dynamic intracellular $N$ store </t>
+  </si>
+  <si>
+    <t>external $DIN$ concentration below which uptake is 0</t>
+  </si>
+  <si>
+    <t>half-saturation concentration of nitrogen</t>
+  </si>
+  <si>
+    <t>constant internal nitrogen concentration</t>
+  </si>
+  <si>
+    <t>used if `simINDynamics` = 0 or 1</t>
+  </si>
+  <si>
+    <t>minimum internal nitrogen concentration</t>
+  </si>
+  <si>
+    <t>maximum internal nitrogen concentration</t>
+  </si>
+  <si>
+    <t>used if `simINDynamics` = 2</t>
+  </si>
+  <si>
+    <t>maximum nitrogen uptake rate</t>
+  </si>
+  <si>
+    <t>mmol\: N/m^3/d\: /(mmol\: C/m^3)</t>
+  </si>
+  <si>
+    <t>growth rate reduction under maximum nitrogen fixation</t>
+  </si>
+  <si>
+    <t>used if `simINDynamics` $\gt 0$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nitrogen fixation rate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch for the selected group to simulate $DIN$ uptake </t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch for the selected group  to simulate $DON$ uptake </t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch for the selected group to simulate $DIP$ uptake </t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch for the selected group to simulate dynamic intracellular $P$ store </t>
+  </si>
+  <si>
+    <t>external $DIP$ concentration below which uptake is 0</t>
+  </si>
+  <si>
+    <t>half-saturation concentration of phosphorus</t>
+  </si>
+  <si>
+    <t>constant internal phosphorus concentration</t>
+  </si>
+  <si>
+    <t>minimum internal phosphorus concentration</t>
+  </si>
+  <si>
+    <t>maximum internal phosphorus concentration</t>
+  </si>
+  <si>
+    <t>maximum phosphorus uptake rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch for the selected group to simulate $Si$ uptake </t>
+  </si>
+  <si>
+    <t>mmol\: P/m^3/d\: /(mmol\: C/m^3)</t>
+  </si>
+  <si>
+    <t>external $SiO2$ concentration below which uptake is 0</t>
+  </si>
+  <si>
+    <t>half-saturation concentration of silica uptake</t>
+  </si>
+  <si>
+    <t>constant internal silica concentration</t>
+  </si>
+  <si>
+    <t>phytoplankton group mean cell diameter</t>
+  </si>
+  <si>
+    <t>rate coefficient for density increase</t>
+  </si>
+  <si>
+    <t>minimum rate of density decrease with time</t>
+  </si>
+  <si>
+    <t>fraction of maximum intracellular nitrogen where motility tends down towards nutrients</t>
+  </si>
+  <si>
+    <t>kg/m^3/s</t>
+  </si>
+  <si>
+    <t>fraction of maximum intracellular nitrogen where motility tends up towards light</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Microphytobenthos</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>option to set the method of settling for $PHY$ group $a$</t>
+  </si>
+  <si>
+    <t>num_phy</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>the_phy</t>
+  </si>
+  <si>
+    <t>option to set the method of resuspension for $PHY$ group $a$</t>
+  </si>
+  <si>
+    <t>do_mpb</t>
+  </si>
+  <si>
+    <t>R_mpbg</t>
+  </si>
+  <si>
+    <t>R_mpbr</t>
+  </si>
+  <si>
+    <t>I_Kmpb</t>
+  </si>
+  <si>
+    <t>mpb_max</t>
+  </si>
+  <si>
+    <t>n_zones</t>
+  </si>
+  <si>
+    <t>active_zones</t>
+  </si>
+  <si>
+    <t>p_excretion_target_variable</t>
+  </si>
+  <si>
+    <t>n_excretion_target_variable</t>
+  </si>
+  <si>
+    <t>c_excretion_target_variable</t>
+  </si>
+  <si>
+    <t>si_excretion_target_variable</t>
+  </si>
+  <si>
+    <t>p_mortality_target_variable</t>
+  </si>
+  <si>
+    <t>n_mortality_target_variable</t>
+  </si>
+  <si>
+    <t>c_mortality_target_variable</t>
+  </si>
+  <si>
+    <t>si_mortality_target_variable</t>
+  </si>
+  <si>
+    <t>p1_uptake_target_variable</t>
+  </si>
+  <si>
+    <t>n1_uptake_target_variable</t>
+  </si>
+  <si>
+    <t>n2_uptake_target_variable</t>
+  </si>
+  <si>
+    <t>si_uptake_target_variable</t>
+  </si>
+  <si>
+    <t>do_uptake_target_variable</t>
+  </si>
+  <si>
+    <t>c_uptake_target_variable</t>
+  </si>
+  <si>
+    <t>dbase</t>
+  </si>
+  <si>
+    <t>diag_level</t>
+  </si>
+  <si>
+    <t>phytoplankton parameter database file</t>
+  </si>
+  <si>
+    <t>`aed_phyto_pars.csv`</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>R_{mpb-g}</t>
+  </si>
+  <si>
+    <t>R_{mpb-r}</t>
+  </si>
+  <si>
+    <t>number of phytoplankton groups/species</t>
+  </si>
+  <si>
+    <t>list of chosen group ID's within the database file</t>
+  </si>
+  <si>
+    <t>1 - 64</t>
+  </si>
+  <si>
+    <t>1, 2, 3, …</t>
+  </si>
+  <si>
+    <t>0 - 4</t>
+  </si>
+  <si>
+    <t>0 , 1, 2</t>
   </si>
 </sst>
 </file>
@@ -4333,7 +4612,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4427,8 +4706,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4528,6 +4813,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -4754,7 +5051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
@@ -5129,6 +5426,40 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8209,8 +8540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EFC841-C7C7-094F-9A23-9203CD86122A}">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="127" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView topLeftCell="A50" zoomScale="127" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11249,10 +11580,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005F3198-C033-B548-8CE3-0194F9495F17}">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="102" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="102" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13000,13 +13331,13 @@
         <v>1316</v>
       </c>
       <c r="F66" s="105" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G66" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H66" s="130" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I66" s="123"/>
     </row>
@@ -13024,7 +13355,7 @@
         <v>1305</v>
       </c>
       <c r="E67" s="106" t="s">
-        <v>1317</v>
+        <v>1372</v>
       </c>
       <c r="F67" s="105" t="s">
         <v>51</v>
@@ -13033,7 +13364,7 @@
         <v>418</v>
       </c>
       <c r="H67" s="130" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I67" s="123"/>
     </row>
@@ -13051,7 +13382,7 @@
         <v>1313</v>
       </c>
       <c r="E68" s="106" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F68" s="105" t="s">
         <v>9</v>
@@ -13063,7 +13394,7 @@
         <v>365</v>
       </c>
       <c r="I68" s="123" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13077,10 +13408,10 @@
         <v>205</v>
       </c>
       <c r="D69" s="121" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E69" s="106" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F69" s="105" t="s">
         <v>9</v>
@@ -13104,12 +13435,14 @@
         <v>138</v>
       </c>
       <c r="D70" s="121" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E70" s="106" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F70" s="105"/>
+        <v>1323</v>
+      </c>
+      <c r="F70" s="105" t="s">
+        <v>1373</v>
+      </c>
       <c r="G70" s="132" t="s">
         <v>418</v>
       </c>
@@ -13127,12 +13460,14 @@
         <v>139</v>
       </c>
       <c r="D71" s="121" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E71" s="106" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F71" s="105"/>
+        <v>1324</v>
+      </c>
+      <c r="F71" s="105" t="s">
+        <v>1373</v>
+      </c>
       <c r="G71" s="132" t="s">
         <v>418</v>
       </c>
@@ -13150,12 +13485,14 @@
         <v>140</v>
       </c>
       <c r="D72" s="121" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E72" s="106" t="s">
-        <v>1326</v>
-      </c>
-      <c r="F72" s="105"/>
+        <v>1325</v>
+      </c>
+      <c r="F72" s="105" t="s">
+        <v>1373</v>
+      </c>
       <c r="G72" s="132" t="s">
         <v>418</v>
       </c>
@@ -13176,7 +13513,7 @@
         <v>1314</v>
       </c>
       <c r="E73" s="106" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F73" s="105" t="s">
         <v>9</v>
@@ -13203,7 +13540,7 @@
         <v>151</v>
       </c>
       <c r="E74" s="106" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F74" s="105" t="s">
         <v>1228</v>
@@ -13213,7 +13550,7 @@
       </c>
       <c r="H74" s="130"/>
       <c r="I74" s="123" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13230,7 +13567,7 @@
         <v>157</v>
       </c>
       <c r="E75" s="106" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
       <c r="F75" s="105" t="s">
         <v>1228</v>
@@ -13240,7 +13577,7 @@
       </c>
       <c r="H75" s="130"/>
       <c r="I75" s="123" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13254,10 +13591,14 @@
         <v>1272</v>
       </c>
       <c r="D76" s="121" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E76" s="106"/>
-      <c r="F76" s="105"/>
+        <v>1327</v>
+      </c>
+      <c r="E76" s="106" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F76" s="105" t="s">
+        <v>946</v>
+      </c>
       <c r="G76" s="132" t="s">
         <v>418</v>
       </c>
@@ -13275,10 +13616,14 @@
         <v>211</v>
       </c>
       <c r="D77" s="121" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E77" s="106"/>
-      <c r="F77" s="105"/>
+        <v>1328</v>
+      </c>
+      <c r="E77" s="106" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F77" s="105" t="s">
+        <v>9</v>
+      </c>
       <c r="G77" s="132" t="s">
         <v>418</v>
       </c>
@@ -13296,14 +13641,20 @@
         <v>206</v>
       </c>
       <c r="D78" s="121" t="s">
-        <v>1330</v>
-      </c>
-      <c r="E78" s="106"/>
-      <c r="F78" s="105"/>
+        <v>1329</v>
+      </c>
+      <c r="E78" s="106" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F78" s="105" t="s">
+        <v>51</v>
+      </c>
       <c r="G78" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H78" s="130"/>
+      <c r="H78" s="130" t="s">
+        <v>1376</v>
+      </c>
       <c r="I78" s="123"/>
     </row>
     <row r="79" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13317,14 +13668,20 @@
         <v>208</v>
       </c>
       <c r="D79" s="121" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E79" s="106"/>
-      <c r="F79" s="105"/>
+        <v>1330</v>
+      </c>
+      <c r="E79" s="106" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F79" s="105" t="s">
+        <v>9</v>
+      </c>
       <c r="G79" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H79" s="130"/>
+      <c r="H79" s="130" t="s">
+        <v>953</v>
+      </c>
       <c r="I79" s="123"/>
     </row>
     <row r="80" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13338,10 +13695,14 @@
         <v>1273</v>
       </c>
       <c r="D80" s="121" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E80" s="106"/>
-      <c r="F80" s="105"/>
+        <v>1335</v>
+      </c>
+      <c r="E80" s="106" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F80" s="105" t="s">
+        <v>9</v>
+      </c>
       <c r="G80" s="132" t="s">
         <v>418</v>
       </c>
@@ -13359,10 +13720,14 @@
         <v>214</v>
       </c>
       <c r="D81" s="121" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E81" s="106"/>
-      <c r="F81" s="105"/>
+        <v>1336</v>
+      </c>
+      <c r="E81" s="106" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F81" s="105" t="s">
+        <v>9</v>
+      </c>
       <c r="G81" s="132" t="s">
         <v>418</v>
       </c>
@@ -13382,10 +13747,18 @@
       <c r="D82" s="185" t="s">
         <v>1315</v>
       </c>
-      <c r="E82" s="106"/>
-      <c r="F82" s="105"/>
-      <c r="G82" s="132"/>
-      <c r="H82" s="130"/>
+      <c r="E82" s="106" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F82" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="132" t="s">
+        <v>451</v>
+      </c>
+      <c r="H82" s="130" t="s">
+        <v>1380</v>
+      </c>
       <c r="I82" s="123"/>
     </row>
     <row r="83" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13399,10 +13772,14 @@
         <v>146</v>
       </c>
       <c r="D83" s="121" t="s">
-        <v>1338</v>
-      </c>
-      <c r="E83" s="106"/>
-      <c r="F83" s="105"/>
+        <v>1337</v>
+      </c>
+      <c r="E83" s="106" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F83" s="105" t="s">
+        <v>9</v>
+      </c>
       <c r="G83" s="132" t="s">
         <v>418</v>
       </c>
@@ -13420,10 +13797,14 @@
         <v>145</v>
       </c>
       <c r="D84" s="121" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E84" s="106"/>
-      <c r="F84" s="105"/>
+        <v>1338</v>
+      </c>
+      <c r="E84" s="106" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F84" s="105" t="s">
+        <v>1383</v>
+      </c>
       <c r="G84" s="132" t="s">
         <v>418</v>
       </c>
@@ -13441,10 +13822,14 @@
         <v>144</v>
       </c>
       <c r="D85" s="121" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E85" s="106"/>
-      <c r="F85" s="105"/>
+        <v>1339</v>
+      </c>
+      <c r="E85" s="106" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F85" s="105" t="s">
+        <v>1383</v>
+      </c>
       <c r="G85" s="132" t="s">
         <v>418</v>
       </c>
@@ -13462,14 +13847,20 @@
         <v>1275</v>
       </c>
       <c r="D86" s="121" t="s">
-        <v>1341</v>
-      </c>
-      <c r="E86" s="106"/>
-      <c r="F86" s="105"/>
+        <v>1340</v>
+      </c>
+      <c r="E86" s="106" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F86" s="105" t="s">
+        <v>9</v>
+      </c>
       <c r="G86" s="132" t="s">
         <v>451</v>
       </c>
-      <c r="H86" s="130"/>
+      <c r="H86" s="130" t="s">
+        <v>1385</v>
+      </c>
       <c r="I86" s="123"/>
     </row>
     <row r="87" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13483,14 +13874,20 @@
         <v>1276</v>
       </c>
       <c r="D87" s="121" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E87" s="106"/>
-      <c r="F87" s="105"/>
+        <v>1341</v>
+      </c>
+      <c r="E87" s="106" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F87" s="105" t="s">
+        <v>9</v>
+      </c>
       <c r="G87" s="132" t="s">
         <v>451</v>
       </c>
-      <c r="H87" s="130"/>
+      <c r="H87" s="130" t="s">
+        <v>545</v>
+      </c>
       <c r="I87" s="123"/>
     </row>
     <row r="88" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13504,14 +13901,20 @@
         <v>1277</v>
       </c>
       <c r="D88" s="185" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E88" s="106"/>
-      <c r="F88" s="105"/>
+        <v>1342</v>
+      </c>
+      <c r="E88" s="106" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F88" s="105" t="s">
+        <v>9</v>
+      </c>
       <c r="G88" s="132" t="s">
         <v>451</v>
       </c>
-      <c r="H88" s="130"/>
+      <c r="H88" s="186" t="s">
+        <v>1385</v>
+      </c>
       <c r="I88" s="123"/>
     </row>
     <row r="89" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13525,14 +13928,20 @@
         <v>1278</v>
       </c>
       <c r="D89" s="185" t="s">
-        <v>1344</v>
-      </c>
-      <c r="E89" s="106"/>
-      <c r="F89" s="105"/>
+        <v>1343</v>
+      </c>
+      <c r="E89" s="106" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F89" s="105" t="s">
+        <v>9</v>
+      </c>
       <c r="G89" s="132" t="s">
         <v>451</v>
       </c>
-      <c r="H89" s="130"/>
+      <c r="H89" s="186" t="s">
+        <v>610</v>
+      </c>
       <c r="I89" s="123"/>
     </row>
     <row r="90" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13548,8 +13957,12 @@
       <c r="D90" s="121" t="s">
         <v>171</v>
       </c>
-      <c r="E90" s="106"/>
-      <c r="F90" s="105"/>
+      <c r="E90" s="106" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F90" s="105" t="s">
+        <v>828</v>
+      </c>
       <c r="G90" s="132" t="s">
         <v>418</v>
       </c>
@@ -13569,8 +13982,12 @@
       <c r="D91" s="121" t="s">
         <v>176</v>
       </c>
-      <c r="E91" s="106"/>
-      <c r="F91" s="105"/>
+      <c r="E91" s="106" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F91" s="105" t="s">
+        <v>828</v>
+      </c>
       <c r="G91" s="132" t="s">
         <v>418</v>
       </c>
@@ -13588,15 +14005,21 @@
         <v>186</v>
       </c>
       <c r="D92" s="121" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E92" s="106"/>
-      <c r="F92" s="105"/>
+        <v>1345</v>
+      </c>
+      <c r="E92" s="106" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F92" s="105" t="s">
+        <v>828</v>
+      </c>
       <c r="G92" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H92" s="130"/>
-      <c r="I92" s="123"/>
+      <c r="I92" s="123" t="s">
+        <v>1391</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="120" t="s">
@@ -13609,15 +14032,21 @@
         <v>158</v>
       </c>
       <c r="D93" s="121" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E93" s="106"/>
-      <c r="F93" s="105"/>
+        <v>1344</v>
+      </c>
+      <c r="E93" s="106" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F93" s="105" t="s">
+        <v>828</v>
+      </c>
       <c r="G93" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H93" s="130"/>
-      <c r="I93" s="123"/>
+      <c r="I93" s="123" t="s">
+        <v>1394</v>
+      </c>
     </row>
     <row r="94" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="120" t="s">
@@ -13630,15 +14059,21 @@
         <v>154</v>
       </c>
       <c r="D94" s="121" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E94" s="106"/>
-      <c r="F94" s="105"/>
+        <v>1346</v>
+      </c>
+      <c r="E94" s="106" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F94" s="105" t="s">
+        <v>828</v>
+      </c>
       <c r="G94" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H94" s="130"/>
-      <c r="I94" s="123"/>
+      <c r="I94" s="123" t="s">
+        <v>1394</v>
+      </c>
     </row>
     <row r="95" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="120" t="s">
@@ -13651,15 +14086,21 @@
         <v>193</v>
       </c>
       <c r="D95" s="121" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E95" s="106"/>
-      <c r="F95" s="105"/>
+        <v>1347</v>
+      </c>
+      <c r="E95" s="106" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F95" s="105" t="s">
+        <v>1396</v>
+      </c>
       <c r="G95" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H95" s="130"/>
-      <c r="I95" s="123"/>
+      <c r="I95" s="123" t="s">
+        <v>1394</v>
+      </c>
     </row>
     <row r="96" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="120" t="s">
@@ -13672,15 +14113,21 @@
         <v>168</v>
       </c>
       <c r="D96" s="121" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E96" s="106"/>
-      <c r="F96" s="105"/>
+        <v>1351</v>
+      </c>
+      <c r="E96" s="106" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F96" s="105" t="s">
+        <v>9</v>
+      </c>
       <c r="G96" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H96" s="130"/>
-      <c r="I96" s="123"/>
+      <c r="I96" s="123" t="s">
+        <v>1398</v>
+      </c>
     </row>
     <row r="97" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="120" t="s">
@@ -13693,15 +14140,21 @@
         <v>166</v>
       </c>
       <c r="D97" s="121" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E97" s="106"/>
-      <c r="F97" s="105"/>
+        <v>1352</v>
+      </c>
+      <c r="E97" s="106" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F97" s="105" t="s">
+        <v>51</v>
+      </c>
       <c r="G97" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H97" s="130"/>
-      <c r="I97" s="123"/>
+      <c r="I97" s="123" t="s">
+        <v>1398</v>
+      </c>
     </row>
     <row r="98" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="120" t="s">
@@ -13714,10 +14167,14 @@
         <v>1279</v>
       </c>
       <c r="D98" s="185" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E98" s="106"/>
-      <c r="F98" s="105"/>
+        <v>1353</v>
+      </c>
+      <c r="E98" s="106" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F98" s="105" t="s">
+        <v>9</v>
+      </c>
       <c r="G98" s="132" t="s">
         <v>451</v>
       </c>
@@ -13735,10 +14192,14 @@
         <v>1280</v>
       </c>
       <c r="D99" s="185" t="s">
-        <v>1356</v>
-      </c>
-      <c r="E99" s="106"/>
-      <c r="F99" s="105"/>
+        <v>1354</v>
+      </c>
+      <c r="E99" s="106" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F99" s="105" t="s">
+        <v>9</v>
+      </c>
       <c r="G99" s="132" t="s">
         <v>451</v>
       </c>
@@ -13756,10 +14217,14 @@
         <v>174</v>
       </c>
       <c r="D100" s="121" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E100" s="106"/>
-      <c r="F100" s="105"/>
+        <v>1355</v>
+      </c>
+      <c r="E100" s="106" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F100" s="105" t="s">
+        <v>721</v>
+      </c>
       <c r="G100" s="132" t="s">
         <v>418</v>
       </c>
@@ -13779,8 +14244,12 @@
       <c r="D101" s="121" t="s">
         <v>177</v>
       </c>
-      <c r="E101" s="106"/>
-      <c r="F101" s="105"/>
+      <c r="E101" s="106" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F101" s="105" t="s">
+        <v>721</v>
+      </c>
       <c r="G101" s="132" t="s">
         <v>418</v>
       </c>
@@ -13798,10 +14267,14 @@
         <v>188</v>
       </c>
       <c r="D102" s="121" t="s">
-        <v>1358</v>
-      </c>
-      <c r="E102" s="106"/>
-      <c r="F102" s="105"/>
+        <v>1356</v>
+      </c>
+      <c r="E102" s="106" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F102" s="105" t="s">
+        <v>721</v>
+      </c>
       <c r="G102" s="132" t="s">
         <v>418</v>
       </c>
@@ -13819,10 +14292,14 @@
         <v>163</v>
       </c>
       <c r="D103" s="121" t="s">
-        <v>1359</v>
-      </c>
-      <c r="E103" s="106"/>
-      <c r="F103" s="105"/>
+        <v>1357</v>
+      </c>
+      <c r="E103" s="106" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F103" s="105" t="s">
+        <v>721</v>
+      </c>
       <c r="G103" s="132" t="s">
         <v>418</v>
       </c>
@@ -13840,10 +14317,14 @@
         <v>162</v>
       </c>
       <c r="D104" s="121" t="s">
-        <v>1360</v>
-      </c>
-      <c r="E104" s="106"/>
-      <c r="F104" s="105"/>
+        <v>1358</v>
+      </c>
+      <c r="E104" s="106" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F104" s="105" t="s">
+        <v>721</v>
+      </c>
       <c r="G104" s="132" t="s">
         <v>418</v>
       </c>
@@ -13861,10 +14342,14 @@
         <v>195</v>
       </c>
       <c r="D105" s="121" t="s">
-        <v>1361</v>
-      </c>
-      <c r="E105" s="106"/>
-      <c r="F105" s="105"/>
+        <v>1359</v>
+      </c>
+      <c r="E105" s="106" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F105" s="105" t="s">
+        <v>1411</v>
+      </c>
       <c r="G105" s="132" t="s">
         <v>418</v>
       </c>
@@ -13882,10 +14367,14 @@
         <v>1281</v>
       </c>
       <c r="D106" s="185" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E106" s="106"/>
-      <c r="F106" s="105"/>
+        <v>1368</v>
+      </c>
+      <c r="E106" s="106" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F106" s="105" t="s">
+        <v>9</v>
+      </c>
       <c r="G106" s="132" t="s">
         <v>451</v>
       </c>
@@ -13903,10 +14392,14 @@
         <v>181</v>
       </c>
       <c r="D107" s="121" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E107" s="106"/>
-      <c r="F107" s="105"/>
+        <v>1367</v>
+      </c>
+      <c r="E107" s="106" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F107" s="105" t="s">
+        <v>1155</v>
+      </c>
       <c r="G107" s="132" t="s">
         <v>418</v>
       </c>
@@ -13924,10 +14417,14 @@
         <v>184</v>
       </c>
       <c r="D108" s="121" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E108" s="106"/>
-      <c r="F108" s="105"/>
+        <v>1366</v>
+      </c>
+      <c r="E108" s="106" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F108" s="105" t="s">
+        <v>1155</v>
+      </c>
       <c r="G108" s="132" t="s">
         <v>418</v>
       </c>
@@ -13945,10 +14442,14 @@
         <v>189</v>
       </c>
       <c r="D109" s="121" t="s">
-        <v>1367</v>
-      </c>
-      <c r="E109" s="106"/>
-      <c r="F109" s="105"/>
+        <v>1365</v>
+      </c>
+      <c r="E109" s="106" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F109" s="105" t="s">
+        <v>1155</v>
+      </c>
       <c r="G109" s="132" t="s">
         <v>418</v>
       </c>
@@ -13995,10 +14496,14 @@
         <v>1286</v>
       </c>
       <c r="D111" s="121" t="s">
-        <v>1366</v>
-      </c>
-      <c r="E111" s="106"/>
-      <c r="F111" s="105"/>
+        <v>1364</v>
+      </c>
+      <c r="E111" s="106" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F111" s="105" t="s">
+        <v>222</v>
+      </c>
       <c r="G111" s="132" t="s">
         <v>418</v>
       </c>
@@ -14018,10 +14523,14 @@
         <v>1282</v>
       </c>
       <c r="D112" s="121" t="s">
-        <v>1362</v>
-      </c>
-      <c r="E112" s="106"/>
-      <c r="F112" s="105"/>
+        <v>1360</v>
+      </c>
+      <c r="E112" s="106" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F112" s="105" t="s">
+        <v>1419</v>
+      </c>
       <c r="G112" s="132" t="s">
         <v>418</v>
       </c>
@@ -14041,10 +14550,14 @@
         <v>1283</v>
       </c>
       <c r="D113" s="121" t="s">
-        <v>1363</v>
-      </c>
-      <c r="E113" s="106"/>
-      <c r="F113" s="105"/>
+        <v>1361</v>
+      </c>
+      <c r="E113" s="106" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F113" s="105" t="s">
+        <v>1419</v>
+      </c>
       <c r="G113" s="132" t="s">
         <v>418</v>
       </c>
@@ -14064,10 +14577,14 @@
         <v>1284</v>
       </c>
       <c r="D114" s="121" t="s">
-        <v>1364</v>
-      </c>
-      <c r="E114" s="106"/>
-      <c r="F114" s="105"/>
+        <v>1362</v>
+      </c>
+      <c r="E114" s="106" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F114" s="105" t="s">
+        <v>9</v>
+      </c>
       <c r="G114" s="132" t="s">
         <v>418</v>
       </c>
@@ -14087,10 +14604,14 @@
         <v>1285</v>
       </c>
       <c r="D115" s="121" t="s">
-        <v>1365</v>
-      </c>
-      <c r="E115" s="106"/>
-      <c r="F115" s="105"/>
+        <v>1363</v>
+      </c>
+      <c r="E115" s="106" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F115" s="105" t="s">
+        <v>9</v>
+      </c>
       <c r="G115" s="132" t="s">
         <v>418</v>
       </c>
@@ -14100,87 +14621,700 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="120" t="s">
+      <c r="A116" s="187" t="s">
         <v>1307</v>
       </c>
-      <c r="B116" s="120" t="s">
-        <v>916</v>
-      </c>
-      <c r="C116" s="121" t="s">
+      <c r="B116" s="187" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C116" s="188" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D116" s="188" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E116" s="189" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F116" s="189" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="190" t="s">
+        <v>451</v>
+      </c>
+      <c r="H116" s="191" t="s">
+        <v>1460</v>
+      </c>
+      <c r="I116" s="192"/>
+    </row>
+    <row r="117" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B117" s="187" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C117" s="188" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D117" s="188" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E117" s="189" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F117" s="189" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" s="190" t="s">
+        <v>451</v>
+      </c>
+      <c r="H117" s="191" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I117" s="192"/>
+    </row>
+    <row r="118" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B118" s="187" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C118" s="188" t="s">
         <v>932</v>
       </c>
-      <c r="D116" s="121" t="s">
+      <c r="D118" s="188" t="s">
         <v>1311</v>
       </c>
-      <c r="E116" s="106" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F116" s="106" t="s">
+      <c r="E118" s="189" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F118" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="G116" s="132" t="s">
+      <c r="G118" s="190" t="s">
         <v>451</v>
       </c>
-      <c r="H116" s="131" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I116" s="124"/>
-    </row>
-    <row r="117" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="120" t="s">
+      <c r="H118" s="191" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I118" s="192"/>
+    </row>
+    <row r="119" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="187" t="s">
         <v>1307</v>
       </c>
-      <c r="B117" s="120" t="s">
-        <v>939</v>
-      </c>
-      <c r="C117" s="121" t="s">
+      <c r="B119" s="187" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C119" s="188" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D119" s="188" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E119" s="189" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F119" s="193" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="190" t="s">
+        <v>418</v>
+      </c>
+      <c r="H119" s="194" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I119" s="195"/>
+    </row>
+    <row r="120" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B120" s="187" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C120" s="188" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D120" s="188" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E120" s="189"/>
+      <c r="F120" s="193" t="s">
+        <v>51</v>
+      </c>
+      <c r="G120" s="190" t="s">
+        <v>418</v>
+      </c>
+      <c r="H120" s="197"/>
+      <c r="I120" s="195"/>
+    </row>
+    <row r="121" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B121" s="187" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C121" s="188" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D121" s="188" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E121" s="189"/>
+      <c r="F121" s="193" t="s">
+        <v>51</v>
+      </c>
+      <c r="G121" s="190" t="s">
+        <v>418</v>
+      </c>
+      <c r="H121" s="197"/>
+      <c r="I121" s="195"/>
+    </row>
+    <row r="122" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B122" s="187" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C122" s="188" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D122" s="188"/>
+      <c r="E122" s="189"/>
+      <c r="F122" s="193"/>
+      <c r="G122" s="190" t="s">
+        <v>418</v>
+      </c>
+      <c r="H122" s="197"/>
+      <c r="I122" s="195"/>
+    </row>
+    <row r="123" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B123" s="187" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C123" s="188" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D123" s="188"/>
+      <c r="E123" s="189"/>
+      <c r="F123" s="193"/>
+      <c r="G123" s="190" t="s">
+        <v>418</v>
+      </c>
+      <c r="H123" s="197"/>
+      <c r="I123" s="195"/>
+    </row>
+    <row r="124" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B124" s="187" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C124" s="188" t="s">
         <v>933</v>
       </c>
-      <c r="D117" s="121" t="s">
+      <c r="D124" s="188" t="s">
         <v>1312</v>
       </c>
-      <c r="E117" s="106" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F117" s="105" t="s">
+      <c r="E124" s="189" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F124" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="G117" s="132" t="s">
+      <c r="G124" s="190" t="s">
         <v>418</v>
       </c>
-      <c r="H117" s="130" t="s">
+      <c r="H124" s="194" t="s">
         <v>654</v>
       </c>
-      <c r="I117" s="123"/>
-    </row>
-    <row r="118" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="120" t="s">
+      <c r="I124" s="195"/>
+    </row>
+    <row r="125" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="187" t="s">
         <v>1307</v>
       </c>
-      <c r="B118" s="120" t="s">
-        <v>939</v>
-      </c>
-      <c r="C118" s="121" t="s">
+      <c r="B125" s="187" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C125" s="188" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D125" s="188"/>
+      <c r="E125" s="189"/>
+      <c r="F125" s="193"/>
+      <c r="G125" s="190" t="s">
+        <v>451</v>
+      </c>
+      <c r="H125" s="197"/>
+      <c r="I125" s="195"/>
+    </row>
+    <row r="126" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B126" s="187" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C126" s="188" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D126" s="188"/>
+      <c r="E126" s="189"/>
+      <c r="F126" s="193"/>
+      <c r="G126" s="190" t="s">
+        <v>451</v>
+      </c>
+      <c r="H126" s="197"/>
+      <c r="I126" s="195"/>
+    </row>
+    <row r="127" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B127" s="187" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C127" s="188" t="s">
         <v>934</v>
       </c>
-      <c r="D118" s="121" t="s">
+      <c r="D127" s="188"/>
+      <c r="E127" s="189"/>
+      <c r="F127" s="193"/>
+      <c r="G127" s="190" t="s">
+        <v>440</v>
+      </c>
+      <c r="H127" s="197"/>
+      <c r="I127" s="195"/>
+    </row>
+    <row r="128" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B128" s="187" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C128" s="188" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D128" s="188" t="s">
+        <v>290</v>
+      </c>
+      <c r="E128" s="189"/>
+      <c r="F128" s="193"/>
+      <c r="G128" s="190" t="s">
+        <v>440</v>
+      </c>
+      <c r="H128" s="197"/>
+      <c r="I128" s="195"/>
+    </row>
+    <row r="129" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B129" s="187" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C129" s="188" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D129" s="188" t="s">
+        <v>289</v>
+      </c>
+      <c r="E129" s="189"/>
+      <c r="F129" s="193"/>
+      <c r="G129" s="190" t="s">
+        <v>440</v>
+      </c>
+      <c r="H129" s="197"/>
+      <c r="I129" s="195"/>
+    </row>
+    <row r="130" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B130" s="187" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C130" s="188" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D130" s="188" t="s">
+        <v>283</v>
+      </c>
+      <c r="E130" s="189"/>
+      <c r="F130" s="193"/>
+      <c r="G130" s="190" t="s">
+        <v>440</v>
+      </c>
+      <c r="H130" s="197"/>
+      <c r="I130" s="195"/>
+    </row>
+    <row r="131" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B131" s="187" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C131" s="188" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D131" s="188" t="s">
+        <v>396</v>
+      </c>
+      <c r="E131" s="189"/>
+      <c r="F131" s="193"/>
+      <c r="G131" s="190" t="s">
+        <v>440</v>
+      </c>
+      <c r="H131" s="197"/>
+      <c r="I131" s="195"/>
+    </row>
+    <row r="132" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B132" s="187" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C132" s="188" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D132" s="188" t="s">
+        <v>349</v>
+      </c>
+      <c r="E132" s="189"/>
+      <c r="F132" s="193"/>
+      <c r="G132" s="190" t="s">
+        <v>440</v>
+      </c>
+      <c r="H132" s="197"/>
+      <c r="I132" s="195"/>
+    </row>
+    <row r="133" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B133" s="187" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C133" s="188" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D133" s="188" t="s">
+        <v>348</v>
+      </c>
+      <c r="E133" s="189"/>
+      <c r="F133" s="193"/>
+      <c r="G133" s="190" t="s">
+        <v>440</v>
+      </c>
+      <c r="H133" s="197"/>
+      <c r="I133" s="195"/>
+    </row>
+    <row r="134" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B134" s="187" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C134" s="188" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D134" s="188" t="s">
+        <v>347</v>
+      </c>
+      <c r="E134" s="189"/>
+      <c r="F134" s="193"/>
+      <c r="G134" s="190" t="s">
+        <v>440</v>
+      </c>
+      <c r="H134" s="197"/>
+      <c r="I134" s="195"/>
+    </row>
+    <row r="135" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B135" s="187" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C135" s="188" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D135" s="188" t="s">
+        <v>396</v>
+      </c>
+      <c r="E135" s="189"/>
+      <c r="F135" s="193"/>
+      <c r="G135" s="190" t="s">
+        <v>440</v>
+      </c>
+      <c r="H135" s="197"/>
+      <c r="I135" s="195"/>
+    </row>
+    <row r="136" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B136" s="187" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C136" s="188" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D136" s="188" t="s">
+        <v>274</v>
+      </c>
+      <c r="E136" s="189"/>
+      <c r="F136" s="193"/>
+      <c r="G136" s="190" t="s">
+        <v>440</v>
+      </c>
+      <c r="H136" s="197"/>
+      <c r="I136" s="195"/>
+    </row>
+    <row r="137" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B137" s="187" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C137" s="188" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D137" s="188" t="s">
+        <v>966</v>
+      </c>
+      <c r="E137" s="189"/>
+      <c r="F137" s="193"/>
+      <c r="G137" s="190" t="s">
+        <v>440</v>
+      </c>
+      <c r="H137" s="197"/>
+      <c r="I137" s="195"/>
+    </row>
+    <row r="138" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B138" s="187" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C138" s="188" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D138" s="188" t="s">
+        <v>973</v>
+      </c>
+      <c r="E138" s="189"/>
+      <c r="F138" s="193"/>
+      <c r="G138" s="190" t="s">
+        <v>440</v>
+      </c>
+      <c r="H138" s="197"/>
+      <c r="I138" s="195"/>
+    </row>
+    <row r="139" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B139" s="187" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C139" s="188" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D139" s="188" t="s">
+        <v>396</v>
+      </c>
+      <c r="E139" s="189"/>
+      <c r="F139" s="193"/>
+      <c r="G139" s="190" t="s">
+        <v>440</v>
+      </c>
+      <c r="H139" s="197"/>
+      <c r="I139" s="195"/>
+    </row>
+    <row r="140" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B140" s="187" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C140" s="188" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D140" s="188" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E140" s="189"/>
+      <c r="F140" s="193"/>
+      <c r="G140" s="190" t="s">
+        <v>440</v>
+      </c>
+      <c r="H140" s="197"/>
+      <c r="I140" s="195"/>
+    </row>
+    <row r="141" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B141" s="187" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C141" s="188" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D141" s="188" t="s">
+        <v>972</v>
+      </c>
+      <c r="E141" s="189"/>
+      <c r="F141" s="193"/>
+      <c r="G141" s="190" t="s">
+        <v>440</v>
+      </c>
+      <c r="H141" s="197"/>
+      <c r="I141" s="195"/>
+    </row>
+    <row r="142" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B142" s="187" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C142" s="188" t="s">
+        <v>934</v>
+      </c>
+      <c r="D142" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="E118" s="106" t="s">
+      <c r="E142" s="189" t="s">
         <v>1110</v>
       </c>
-      <c r="F118" s="105" t="s">
+      <c r="F142" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="G118" s="132" t="s">
+      <c r="G142" s="190" t="s">
         <v>440</v>
       </c>
-      <c r="H118" s="176" t="s">
+      <c r="H142" s="196" t="s">
         <v>1111</v>
       </c>
-      <c r="I118" s="123"/>
+      <c r="I142" s="195"/>
+    </row>
+    <row r="143" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B143" s="187" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C143" s="188" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D143" s="188" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="189" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F143" s="193" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" s="190" t="s">
+        <v>440</v>
+      </c>
+      <c r="H143" s="196" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I143" s="195"/>
+    </row>
+    <row r="144" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B144" s="187" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C144" s="188" t="s">
+        <v>130</v>
+      </c>
+      <c r="D144" s="188"/>
+      <c r="E144" s="189"/>
+      <c r="F144" s="193" t="s">
+        <v>9</v>
+      </c>
+      <c r="G144" s="190" t="s">
+        <v>418</v>
+      </c>
+      <c r="H144" s="196">
+        <v>900</v>
+      </c>
+      <c r="I144" s="195"/>
+    </row>
+    <row r="145" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B145" s="187" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C145" s="188" t="s">
+        <v>131</v>
+      </c>
+      <c r="D145" s="188"/>
+      <c r="E145" s="189"/>
+      <c r="F145" s="193"/>
+      <c r="G145" s="190" t="s">
+        <v>418</v>
+      </c>
+      <c r="H145" s="196">
+        <v>1200</v>
+      </c>
+      <c r="I145" s="195"/>
+    </row>
+    <row r="146" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="187" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B146" s="187" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C146" s="188" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D146" s="188" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" s="189"/>
+      <c r="F146" s="193" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" s="190" t="s">
+        <v>451</v>
+      </c>
+      <c r="H146" s="196" t="s">
+        <v>679</v>
+      </c>
+      <c r="I146" s="195"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/tables/aed_variable_tables.xlsx
+++ b/tables/aed_variable_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthipsey/AED Dropbox/05_Software/AED/aed-science/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB38027-8FFA-C44A-8E48-C6B866485AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB4F8D8-A967-3E42-BB60-95FCDEF76E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2900" yWindow="500" windowWidth="41480" windowHeight="27220" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3972" uniqueCount="1464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4043" uniqueCount="1548">
   <si>
     <t>Oxygen</t>
   </si>
@@ -3735,18 +3735,6 @@
     <t>net phytoplankton community production</t>
   </si>
   <si>
-    <t>phytoplankton community nitrate uptake rate</t>
-  </si>
-  <si>
-    <t>phytoplankton community ammonium uptake rate</t>
-  </si>
-  <si>
-    <t>phytoplankton community phosphate uptake rate</t>
-  </si>
-  <si>
-    <t>phytoplankton community carbon dioxide uptake rate</t>
-  </si>
-  <si>
     <t>total chlorophyll-a concentration</t>
   </si>
   <si>
@@ -3768,12 +3756,6 @@
     <t>microphytobenthos vertical exchange</t>
   </si>
   <si>
-    <t>total phytoplankton community concentration</t>
-  </si>
-  <si>
-    <t>gross phytoplankton P:R ratio</t>
-  </si>
-  <si>
     <t>net phytoplankton P:R ratio</t>
   </si>
   <si>
@@ -3813,9 +3795,6 @@
     <t>kg\: C/m^3</t>
   </si>
   <si>
-    <t>f_{gpp}^{PHY}</t>
-  </si>
-  <si>
     <t xml:space="preserve">activated for a group when `settling=3` </t>
   </si>
   <si>
@@ -3894,9 +3873,6 @@
     <t>PHY_mpb_swi</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>W/m^2</t>
   </si>
   <si>
@@ -3972,18 +3948,6 @@
     <t>PHY_{name}_fSal</t>
   </si>
   <si>
-    <t>phytoplankton growth limitation functions for the group `name`</t>
-  </si>
-  <si>
-    <t>phytoplankton sedimentation velocity for the group `name`</t>
-  </si>
-  <si>
-    <t>phytoplankton internal N:P ratio or the group `name`</t>
-  </si>
-  <si>
-    <t>phytoplankton community n2 uptake rate</t>
-  </si>
-  <si>
     <t>gross phytoplankton community  primary production rate</t>
   </si>
   <si>
@@ -3993,30 +3957,9 @@
     <t>phytoplankton community resuspension flux</t>
   </si>
   <si>
-    <t>phytoplankton gross primary production for the group `name`</t>
-  </si>
-  <si>
     <t>PHY_{name}_set_p</t>
   </si>
   <si>
-    <t>phytoplankton respiration rate for the group `name`</t>
-  </si>
-  <si>
-    <t>phytoplankton excretion rate for the group `name`</t>
-  </si>
-  <si>
-    <t>phytoplankton mortality rate for the group `name`</t>
-  </si>
-  <si>
-    <t>phytoplankton sedimentation rate for the group `name`</t>
-  </si>
-  <si>
-    <t>0-10000</t>
-  </si>
-  <si>
-    <t>I_{PAR}</t>
-  </si>
-  <si>
     <t>p_initial</t>
   </si>
   <si>
@@ -4494,15 +4437,9 @@
     <t>num_phy</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>the_phy</t>
   </si>
   <si>
-    <t>option to set the method of resuspension for $PHY$ group $a$</t>
-  </si>
-  <si>
     <t>do_mpb</t>
   </si>
   <si>
@@ -4590,9 +4527,6 @@
     <t>number of phytoplankton groups/species</t>
   </si>
   <si>
-    <t>list of chosen group ID's within the database file</t>
-  </si>
-  <si>
     <t>1 - 64</t>
   </si>
   <si>
@@ -4603,6 +4537,324 @@
   </si>
   <si>
     <t>0 , 1, 2</t>
+  </si>
+  <si>
+    <t>MPB_{max}</t>
+  </si>
+  <si>
+    <t>number of benthic zones where $MPB$ is active</t>
+  </si>
+  <si>
+    <t>N_{sz}^{mpb}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable simulating resuspension rate to link to </t>
+  </si>
+  <si>
+    <t>\rho_{max}^{phy}</t>
+  </si>
+  <si>
+    <t>\rho_{min}^{phy}</t>
+  </si>
+  <si>
+    <t>\mathbb{PHY}</t>
+  </si>
+  <si>
+    <t>N_{a}^{phy}</t>
+  </si>
+  <si>
+    <t>set of chosen group ID's within the database file, where $a \in \mathbb{PHY}$</t>
+  </si>
+  <si>
+    <t>maximum growth rate of $MPB$</t>
+  </si>
+  <si>
+    <t>dark respiration rate of $MPB$</t>
+  </si>
+  <si>
+    <t>\mathbb{Z}_{sz}^{mpb}</t>
+  </si>
+  <si>
+    <t>set of  benthic zones with $MPB$ active, where $sz \in \mathbb{Z}$</t>
+  </si>
+  <si>
+    <t>minimum cellular density</t>
+  </si>
+  <si>
+    <t>maximum cellular density</t>
+  </si>
+  <si>
+    <t>extent of diagnostic output</t>
+  </si>
+  <si>
+    <t>see Table X.X</t>
+  </si>
+  <si>
+    <t>aed_dbase link</t>
+  </si>
+  <si>
+    <t>0 - 3</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>0 - 64</t>
+  </si>
+  <si>
+    <t>`OGM_dop`</t>
+  </si>
+  <si>
+    <t>fraction to set the amount of resuspension for $PHY$ group $a$</t>
+  </si>
+  <si>
+    <t>\Theta_{mpb}^{phy}</t>
+  </si>
+  <si>
+    <t>option to include $MPB$ as a simulated benthic variable</t>
+  </si>
+  <si>
+    <t>maximum biomass density of $MPB$</t>
+  </si>
+  <si>
+    <t>state variable to add Si excretion</t>
+  </si>
+  <si>
+    <t>state variable to add DOP excretion</t>
+  </si>
+  <si>
+    <t>state variable to add DON excretion</t>
+  </si>
+  <si>
+    <t>state variable to add DOC excretion</t>
+  </si>
+  <si>
+    <t>state variable to add POP mortality</t>
+  </si>
+  <si>
+    <t>state variable to add PON mortality</t>
+  </si>
+  <si>
+    <t>state variable to add POC mortality</t>
+  </si>
+  <si>
+    <t>state variable to add Si mortality</t>
+  </si>
+  <si>
+    <t>state variable to provide FRP for growth</t>
+  </si>
+  <si>
+    <t>state variable to provide $NO_3$ for growth</t>
+  </si>
+  <si>
+    <t>state variable to provide $NH_4$ for growth</t>
+  </si>
+  <si>
+    <t>state variable to provide $Si$ for growth</t>
+  </si>
+  <si>
+    <t>state variable to increment $O_2$ during growth</t>
+  </si>
+  <si>
+    <t>state variable to provide $DIC$ during growth</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 - 1 </t>
+  </si>
+  <si>
+    <t>\hat{f}_{gpp}^{MPB}</t>
+  </si>
+  <si>
+    <t>\hat{f}_{rsp}^{MPB}</t>
+  </si>
+  <si>
+    <t>\hat{f}_{swi}^{MPB}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{gpp}^{PHY_a}}</t>
+  </si>
+  <si>
+    <t>\mathbf{\mathbb{IP}}</t>
+  </si>
+  <si>
+    <t>\mathbf{\mathbb{IN}}</t>
+  </si>
+  <si>
+    <t>\mathbf{\mathbb{TCHLA}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{upt_{PO4}}^{\mathbb{PHY}}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{upt_{N2}}^{\mathbb{PHY}}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{upt_{NH4}}^{\mathbb{PHY}}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{upt_{NO3}}^{\mathbb{PHY}}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{gpp}^{\mathbb{PHY}}}</t>
+  </si>
+  <si>
+    <t>\mathbf{\hat{f}_{res}^{\mathbb{PHY}}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{set}^{\mathbb{PHY}}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{rsp}^{PHY_a}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{exc}^{PHY_a}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{mor}^{PHY_a}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{set}^{PHY_a}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{rsp}^{IN_a}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{exc}^{IN_a}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{mor}^{IN_a}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{set}^{IN_a}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{gpp}^{IN_a}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{gpp}^{IP_a}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{rsp}^{IP_a}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{exc}^{IP_a}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{mor}^{IP_a}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{set}^{IP_a}}</t>
+  </si>
+  <si>
+    <t>\mathbf{\Phi_{light}^{PHY_{a}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phytoplankton respiration rate for the $a^{th}$ group, `name` </t>
+  </si>
+  <si>
+    <t>\mathbf{\Phi_{N}^{PHY_{a}}}</t>
+  </si>
+  <si>
+    <t>\mathbf{\Phi_{P}^{PHY_{a}}}</t>
+  </si>
+  <si>
+    <t>\mathbf{\Phi_{Si}^{PHY_{a}}}</t>
+  </si>
+  <si>
+    <t>\mathbf{\Phi_{tem}^{PHY_{a}}}</t>
+  </si>
+  <si>
+    <t>\mathbf{\Phi_{sal}^{PHY_{a}}}</t>
+  </si>
+  <si>
+    <t>\mathbf{\omega_{p}^{PHY_a}}</t>
+  </si>
+  <si>
+    <t>\mathbf{TPHY}</t>
+  </si>
+  <si>
+    <t>total phytoplankton community, $\mathbb{PHY}$ concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phytoplankton internal N:P ratio for the $a^{th}$ group, `name` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phytoplankton sedimentation velocity for the $a^{th}$ group, `name` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phytoplankton gross primary production for the $a^{th}$ group, `name` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phytoplankton excretion rate for the $a^{th}$ group, `name` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phytoplankton mortality rate for the $a^{th}$ group, `name` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phytoplankton sedimentation rate for the $a^{th}$ group, `name` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phytoplankton growth limitation function for the $a^{th}$ group, `name` </t>
+  </si>
+  <si>
+    <t>gross phytoplankton $P:R$ ratio</t>
+  </si>
+  <si>
+    <t>\mathbf{I_{PAR}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{upt_{DIC}}^{\mathbb{PHY}}}</t>
+  </si>
+  <si>
+    <t>phytoplankton community $N_2$ uptake rate</t>
+  </si>
+  <si>
+    <t>phytoplankton community $PO_4$ uptake rate</t>
+  </si>
+  <si>
+    <t>phytoplankton community $CO_2$ uptake rate</t>
+  </si>
+  <si>
+    <t>phytoplankton community $NH_4$ uptake rate</t>
+  </si>
+  <si>
+    <t>phytoplankton community $NO_3$ uptake rate</t>
+  </si>
+  <si>
+    <t>0 - 10000</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{gpp}^{\mathbb{PHY}}} - \mathbf{f_{rsp}^{\mathbb{PHY}}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{gpp}^{\mathbb{PHY}}} / \mathbf{f_{rsp}^{\mathbb{PHY}}}</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{ncp}^{\mathbb{PHY}}} / \mathbf{f_{rsp}^{\mathbb{PHY}}}</t>
+  </si>
+  <si>
+    <t>I_{K_{mpb}}</t>
+  </si>
+  <si>
+    <t>`OGM_don`</t>
+  </si>
+  <si>
+    <t>`OGM_doc`</t>
+  </si>
+  <si>
+    <t>`SIL_rsi`</t>
+  </si>
+  <si>
+    <t>`OGM_pop`</t>
+  </si>
+  <si>
+    <t>`OGM_pon`</t>
+  </si>
+  <si>
+    <t>`OGM_poc`</t>
   </si>
 </sst>
 </file>
@@ -4713,7 +4965,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4825,6 +5077,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -5051,7 +5309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
@@ -5417,9 +5675,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5459,6 +5714,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11580,10 +11839,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005F3198-C033-B548-8CE3-0194F9495F17}">
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="102" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H142" sqref="H142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11639,7 +11898,7 @@
         <v>1163</v>
       </c>
       <c r="D2" s="117" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="E2" s="99" t="s">
         <v>1168</v>
@@ -11668,7 +11927,7 @@
         <v>1164</v>
       </c>
       <c r="D3" s="117" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="E3" s="99" t="s">
         <v>1169</v>
@@ -11683,7 +11942,7 @@
         <v>443</v>
       </c>
       <c r="I3" s="100" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -11697,7 +11956,7 @@
         <v>1165</v>
       </c>
       <c r="D4" s="117" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="E4" s="99" t="s">
         <v>1170</v>
@@ -11709,10 +11968,10 @@
         <v>456</v>
       </c>
       <c r="H4" s="126" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="I4" s="100" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -11726,22 +11985,22 @@
         <v>1166</v>
       </c>
       <c r="D5" s="117" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E5" s="99" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F5" s="99" t="s">
         <v>1193</v>
-      </c>
-      <c r="E5" s="99" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F5" s="99" t="s">
-        <v>1199</v>
       </c>
       <c r="G5" s="135" t="s">
         <v>456</v>
       </c>
       <c r="H5" s="126" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="I5" s="100" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -11755,7 +12014,7 @@
         <v>1162</v>
       </c>
       <c r="D6" s="117" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="E6" s="99" t="s">
         <v>827</v>
@@ -11770,7 +12029,7 @@
         <v>364</v>
       </c>
       <c r="I6" s="100" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -12088,7 +12347,7 @@
         <v>1133</v>
       </c>
       <c r="E18" s="99" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="F18" s="99" t="s">
         <v>1155</v>
@@ -12112,7 +12371,7 @@
         <v>799</v>
       </c>
       <c r="D19" s="117" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="E19" s="99" t="s">
         <v>838</v>
@@ -12138,13 +12397,13 @@
         <v>468</v>
       </c>
       <c r="C20" s="119" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="D20" s="119" t="s">
-        <v>9</v>
+        <v>1497</v>
       </c>
       <c r="E20" s="119" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="F20" s="102" t="s">
         <v>582</v>
@@ -12163,13 +12422,13 @@
         <v>468</v>
       </c>
       <c r="C21" s="119" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="D21" s="119" t="s">
-        <v>9</v>
+        <v>1496</v>
       </c>
       <c r="E21" s="119" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="F21" s="102" t="s">
         <v>583</v>
@@ -12188,13 +12447,13 @@
         <v>468</v>
       </c>
       <c r="C22" s="119" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="D22" s="119" t="s">
-        <v>1200</v>
+        <v>1495</v>
       </c>
       <c r="E22" s="119" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="F22" s="102" t="s">
         <v>582</v>
@@ -12213,10 +12472,10 @@
         <v>468</v>
       </c>
       <c r="C23" s="119" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="D23" s="119" t="s">
-        <v>9</v>
+        <v>1538</v>
       </c>
       <c r="E23" s="119" t="s">
         <v>1173</v>
@@ -12238,13 +12497,13 @@
         <v>863</v>
       </c>
       <c r="C24" s="182" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="D24" s="119" t="s">
-        <v>9</v>
+        <v>1494</v>
       </c>
       <c r="E24" s="119" t="s">
-        <v>1174</v>
+        <v>1536</v>
       </c>
       <c r="F24" s="102" t="s">
         <v>896</v>
@@ -12263,13 +12522,13 @@
         <v>863</v>
       </c>
       <c r="C25" s="182" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="D25" s="119" t="s">
-        <v>9</v>
+        <v>1493</v>
       </c>
       <c r="E25" s="119" t="s">
-        <v>1175</v>
+        <v>1535</v>
       </c>
       <c r="F25" s="102" t="s">
         <v>896</v>
@@ -12288,13 +12547,13 @@
         <v>863</v>
       </c>
       <c r="C26" s="182" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="D26" s="119" t="s">
-        <v>9</v>
+        <v>1492</v>
       </c>
       <c r="E26" s="119" t="s">
-        <v>1256</v>
+        <v>1532</v>
       </c>
       <c r="F26" s="102" t="s">
         <v>896</v>
@@ -12313,13 +12572,13 @@
         <v>863</v>
       </c>
       <c r="C27" s="182" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D27" s="119" t="s">
-        <v>9</v>
+        <v>1210</v>
+      </c>
+      <c r="D27" s="138" t="s">
+        <v>1491</v>
       </c>
       <c r="E27" s="119" t="s">
-        <v>1176</v>
+        <v>1533</v>
       </c>
       <c r="F27" s="102" t="s">
         <v>897</v>
@@ -12338,13 +12597,13 @@
         <v>863</v>
       </c>
       <c r="C28" s="182" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D28" s="119" t="s">
-        <v>9</v>
+        <v>1211</v>
+      </c>
+      <c r="D28" s="138" t="s">
+        <v>1531</v>
       </c>
       <c r="E28" s="119" t="s">
-        <v>1177</v>
+        <v>1534</v>
       </c>
       <c r="F28" s="102" t="s">
         <v>582</v>
@@ -12360,19 +12619,19 @@
         <v>419</v>
       </c>
       <c r="B29" s="118" t="s">
-        <v>468</v>
+        <v>863</v>
       </c>
       <c r="C29" s="119" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="D29" s="119" t="s">
-        <v>9</v>
+        <v>1490</v>
       </c>
       <c r="E29" s="119" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="F29" s="102" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="G29" s="136" t="s">
         <v>456</v>
@@ -12385,16 +12644,16 @@
         <v>419</v>
       </c>
       <c r="B30" s="118" t="s">
-        <v>468</v>
+        <v>863</v>
       </c>
       <c r="C30" s="119" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="D30" s="119" t="s">
-        <v>9</v>
+        <v>1489</v>
       </c>
       <c r="E30" s="119" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="F30" s="102" t="s">
         <v>828</v>
@@ -12410,16 +12669,16 @@
         <v>419</v>
       </c>
       <c r="B31" s="118" t="s">
-        <v>468</v>
+        <v>863</v>
       </c>
       <c r="C31" s="119" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D31" s="119" t="s">
-        <v>9</v>
+        <v>1488</v>
       </c>
       <c r="E31" s="119" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="F31" s="102" t="s">
         <v>721</v>
@@ -12435,16 +12694,16 @@
         <v>419</v>
       </c>
       <c r="B32" s="118" t="s">
-        <v>468</v>
+        <v>863</v>
       </c>
       <c r="C32" s="119" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="D32" s="119" t="s">
-        <v>9</v>
+        <v>1188</v>
       </c>
       <c r="E32" s="119" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="F32" s="102" t="s">
         <v>893</v>
@@ -12453,7 +12712,7 @@
         <v>457</v>
       </c>
       <c r="H32" s="128" t="s">
-        <v>1266</v>
+        <v>1537</v>
       </c>
       <c r="I32" s="104" t="s">
         <v>1172</v>
@@ -12464,16 +12723,16 @@
         <v>419</v>
       </c>
       <c r="B33" s="118" t="s">
-        <v>468</v>
+        <v>863</v>
       </c>
       <c r="C33" s="119" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="D33" s="119" t="s">
-        <v>9</v>
+        <v>1484</v>
       </c>
       <c r="E33" s="119" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="F33" s="102" t="s">
         <v>583</v>
@@ -12491,16 +12750,16 @@
         <v>419</v>
       </c>
       <c r="B34" s="118" t="s">
-        <v>468</v>
+        <v>863</v>
       </c>
       <c r="C34" s="119" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="D34" s="119" t="s">
-        <v>9</v>
+        <v>1485</v>
       </c>
       <c r="E34" s="119" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="F34" s="102" t="s">
         <v>583</v>
@@ -12518,16 +12777,16 @@
         <v>419</v>
       </c>
       <c r="B35" s="118" t="s">
-        <v>468</v>
+        <v>863</v>
       </c>
       <c r="C35" s="119" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D35" s="119" t="s">
-        <v>9</v>
+        <v>1219</v>
+      </c>
+      <c r="D35" s="138" t="s">
+        <v>1486</v>
       </c>
       <c r="E35" s="119" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="F35" s="102" t="s">
         <v>583</v>
@@ -12545,16 +12804,16 @@
         <v>419</v>
       </c>
       <c r="B36" s="118" t="s">
-        <v>468</v>
+        <v>1171</v>
       </c>
       <c r="C36" s="119" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="D36" s="119" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="E36" s="119" t="s">
-        <v>1255</v>
+        <v>1522</v>
       </c>
       <c r="F36" s="102" t="s">
         <v>9</v>
@@ -12573,13 +12832,13 @@
         <v>1171</v>
       </c>
       <c r="C37" s="119" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D37" s="119" t="s">
-        <v>9</v>
+        <v>1224</v>
+      </c>
+      <c r="D37" s="138" t="s">
+        <v>1519</v>
       </c>
       <c r="E37" s="119" t="s">
-        <v>1254</v>
+        <v>1523</v>
       </c>
       <c r="F37" s="102" t="s">
         <v>217</v>
@@ -12598,13 +12857,13 @@
         <v>1171</v>
       </c>
       <c r="C38" s="119" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="D38" s="119" t="s">
-        <v>9</v>
+        <v>1487</v>
       </c>
       <c r="E38" s="119" t="s">
-        <v>1260</v>
+        <v>1524</v>
       </c>
       <c r="F38" s="102" t="s">
         <v>582</v>
@@ -12623,13 +12882,13 @@
         <v>1171</v>
       </c>
       <c r="C39" s="119" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="D39" s="119" t="s">
-        <v>9</v>
+        <v>1498</v>
       </c>
       <c r="E39" s="119" t="s">
-        <v>1262</v>
+        <v>1513</v>
       </c>
       <c r="F39" s="102" t="s">
         <v>582</v>
@@ -12648,13 +12907,13 @@
         <v>1171</v>
       </c>
       <c r="C40" s="119" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="D40" s="119" t="s">
-        <v>9</v>
+        <v>1499</v>
       </c>
       <c r="E40" s="119" t="s">
-        <v>1263</v>
+        <v>1525</v>
       </c>
       <c r="F40" s="102" t="s">
         <v>582</v>
@@ -12673,13 +12932,13 @@
         <v>1171</v>
       </c>
       <c r="C41" s="119" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="D41" s="119" t="s">
-        <v>9</v>
+        <v>1500</v>
       </c>
       <c r="E41" s="119" t="s">
-        <v>1264</v>
+        <v>1526</v>
       </c>
       <c r="F41" s="102" t="s">
         <v>582</v>
@@ -12698,13 +12957,13 @@
         <v>1171</v>
       </c>
       <c r="C42" s="119" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="D42" s="119" t="s">
-        <v>9</v>
+        <v>1501</v>
       </c>
       <c r="E42" s="138" t="s">
-        <v>1265</v>
+        <v>1527</v>
       </c>
       <c r="F42" s="102" t="s">
         <v>582</v>
@@ -12723,13 +12982,13 @@
         <v>1171</v>
       </c>
       <c r="C43" s="119" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="D43" s="119" t="s">
-        <v>9</v>
+        <v>1506</v>
       </c>
       <c r="E43" s="119" t="s">
-        <v>1260</v>
+        <v>1524</v>
       </c>
       <c r="F43" s="102" t="s">
         <v>828</v>
@@ -12748,13 +13007,13 @@
         <v>1171</v>
       </c>
       <c r="C44" s="119" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="D44" s="119" t="s">
-        <v>9</v>
+        <v>1502</v>
       </c>
       <c r="E44" s="119" t="s">
-        <v>1262</v>
+        <v>1513</v>
       </c>
       <c r="F44" s="102" t="s">
         <v>828</v>
@@ -12773,13 +13032,13 @@
         <v>1171</v>
       </c>
       <c r="C45" s="119" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="D45" s="119" t="s">
-        <v>9</v>
+        <v>1503</v>
       </c>
       <c r="E45" s="119" t="s">
-        <v>1263</v>
+        <v>1525</v>
       </c>
       <c r="F45" s="102" t="s">
         <v>828</v>
@@ -12798,13 +13057,13 @@
         <v>1171</v>
       </c>
       <c r="C46" s="119" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="D46" s="119" t="s">
-        <v>9</v>
+        <v>1504</v>
       </c>
       <c r="E46" s="119" t="s">
-        <v>1264</v>
+        <v>1526</v>
       </c>
       <c r="F46" s="102" t="s">
         <v>828</v>
@@ -12823,13 +13082,13 @@
         <v>1171</v>
       </c>
       <c r="C47" s="119" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="D47" s="119" t="s">
-        <v>9</v>
+        <v>1505</v>
       </c>
       <c r="E47" s="138" t="s">
-        <v>1265</v>
+        <v>1527</v>
       </c>
       <c r="F47" s="102" t="s">
         <v>828</v>
@@ -12848,13 +13107,13 @@
         <v>1171</v>
       </c>
       <c r="C48" s="119" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="D48" s="119" t="s">
-        <v>9</v>
+        <v>1507</v>
       </c>
       <c r="E48" s="119" t="s">
-        <v>1260</v>
+        <v>1524</v>
       </c>
       <c r="F48" s="102" t="s">
         <v>897</v>
@@ -12873,13 +13132,13 @@
         <v>1171</v>
       </c>
       <c r="C49" s="119" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="D49" s="119" t="s">
-        <v>9</v>
+        <v>1508</v>
       </c>
       <c r="E49" s="119" t="s">
-        <v>1262</v>
+        <v>1513</v>
       </c>
       <c r="F49" s="102" t="s">
         <v>897</v>
@@ -12898,13 +13157,13 @@
         <v>1171</v>
       </c>
       <c r="C50" s="119" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="D50" s="119" t="s">
-        <v>9</v>
+        <v>1509</v>
       </c>
       <c r="E50" s="119" t="s">
-        <v>1263</v>
+        <v>1525</v>
       </c>
       <c r="F50" s="102" t="s">
         <v>897</v>
@@ -12923,13 +13182,13 @@
         <v>1171</v>
       </c>
       <c r="C51" s="119" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="D51" s="119" t="s">
-        <v>9</v>
+        <v>1510</v>
       </c>
       <c r="E51" s="119" t="s">
-        <v>1264</v>
+        <v>1526</v>
       </c>
       <c r="F51" s="102" t="s">
         <v>897</v>
@@ -12948,13 +13207,13 @@
         <v>1171</v>
       </c>
       <c r="C52" s="119" t="s">
-        <v>1261</v>
+        <v>1248</v>
       </c>
       <c r="D52" s="119" t="s">
-        <v>9</v>
+        <v>1511</v>
       </c>
       <c r="E52" s="138" t="s">
-        <v>1265</v>
+        <v>1527</v>
       </c>
       <c r="F52" s="102" t="s">
         <v>897</v>
@@ -12973,13 +13232,13 @@
         <v>1171</v>
       </c>
       <c r="C53" s="119" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="D53" s="119" t="s">
-        <v>9</v>
+        <v>1512</v>
       </c>
       <c r="E53" s="119" t="s">
-        <v>1253</v>
+        <v>1528</v>
       </c>
       <c r="F53" s="102" t="s">
         <v>9</v>
@@ -13000,13 +13259,13 @@
         <v>1171</v>
       </c>
       <c r="C54" s="119" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="D54" s="119" t="s">
-        <v>9</v>
+        <v>1514</v>
       </c>
       <c r="E54" s="119" t="s">
-        <v>1253</v>
+        <v>1528</v>
       </c>
       <c r="F54" s="102" t="s">
         <v>9</v>
@@ -13027,13 +13286,13 @@
         <v>1171</v>
       </c>
       <c r="C55" s="119" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="D55" s="119" t="s">
-        <v>9</v>
+        <v>1515</v>
       </c>
       <c r="E55" s="119" t="s">
-        <v>1253</v>
+        <v>1528</v>
       </c>
       <c r="F55" s="102" t="s">
         <v>9</v>
@@ -13054,13 +13313,13 @@
         <v>1171</v>
       </c>
       <c r="C56" s="119" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D56" s="119" t="s">
-        <v>9</v>
+        <v>1242</v>
+      </c>
+      <c r="D56" s="138" t="s">
+        <v>1516</v>
       </c>
       <c r="E56" s="119" t="s">
-        <v>1253</v>
+        <v>1528</v>
       </c>
       <c r="F56" s="102" t="s">
         <v>9</v>
@@ -13081,13 +13340,13 @@
         <v>1171</v>
       </c>
       <c r="C57" s="119" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D57" s="183" t="s">
-        <v>1227</v>
+        <v>1243</v>
+      </c>
+      <c r="D57" s="138" t="s">
+        <v>1517</v>
       </c>
       <c r="E57" s="119" t="s">
-        <v>1253</v>
+        <v>1528</v>
       </c>
       <c r="F57" s="102" t="s">
         <v>9</v>
@@ -13096,7 +13355,7 @@
         <v>456</v>
       </c>
       <c r="H57" s="128" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="I57" s="104"/>
     </row>
@@ -13108,13 +13367,13 @@
         <v>1171</v>
       </c>
       <c r="C58" s="119" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D58" s="119" t="s">
-        <v>9</v>
+        <v>1244</v>
+      </c>
+      <c r="D58" s="138" t="s">
+        <v>1518</v>
       </c>
       <c r="E58" s="119" t="s">
-        <v>1253</v>
+        <v>1528</v>
       </c>
       <c r="F58" s="102" t="s">
         <v>9</v>
@@ -13122,7 +13381,7 @@
       <c r="G58" s="136" t="s">
         <v>456</v>
       </c>
-      <c r="H58" s="184" t="s">
+      <c r="H58" s="183" t="s">
         <v>399</v>
       </c>
       <c r="I58" s="104"/>
@@ -13135,13 +13394,13 @@
         <v>1171</v>
       </c>
       <c r="C59" s="119" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="D59" s="119" t="s">
-        <v>9</v>
+        <v>1520</v>
       </c>
       <c r="E59" s="119" t="s">
-        <v>1185</v>
+        <v>1521</v>
       </c>
       <c r="F59" s="102" t="s">
         <v>582</v>
@@ -13160,13 +13419,13 @@
         <v>1171</v>
       </c>
       <c r="C60" s="119" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="D60" s="119" t="s">
-        <v>9</v>
+        <v>1539</v>
       </c>
       <c r="E60" s="119" t="s">
-        <v>1186</v>
+        <v>1529</v>
       </c>
       <c r="F60" s="102" t="s">
         <v>9</v>
@@ -13185,13 +13444,13 @@
         <v>1171</v>
       </c>
       <c r="C61" s="119" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="D61" s="119" t="s">
-        <v>9</v>
+        <v>1540</v>
       </c>
       <c r="E61" s="119" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="F61" s="102" t="s">
         <v>9</v>
@@ -13210,22 +13469,22 @@
         <v>1171</v>
       </c>
       <c r="C62" s="119" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="D62" s="119" t="s">
-        <v>1267</v>
+        <v>1530</v>
       </c>
       <c r="E62" s="119" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="F62" s="102" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="G62" s="136" t="s">
         <v>456</v>
       </c>
       <c r="H62" s="128" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="I62" s="104"/>
     </row>
@@ -13234,16 +13493,16 @@
         <v>470</v>
       </c>
       <c r="B63" s="120" t="s">
-        <v>1288</v>
+        <v>1269</v>
       </c>
       <c r="C63" s="121" t="s">
-        <v>1289</v>
+        <v>1270</v>
       </c>
       <c r="D63" s="121" t="s">
-        <v>1290</v>
+        <v>1271</v>
       </c>
       <c r="E63" s="106" t="s">
-        <v>1298</v>
+        <v>1279</v>
       </c>
       <c r="F63" s="105" t="s">
         <v>9</v>
@@ -13255,7 +13514,7 @@
         <v>9</v>
       </c>
       <c r="I63" s="123" t="s">
-        <v>1292</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13263,16 +13522,16 @@
         <v>470</v>
       </c>
       <c r="B64" s="120" t="s">
-        <v>1288</v>
+        <v>1269</v>
       </c>
       <c r="C64" s="121" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D64" s="121" t="s">
         <v>1268</v>
       </c>
-      <c r="D64" s="121" t="s">
-        <v>1287</v>
-      </c>
       <c r="E64" s="106" t="s">
-        <v>1297</v>
+        <v>1278</v>
       </c>
       <c r="F64" s="105" t="s">
         <v>580</v>
@@ -13292,16 +13551,16 @@
         <v>470</v>
       </c>
       <c r="B65" s="120" t="s">
-        <v>1288</v>
+        <v>1269</v>
       </c>
       <c r="C65" s="121" t="s">
-        <v>1269</v>
+        <v>1250</v>
       </c>
       <c r="D65" s="121" t="s">
-        <v>1291</v>
+        <v>1272</v>
       </c>
       <c r="E65" s="106" t="s">
-        <v>1296</v>
+        <v>1277</v>
       </c>
       <c r="F65" s="105" t="s">
         <v>580</v>
@@ -13310,7 +13569,7 @@
         <v>418</v>
       </c>
       <c r="H65" s="130" t="s">
-        <v>1294</v>
+        <v>1275</v>
       </c>
       <c r="I65" s="123"/>
     </row>
@@ -13319,25 +13578,25 @@
         <v>470</v>
       </c>
       <c r="B66" s="120" t="s">
-        <v>1288</v>
+        <v>1269</v>
       </c>
       <c r="C66" s="121" t="s">
         <v>201</v>
       </c>
       <c r="D66" s="121" t="s">
-        <v>1306</v>
+        <v>1287</v>
       </c>
       <c r="E66" s="106" t="s">
-        <v>1316</v>
+        <v>1297</v>
       </c>
       <c r="F66" s="105" t="s">
-        <v>1322</v>
+        <v>1303</v>
       </c>
       <c r="G66" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H66" s="130" t="s">
-        <v>1321</v>
+        <v>1302</v>
       </c>
       <c r="I66" s="123"/>
     </row>
@@ -13346,16 +13605,16 @@
         <v>470</v>
       </c>
       <c r="B67" s="120" t="s">
-        <v>1300</v>
+        <v>1281</v>
       </c>
       <c r="C67" s="121" t="s">
         <v>203</v>
       </c>
       <c r="D67" s="121" t="s">
-        <v>1305</v>
+        <v>1286</v>
       </c>
       <c r="E67" s="106" t="s">
-        <v>1372</v>
+        <v>1353</v>
       </c>
       <c r="F67" s="105" t="s">
         <v>51</v>
@@ -13364,7 +13623,7 @@
         <v>418</v>
       </c>
       <c r="H67" s="130" t="s">
-        <v>1320</v>
+        <v>1301</v>
       </c>
       <c r="I67" s="123"/>
     </row>
@@ -13373,16 +13632,16 @@
         <v>470</v>
       </c>
       <c r="B68" s="120" t="s">
-        <v>1300</v>
+        <v>1281</v>
       </c>
       <c r="C68" s="121" t="s">
-        <v>1270</v>
+        <v>1251</v>
       </c>
       <c r="D68" s="121" t="s">
-        <v>1313</v>
+        <v>1294</v>
       </c>
       <c r="E68" s="106" t="s">
-        <v>1317</v>
+        <v>1298</v>
       </c>
       <c r="F68" s="105" t="s">
         <v>9</v>
@@ -13394,7 +13653,7 @@
         <v>365</v>
       </c>
       <c r="I68" s="123" t="s">
-        <v>1318</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13402,16 +13661,16 @@
         <v>470</v>
       </c>
       <c r="B69" s="120" t="s">
-        <v>1300</v>
+        <v>1281</v>
       </c>
       <c r="C69" s="121" t="s">
         <v>205</v>
       </c>
       <c r="D69" s="121" t="s">
-        <v>1331</v>
+        <v>1312</v>
       </c>
       <c r="E69" s="106" t="s">
-        <v>1319</v>
+        <v>1300</v>
       </c>
       <c r="F69" s="105" t="s">
         <v>9</v>
@@ -13429,24 +13688,26 @@
         <v>470</v>
       </c>
       <c r="B70" s="120" t="s">
-        <v>1300</v>
+        <v>1281</v>
       </c>
       <c r="C70" s="121" t="s">
         <v>138</v>
       </c>
       <c r="D70" s="121" t="s">
-        <v>1332</v>
+        <v>1313</v>
       </c>
       <c r="E70" s="106" t="s">
-        <v>1323</v>
+        <v>1304</v>
       </c>
       <c r="F70" s="105" t="s">
-        <v>1373</v>
+        <v>1354</v>
       </c>
       <c r="G70" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H70" s="130"/>
+      <c r="H70" s="130" t="s">
+        <v>1482</v>
+      </c>
       <c r="I70" s="123"/>
     </row>
     <row r="71" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13454,19 +13715,19 @@
         <v>470</v>
       </c>
       <c r="B71" s="120" t="s">
-        <v>1300</v>
+        <v>1281</v>
       </c>
       <c r="C71" s="121" t="s">
         <v>139</v>
       </c>
       <c r="D71" s="121" t="s">
-        <v>1333</v>
+        <v>1314</v>
       </c>
       <c r="E71" s="106" t="s">
-        <v>1324</v>
+        <v>1305</v>
       </c>
       <c r="F71" s="105" t="s">
-        <v>1373</v>
+        <v>1354</v>
       </c>
       <c r="G71" s="132" t="s">
         <v>418</v>
@@ -13479,19 +13740,19 @@
         <v>470</v>
       </c>
       <c r="B72" s="120" t="s">
-        <v>1300</v>
+        <v>1281</v>
       </c>
       <c r="C72" s="121" t="s">
         <v>140</v>
       </c>
       <c r="D72" s="121" t="s">
-        <v>1334</v>
+        <v>1315</v>
       </c>
       <c r="E72" s="106" t="s">
-        <v>1325</v>
+        <v>1306</v>
       </c>
       <c r="F72" s="105" t="s">
-        <v>1373</v>
+        <v>1354</v>
       </c>
       <c r="G72" s="132" t="s">
         <v>418</v>
@@ -13504,16 +13765,16 @@
         <v>470</v>
       </c>
       <c r="B73" s="120" t="s">
-        <v>1301</v>
+        <v>1282</v>
       </c>
       <c r="C73" s="121" t="s">
-        <v>1271</v>
+        <v>1252</v>
       </c>
       <c r="D73" s="121" t="s">
-        <v>1314</v>
+        <v>1295</v>
       </c>
       <c r="E73" s="106" t="s">
-        <v>1326</v>
+        <v>1307</v>
       </c>
       <c r="F73" s="105" t="s">
         <v>9</v>
@@ -13531,7 +13792,7 @@
         <v>470</v>
       </c>
       <c r="B74" s="120" t="s">
-        <v>1301</v>
+        <v>1282</v>
       </c>
       <c r="C74" s="121" t="s">
         <v>151</v>
@@ -13540,17 +13801,17 @@
         <v>151</v>
       </c>
       <c r="E74" s="106" t="s">
-        <v>1348</v>
+        <v>1329</v>
       </c>
       <c r="F74" s="105" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="G74" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H74" s="130"/>
       <c r="I74" s="123" t="s">
-        <v>1350</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13558,7 +13819,7 @@
         <v>470</v>
       </c>
       <c r="B75" s="120" t="s">
-        <v>1301</v>
+        <v>1282</v>
       </c>
       <c r="C75" s="121" t="s">
         <v>157</v>
@@ -13567,17 +13828,17 @@
         <v>157</v>
       </c>
       <c r="E75" s="106" t="s">
-        <v>1369</v>
+        <v>1350</v>
       </c>
       <c r="F75" s="105" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="G75" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H75" s="130"/>
       <c r="I75" s="123" t="s">
-        <v>1349</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13585,16 +13846,16 @@
         <v>470</v>
       </c>
       <c r="B76" s="120" t="s">
-        <v>1301</v>
+        <v>1282</v>
       </c>
       <c r="C76" s="121" t="s">
-        <v>1272</v>
+        <v>1253</v>
       </c>
       <c r="D76" s="121" t="s">
-        <v>1327</v>
+        <v>1308</v>
       </c>
       <c r="E76" s="106" t="s">
-        <v>1370</v>
+        <v>1351</v>
       </c>
       <c r="F76" s="105" t="s">
         <v>946</v>
@@ -13610,16 +13871,16 @@
         <v>470</v>
       </c>
       <c r="B77" s="120" t="s">
-        <v>1302</v>
+        <v>1283</v>
       </c>
       <c r="C77" s="121" t="s">
         <v>211</v>
       </c>
       <c r="D77" s="121" t="s">
-        <v>1328</v>
+        <v>1309</v>
       </c>
       <c r="E77" s="106" t="s">
-        <v>1371</v>
+        <v>1352</v>
       </c>
       <c r="F77" s="105" t="s">
         <v>9</v>
@@ -13635,16 +13896,16 @@
         <v>470</v>
       </c>
       <c r="B78" s="120" t="s">
-        <v>1302</v>
+        <v>1283</v>
       </c>
       <c r="C78" s="121" t="s">
         <v>206</v>
       </c>
       <c r="D78" s="121" t="s">
-        <v>1329</v>
+        <v>1310</v>
       </c>
       <c r="E78" s="106" t="s">
-        <v>1375</v>
+        <v>1356</v>
       </c>
       <c r="F78" s="105" t="s">
         <v>51</v>
@@ -13653,7 +13914,7 @@
         <v>418</v>
       </c>
       <c r="H78" s="130" t="s">
-        <v>1376</v>
+        <v>1357</v>
       </c>
       <c r="I78" s="123"/>
     </row>
@@ -13662,16 +13923,16 @@
         <v>470</v>
       </c>
       <c r="B79" s="120" t="s">
-        <v>1302</v>
+        <v>1283</v>
       </c>
       <c r="C79" s="121" t="s">
         <v>208</v>
       </c>
       <c r="D79" s="121" t="s">
-        <v>1330</v>
+        <v>1311</v>
       </c>
       <c r="E79" s="106" t="s">
-        <v>1374</v>
+        <v>1355</v>
       </c>
       <c r="F79" s="105" t="s">
         <v>9</v>
@@ -13689,16 +13950,16 @@
         <v>470</v>
       </c>
       <c r="B80" s="120" t="s">
-        <v>1302</v>
+        <v>1283</v>
       </c>
       <c r="C80" s="121" t="s">
-        <v>1273</v>
+        <v>1254</v>
       </c>
       <c r="D80" s="121" t="s">
-        <v>1335</v>
+        <v>1316</v>
       </c>
       <c r="E80" s="106" t="s">
-        <v>1377</v>
+        <v>1358</v>
       </c>
       <c r="F80" s="105" t="s">
         <v>9</v>
@@ -13706,7 +13967,9 @@
       <c r="G80" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H80" s="130"/>
+      <c r="H80" s="130" t="s">
+        <v>428</v>
+      </c>
       <c r="I80" s="123"/>
     </row>
     <row r="81" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13714,16 +13977,16 @@
         <v>470</v>
       </c>
       <c r="B81" s="120" t="s">
-        <v>1302</v>
+        <v>1283</v>
       </c>
       <c r="C81" s="121" t="s">
         <v>214</v>
       </c>
       <c r="D81" s="121" t="s">
-        <v>1336</v>
+        <v>1317</v>
       </c>
       <c r="E81" s="106" t="s">
-        <v>1378</v>
+        <v>1359</v>
       </c>
       <c r="F81" s="105" t="s">
         <v>9</v>
@@ -13731,7 +13994,9 @@
       <c r="G81" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H81" s="130"/>
+      <c r="H81" s="130" t="s">
+        <v>1483</v>
+      </c>
       <c r="I81" s="123"/>
     </row>
     <row r="82" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -13739,16 +14004,16 @@
         <v>470</v>
       </c>
       <c r="B82" s="120" t="s">
-        <v>1303</v>
+        <v>1284</v>
       </c>
       <c r="C82" s="121" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D82" s="185" t="s">
-        <v>1315</v>
+        <v>1255</v>
+      </c>
+      <c r="D82" s="184" t="s">
+        <v>1296</v>
       </c>
       <c r="E82" s="106" t="s">
-        <v>1379</v>
+        <v>1360</v>
       </c>
       <c r="F82" s="105" t="s">
         <v>9</v>
@@ -13757,7 +14022,7 @@
         <v>451</v>
       </c>
       <c r="H82" s="130" t="s">
-        <v>1380</v>
+        <v>1361</v>
       </c>
       <c r="I82" s="123"/>
     </row>
@@ -13766,16 +14031,16 @@
         <v>470</v>
       </c>
       <c r="B83" s="120" t="s">
-        <v>1303</v>
+        <v>1284</v>
       </c>
       <c r="C83" s="121" t="s">
         <v>146</v>
       </c>
       <c r="D83" s="121" t="s">
-        <v>1337</v>
+        <v>1318</v>
       </c>
       <c r="E83" s="106" t="s">
-        <v>1381</v>
+        <v>1362</v>
       </c>
       <c r="F83" s="105" t="s">
         <v>9</v>
@@ -13791,19 +14056,19 @@
         <v>470</v>
       </c>
       <c r="B84" s="120" t="s">
-        <v>1303</v>
+        <v>1284</v>
       </c>
       <c r="C84" s="121" t="s">
         <v>145</v>
       </c>
       <c r="D84" s="121" t="s">
-        <v>1338</v>
+        <v>1319</v>
       </c>
       <c r="E84" s="106" t="s">
-        <v>1382</v>
+        <v>1363</v>
       </c>
       <c r="F84" s="105" t="s">
-        <v>1383</v>
+        <v>1364</v>
       </c>
       <c r="G84" s="132" t="s">
         <v>418</v>
@@ -13816,19 +14081,19 @@
         <v>470</v>
       </c>
       <c r="B85" s="120" t="s">
-        <v>1303</v>
+        <v>1284</v>
       </c>
       <c r="C85" s="121" t="s">
         <v>144</v>
       </c>
       <c r="D85" s="121" t="s">
-        <v>1339</v>
+        <v>1320</v>
       </c>
       <c r="E85" s="106" t="s">
-        <v>1384</v>
+        <v>1365</v>
       </c>
       <c r="F85" s="105" t="s">
-        <v>1383</v>
+        <v>1364</v>
       </c>
       <c r="G85" s="132" t="s">
         <v>418</v>
@@ -13844,13 +14109,13 @@
         <v>21</v>
       </c>
       <c r="C86" s="121" t="s">
-        <v>1275</v>
+        <v>1256</v>
       </c>
       <c r="D86" s="121" t="s">
-        <v>1340</v>
+        <v>1321</v>
       </c>
       <c r="E86" s="106" t="s">
-        <v>1400</v>
+        <v>1381</v>
       </c>
       <c r="F86" s="105" t="s">
         <v>9</v>
@@ -13859,7 +14124,7 @@
         <v>451</v>
       </c>
       <c r="H86" s="130" t="s">
-        <v>1385</v>
+        <v>1366</v>
       </c>
       <c r="I86" s="123"/>
     </row>
@@ -13871,13 +14136,13 @@
         <v>21</v>
       </c>
       <c r="C87" s="121" t="s">
-        <v>1276</v>
+        <v>1257</v>
       </c>
       <c r="D87" s="121" t="s">
-        <v>1341</v>
+        <v>1322</v>
       </c>
       <c r="E87" s="106" t="s">
-        <v>1401</v>
+        <v>1382</v>
       </c>
       <c r="F87" s="105" t="s">
         <v>9</v>
@@ -13898,13 +14163,13 @@
         <v>21</v>
       </c>
       <c r="C88" s="121" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D88" s="185" t="s">
-        <v>1342</v>
+        <v>1258</v>
+      </c>
+      <c r="D88" s="184" t="s">
+        <v>1323</v>
       </c>
       <c r="E88" s="106" t="s">
-        <v>1386</v>
+        <v>1367</v>
       </c>
       <c r="F88" s="105" t="s">
         <v>9</v>
@@ -13912,8 +14177,8 @@
       <c r="G88" s="132" t="s">
         <v>451</v>
       </c>
-      <c r="H88" s="186" t="s">
-        <v>1385</v>
+      <c r="H88" s="185" t="s">
+        <v>1366</v>
       </c>
       <c r="I88" s="123"/>
     </row>
@@ -13925,13 +14190,13 @@
         <v>21</v>
       </c>
       <c r="C89" s="121" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D89" s="185" t="s">
-        <v>1343</v>
+        <v>1259</v>
+      </c>
+      <c r="D89" s="184" t="s">
+        <v>1324</v>
       </c>
       <c r="E89" s="106" t="s">
-        <v>1387</v>
+        <v>1368</v>
       </c>
       <c r="F89" s="105" t="s">
         <v>9</v>
@@ -13939,7 +14204,7 @@
       <c r="G89" s="132" t="s">
         <v>451</v>
       </c>
-      <c r="H89" s="186" t="s">
+      <c r="H89" s="185" t="s">
         <v>610</v>
       </c>
       <c r="I89" s="123"/>
@@ -13958,7 +14223,7 @@
         <v>171</v>
       </c>
       <c r="E90" s="106" t="s">
-        <v>1388</v>
+        <v>1369</v>
       </c>
       <c r="F90" s="105" t="s">
         <v>828</v>
@@ -13983,7 +14248,7 @@
         <v>176</v>
       </c>
       <c r="E91" s="106" t="s">
-        <v>1389</v>
+        <v>1370</v>
       </c>
       <c r="F91" s="105" t="s">
         <v>828</v>
@@ -14005,10 +14270,10 @@
         <v>186</v>
       </c>
       <c r="D92" s="121" t="s">
-        <v>1345</v>
+        <v>1326</v>
       </c>
       <c r="E92" s="106" t="s">
-        <v>1390</v>
+        <v>1371</v>
       </c>
       <c r="F92" s="105" t="s">
         <v>828</v>
@@ -14018,7 +14283,7 @@
       </c>
       <c r="H92" s="130"/>
       <c r="I92" s="123" t="s">
-        <v>1391</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -14032,10 +14297,10 @@
         <v>158</v>
       </c>
       <c r="D93" s="121" t="s">
-        <v>1344</v>
+        <v>1325</v>
       </c>
       <c r="E93" s="106" t="s">
-        <v>1392</v>
+        <v>1373</v>
       </c>
       <c r="F93" s="105" t="s">
         <v>828</v>
@@ -14045,7 +14310,7 @@
       </c>
       <c r="H93" s="130"/>
       <c r="I93" s="123" t="s">
-        <v>1394</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -14059,10 +14324,10 @@
         <v>154</v>
       </c>
       <c r="D94" s="121" t="s">
-        <v>1346</v>
+        <v>1327</v>
       </c>
       <c r="E94" s="106" t="s">
-        <v>1393</v>
+        <v>1374</v>
       </c>
       <c r="F94" s="105" t="s">
         <v>828</v>
@@ -14072,7 +14337,7 @@
       </c>
       <c r="H94" s="130"/>
       <c r="I94" s="123" t="s">
-        <v>1394</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -14086,20 +14351,20 @@
         <v>193</v>
       </c>
       <c r="D95" s="121" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
       <c r="E95" s="106" t="s">
-        <v>1395</v>
+        <v>1376</v>
       </c>
       <c r="F95" s="105" t="s">
-        <v>1396</v>
+        <v>1377</v>
       </c>
       <c r="G95" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H95" s="130"/>
       <c r="I95" s="123" t="s">
-        <v>1394</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -14113,10 +14378,10 @@
         <v>168</v>
       </c>
       <c r="D96" s="121" t="s">
-        <v>1351</v>
+        <v>1332</v>
       </c>
       <c r="E96" s="106" t="s">
-        <v>1397</v>
+        <v>1378</v>
       </c>
       <c r="F96" s="105" t="s">
         <v>9</v>
@@ -14126,7 +14391,7 @@
       </c>
       <c r="H96" s="130"/>
       <c r="I96" s="123" t="s">
-        <v>1398</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -14140,10 +14405,10 @@
         <v>166</v>
       </c>
       <c r="D97" s="121" t="s">
-        <v>1352</v>
+        <v>1333</v>
       </c>
       <c r="E97" s="106" t="s">
-        <v>1399</v>
+        <v>1380</v>
       </c>
       <c r="F97" s="105" t="s">
         <v>51</v>
@@ -14153,7 +14418,7 @@
       </c>
       <c r="H97" s="130"/>
       <c r="I97" s="123" t="s">
-        <v>1398</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -14164,13 +14429,13 @@
         <v>301</v>
       </c>
       <c r="C98" s="121" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D98" s="185" t="s">
-        <v>1353</v>
+        <v>1260</v>
+      </c>
+      <c r="D98" s="184" t="s">
+        <v>1334</v>
       </c>
       <c r="E98" s="106" t="s">
-        <v>1402</v>
+        <v>1383</v>
       </c>
       <c r="F98" s="105" t="s">
         <v>9</v>
@@ -14189,13 +14454,13 @@
         <v>301</v>
       </c>
       <c r="C99" s="121" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D99" s="185" t="s">
-        <v>1354</v>
+        <v>1261</v>
+      </c>
+      <c r="D99" s="184" t="s">
+        <v>1335</v>
       </c>
       <c r="E99" s="106" t="s">
-        <v>1403</v>
+        <v>1384</v>
       </c>
       <c r="F99" s="105" t="s">
         <v>9</v>
@@ -14217,10 +14482,10 @@
         <v>174</v>
       </c>
       <c r="D100" s="121" t="s">
-        <v>1355</v>
+        <v>1336</v>
       </c>
       <c r="E100" s="106" t="s">
-        <v>1404</v>
+        <v>1385</v>
       </c>
       <c r="F100" s="105" t="s">
         <v>721</v>
@@ -14245,7 +14510,7 @@
         <v>177</v>
       </c>
       <c r="E101" s="106" t="s">
-        <v>1405</v>
+        <v>1386</v>
       </c>
       <c r="F101" s="105" t="s">
         <v>721</v>
@@ -14267,10 +14532,10 @@
         <v>188</v>
       </c>
       <c r="D102" s="121" t="s">
-        <v>1356</v>
+        <v>1337</v>
       </c>
       <c r="E102" s="106" t="s">
-        <v>1406</v>
+        <v>1387</v>
       </c>
       <c r="F102" s="105" t="s">
         <v>721</v>
@@ -14292,10 +14557,10 @@
         <v>163</v>
       </c>
       <c r="D103" s="121" t="s">
-        <v>1357</v>
+        <v>1338</v>
       </c>
       <c r="E103" s="106" t="s">
-        <v>1407</v>
+        <v>1388</v>
       </c>
       <c r="F103" s="105" t="s">
         <v>721</v>
@@ -14317,10 +14582,10 @@
         <v>162</v>
       </c>
       <c r="D104" s="121" t="s">
-        <v>1358</v>
+        <v>1339</v>
       </c>
       <c r="E104" s="106" t="s">
-        <v>1408</v>
+        <v>1389</v>
       </c>
       <c r="F104" s="105" t="s">
         <v>721</v>
@@ -14342,13 +14607,13 @@
         <v>195</v>
       </c>
       <c r="D105" s="121" t="s">
-        <v>1359</v>
+        <v>1340</v>
       </c>
       <c r="E105" s="106" t="s">
-        <v>1409</v>
+        <v>1390</v>
       </c>
       <c r="F105" s="105" t="s">
-        <v>1411</v>
+        <v>1392</v>
       </c>
       <c r="G105" s="132" t="s">
         <v>418</v>
@@ -14364,13 +14629,13 @@
         <v>20</v>
       </c>
       <c r="C106" s="121" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D106" s="185" t="s">
-        <v>1368</v>
+        <v>1262</v>
+      </c>
+      <c r="D106" s="184" t="s">
+        <v>1349</v>
       </c>
       <c r="E106" s="106" t="s">
-        <v>1410</v>
+        <v>1391</v>
       </c>
       <c r="F106" s="105" t="s">
         <v>9</v>
@@ -14392,10 +14657,10 @@
         <v>181</v>
       </c>
       <c r="D107" s="121" t="s">
-        <v>1367</v>
+        <v>1348</v>
       </c>
       <c r="E107" s="106" t="s">
-        <v>1412</v>
+        <v>1393</v>
       </c>
       <c r="F107" s="105" t="s">
         <v>1155</v>
@@ -14417,10 +14682,10 @@
         <v>184</v>
       </c>
       <c r="D108" s="121" t="s">
-        <v>1366</v>
+        <v>1347</v>
       </c>
       <c r="E108" s="106" t="s">
-        <v>1413</v>
+        <v>1394</v>
       </c>
       <c r="F108" s="105" t="s">
         <v>1155</v>
@@ -14442,10 +14707,10 @@
         <v>189</v>
       </c>
       <c r="D109" s="121" t="s">
-        <v>1365</v>
+        <v>1346</v>
       </c>
       <c r="E109" s="106" t="s">
-        <v>1414</v>
+        <v>1395</v>
       </c>
       <c r="F109" s="105" t="s">
         <v>1155</v>
@@ -14461,16 +14726,16 @@
         <v>470</v>
       </c>
       <c r="B110" s="120" t="s">
-        <v>1304</v>
+        <v>1285</v>
       </c>
       <c r="C110" s="121" t="s">
         <v>232</v>
       </c>
       <c r="D110" s="121" t="s">
-        <v>1293</v>
+        <v>1274</v>
       </c>
       <c r="E110" s="106" t="s">
-        <v>1295</v>
+        <v>1276</v>
       </c>
       <c r="F110" s="105" t="s">
         <v>217</v>
@@ -14479,10 +14744,10 @@
         <v>418</v>
       </c>
       <c r="H110" s="130" t="s">
-        <v>1299</v>
+        <v>1280</v>
       </c>
       <c r="I110" s="124" t="s">
-        <v>1308</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -14490,16 +14755,16 @@
         <v>470</v>
       </c>
       <c r="B111" s="120" t="s">
-        <v>1304</v>
+        <v>1285</v>
       </c>
       <c r="C111" s="121" t="s">
-        <v>1286</v>
+        <v>1267</v>
       </c>
       <c r="D111" s="121" t="s">
-        <v>1364</v>
+        <v>1345</v>
       </c>
       <c r="E111" s="106" t="s">
-        <v>1415</v>
+        <v>1396</v>
       </c>
       <c r="F111" s="105" t="s">
         <v>222</v>
@@ -14509,7 +14774,7 @@
       </c>
       <c r="H111" s="130"/>
       <c r="I111" s="124" t="s">
-        <v>1309</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -14517,26 +14782,26 @@
         <v>470</v>
       </c>
       <c r="B112" s="120" t="s">
-        <v>1304</v>
+        <v>1285</v>
       </c>
       <c r="C112" s="121" t="s">
-        <v>1282</v>
+        <v>1263</v>
       </c>
       <c r="D112" s="121" t="s">
-        <v>1360</v>
+        <v>1341</v>
       </c>
       <c r="E112" s="106" t="s">
-        <v>1416</v>
+        <v>1397</v>
       </c>
       <c r="F112" s="105" t="s">
-        <v>1419</v>
+        <v>1400</v>
       </c>
       <c r="G112" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H112" s="130"/>
       <c r="I112" s="124" t="s">
-        <v>1309</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -14544,26 +14809,26 @@
         <v>470</v>
       </c>
       <c r="B113" s="120" t="s">
-        <v>1304</v>
+        <v>1285</v>
       </c>
       <c r="C113" s="121" t="s">
-        <v>1283</v>
+        <v>1264</v>
       </c>
       <c r="D113" s="121" t="s">
-        <v>1361</v>
+        <v>1342</v>
       </c>
       <c r="E113" s="106" t="s">
-        <v>1417</v>
+        <v>1398</v>
       </c>
       <c r="F113" s="105" t="s">
-        <v>1419</v>
+        <v>1400</v>
       </c>
       <c r="G113" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H113" s="130"/>
       <c r="I113" s="124" t="s">
-        <v>1309</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -14571,16 +14836,16 @@
         <v>470</v>
       </c>
       <c r="B114" s="120" t="s">
-        <v>1304</v>
+        <v>1285</v>
       </c>
       <c r="C114" s="121" t="s">
-        <v>1284</v>
+        <v>1265</v>
       </c>
       <c r="D114" s="121" t="s">
-        <v>1362</v>
+        <v>1343</v>
       </c>
       <c r="E114" s="106" t="s">
-        <v>1418</v>
+        <v>1399</v>
       </c>
       <c r="F114" s="105" t="s">
         <v>9</v>
@@ -14590,7 +14855,7 @@
       </c>
       <c r="H114" s="130"/>
       <c r="I114" s="124" t="s">
-        <v>1310</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -14598,16 +14863,16 @@
         <v>470</v>
       </c>
       <c r="B115" s="120" t="s">
-        <v>1304</v>
+        <v>1285</v>
       </c>
       <c r="C115" s="121" t="s">
-        <v>1285</v>
+        <v>1266</v>
       </c>
       <c r="D115" s="121" t="s">
-        <v>1363</v>
+        <v>1344</v>
       </c>
       <c r="E115" s="106" t="s">
-        <v>1420</v>
+        <v>1401</v>
       </c>
       <c r="F115" s="105" t="s">
         <v>9</v>
@@ -14617,701 +14882,826 @@
       </c>
       <c r="H115" s="130"/>
       <c r="I115" s="124" t="s">
-        <v>1310</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B116" s="187" t="s">
+      <c r="A116" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B116" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C116" s="187" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D116" s="187" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E116" s="188" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F116" s="188" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="189" t="s">
+        <v>451</v>
+      </c>
+      <c r="H116" s="190" t="s">
+        <v>1438</v>
+      </c>
+      <c r="I116" s="191"/>
+    </row>
+    <row r="117" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B117" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C117" s="187" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D117" s="187" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E117" s="188" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F117" s="188" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" s="189" t="s">
+        <v>451</v>
+      </c>
+      <c r="H117" s="190" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I117" s="191"/>
+    </row>
+    <row r="118" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B118" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C118" s="187" t="s">
+        <v>932</v>
+      </c>
+      <c r="D118" s="187" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E118" s="188" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F118" s="188" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" s="189" t="s">
+        <v>451</v>
+      </c>
+      <c r="H118" s="190" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I118" s="191"/>
+    </row>
+    <row r="119" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B119" s="186" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C119" s="187" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D119" s="187" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E119" s="188" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F119" s="192" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="189" t="s">
+        <v>418</v>
+      </c>
+      <c r="H119" s="193" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I119" s="194"/>
+    </row>
+    <row r="120" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B120" s="186" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C120" s="187" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D120" s="187" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E120" s="188" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F120" s="192" t="s">
+        <v>51</v>
+      </c>
+      <c r="G120" s="189" t="s">
+        <v>418</v>
+      </c>
+      <c r="H120" s="196" t="s">
+        <v>1460</v>
+      </c>
+      <c r="I120" s="194"/>
+    </row>
+    <row r="121" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B121" s="186" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C121" s="187" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D121" s="187" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E121" s="188" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F121" s="192" t="s">
+        <v>51</v>
+      </c>
+      <c r="G121" s="189" t="s">
+        <v>418</v>
+      </c>
+      <c r="H121" s="196" t="s">
+        <v>428</v>
+      </c>
+      <c r="I121" s="194"/>
+    </row>
+    <row r="122" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B122" s="186" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C122" s="187" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D122" s="187" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E122" s="188" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F122" s="192" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G122" s="189" t="s">
+        <v>418</v>
+      </c>
+      <c r="H122" s="196" t="s">
+        <v>430</v>
+      </c>
+      <c r="I122" s="194"/>
+    </row>
+    <row r="123" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B123" s="186" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C123" s="187" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D123" s="187" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E123" s="188" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F123" s="192" t="s">
+        <v>893</v>
+      </c>
+      <c r="G123" s="189" t="s">
+        <v>418</v>
+      </c>
+      <c r="H123" s="196" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I123" s="194"/>
+    </row>
+    <row r="124" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B124" s="186" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C124" s="187" t="s">
+        <v>933</v>
+      </c>
+      <c r="D124" s="187" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E124" s="188" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F124" s="192" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" s="189" t="s">
+        <v>418</v>
+      </c>
+      <c r="H124" s="193" t="s">
+        <v>654</v>
+      </c>
+      <c r="I124" s="194"/>
+    </row>
+    <row r="125" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B125" s="186" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C125" s="187" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D125" s="187" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E125" s="188" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F125" s="192" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="189" t="s">
+        <v>451</v>
+      </c>
+      <c r="H125" s="196" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I125" s="194"/>
+    </row>
+    <row r="126" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B126" s="186" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C126" s="187" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D126" s="187" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E126" s="188" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F126" s="192" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" s="189" t="s">
+        <v>451</v>
+      </c>
+      <c r="H126" s="190" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I126" s="194"/>
+    </row>
+    <row r="127" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B127" s="186" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C127" s="187" t="s">
+        <v>934</v>
+      </c>
+      <c r="D127" s="187" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="188" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F127" s="192" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H127" s="195" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I127" s="194"/>
+    </row>
+    <row r="128" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B128" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C128" s="187" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D128" s="187" t="s">
+        <v>290</v>
+      </c>
+      <c r="E128" s="188" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F128" s="192" t="s">
+        <v>721</v>
+      </c>
+      <c r="G128" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H128" s="195" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I128" s="194"/>
+    </row>
+    <row r="129" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B129" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C129" s="187" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D129" s="187" t="s">
+        <v>289</v>
+      </c>
+      <c r="E129" s="188" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F129" s="197" t="s">
+        <v>828</v>
+      </c>
+      <c r="G129" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H129" s="195" t="s">
+        <v>1542</v>
+      </c>
+      <c r="I129" s="194"/>
+    </row>
+    <row r="130" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B130" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C130" s="187" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D130" s="187" t="s">
+        <v>283</v>
+      </c>
+      <c r="E130" s="188" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F130" s="197" t="s">
+        <v>580</v>
+      </c>
+      <c r="G130" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H130" s="195" t="s">
+        <v>1543</v>
+      </c>
+      <c r="I130" s="194"/>
+    </row>
+    <row r="131" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B131" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C131" s="187" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D131" s="187" t="s">
+        <v>396</v>
+      </c>
+      <c r="E131" s="198" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F131" s="192" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G131" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H131" s="195" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I131" s="194"/>
+    </row>
+    <row r="132" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B132" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C132" s="187" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D132" s="187" t="s">
+        <v>349</v>
+      </c>
+      <c r="E132" s="198" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F132" s="192" t="s">
+        <v>721</v>
+      </c>
+      <c r="G132" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H132" s="195" t="s">
+        <v>1545</v>
+      </c>
+      <c r="I132" s="194"/>
+    </row>
+    <row r="133" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B133" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C133" s="187" t="s">
         <v>1421</v>
       </c>
-      <c r="C116" s="188" t="s">
+      <c r="D133" s="187" t="s">
+        <v>348</v>
+      </c>
+      <c r="E133" s="198" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F133" s="197" t="s">
+        <v>828</v>
+      </c>
+      <c r="G133" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H133" s="195" t="s">
+        <v>1546</v>
+      </c>
+      <c r="I133" s="194"/>
+    </row>
+    <row r="134" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B134" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C134" s="187" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D134" s="187" t="s">
+        <v>347</v>
+      </c>
+      <c r="E134" s="198" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F134" s="197" t="s">
+        <v>580</v>
+      </c>
+      <c r="G134" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H134" s="195" t="s">
+        <v>1547</v>
+      </c>
+      <c r="I134" s="194"/>
+    </row>
+    <row r="135" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B135" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C135" s="187" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D135" s="187" t="s">
+        <v>396</v>
+      </c>
+      <c r="E135" s="198" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F135" s="192" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G135" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H135" s="195" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I135" s="194"/>
+    </row>
+    <row r="136" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B136" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C136" s="187" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D136" s="187" t="s">
+        <v>274</v>
+      </c>
+      <c r="E136" s="198" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F136" s="192" t="s">
+        <v>721</v>
+      </c>
+      <c r="G136" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H136" s="195" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I136" s="194"/>
+    </row>
+    <row r="137" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B137" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C137" s="187" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D137" s="187" t="s">
+        <v>966</v>
+      </c>
+      <c r="E137" s="198" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F137" s="192" t="s">
+        <v>828</v>
+      </c>
+      <c r="G137" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H137" s="195" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I137" s="194"/>
+    </row>
+    <row r="138" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B138" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C138" s="187" t="s">
         <v>1426</v>
       </c>
-      <c r="D116" s="188" t="s">
+      <c r="D138" s="187" t="s">
+        <v>973</v>
+      </c>
+      <c r="E138" s="198" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F138" s="192" t="s">
+        <v>828</v>
+      </c>
+      <c r="G138" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H138" s="195" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I138" s="194"/>
+    </row>
+    <row r="139" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B139" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C139" s="187" t="s">
         <v>1427</v>
       </c>
-      <c r="E116" s="189" t="s">
+      <c r="D139" s="187" t="s">
+        <v>396</v>
+      </c>
+      <c r="E139" s="198" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F139" s="192" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G139" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H139" s="195" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I139" s="194"/>
+    </row>
+    <row r="140" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B140" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C140" s="187" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D140" s="187" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E140" s="198" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F140" s="192" t="s">
+        <v>559</v>
+      </c>
+      <c r="G140" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H140" s="195" t="s">
+        <v>747</v>
+      </c>
+      <c r="I140" s="194"/>
+    </row>
+    <row r="141" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B141" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C141" s="187" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D141" s="187" t="s">
+        <v>972</v>
+      </c>
+      <c r="E141" s="198" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F141" s="197" t="s">
+        <v>580</v>
+      </c>
+      <c r="G141" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H141" s="195" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I141" s="194"/>
+    </row>
+    <row r="142" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B142" s="186" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C142" s="187" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D142" s="187" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="188" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F142" s="192" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H142" s="195" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I142" s="194" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B143" s="186" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C143" s="187" t="s">
+        <v>130</v>
+      </c>
+      <c r="D143" s="187" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E143" s="188" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F143" s="192" t="s">
+        <v>947</v>
+      </c>
+      <c r="G143" s="189" t="s">
+        <v>418</v>
+      </c>
+      <c r="H143" s="195">
+        <v>900</v>
+      </c>
+      <c r="I143" s="194" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B144" s="186" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C144" s="187" t="s">
+        <v>131</v>
+      </c>
+      <c r="D144" s="187" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E144" s="188" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F144" s="192" t="s">
+        <v>947</v>
+      </c>
+      <c r="G144" s="189" t="s">
+        <v>418</v>
+      </c>
+      <c r="H144" s="195">
+        <v>1200</v>
+      </c>
+      <c r="I144" s="194" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B145" s="186" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C145" s="187" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D145" s="187" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="188" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F145" s="192" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" s="189" t="s">
+        <v>451</v>
+      </c>
+      <c r="H145" s="195" t="s">
+        <v>679</v>
+      </c>
+      <c r="I145" s="194" t="s">
         <v>1458</v>
       </c>
-      <c r="F116" s="189" t="s">
-        <v>9</v>
-      </c>
-      <c r="G116" s="190" t="s">
-        <v>451</v>
-      </c>
-      <c r="H116" s="191" t="s">
-        <v>1460</v>
-      </c>
-      <c r="I116" s="192"/>
-    </row>
-    <row r="117" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B117" s="187" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C117" s="188" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D117" s="188" t="s">
-        <v>1290</v>
-      </c>
-      <c r="E117" s="189" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F117" s="189" t="s">
-        <v>9</v>
-      </c>
-      <c r="G117" s="190" t="s">
-        <v>451</v>
-      </c>
-      <c r="H117" s="191" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I117" s="192"/>
-    </row>
-    <row r="118" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B118" s="187" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C118" s="188" t="s">
-        <v>932</v>
-      </c>
-      <c r="D118" s="188" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E118" s="189" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F118" s="189" t="s">
-        <v>9</v>
-      </c>
-      <c r="G118" s="190" t="s">
-        <v>451</v>
-      </c>
-      <c r="H118" s="191" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I118" s="192"/>
-    </row>
-    <row r="119" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B119" s="187" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C119" s="188" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D119" s="188" t="s">
-        <v>1312</v>
-      </c>
-      <c r="E119" s="189" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F119" s="193" t="s">
-        <v>9</v>
-      </c>
-      <c r="G119" s="190" t="s">
-        <v>418</v>
-      </c>
-      <c r="H119" s="194" t="s">
-        <v>1463</v>
-      </c>
-      <c r="I119" s="195"/>
-    </row>
-    <row r="120" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B120" s="187" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C120" s="188" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D120" s="188" t="s">
-        <v>1456</v>
-      </c>
-      <c r="E120" s="189"/>
-      <c r="F120" s="193" t="s">
-        <v>51</v>
-      </c>
-      <c r="G120" s="190" t="s">
-        <v>418</v>
-      </c>
-      <c r="H120" s="197"/>
-      <c r="I120" s="195"/>
-    </row>
-    <row r="121" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B121" s="187" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C121" s="188" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D121" s="188" t="s">
-        <v>1457</v>
-      </c>
-      <c r="E121" s="189"/>
-      <c r="F121" s="193" t="s">
-        <v>51</v>
-      </c>
-      <c r="G121" s="190" t="s">
-        <v>418</v>
-      </c>
-      <c r="H121" s="197"/>
-      <c r="I121" s="195"/>
-    </row>
-    <row r="122" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B122" s="187" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C122" s="188" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D122" s="188"/>
-      <c r="E122" s="189"/>
-      <c r="F122" s="193"/>
-      <c r="G122" s="190" t="s">
-        <v>418</v>
-      </c>
-      <c r="H122" s="197"/>
-      <c r="I122" s="195"/>
-    </row>
-    <row r="123" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B123" s="187" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C123" s="188" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D123" s="188"/>
-      <c r="E123" s="189"/>
-      <c r="F123" s="193"/>
-      <c r="G123" s="190" t="s">
-        <v>418</v>
-      </c>
-      <c r="H123" s="197"/>
-      <c r="I123" s="195"/>
-    </row>
-    <row r="124" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B124" s="187" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C124" s="188" t="s">
-        <v>933</v>
-      </c>
-      <c r="D124" s="188" t="s">
-        <v>1312</v>
-      </c>
-      <c r="E124" s="189" t="s">
-        <v>1429</v>
-      </c>
-      <c r="F124" s="193" t="s">
-        <v>9</v>
-      </c>
-      <c r="G124" s="190" t="s">
-        <v>418</v>
-      </c>
-      <c r="H124" s="194" t="s">
-        <v>654</v>
-      </c>
-      <c r="I124" s="195"/>
-    </row>
-    <row r="125" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B125" s="187" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C125" s="188" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D125" s="188"/>
-      <c r="E125" s="189"/>
-      <c r="F125" s="193"/>
-      <c r="G125" s="190" t="s">
-        <v>451</v>
-      </c>
-      <c r="H125" s="197"/>
-      <c r="I125" s="195"/>
-    </row>
-    <row r="126" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B126" s="187" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C126" s="188" t="s">
-        <v>1436</v>
-      </c>
-      <c r="D126" s="188"/>
-      <c r="E126" s="189"/>
-      <c r="F126" s="193"/>
-      <c r="G126" s="190" t="s">
-        <v>451</v>
-      </c>
-      <c r="H126" s="197"/>
-      <c r="I126" s="195"/>
-    </row>
-    <row r="127" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B127" s="187" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C127" s="188" t="s">
-        <v>934</v>
-      </c>
-      <c r="D127" s="188"/>
-      <c r="E127" s="189"/>
-      <c r="F127" s="193"/>
-      <c r="G127" s="190" t="s">
-        <v>440</v>
-      </c>
-      <c r="H127" s="197"/>
-      <c r="I127" s="195"/>
-    </row>
-    <row r="128" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B128" s="187" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C128" s="188" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D128" s="188" t="s">
-        <v>290</v>
-      </c>
-      <c r="E128" s="189"/>
-      <c r="F128" s="193"/>
-      <c r="G128" s="190" t="s">
-        <v>440</v>
-      </c>
-      <c r="H128" s="197"/>
-      <c r="I128" s="195"/>
-    </row>
-    <row r="129" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B129" s="187" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C129" s="188" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D129" s="188" t="s">
-        <v>289</v>
-      </c>
-      <c r="E129" s="189"/>
-      <c r="F129" s="193"/>
-      <c r="G129" s="190" t="s">
-        <v>440</v>
-      </c>
-      <c r="H129" s="197"/>
-      <c r="I129" s="195"/>
-    </row>
-    <row r="130" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B130" s="187" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C130" s="188" t="s">
-        <v>1439</v>
-      </c>
-      <c r="D130" s="188" t="s">
-        <v>283</v>
-      </c>
-      <c r="E130" s="189"/>
-      <c r="F130" s="193"/>
-      <c r="G130" s="190" t="s">
-        <v>440</v>
-      </c>
-      <c r="H130" s="197"/>
-      <c r="I130" s="195"/>
-    </row>
-    <row r="131" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B131" s="187" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C131" s="188" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D131" s="188" t="s">
-        <v>396</v>
-      </c>
-      <c r="E131" s="189"/>
-      <c r="F131" s="193"/>
-      <c r="G131" s="190" t="s">
-        <v>440</v>
-      </c>
-      <c r="H131" s="197"/>
-      <c r="I131" s="195"/>
-    </row>
-    <row r="132" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B132" s="187" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C132" s="188" t="s">
-        <v>1441</v>
-      </c>
-      <c r="D132" s="188" t="s">
-        <v>349</v>
-      </c>
-      <c r="E132" s="189"/>
-      <c r="F132" s="193"/>
-      <c r="G132" s="190" t="s">
-        <v>440</v>
-      </c>
-      <c r="H132" s="197"/>
-      <c r="I132" s="195"/>
-    </row>
-    <row r="133" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B133" s="187" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C133" s="188" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D133" s="188" t="s">
-        <v>348</v>
-      </c>
-      <c r="E133" s="189"/>
-      <c r="F133" s="193"/>
-      <c r="G133" s="190" t="s">
-        <v>440</v>
-      </c>
-      <c r="H133" s="197"/>
-      <c r="I133" s="195"/>
-    </row>
-    <row r="134" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B134" s="187" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C134" s="188" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D134" s="188" t="s">
-        <v>347</v>
-      </c>
-      <c r="E134" s="189"/>
-      <c r="F134" s="193"/>
-      <c r="G134" s="190" t="s">
-        <v>440</v>
-      </c>
-      <c r="H134" s="197"/>
-      <c r="I134" s="195"/>
-    </row>
-    <row r="135" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B135" s="187" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C135" s="188" t="s">
-        <v>1444</v>
-      </c>
-      <c r="D135" s="188" t="s">
-        <v>396</v>
-      </c>
-      <c r="E135" s="189"/>
-      <c r="F135" s="193"/>
-      <c r="G135" s="190" t="s">
-        <v>440</v>
-      </c>
-      <c r="H135" s="197"/>
-      <c r="I135" s="195"/>
-    </row>
-    <row r="136" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B136" s="187" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C136" s="188" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D136" s="188" t="s">
-        <v>274</v>
-      </c>
-      <c r="E136" s="189"/>
-      <c r="F136" s="193"/>
-      <c r="G136" s="190" t="s">
-        <v>440</v>
-      </c>
-      <c r="H136" s="197"/>
-      <c r="I136" s="195"/>
-    </row>
-    <row r="137" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B137" s="187" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C137" s="188" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D137" s="188" t="s">
-        <v>966</v>
-      </c>
-      <c r="E137" s="189"/>
-      <c r="F137" s="193"/>
-      <c r="G137" s="190" t="s">
-        <v>440</v>
-      </c>
-      <c r="H137" s="197"/>
-      <c r="I137" s="195"/>
-    </row>
-    <row r="138" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B138" s="187" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C138" s="188" t="s">
-        <v>1447</v>
-      </c>
-      <c r="D138" s="188" t="s">
-        <v>973</v>
-      </c>
-      <c r="E138" s="189"/>
-      <c r="F138" s="193"/>
-      <c r="G138" s="190" t="s">
-        <v>440</v>
-      </c>
-      <c r="H138" s="197"/>
-      <c r="I138" s="195"/>
-    </row>
-    <row r="139" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B139" s="187" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C139" s="188" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D139" s="188" t="s">
-        <v>396</v>
-      </c>
-      <c r="E139" s="189"/>
-      <c r="F139" s="193"/>
-      <c r="G139" s="190" t="s">
-        <v>440</v>
-      </c>
-      <c r="H139" s="197"/>
-      <c r="I139" s="195"/>
-    </row>
-    <row r="140" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B140" s="187" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C140" s="188" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D140" s="188" t="s">
-        <v>1455</v>
-      </c>
-      <c r="E140" s="189"/>
-      <c r="F140" s="193"/>
-      <c r="G140" s="190" t="s">
-        <v>440</v>
-      </c>
-      <c r="H140" s="197"/>
-      <c r="I140" s="195"/>
-    </row>
-    <row r="141" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B141" s="187" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C141" s="188" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D141" s="188" t="s">
-        <v>972</v>
-      </c>
-      <c r="E141" s="189"/>
-      <c r="F141" s="193"/>
-      <c r="G141" s="190" t="s">
-        <v>440</v>
-      </c>
-      <c r="H141" s="197"/>
-      <c r="I141" s="195"/>
-    </row>
-    <row r="142" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B142" s="187" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C142" s="188" t="s">
-        <v>934</v>
-      </c>
-      <c r="D142" s="188" t="s">
-        <v>9</v>
-      </c>
-      <c r="E142" s="189" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F142" s="193" t="s">
-        <v>9</v>
-      </c>
-      <c r="G142" s="190" t="s">
-        <v>440</v>
-      </c>
-      <c r="H142" s="196" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I142" s="195"/>
-    </row>
-    <row r="143" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B143" s="187" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C143" s="188" t="s">
-        <v>1451</v>
-      </c>
-      <c r="D143" s="188" t="s">
-        <v>9</v>
-      </c>
-      <c r="E143" s="189" t="s">
-        <v>1453</v>
-      </c>
-      <c r="F143" s="193" t="s">
-        <v>9</v>
-      </c>
-      <c r="G143" s="190" t="s">
-        <v>440</v>
-      </c>
-      <c r="H143" s="196" t="s">
-        <v>1454</v>
-      </c>
-      <c r="I143" s="195"/>
-    </row>
-    <row r="144" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B144" s="187" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C144" s="188" t="s">
-        <v>130</v>
-      </c>
-      <c r="D144" s="188"/>
-      <c r="E144" s="189"/>
-      <c r="F144" s="193" t="s">
-        <v>9</v>
-      </c>
-      <c r="G144" s="190" t="s">
-        <v>418</v>
-      </c>
-      <c r="H144" s="196">
-        <v>900</v>
-      </c>
-      <c r="I144" s="195"/>
-    </row>
-    <row r="145" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B145" s="187" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C145" s="188" t="s">
-        <v>131</v>
-      </c>
-      <c r="D145" s="188"/>
-      <c r="E145" s="189"/>
-      <c r="F145" s="193"/>
-      <c r="G145" s="190" t="s">
-        <v>418</v>
-      </c>
-      <c r="H145" s="196">
-        <v>1200</v>
-      </c>
-      <c r="I145" s="195"/>
-    </row>
-    <row r="146" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="187" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B146" s="187" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C146" s="188" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D146" s="188" t="s">
-        <v>9</v>
-      </c>
-      <c r="E146" s="189"/>
-      <c r="F146" s="193" t="s">
-        <v>9</v>
-      </c>
-      <c r="G146" s="190" t="s">
-        <v>451</v>
-      </c>
-      <c r="H146" s="196" t="s">
-        <v>679</v>
-      </c>
-      <c r="I146" s="195"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>

--- a/tables/aed_variable_tables.xlsx
+++ b/tables/aed_variable_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthipsey/AED Dropbox/05_Software/AED/aed-science/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\aed-science\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB4F8D8-A967-3E42-BB60-95FCDEF76E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6C2896-8F92-4EC8-A03E-E27F1C5C9F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="500" windowWidth="41480" windowHeight="27220" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29230" yWindow="490" windowWidth="29580" windowHeight="19980" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pelagic" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="aed_silica" sheetId="9" r:id="rId9"/>
     <sheet name="aed_organic_matter" sheetId="10" r:id="rId10"/>
     <sheet name="aed_phytoplankton" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
+    <sheet name="aed_habitat" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4043" uniqueCount="1548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4307" uniqueCount="1648">
   <si>
     <t>Oxygen</t>
   </si>
@@ -4856,6 +4856,306 @@
   <si>
     <t>`OGM_poc`</t>
   </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FSAL_1</t>
+  </si>
+  <si>
+    <t>\Phi^{adt}_{S}</t>
+  </si>
+  <si>
+    <t>HSI for adult growth based on salinity tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FSAL_2</t>
+  </si>
+  <si>
+    <t>\Phi^{flw}_{S}</t>
+  </si>
+  <si>
+    <t>HSI for flowering based on salinity tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FSAL_3</t>
+  </si>
+  <si>
+    <t>\Phi^{germ}_{S}</t>
+  </si>
+  <si>
+    <t>HSI for seed germination based on salinity tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FSAL_4</t>
+  </si>
+  <si>
+    <t>\Phi^{tur}_{S}</t>
+  </si>
+  <si>
+    <t>HSI for turion formation based on salinity tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FSAL_5</t>
+  </si>
+  <si>
+    <t>\Phi^{spr}_{S}</t>
+  </si>
+  <si>
+    <t>HSI for turion sprouting based on salinity tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FSAL_6</t>
+  </si>
+  <si>
+    <t>\Phi^{via}_{S}</t>
+  </si>
+  <si>
+    <t>HSI for turion viability during dormancy based on salinity tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FTEM_1</t>
+  </si>
+  <si>
+    <t>\Phi^{adt}_{T}</t>
+  </si>
+  <si>
+    <t>HSI for adult growth based on temperature tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FTEM_2</t>
+  </si>
+  <si>
+    <t>\Phi^{flw}_{T}</t>
+  </si>
+  <si>
+    <t>HSI for flowering based on temperature tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FTEM_3</t>
+  </si>
+  <si>
+    <t>\Phi^{germ}_{T}</t>
+  </si>
+  <si>
+    <t>HSI for seed germination based on temperature tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FTEM_4</t>
+  </si>
+  <si>
+    <t>\Phi^{tur}_{T}</t>
+  </si>
+  <si>
+    <t>HSI for turion formation based on temperature tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FTEM_5</t>
+  </si>
+  <si>
+    <t>\Phi^{spr}_{T}</t>
+  </si>
+  <si>
+    <t>HSI for turion sprouting based on temperature tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FTEM_6</t>
+  </si>
+  <si>
+    <t>\Phi^{via}_{T}</t>
+  </si>
+  <si>
+    <t>HSI for turion viability during dormancy based on temperature tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FLGT_1</t>
+  </si>
+  <si>
+    <t>\Phi^{adt}_{I}</t>
+  </si>
+  <si>
+    <t>HSI for adult growth based on light tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FLGT_2</t>
+  </si>
+  <si>
+    <t>\Phi^{flw}_{I}</t>
+  </si>
+  <si>
+    <t>HSI for flowering based on light tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FLGT_3</t>
+  </si>
+  <si>
+    <t>\Phi^{germ}_{I}</t>
+  </si>
+  <si>
+    <t>HSI for seed germination based on light tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FLGT_4</t>
+  </si>
+  <si>
+    <t>\Phi^{tur}_{I}</t>
+  </si>
+  <si>
+    <t>HSI for turion formation based on light tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FLGT_5</t>
+  </si>
+  <si>
+    <t>\Phi^{spr}_{I}</t>
+  </si>
+  <si>
+    <t>HSI for turion sprouting based on light tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FLGT_6</t>
+  </si>
+  <si>
+    <t>\Phi^{via}_{I}</t>
+  </si>
+  <si>
+    <t>HSI for turion viability during dormancy based on light tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FDEP_1</t>
+  </si>
+  <si>
+    <t>\Phi^{adt}_{D}</t>
+  </si>
+  <si>
+    <t>HSI for adult growth based on water depth tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FDEP_2</t>
+  </si>
+  <si>
+    <t>\Phi^{flw}_{D}</t>
+  </si>
+  <si>
+    <t>HSI for flowering based on water depth tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FDEP_3</t>
+  </si>
+  <si>
+    <t>\Phi^{germ}_{D}</t>
+  </si>
+  <si>
+    <t>HSI for seed germination based on water depth tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FDEP_4</t>
+  </si>
+  <si>
+    <t>\Phi^{tur}_{D}</t>
+  </si>
+  <si>
+    <t>HSI for turion formation based on water depth tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FDEP_5</t>
+  </si>
+  <si>
+    <t>\Phi^{spr}_{D}</t>
+  </si>
+  <si>
+    <t>HSI for turion sprouting based on water depth tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FDEP_6</t>
+  </si>
+  <si>
+    <t>\Phi^{via}_{D}</t>
+  </si>
+  <si>
+    <t>HSI for turion viability during dormancy based on water depth tolerance</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FALG_1</t>
+  </si>
+  <si>
+    <t>\Phi^{adt}_{A}</t>
+  </si>
+  <si>
+    <t>HSI for adult growth based on macroalgae presence</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FALG_2</t>
+  </si>
+  <si>
+    <t>\Phi^{flw}_{A}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSI for flowering based on macroalgae presence </t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FALG_3</t>
+  </si>
+  <si>
+    <t>\Phi^{germ}_{A}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSI for seed germination based on macroalgae presence </t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FALG_4</t>
+  </si>
+  <si>
+    <t>\Phi^{tur}_{A}</t>
+  </si>
+  <si>
+    <t>HSI for turion formation based on macroalgae presence</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FALG_5</t>
+  </si>
+  <si>
+    <t>\Phi^{spr}_{A}</t>
+  </si>
+  <si>
+    <t>HSI for turion sprouting based on macroalgae presence</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FALG_6</t>
+  </si>
+  <si>
+    <t>\Phi^{via}_{A}</t>
+  </si>
+  <si>
+    <t>HSI for turion viability during dormancy based on macroalgae presence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAB_RUPPIA_HSI  </t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_PLANT</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_FLOWER</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_SEED</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_TURION</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_SPROUT</t>
+  </si>
+  <si>
+    <t>HAB_RUPPIA_HSI_DORMANT</t>
+  </si>
+  <si>
+    <t>HAB_WETTIME</t>
+  </si>
+  <si>
+    <t>HAB_DRYTIME</t>
+  </si>
+  <si>
+    <t>diag_level = ?</t>
+  </si>
 </sst>
 </file>
 
@@ -4864,7 +5164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4964,8 +5264,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5083,6 +5392,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -5309,7 +5624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
@@ -5719,6 +6034,27 @@
     <xf numFmtId="0" fontId="9" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6040,19 +6376,19 @@
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="63.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="61" customWidth="1"/>
-    <col min="7" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="61" customWidth="1"/>
+    <col min="7" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
@@ -6081,7 +6417,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="37" t="s">
         <v>0</v>
       </c>
@@ -6098,7 +6434,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="43" t="s">
         <v>310</v>
       </c>
@@ -6130,7 +6466,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -6145,7 +6481,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="11" t="s">
         <v>6</v>
       </c>
@@ -6156,7 +6492,7 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="47" t="s">
         <v>310</v>
       </c>
@@ -6182,7 +6518,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -6203,7 +6539,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
@@ -6224,7 +6560,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
@@ -6247,7 +6583,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
         <v>27</v>
       </c>
@@ -6268,7 +6604,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" s="9" t="s">
         <v>18</v>
       </c>
@@ -6292,7 +6628,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14" s="9" t="s">
         <v>19</v>
       </c>
@@ -6313,7 +6649,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="3:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="14"/>
@@ -6322,7 +6658,7 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" s="11" t="s">
         <v>20</v>
       </c>
@@ -6333,7 +6669,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C17" s="43" t="s">
         <v>310</v>
       </c>
@@ -6359,7 +6695,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="13"/>
       <c r="D18" s="22"/>
       <c r="E18" s="14"/>
@@ -6368,7 +6704,7 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C19" s="11" t="s">
         <v>21</v>
       </c>
@@ -6379,7 +6715,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C20" s="43" t="s">
         <v>310</v>
       </c>
@@ -6402,7 +6738,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C21" s="43" t="s">
         <v>310</v>
       </c>
@@ -6425,7 +6761,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C22" s="9" t="s">
         <v>23</v>
       </c>
@@ -6451,7 +6787,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C23" s="9" t="s">
         <v>24</v>
       </c>
@@ -6472,7 +6808,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C24" s="9" t="s">
         <v>28</v>
       </c>
@@ -6493,7 +6829,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C25" s="9" t="s">
         <v>30</v>
       </c>
@@ -6519,7 +6855,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
         <v>24</v>
       </c>
@@ -6540,7 +6876,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C27" s="9" t="s">
         <v>28</v>
       </c>
@@ -6561,7 +6897,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28" s="93" t="s">
         <v>34</v>
       </c>
@@ -6587,7 +6923,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>404</v>
       </c>
@@ -6611,7 +6947,7 @@
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>404</v>
       </c>
@@ -6635,7 +6971,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>404</v>
       </c>
@@ -6664,7 +7000,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>404</v>
       </c>
@@ -6688,7 +7024,7 @@
       </c>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C33" s="93" t="s">
         <v>44</v>
       </c>
@@ -6709,7 +7045,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C34" s="93" t="s">
         <v>46</v>
       </c>
@@ -6730,7 +7066,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>404</v>
       </c>
@@ -6759,7 +7095,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C36" s="93" t="s">
         <v>49</v>
       </c>
@@ -6781,7 +7117,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>404</v>
       </c>
@@ -6805,7 +7141,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>404</v>
       </c>
@@ -6829,7 +7165,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>404</v>
       </c>
@@ -6856,7 +7192,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>404</v>
       </c>
@@ -6883,7 +7219,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>404</v>
       </c>
@@ -6910,7 +7246,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="13"/>
       <c r="D42" s="22"/>
       <c r="E42" s="14"/>
@@ -6919,7 +7255,7 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C43" s="11" t="s">
         <v>301</v>
       </c>
@@ -6930,7 +7266,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C44" s="43" t="s">
         <v>310</v>
       </c>
@@ -6953,7 +7289,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C45" s="43" t="s">
         <v>310</v>
       </c>
@@ -6976,7 +7312,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C46" s="9" t="s">
         <v>63</v>
       </c>
@@ -6995,7 +7331,7 @@
       <c r="H46" s="27"/>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C47" s="9" t="s">
         <v>61</v>
       </c>
@@ -7014,7 +7350,7 @@
       <c r="H47" s="27"/>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C48" s="9" t="s">
         <v>65</v>
       </c>
@@ -7033,7 +7369,7 @@
       </c>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="9" t="s">
         <v>65</v>
       </c>
@@ -7052,7 +7388,7 @@
       </c>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C50" s="9" t="s">
         <v>70</v>
       </c>
@@ -7069,7 +7405,7 @@
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C51" s="13"/>
       <c r="D51" s="22"/>
       <c r="E51" s="14"/>
@@ -7078,7 +7414,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C52" s="11" t="s">
         <v>71</v>
       </c>
@@ -7089,7 +7425,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C53" s="43" t="s">
         <v>310</v>
       </c>
@@ -7112,7 +7448,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C54" s="43" t="s">
         <v>310</v>
       </c>
@@ -7135,7 +7471,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C55" s="43" t="s">
         <v>310</v>
       </c>
@@ -7158,7 +7494,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C56" s="43" t="s">
         <v>310</v>
       </c>
@@ -7181,7 +7517,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C57" s="43" t="s">
         <v>310</v>
       </c>
@@ -7204,7 +7540,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C58" s="43" t="s">
         <v>310</v>
       </c>
@@ -7227,7 +7563,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C59" s="43" t="s">
         <v>310</v>
       </c>
@@ -7250,7 +7586,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C60" s="43" t="s">
         <v>310</v>
       </c>
@@ -7273,7 +7609,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C61" s="43" t="s">
         <v>310</v>
       </c>
@@ -7296,7 +7632,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C62" s="43" t="s">
         <v>310</v>
       </c>
@@ -7319,7 +7655,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C63" s="9" t="s">
         <v>72</v>
       </c>
@@ -7342,7 +7678,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C64" s="9" t="s">
         <v>74</v>
       </c>
@@ -7365,7 +7701,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C65" s="9" t="s">
         <v>75</v>
       </c>
@@ -7388,7 +7724,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C66" s="9" t="s">
         <v>79</v>
       </c>
@@ -7409,7 +7745,7 @@
       </c>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C67" s="9" t="s">
         <v>80</v>
       </c>
@@ -7430,7 +7766,7 @@
       </c>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C68" s="9" t="s">
         <v>83</v>
       </c>
@@ -7453,7 +7789,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C69" s="9" t="s">
         <v>84</v>
       </c>
@@ -7474,7 +7810,7 @@
       </c>
       <c r="I69" s="10"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C70" s="9" t="s">
         <v>87</v>
       </c>
@@ -7495,7 +7831,7 @@
       </c>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C71" s="9" t="s">
         <v>90</v>
       </c>
@@ -7518,7 +7854,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C72" s="9" t="s">
         <v>92</v>
       </c>
@@ -7539,7 +7875,7 @@
       </c>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C73" s="9" t="s">
         <v>94</v>
       </c>
@@ -7560,7 +7896,7 @@
       </c>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C74" s="9" t="s">
         <v>96</v>
       </c>
@@ -7583,7 +7919,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>404</v>
       </c>
@@ -7605,7 +7941,7 @@
       </c>
       <c r="I75" s="10"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>404</v>
       </c>
@@ -7625,7 +7961,7 @@
       <c r="H76" s="27"/>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>404</v>
       </c>
@@ -7645,7 +7981,7 @@
       <c r="H77" s="27"/>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>404</v>
       </c>
@@ -7665,7 +8001,7 @@
       <c r="H78" s="27"/>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>404</v>
       </c>
@@ -7687,7 +8023,7 @@
       </c>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>404</v>
       </c>
@@ -7709,7 +8045,7 @@
       </c>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>404</v>
       </c>
@@ -7729,7 +8065,7 @@
       <c r="H81" s="27"/>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C82" s="9" t="s">
         <v>116</v>
       </c>
@@ -7748,7 +8084,7 @@
       <c r="H82" s="27"/>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C83" s="9" t="s">
         <v>117</v>
       </c>
@@ -7767,7 +8103,7 @@
       <c r="H83" s="27"/>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C84" s="9" t="s">
         <v>121</v>
       </c>
@@ -7786,7 +8122,7 @@
       <c r="H84" s="27"/>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C85" s="9" t="s">
         <v>122</v>
       </c>
@@ -7805,7 +8141,7 @@
       <c r="H85" s="27"/>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C86" s="9" t="s">
         <v>124</v>
       </c>
@@ -7826,7 +8162,7 @@
       </c>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C87" s="9" t="s">
         <v>126</v>
       </c>
@@ -7847,7 +8183,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C88" s="9" t="s">
         <v>215</v>
       </c>
@@ -7868,7 +8204,7 @@
       </c>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C89" s="9" t="s">
         <v>218</v>
       </c>
@@ -7885,7 +8221,7 @@
       <c r="H89" s="27"/>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C90" s="9" t="s">
         <v>219</v>
       </c>
@@ -7902,7 +8238,7 @@
       <c r="H90" s="27"/>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C91" s="9" t="s">
         <v>223</v>
       </c>
@@ -7923,7 +8259,7 @@
       </c>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C92" s="9" t="s">
         <v>224</v>
       </c>
@@ -7940,7 +8276,7 @@
       <c r="H92" s="27"/>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C93" s="9" t="s">
         <v>225</v>
       </c>
@@ -7957,7 +8293,7 @@
       <c r="H93" s="27"/>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C94" s="13"/>
       <c r="D94" s="22"/>
       <c r="E94" s="14"/>
@@ -7966,7 +8302,7 @@
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C95" s="11" t="s">
         <v>128</v>
       </c>
@@ -7977,7 +8313,7 @@
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C96" s="43" t="s">
         <v>310</v>
       </c>
@@ -7998,7 +8334,7 @@
       </c>
       <c r="I96" s="45"/>
     </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C97" s="9" t="s">
         <v>129</v>
       </c>
@@ -8017,7 +8353,7 @@
       </c>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C98" s="9" t="s">
         <v>133</v>
       </c>
@@ -8036,7 +8372,7 @@
       </c>
       <c r="I98" s="10"/>
     </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C99" s="9" t="s">
         <v>134</v>
       </c>
@@ -8057,7 +8393,7 @@
       </c>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C100" s="9" t="s">
         <v>135</v>
       </c>
@@ -8078,7 +8414,7 @@
       </c>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C101" s="9" t="s">
         <v>136</v>
       </c>
@@ -8099,7 +8435,7 @@
       </c>
       <c r="I101" s="10"/>
     </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C102" s="9" t="s">
         <v>141</v>
       </c>
@@ -8120,7 +8456,7 @@
       </c>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C103" s="9" t="s">
         <v>142</v>
       </c>
@@ -8141,7 +8477,7 @@
       </c>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C104" s="9" t="s">
         <v>147</v>
       </c>
@@ -8160,7 +8496,7 @@
       </c>
       <c r="I104" s="10"/>
     </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C105" s="9" t="s">
         <v>148</v>
       </c>
@@ -8179,7 +8515,7 @@
       <c r="H105" s="27"/>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C106" s="9" t="s">
         <v>150</v>
       </c>
@@ -8202,7 +8538,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C107" s="9" t="s">
         <v>156</v>
       </c>
@@ -8225,7 +8561,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C108" s="9" t="s">
         <v>153</v>
       </c>
@@ -8246,7 +8582,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C109" s="9" t="s">
         <v>159</v>
       </c>
@@ -8267,7 +8603,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C110" s="9" t="s">
         <v>160</v>
       </c>
@@ -8288,7 +8624,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C111" s="9" t="s">
         <v>161</v>
       </c>
@@ -8309,7 +8645,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C112" s="9" t="s">
         <v>165</v>
       </c>
@@ -8328,7 +8664,7 @@
       </c>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C113" s="9" t="s">
         <v>169</v>
       </c>
@@ -8347,7 +8683,7 @@
       </c>
       <c r="I113" s="10"/>
     </row>
-    <row r="114" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C114" s="9" t="s">
         <v>170</v>
       </c>
@@ -8364,7 +8700,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="115" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C115" s="9" t="s">
         <v>173</v>
       </c>
@@ -8385,7 +8721,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="116" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C116" s="9" t="s">
         <v>179</v>
       </c>
@@ -8406,7 +8742,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="117" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C117" s="9" t="s">
         <v>175</v>
       </c>
@@ -8427,7 +8763,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="118" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C118" s="9" t="s">
         <v>180</v>
       </c>
@@ -8448,7 +8784,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="119" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C119" s="9" t="s">
         <v>183</v>
       </c>
@@ -8469,7 +8805,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="120" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C120" s="9" t="s">
         <v>185</v>
       </c>
@@ -8492,7 +8828,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="121" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C121" s="9" t="s">
         <v>187</v>
       </c>
@@ -8515,7 +8851,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="122" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C122" s="9" t="s">
         <v>191</v>
       </c>
@@ -8536,7 +8872,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="123" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C123" s="9" t="s">
         <v>192</v>
       </c>
@@ -8555,7 +8891,7 @@
       </c>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C124" s="9" t="s">
         <v>192</v>
       </c>
@@ -8574,7 +8910,7 @@
       </c>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C125" s="9" t="s">
         <v>197</v>
       </c>
@@ -8593,7 +8929,7 @@
       </c>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C126" s="9" t="s">
         <v>200</v>
       </c>
@@ -8619,7 +8955,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="127" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C127" s="9" t="s">
         <v>230</v>
       </c>
@@ -8640,7 +8976,7 @@
       </c>
       <c r="I127" s="10"/>
     </row>
-    <row r="128" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C128" s="9" t="s">
         <v>204</v>
       </c>
@@ -8661,7 +8997,7 @@
       </c>
       <c r="I128" s="10"/>
     </row>
-    <row r="129" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C129" s="9" t="s">
         <v>229</v>
       </c>
@@ -8682,7 +9018,7 @@
       </c>
       <c r="I129" s="10"/>
     </row>
-    <row r="130" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C130" s="9" t="s">
         <v>207</v>
       </c>
@@ -8703,7 +9039,7 @@
       </c>
       <c r="I130" s="10"/>
     </row>
-    <row r="131" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C131" s="9" t="s">
         <v>209</v>
       </c>
@@ -8722,7 +9058,7 @@
       </c>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C132" s="9" t="s">
         <v>212</v>
       </c>
@@ -8741,7 +9077,7 @@
       </c>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C133" s="9" t="s">
         <v>213</v>
       </c>
@@ -8760,7 +9096,7 @@
       </c>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C134" s="21" t="s">
         <v>231</v>
       </c>
@@ -8779,7 +9115,7 @@
       </c>
       <c r="I134" s="21"/>
     </row>
-    <row r="135" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C135" s="13"/>
       <c r="D135" s="22"/>
       <c r="E135" s="14"/>
@@ -8803,20 +9139,20 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="137" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="137" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="115" t="s">
         <v>463</v>
       </c>
@@ -8845,7 +9181,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="116" t="s">
         <v>409</v>
       </c>
@@ -8872,7 +9208,7 @@
       </c>
       <c r="I2" s="100"/>
     </row>
-    <row r="3" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="116" t="s">
         <v>409</v>
       </c>
@@ -8897,7 +9233,7 @@
       <c r="H3" s="126"/>
       <c r="I3" s="100"/>
     </row>
-    <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
         <v>409</v>
       </c>
@@ -8922,7 +9258,7 @@
       <c r="H4" s="126"/>
       <c r="I4" s="100"/>
     </row>
-    <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
         <v>409</v>
       </c>
@@ -8947,7 +9283,7 @@
       <c r="H5" s="126"/>
       <c r="I5" s="100"/>
     </row>
-    <row r="6" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">
         <v>409</v>
       </c>
@@ -8972,7 +9308,7 @@
       <c r="H6" s="126"/>
       <c r="I6" s="100"/>
     </row>
-    <row r="7" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="116" t="s">
         <v>409</v>
       </c>
@@ -8997,7 +9333,7 @@
       <c r="H7" s="126"/>
       <c r="I7" s="100"/>
     </row>
-    <row r="8" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="116" t="s">
         <v>409</v>
       </c>
@@ -9024,7 +9360,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="116" t="s">
         <v>409</v>
       </c>
@@ -9053,7 +9389,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="116" t="s">
         <v>409</v>
       </c>
@@ -9082,7 +9418,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="116" t="s">
         <v>409</v>
       </c>
@@ -9111,7 +9447,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="116" t="s">
         <v>409</v>
       </c>
@@ -9138,7 +9474,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="116" t="s">
         <v>409</v>
       </c>
@@ -9165,7 +9501,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="116" t="s">
         <v>409</v>
       </c>
@@ -9192,7 +9528,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="116" t="s">
         <v>409</v>
       </c>
@@ -9221,7 +9557,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="116" t="s">
         <v>409</v>
       </c>
@@ -9248,7 +9584,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="116" t="s">
         <v>409</v>
       </c>
@@ -9275,7 +9611,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="116" t="s">
         <v>409</v>
       </c>
@@ -9302,7 +9638,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>409</v>
       </c>
@@ -9329,7 +9665,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="116" t="s">
         <v>409</v>
       </c>
@@ -9356,7 +9692,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="116" t="s">
         <v>409</v>
       </c>
@@ -9383,7 +9719,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="116" t="s">
         <v>409</v>
       </c>
@@ -9412,7 +9748,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="116" t="s">
         <v>409</v>
       </c>
@@ -9441,7 +9777,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="116" t="s">
         <v>409</v>
       </c>
@@ -9470,7 +9806,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="116" t="s">
         <v>409</v>
       </c>
@@ -9497,7 +9833,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="118" t="s">
         <v>419</v>
       </c>
@@ -9522,7 +9858,7 @@
       <c r="H26" s="128"/>
       <c r="I26" s="104"/>
     </row>
-    <row r="27" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="118" t="s">
         <v>419</v>
       </c>
@@ -9547,7 +9883,7 @@
       <c r="H27" s="128"/>
       <c r="I27" s="104"/>
     </row>
-    <row r="28" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="118" t="s">
         <v>419</v>
       </c>
@@ -9570,7 +9906,7 @@
       <c r="H28" s="128"/>
       <c r="I28" s="104"/>
     </row>
-    <row r="29" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="118" t="s">
         <v>419</v>
       </c>
@@ -9593,7 +9929,7 @@
       <c r="H29" s="128"/>
       <c r="I29" s="104"/>
     </row>
-    <row r="30" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="118" t="s">
         <v>419</v>
       </c>
@@ -9616,7 +9952,7 @@
       <c r="H30" s="128"/>
       <c r="I30" s="104"/>
     </row>
-    <row r="31" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="118" t="s">
         <v>419</v>
       </c>
@@ -9641,7 +9977,7 @@
       <c r="H31" s="128"/>
       <c r="I31" s="104"/>
     </row>
-    <row r="32" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="118" t="s">
         <v>419</v>
       </c>
@@ -9666,7 +10002,7 @@
       <c r="H32" s="128"/>
       <c r="I32" s="104"/>
     </row>
-    <row r="33" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="118" t="s">
         <v>419</v>
       </c>
@@ -9691,7 +10027,7 @@
       <c r="H33" s="128"/>
       <c r="I33" s="104"/>
     </row>
-    <row r="34" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="118" t="s">
         <v>419</v>
       </c>
@@ -9716,7 +10052,7 @@
       <c r="H34" s="128"/>
       <c r="I34" s="104"/>
     </row>
-    <row r="35" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="118" t="s">
         <v>419</v>
       </c>
@@ -9741,7 +10077,7 @@
       <c r="H35" s="128"/>
       <c r="I35" s="104"/>
     </row>
-    <row r="36" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="118" t="s">
         <v>419</v>
       </c>
@@ -9766,7 +10102,7 @@
       <c r="H36" s="128"/>
       <c r="I36" s="104"/>
     </row>
-    <row r="37" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="118" t="s">
         <v>419</v>
       </c>
@@ -9791,7 +10127,7 @@
       <c r="H37" s="128"/>
       <c r="I37" s="104"/>
     </row>
-    <row r="38" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="118" t="s">
         <v>419</v>
       </c>
@@ -9816,7 +10152,7 @@
       <c r="H38" s="128"/>
       <c r="I38" s="104"/>
     </row>
-    <row r="39" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="118" t="s">
         <v>419</v>
       </c>
@@ -9841,7 +10177,7 @@
       <c r="H39" s="128"/>
       <c r="I39" s="104"/>
     </row>
-    <row r="40" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="118" t="s">
         <v>419</v>
       </c>
@@ -9866,7 +10202,7 @@
       <c r="H40" s="128"/>
       <c r="I40" s="104"/>
     </row>
-    <row r="41" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="118" t="s">
         <v>419</v>
       </c>
@@ -9891,7 +10227,7 @@
       <c r="H41" s="128"/>
       <c r="I41" s="104"/>
     </row>
-    <row r="42" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="118" t="s">
         <v>419</v>
       </c>
@@ -9918,7 +10254,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="118" t="s">
         <v>419</v>
       </c>
@@ -9943,7 +10279,7 @@
       <c r="H43" s="128"/>
       <c r="I43" s="104"/>
     </row>
-    <row r="44" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="118" t="s">
         <v>419</v>
       </c>
@@ -9968,7 +10304,7 @@
       <c r="H44" s="128"/>
       <c r="I44" s="104"/>
     </row>
-    <row r="45" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="118" t="s">
         <v>419</v>
       </c>
@@ -9993,7 +10329,7 @@
       <c r="H45" s="128"/>
       <c r="I45" s="104"/>
     </row>
-    <row r="46" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="118" t="s">
         <v>419</v>
       </c>
@@ -10018,7 +10354,7 @@
       <c r="H46" s="128"/>
       <c r="I46" s="104"/>
     </row>
-    <row r="47" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="118" t="s">
         <v>419</v>
       </c>
@@ -10043,7 +10379,7 @@
       <c r="H47" s="128"/>
       <c r="I47" s="104"/>
     </row>
-    <row r="48" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="118" t="s">
         <v>419</v>
       </c>
@@ -10068,7 +10404,7 @@
       <c r="H48" s="128"/>
       <c r="I48" s="104"/>
     </row>
-    <row r="49" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="118" t="s">
         <v>419</v>
       </c>
@@ -10093,7 +10429,7 @@
       <c r="H49" s="128"/>
       <c r="I49" s="104"/>
     </row>
-    <row r="50" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="118" t="s">
         <v>419</v>
       </c>
@@ -10118,7 +10454,7 @@
       <c r="H50" s="128"/>
       <c r="I50" s="104"/>
     </row>
-    <row r="51" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="118" t="s">
         <v>419</v>
       </c>
@@ -10143,7 +10479,7 @@
       <c r="H51" s="128"/>
       <c r="I51" s="104"/>
     </row>
-    <row r="52" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="118" t="s">
         <v>419</v>
       </c>
@@ -10168,7 +10504,7 @@
       <c r="H52" s="128"/>
       <c r="I52" s="104"/>
     </row>
-    <row r="53" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="118" t="s">
         <v>419</v>
       </c>
@@ -10193,7 +10529,7 @@
       <c r="H53" s="128"/>
       <c r="I53" s="104"/>
     </row>
-    <row r="54" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="118" t="s">
         <v>419</v>
       </c>
@@ -10218,7 +10554,7 @@
       <c r="H54" s="128"/>
       <c r="I54" s="104"/>
     </row>
-    <row r="55" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="120" t="s">
         <v>470</v>
       </c>
@@ -10247,7 +10583,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="120" t="s">
         <v>470</v>
       </c>
@@ -10276,7 +10612,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="120" t="s">
         <v>470</v>
       </c>
@@ -10305,7 +10641,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="120" t="s">
         <v>470</v>
       </c>
@@ -10334,7 +10670,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="120" t="s">
         <v>470</v>
       </c>
@@ -10363,7 +10699,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="120" t="s">
         <v>470</v>
       </c>
@@ -10392,7 +10728,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="120" t="s">
         <v>470</v>
       </c>
@@ -10421,7 +10757,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="120" t="s">
         <v>470</v>
       </c>
@@ -10446,7 +10782,7 @@
       <c r="H62" s="130"/>
       <c r="I62" s="123"/>
     </row>
-    <row r="63" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="120" t="s">
         <v>470</v>
       </c>
@@ -10471,7 +10807,7 @@
       <c r="H63" s="130"/>
       <c r="I63" s="123"/>
     </row>
-    <row r="64" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="120" t="s">
         <v>470</v>
       </c>
@@ -10496,7 +10832,7 @@
       <c r="H64" s="130"/>
       <c r="I64" s="123"/>
     </row>
-    <row r="65" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="120" t="s">
         <v>470</v>
       </c>
@@ -10523,7 +10859,7 @@
       </c>
       <c r="I65" s="123"/>
     </row>
-    <row r="66" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="120" t="s">
         <v>470</v>
       </c>
@@ -10548,7 +10884,7 @@
       <c r="H66" s="130"/>
       <c r="I66" s="123"/>
     </row>
-    <row r="67" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="120" t="s">
         <v>470</v>
       </c>
@@ -10573,7 +10909,7 @@
       <c r="H67" s="130"/>
       <c r="I67" s="123"/>
     </row>
-    <row r="68" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="120" t="s">
         <v>470</v>
       </c>
@@ -10598,7 +10934,7 @@
       <c r="H68" s="130"/>
       <c r="I68" s="123"/>
     </row>
-    <row r="69" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="120" t="s">
         <v>470</v>
       </c>
@@ -10623,7 +10959,7 @@
       <c r="H69" s="130"/>
       <c r="I69" s="123"/>
     </row>
-    <row r="70" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="120" t="s">
         <v>470</v>
       </c>
@@ -10650,7 +10986,7 @@
       </c>
       <c r="I70" s="123"/>
     </row>
-    <row r="71" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="120" t="s">
         <v>470</v>
       </c>
@@ -10677,7 +11013,7 @@
       </c>
       <c r="I71" s="164"/>
     </row>
-    <row r="72" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="120" t="s">
         <v>470</v>
       </c>
@@ -10702,7 +11038,7 @@
       <c r="H72" s="176"/>
       <c r="I72" s="164"/>
     </row>
-    <row r="73" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="120" t="s">
         <v>470</v>
       </c>
@@ -10731,7 +11067,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="120" t="s">
         <v>470</v>
       </c>
@@ -10760,7 +11096,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="120" t="s">
         <v>470</v>
       </c>
@@ -10789,7 +11125,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="120" t="s">
         <v>470</v>
       </c>
@@ -10818,7 +11154,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="120" t="s">
         <v>470</v>
       </c>
@@ -10847,7 +11183,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="120" t="s">
         <v>470</v>
       </c>
@@ -10876,7 +11212,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="120" t="s">
         <v>470</v>
       </c>
@@ -10905,7 +11241,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="120" t="s">
         <v>470</v>
       </c>
@@ -10934,7 +11270,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="120" t="s">
         <v>470</v>
       </c>
@@ -10963,7 +11299,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="120" t="s">
         <v>470</v>
       </c>
@@ -10992,7 +11328,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="120" t="s">
         <v>470</v>
       </c>
@@ -11019,7 +11355,7 @@
       </c>
       <c r="I83" s="123"/>
     </row>
-    <row r="84" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="120" t="s">
         <v>470</v>
       </c>
@@ -11044,7 +11380,7 @@
       <c r="H84" s="130"/>
       <c r="I84" s="123"/>
     </row>
-    <row r="85" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="120" t="s">
         <v>470</v>
       </c>
@@ -11069,7 +11405,7 @@
       <c r="H85" s="130"/>
       <c r="I85" s="123"/>
     </row>
-    <row r="86" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="120" t="s">
         <v>470</v>
       </c>
@@ -11094,7 +11430,7 @@
       <c r="H86" s="130"/>
       <c r="I86" s="123"/>
     </row>
-    <row r="87" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="120" t="s">
         <v>470</v>
       </c>
@@ -11119,7 +11455,7 @@
       <c r="H87" s="130"/>
       <c r="I87" s="123"/>
     </row>
-    <row r="88" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="120" t="s">
         <v>470</v>
       </c>
@@ -11144,7 +11480,7 @@
       <c r="H88" s="130"/>
       <c r="I88" s="123"/>
     </row>
-    <row r="89" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="120" t="s">
         <v>470</v>
       </c>
@@ -11171,7 +11507,7 @@
       </c>
       <c r="I89" s="124"/>
     </row>
-    <row r="90" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="120" t="s">
         <v>470</v>
       </c>
@@ -11198,7 +11534,7 @@
       </c>
       <c r="I90" s="123"/>
     </row>
-    <row r="91" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="120" t="s">
         <v>470</v>
       </c>
@@ -11225,7 +11561,7 @@
       </c>
       <c r="I91" s="124"/>
     </row>
-    <row r="92" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="120" t="s">
         <v>470</v>
       </c>
@@ -11252,7 +11588,7 @@
       </c>
       <c r="I92" s="124"/>
     </row>
-    <row r="93" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="120" t="s">
         <v>470</v>
       </c>
@@ -11277,7 +11613,7 @@
       </c>
       <c r="I93" s="124"/>
     </row>
-    <row r="94" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="120" t="s">
         <v>470</v>
       </c>
@@ -11304,7 +11640,7 @@
       </c>
       <c r="I94" s="124"/>
     </row>
-    <row r="95" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="120" t="s">
         <v>470</v>
       </c>
@@ -11331,7 +11667,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="120" t="s">
         <v>470</v>
       </c>
@@ -11358,7 +11694,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="120" t="s">
         <v>470</v>
       </c>
@@ -11385,7 +11721,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="120" t="s">
         <v>470</v>
       </c>
@@ -11412,7 +11748,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="120" t="s">
         <v>470</v>
       </c>
@@ -11439,7 +11775,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="120" t="s">
         <v>470</v>
       </c>
@@ -11466,7 +11802,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="120" t="s">
         <v>470</v>
       </c>
@@ -11493,7 +11829,7 @@
       </c>
       <c r="I101" s="123"/>
     </row>
-    <row r="102" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="120" t="s">
         <v>470</v>
       </c>
@@ -11520,7 +11856,7 @@
       </c>
       <c r="I102" s="123"/>
     </row>
-    <row r="103" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="120" t="s">
         <v>470</v>
       </c>
@@ -11545,7 +11881,7 @@
       <c r="H103" s="130"/>
       <c r="I103" s="123"/>
     </row>
-    <row r="104" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="120" t="s">
         <v>470</v>
       </c>
@@ -11570,7 +11906,7 @@
       <c r="H104" s="130"/>
       <c r="I104" s="123"/>
     </row>
-    <row r="105" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="120" t="s">
         <v>470</v>
       </c>
@@ -11595,7 +11931,7 @@
       <c r="H105" s="130"/>
       <c r="I105" s="123"/>
     </row>
-    <row r="106" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="120" t="s">
         <v>470</v>
       </c>
@@ -11620,7 +11956,7 @@
       <c r="H106" s="130"/>
       <c r="I106" s="123"/>
     </row>
-    <row r="107" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="120" t="s">
         <v>470</v>
       </c>
@@ -11647,7 +11983,7 @@
       </c>
       <c r="I107" s="123"/>
     </row>
-    <row r="108" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="120" t="s">
         <v>470</v>
       </c>
@@ -11672,7 +12008,7 @@
       <c r="H108" s="130"/>
       <c r="I108" s="123"/>
     </row>
-    <row r="109" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="120" t="s">
         <v>470</v>
       </c>
@@ -11697,7 +12033,7 @@
       <c r="H109" s="130"/>
       <c r="I109" s="123"/>
     </row>
-    <row r="110" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="120" t="s">
         <v>470</v>
       </c>
@@ -11724,7 +12060,7 @@
       </c>
       <c r="I110" s="123"/>
     </row>
-    <row r="111" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="120" t="s">
         <v>470</v>
       </c>
@@ -11751,7 +12087,7 @@
       </c>
       <c r="I111" s="124"/>
     </row>
-    <row r="112" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="120" t="s">
         <v>470</v>
       </c>
@@ -11778,7 +12114,7 @@
       </c>
       <c r="I112" s="124"/>
     </row>
-    <row r="113" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="120" t="s">
         <v>470</v>
       </c>
@@ -11805,7 +12141,7 @@
       </c>
       <c r="I113" s="124"/>
     </row>
-    <row r="114" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="120" t="s">
         <v>470</v>
       </c>
@@ -11841,24 +12177,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005F3198-C033-B548-8CE3-0194F9495F17}">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A108" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H142" sqref="H142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="137" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="137" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="115" t="s">
         <v>463</v>
       </c>
@@ -11887,7 +12223,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="116" t="s">
         <v>409</v>
       </c>
@@ -11916,7 +12252,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="116" t="s">
         <v>409</v>
       </c>
@@ -11945,7 +12281,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
         <v>409</v>
       </c>
@@ -11974,7 +12310,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
         <v>409</v>
       </c>
@@ -12003,7 +12339,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">
         <v>409</v>
       </c>
@@ -12032,7 +12368,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="116" t="s">
         <v>409</v>
       </c>
@@ -12059,7 +12395,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="116" t="s">
         <v>409</v>
       </c>
@@ -12086,7 +12422,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="116" t="s">
         <v>409</v>
       </c>
@@ -12113,7 +12449,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="116" t="s">
         <v>409</v>
       </c>
@@ -12142,7 +12478,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="116" t="s">
         <v>409</v>
       </c>
@@ -12169,7 +12505,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="116" t="s">
         <v>409</v>
       </c>
@@ -12198,7 +12534,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="116" t="s">
         <v>409</v>
       </c>
@@ -12225,7 +12561,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="116" t="s">
         <v>409</v>
       </c>
@@ -12252,7 +12588,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="116" t="s">
         <v>409</v>
       </c>
@@ -12279,7 +12615,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="116" t="s">
         <v>409</v>
       </c>
@@ -12306,7 +12642,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="116" t="s">
         <v>409</v>
       </c>
@@ -12333,7 +12669,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="116" t="s">
         <v>409</v>
       </c>
@@ -12360,7 +12696,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>409</v>
       </c>
@@ -12389,7 +12725,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="118" t="s">
         <v>419</v>
       </c>
@@ -12414,7 +12750,7 @@
       <c r="H20" s="128"/>
       <c r="I20" s="104"/>
     </row>
-    <row r="21" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="118" t="s">
         <v>419</v>
       </c>
@@ -12439,7 +12775,7 @@
       <c r="H21" s="128"/>
       <c r="I21" s="104"/>
     </row>
-    <row r="22" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="118" t="s">
         <v>419</v>
       </c>
@@ -12464,7 +12800,7 @@
       <c r="H22" s="128"/>
       <c r="I22" s="104"/>
     </row>
-    <row r="23" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="118" t="s">
         <v>419</v>
       </c>
@@ -12489,7 +12825,7 @@
       <c r="H23" s="128"/>
       <c r="I23" s="104"/>
     </row>
-    <row r="24" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="118" t="s">
         <v>419</v>
       </c>
@@ -12514,7 +12850,7 @@
       <c r="H24" s="128"/>
       <c r="I24" s="104"/>
     </row>
-    <row r="25" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="118" t="s">
         <v>419</v>
       </c>
@@ -12539,7 +12875,7 @@
       <c r="H25" s="128"/>
       <c r="I25" s="104"/>
     </row>
-    <row r="26" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="118" t="s">
         <v>419</v>
       </c>
@@ -12564,7 +12900,7 @@
       <c r="H26" s="128"/>
       <c r="I26" s="104"/>
     </row>
-    <row r="27" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="118" t="s">
         <v>419</v>
       </c>
@@ -12589,7 +12925,7 @@
       <c r="H27" s="128"/>
       <c r="I27" s="104"/>
     </row>
-    <row r="28" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="118" t="s">
         <v>419</v>
       </c>
@@ -12614,7 +12950,7 @@
       <c r="H28" s="128"/>
       <c r="I28" s="104"/>
     </row>
-    <row r="29" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="118" t="s">
         <v>419</v>
       </c>
@@ -12639,7 +12975,7 @@
       <c r="H29" s="128"/>
       <c r="I29" s="104"/>
     </row>
-    <row r="30" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="118" t="s">
         <v>419</v>
       </c>
@@ -12664,7 +13000,7 @@
       <c r="H30" s="128"/>
       <c r="I30" s="104"/>
     </row>
-    <row r="31" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="118" t="s">
         <v>419</v>
       </c>
@@ -12689,7 +13025,7 @@
       <c r="H31" s="128"/>
       <c r="I31" s="104"/>
     </row>
-    <row r="32" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="118" t="s">
         <v>419</v>
       </c>
@@ -12718,7 +13054,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="118" t="s">
         <v>419</v>
       </c>
@@ -12745,7 +13081,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="118" t="s">
         <v>419</v>
       </c>
@@ -12772,7 +13108,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="118" t="s">
         <v>419</v>
       </c>
@@ -12799,7 +13135,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="118" t="s">
         <v>419</v>
       </c>
@@ -12824,7 +13160,7 @@
       <c r="H36" s="128"/>
       <c r="I36" s="104"/>
     </row>
-    <row r="37" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="118" t="s">
         <v>419</v>
       </c>
@@ -12849,7 +13185,7 @@
       <c r="H37" s="128"/>
       <c r="I37" s="104"/>
     </row>
-    <row r="38" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="118" t="s">
         <v>419</v>
       </c>
@@ -12874,7 +13210,7 @@
       <c r="H38" s="128"/>
       <c r="I38" s="104"/>
     </row>
-    <row r="39" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="118" t="s">
         <v>419</v>
       </c>
@@ -12899,7 +13235,7 @@
       <c r="H39" s="128"/>
       <c r="I39" s="104"/>
     </row>
-    <row r="40" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="118" t="s">
         <v>419</v>
       </c>
@@ -12924,7 +13260,7 @@
       <c r="H40" s="128"/>
       <c r="I40" s="104"/>
     </row>
-    <row r="41" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="118" t="s">
         <v>419</v>
       </c>
@@ -12949,7 +13285,7 @@
       <c r="H41" s="128"/>
       <c r="I41" s="104"/>
     </row>
-    <row r="42" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="118" t="s">
         <v>419</v>
       </c>
@@ -12974,7 +13310,7 @@
       <c r="H42" s="128"/>
       <c r="I42" s="104"/>
     </row>
-    <row r="43" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="118" t="s">
         <v>419</v>
       </c>
@@ -12999,7 +13335,7 @@
       <c r="H43" s="128"/>
       <c r="I43" s="104"/>
     </row>
-    <row r="44" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="118" t="s">
         <v>419</v>
       </c>
@@ -13024,7 +13360,7 @@
       <c r="H44" s="128"/>
       <c r="I44" s="104"/>
     </row>
-    <row r="45" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="118" t="s">
         <v>419</v>
       </c>
@@ -13049,7 +13385,7 @@
       <c r="H45" s="128"/>
       <c r="I45" s="104"/>
     </row>
-    <row r="46" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="118" t="s">
         <v>419</v>
       </c>
@@ -13074,7 +13410,7 @@
       <c r="H46" s="128"/>
       <c r="I46" s="104"/>
     </row>
-    <row r="47" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="118" t="s">
         <v>419</v>
       </c>
@@ -13099,7 +13435,7 @@
       <c r="H47" s="128"/>
       <c r="I47" s="104"/>
     </row>
-    <row r="48" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="118" t="s">
         <v>419</v>
       </c>
@@ -13124,7 +13460,7 @@
       <c r="H48" s="128"/>
       <c r="I48" s="104"/>
     </row>
-    <row r="49" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="118" t="s">
         <v>419</v>
       </c>
@@ -13149,7 +13485,7 @@
       <c r="H49" s="128"/>
       <c r="I49" s="104"/>
     </row>
-    <row r="50" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="118" t="s">
         <v>419</v>
       </c>
@@ -13174,7 +13510,7 @@
       <c r="H50" s="128"/>
       <c r="I50" s="104"/>
     </row>
-    <row r="51" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="118" t="s">
         <v>419</v>
       </c>
@@ -13199,7 +13535,7 @@
       <c r="H51" s="128"/>
       <c r="I51" s="104"/>
     </row>
-    <row r="52" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="118" t="s">
         <v>419</v>
       </c>
@@ -13224,7 +13560,7 @@
       <c r="H52" s="128"/>
       <c r="I52" s="104"/>
     </row>
-    <row r="53" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="118" t="s">
         <v>419</v>
       </c>
@@ -13251,7 +13587,7 @@
       </c>
       <c r="I53" s="104"/>
     </row>
-    <row r="54" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="118" t="s">
         <v>419</v>
       </c>
@@ -13278,7 +13614,7 @@
       </c>
       <c r="I54" s="104"/>
     </row>
-    <row r="55" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="118" t="s">
         <v>419</v>
       </c>
@@ -13305,7 +13641,7 @@
       </c>
       <c r="I55" s="104"/>
     </row>
-    <row r="56" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="118" t="s">
         <v>419</v>
       </c>
@@ -13332,7 +13668,7 @@
       </c>
       <c r="I56" s="104"/>
     </row>
-    <row r="57" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="118" t="s">
         <v>419</v>
       </c>
@@ -13359,7 +13695,7 @@
       </c>
       <c r="I57" s="104"/>
     </row>
-    <row r="58" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="118" t="s">
         <v>419</v>
       </c>
@@ -13386,7 +13722,7 @@
       </c>
       <c r="I58" s="104"/>
     </row>
-    <row r="59" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="118" t="s">
         <v>419</v>
       </c>
@@ -13411,7 +13747,7 @@
       <c r="H59" s="128"/>
       <c r="I59" s="104"/>
     </row>
-    <row r="60" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="118" t="s">
         <v>419</v>
       </c>
@@ -13436,7 +13772,7 @@
       <c r="H60" s="128"/>
       <c r="I60" s="104"/>
     </row>
-    <row r="61" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="118" t="s">
         <v>419</v>
       </c>
@@ -13461,7 +13797,7 @@
       <c r="H61" s="128"/>
       <c r="I61" s="104"/>
     </row>
-    <row r="62" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="118" t="s">
         <v>419</v>
       </c>
@@ -13488,7 +13824,7 @@
       </c>
       <c r="I62" s="104"/>
     </row>
-    <row r="63" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="120" t="s">
         <v>470</v>
       </c>
@@ -13517,7 +13853,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="120" t="s">
         <v>470</v>
       </c>
@@ -13546,7 +13882,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="120" t="s">
         <v>470</v>
       </c>
@@ -13573,7 +13909,7 @@
       </c>
       <c r="I65" s="123"/>
     </row>
-    <row r="66" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="120" t="s">
         <v>470</v>
       </c>
@@ -13600,7 +13936,7 @@
       </c>
       <c r="I66" s="123"/>
     </row>
-    <row r="67" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="120" t="s">
         <v>470</v>
       </c>
@@ -13627,7 +13963,7 @@
       </c>
       <c r="I67" s="123"/>
     </row>
-    <row r="68" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="120" t="s">
         <v>470</v>
       </c>
@@ -13656,7 +13992,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="120" t="s">
         <v>470</v>
       </c>
@@ -13683,7 +14019,7 @@
       </c>
       <c r="I69" s="123"/>
     </row>
-    <row r="70" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="120" t="s">
         <v>470</v>
       </c>
@@ -13710,7 +14046,7 @@
       </c>
       <c r="I70" s="123"/>
     </row>
-    <row r="71" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="120" t="s">
         <v>470</v>
       </c>
@@ -13735,7 +14071,7 @@
       <c r="H71" s="130"/>
       <c r="I71" s="123"/>
     </row>
-    <row r="72" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="120" t="s">
         <v>470</v>
       </c>
@@ -13760,7 +14096,7 @@
       <c r="H72" s="130"/>
       <c r="I72" s="123"/>
     </row>
-    <row r="73" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="120" t="s">
         <v>470</v>
       </c>
@@ -13787,7 +14123,7 @@
       </c>
       <c r="I73" s="123"/>
     </row>
-    <row r="74" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="120" t="s">
         <v>470</v>
       </c>
@@ -13814,7 +14150,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="120" t="s">
         <v>470</v>
       </c>
@@ -13841,7 +14177,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="120" t="s">
         <v>470</v>
       </c>
@@ -13866,7 +14202,7 @@
       <c r="H76" s="130"/>
       <c r="I76" s="123"/>
     </row>
-    <row r="77" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="120" t="s">
         <v>470</v>
       </c>
@@ -13891,7 +14227,7 @@
       <c r="H77" s="130"/>
       <c r="I77" s="123"/>
     </row>
-    <row r="78" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="120" t="s">
         <v>470</v>
       </c>
@@ -13918,7 +14254,7 @@
       </c>
       <c r="I78" s="123"/>
     </row>
-    <row r="79" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="120" t="s">
         <v>470</v>
       </c>
@@ -13945,7 +14281,7 @@
       </c>
       <c r="I79" s="123"/>
     </row>
-    <row r="80" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="120" t="s">
         <v>470</v>
       </c>
@@ -13972,7 +14308,7 @@
       </c>
       <c r="I80" s="123"/>
     </row>
-    <row r="81" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="120" t="s">
         <v>470</v>
       </c>
@@ -13999,7 +14335,7 @@
       </c>
       <c r="I81" s="123"/>
     </row>
-    <row r="82" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="120" t="s">
         <v>470</v>
       </c>
@@ -14026,7 +14362,7 @@
       </c>
       <c r="I82" s="123"/>
     </row>
-    <row r="83" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="120" t="s">
         <v>470</v>
       </c>
@@ -14051,7 +14387,7 @@
       <c r="H83" s="130"/>
       <c r="I83" s="123"/>
     </row>
-    <row r="84" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="120" t="s">
         <v>470</v>
       </c>
@@ -14076,7 +14412,7 @@
       <c r="H84" s="130"/>
       <c r="I84" s="123"/>
     </row>
-    <row r="85" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="120" t="s">
         <v>470</v>
       </c>
@@ -14101,7 +14437,7 @@
       <c r="H85" s="130"/>
       <c r="I85" s="123"/>
     </row>
-    <row r="86" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="120" t="s">
         <v>470</v>
       </c>
@@ -14128,7 +14464,7 @@
       </c>
       <c r="I86" s="123"/>
     </row>
-    <row r="87" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="120" t="s">
         <v>470</v>
       </c>
@@ -14155,7 +14491,7 @@
       </c>
       <c r="I87" s="123"/>
     </row>
-    <row r="88" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="120" t="s">
         <v>470</v>
       </c>
@@ -14182,7 +14518,7 @@
       </c>
       <c r="I88" s="123"/>
     </row>
-    <row r="89" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="120" t="s">
         <v>470</v>
       </c>
@@ -14209,7 +14545,7 @@
       </c>
       <c r="I89" s="123"/>
     </row>
-    <row r="90" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="120" t="s">
         <v>470</v>
       </c>
@@ -14234,7 +14570,7 @@
       <c r="H90" s="130"/>
       <c r="I90" s="123"/>
     </row>
-    <row r="91" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="120" t="s">
         <v>470</v>
       </c>
@@ -14259,7 +14595,7 @@
       <c r="H91" s="130"/>
       <c r="I91" s="123"/>
     </row>
-    <row r="92" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="120" t="s">
         <v>470</v>
       </c>
@@ -14286,7 +14622,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="120" t="s">
         <v>470</v>
       </c>
@@ -14313,7 +14649,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="120" t="s">
         <v>470</v>
       </c>
@@ -14340,7 +14676,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="120" t="s">
         <v>470</v>
       </c>
@@ -14367,7 +14703,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="120" t="s">
         <v>470</v>
       </c>
@@ -14394,7 +14730,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="120" t="s">
         <v>470</v>
       </c>
@@ -14421,7 +14757,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="120" t="s">
         <v>470</v>
       </c>
@@ -14446,7 +14782,7 @@
       <c r="H98" s="130"/>
       <c r="I98" s="123"/>
     </row>
-    <row r="99" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="120" t="s">
         <v>470</v>
       </c>
@@ -14471,7 +14807,7 @@
       <c r="H99" s="130"/>
       <c r="I99" s="123"/>
     </row>
-    <row r="100" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="120" t="s">
         <v>470</v>
       </c>
@@ -14496,7 +14832,7 @@
       <c r="H100" s="130"/>
       <c r="I100" s="123"/>
     </row>
-    <row r="101" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="120" t="s">
         <v>470</v>
       </c>
@@ -14521,7 +14857,7 @@
       <c r="H101" s="130"/>
       <c r="I101" s="123"/>
     </row>
-    <row r="102" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="120" t="s">
         <v>470</v>
       </c>
@@ -14546,7 +14882,7 @@
       <c r="H102" s="130"/>
       <c r="I102" s="123"/>
     </row>
-    <row r="103" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="120" t="s">
         <v>470</v>
       </c>
@@ -14571,7 +14907,7 @@
       <c r="H103" s="130"/>
       <c r="I103" s="123"/>
     </row>
-    <row r="104" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="120" t="s">
         <v>470</v>
       </c>
@@ -14596,7 +14932,7 @@
       <c r="H104" s="130"/>
       <c r="I104" s="123"/>
     </row>
-    <row r="105" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="120" t="s">
         <v>470</v>
       </c>
@@ -14621,7 +14957,7 @@
       <c r="H105" s="130"/>
       <c r="I105" s="123"/>
     </row>
-    <row r="106" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="120" t="s">
         <v>470</v>
       </c>
@@ -14646,7 +14982,7 @@
       <c r="H106" s="130"/>
       <c r="I106" s="123"/>
     </row>
-    <row r="107" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="120" t="s">
         <v>470</v>
       </c>
@@ -14671,7 +15007,7 @@
       <c r="H107" s="130"/>
       <c r="I107" s="123"/>
     </row>
-    <row r="108" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="120" t="s">
         <v>470</v>
       </c>
@@ -14696,7 +15032,7 @@
       <c r="H108" s="130"/>
       <c r="I108" s="123"/>
     </row>
-    <row r="109" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="120" t="s">
         <v>470</v>
       </c>
@@ -14721,7 +15057,7 @@
       <c r="H109" s="130"/>
       <c r="I109" s="123"/>
     </row>
-    <row r="110" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="120" t="s">
         <v>470</v>
       </c>
@@ -14750,7 +15086,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="120" t="s">
         <v>470</v>
       </c>
@@ -14777,7 +15113,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="120" t="s">
         <v>470</v>
       </c>
@@ -14804,7 +15140,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="120" t="s">
         <v>470</v>
       </c>
@@ -14831,7 +15167,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="120" t="s">
         <v>470</v>
       </c>
@@ -14858,7 +15194,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="120" t="s">
         <v>470</v>
       </c>
@@ -14885,7 +15221,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="186" t="s">
         <v>1288</v>
       </c>
@@ -14912,7 +15248,7 @@
       </c>
       <c r="I116" s="191"/>
     </row>
-    <row r="117" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="186" t="s">
         <v>1288</v>
       </c>
@@ -14939,7 +15275,7 @@
       </c>
       <c r="I117" s="191"/>
     </row>
-    <row r="118" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="186" t="s">
         <v>1288</v>
       </c>
@@ -14966,7 +15302,7 @@
       </c>
       <c r="I118" s="191"/>
     </row>
-    <row r="119" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="186" t="s">
         <v>1288</v>
       </c>
@@ -14993,7 +15329,7 @@
       </c>
       <c r="I119" s="194"/>
     </row>
-    <row r="120" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15020,7 +15356,7 @@
       </c>
       <c r="I120" s="194"/>
     </row>
-    <row r="121" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15047,7 +15383,7 @@
       </c>
       <c r="I121" s="194"/>
     </row>
-    <row r="122" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15074,7 +15410,7 @@
       </c>
       <c r="I122" s="194"/>
     </row>
-    <row r="123" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15101,7 +15437,7 @@
       </c>
       <c r="I123" s="194"/>
     </row>
-    <row r="124" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15128,7 +15464,7 @@
       </c>
       <c r="I124" s="194"/>
     </row>
-    <row r="125" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15155,7 +15491,7 @@
       </c>
       <c r="I125" s="194"/>
     </row>
-    <row r="126" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15182,7 +15518,7 @@
       </c>
       <c r="I126" s="194"/>
     </row>
-    <row r="127" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15209,7 +15545,7 @@
       </c>
       <c r="I127" s="194"/>
     </row>
-    <row r="128" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15236,7 +15572,7 @@
       </c>
       <c r="I128" s="194"/>
     </row>
-    <row r="129" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15263,7 +15599,7 @@
       </c>
       <c r="I129" s="194"/>
     </row>
-    <row r="130" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15290,7 +15626,7 @@
       </c>
       <c r="I130" s="194"/>
     </row>
-    <row r="131" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15317,7 +15653,7 @@
       </c>
       <c r="I131" s="194"/>
     </row>
-    <row r="132" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15344,7 +15680,7 @@
       </c>
       <c r="I132" s="194"/>
     </row>
-    <row r="133" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15371,7 +15707,7 @@
       </c>
       <c r="I133" s="194"/>
     </row>
-    <row r="134" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15398,7 +15734,7 @@
       </c>
       <c r="I134" s="194"/>
     </row>
-    <row r="135" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15425,7 +15761,7 @@
       </c>
       <c r="I135" s="194"/>
     </row>
-    <row r="136" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15452,7 +15788,7 @@
       </c>
       <c r="I136" s="194"/>
     </row>
-    <row r="137" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15479,7 +15815,7 @@
       </c>
       <c r="I137" s="194"/>
     </row>
-    <row r="138" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15506,7 +15842,7 @@
       </c>
       <c r="I138" s="194"/>
     </row>
-    <row r="139" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15533,7 +15869,7 @@
       </c>
       <c r="I139" s="194"/>
     </row>
-    <row r="140" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15560,7 +15896,7 @@
       </c>
       <c r="I140" s="194"/>
     </row>
-    <row r="141" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15587,7 +15923,7 @@
       </c>
       <c r="I141" s="194"/>
     </row>
-    <row r="142" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15616,7 +15952,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15645,7 +15981,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15674,7 +16010,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15711,12 +16047,989 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B3F271-01A4-7446-AB67-7D8A099FB523}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="115" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1" s="115" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1" s="115" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1" s="122" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1" s="97" t="s">
+        <v>411</v>
+      </c>
+      <c r="F1" s="97" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="134" t="s">
+        <v>414</v>
+      </c>
+      <c r="H1" s="125" t="s">
+        <v>413</v>
+      </c>
+      <c r="I1" s="98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C2" s="119" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D2" s="119" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E2" s="102" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F2" s="102"/>
+      <c r="G2" s="136" t="s">
+        <v>457</v>
+      </c>
+      <c r="H2" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I2" s="104"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B3" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C3" s="119" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D3" s="119" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E3" s="102" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F3" s="102"/>
+      <c r="G3" s="136" t="s">
+        <v>457</v>
+      </c>
+      <c r="H3" s="129" t="s">
+        <v>428</v>
+      </c>
+      <c r="I3" s="103"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C4" s="119" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D4" s="119" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E4" s="102" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F4" s="102"/>
+      <c r="G4" s="136" t="s">
+        <v>457</v>
+      </c>
+      <c r="H4" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I4" s="104"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B5" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C5" s="119" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D5" s="119" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E5" s="102" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F5" s="102"/>
+      <c r="G5" s="136" t="s">
+        <v>457</v>
+      </c>
+      <c r="H5" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I5" s="104"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B6" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C6" s="119" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D6" s="138" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E6" s="102" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F6" s="102"/>
+      <c r="G6" s="136" t="s">
+        <v>457</v>
+      </c>
+      <c r="H6" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I6" s="104"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B7" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C7" s="119" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D7" s="119" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E7" s="102" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F7" s="102"/>
+      <c r="G7" s="136" t="s">
+        <v>457</v>
+      </c>
+      <c r="H7" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I7" s="104"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B8" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C8" s="119" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D8" s="119" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E8" s="102" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F8" s="102"/>
+      <c r="G8" s="136" t="s">
+        <v>457</v>
+      </c>
+      <c r="H8" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I8" s="104"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B9" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C9" s="119" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D9" s="119" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E9" s="102" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F9" s="102"/>
+      <c r="G9" s="136" t="s">
+        <v>457</v>
+      </c>
+      <c r="H9" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I9" s="104"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B10" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C10" s="119" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D10" s="119" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E10" s="102" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F10" s="102"/>
+      <c r="G10" s="136" t="s">
+        <v>457</v>
+      </c>
+      <c r="H10" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I10" s="104"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B11" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C11" s="119" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D11" s="119" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E11" s="102" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F11" s="102"/>
+      <c r="G11" s="136" t="s">
+        <v>457</v>
+      </c>
+      <c r="H11" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I11" s="104"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C12" s="119" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D12" s="119" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E12" s="200" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F12" s="102"/>
+      <c r="G12" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H12" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I12" s="104"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B13" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C13" s="119" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D13" s="119" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E13" s="200" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F13" s="200"/>
+      <c r="G13" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H13" s="202" t="s">
+        <v>428</v>
+      </c>
+      <c r="I13" s="104"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C14" s="119" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D14" s="119" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E14" s="200" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F14" s="102"/>
+      <c r="G14" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H14" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I14" s="104"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C15" s="119" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D15" s="119" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E15" s="200" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F15" s="200"/>
+      <c r="G15" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H15" s="202" t="s">
+        <v>428</v>
+      </c>
+      <c r="I15" s="203"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B16" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C16" s="119" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D16" s="119" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E16" s="200" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F16" s="200"/>
+      <c r="G16" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H16" s="202" t="s">
+        <v>428</v>
+      </c>
+      <c r="I16" s="203"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B17" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C17" s="119" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D17" s="119" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E17" s="200" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F17" s="200"/>
+      <c r="G17" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H17" s="202" t="s">
+        <v>428</v>
+      </c>
+      <c r="I17" s="203"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B18" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C18" s="119" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D18" s="119" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E18" s="200" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F18" s="200"/>
+      <c r="G18" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H18" s="202" t="s">
+        <v>428</v>
+      </c>
+      <c r="I18" s="203"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B19" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C19" s="119" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D19" s="119" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E19" s="200" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F19" s="200"/>
+      <c r="G19" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H19" s="202" t="s">
+        <v>428</v>
+      </c>
+      <c r="I19" s="203"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B20" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C20" s="119" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D20" s="119" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E20" s="200" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F20" s="200"/>
+      <c r="G20" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H20" s="202" t="s">
+        <v>428</v>
+      </c>
+      <c r="I20" s="203"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C21" s="119" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D21" s="119" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E21" s="200" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F21" s="200"/>
+      <c r="G21" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H21" s="202" t="s">
+        <v>428</v>
+      </c>
+      <c r="I21" s="203"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B22" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C22" s="119" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D22" s="119" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E22" s="200" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F22" s="200"/>
+      <c r="G22" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H22" s="202" t="s">
+        <v>428</v>
+      </c>
+      <c r="I22" s="203"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B23" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C23" s="119" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D23" s="119" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E23" s="200" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F23" s="102"/>
+      <c r="G23" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H23" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I23" s="104"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B24" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C24" s="119" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D24" s="119" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E24" s="200" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F24" s="200"/>
+      <c r="G24" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H24" s="202" t="s">
+        <v>428</v>
+      </c>
+      <c r="I24" s="203"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B25" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C25" s="119" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D25" s="119" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E25" s="200" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F25" s="200"/>
+      <c r="G25" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H25" s="202" t="s">
+        <v>428</v>
+      </c>
+      <c r="I25" s="203"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B26" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C26" s="119" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D26" s="119" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E26" s="200" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F26" s="102"/>
+      <c r="G26" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H26" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I26" s="104"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B27" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C27" s="119" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D27" s="119" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E27" s="200" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F27" s="102"/>
+      <c r="G27" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H27" s="202" t="s">
+        <v>428</v>
+      </c>
+      <c r="I27" s="104"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B28" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C28" s="119" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D28" s="119" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E28" s="200" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F28" s="200"/>
+      <c r="G28" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H28" s="202" t="s">
+        <v>428</v>
+      </c>
+      <c r="I28" s="203"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B29" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C29" s="204" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D29" s="204" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E29" s="200" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F29" s="102"/>
+      <c r="G29" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H29" s="201" t="s">
+        <v>428</v>
+      </c>
+      <c r="I29" s="203"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B30" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C30" s="119" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D30" s="119" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E30" s="200" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F30" s="102"/>
+      <c r="G30" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H30" s="202" t="s">
+        <v>428</v>
+      </c>
+      <c r="I30" s="104"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B31" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C31" s="119" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D31" s="119" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E31" s="200" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F31" s="102"/>
+      <c r="G31" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H31" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I31" s="104"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B32" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C32" s="119" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D32" s="119"/>
+      <c r="E32" s="200"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H32" s="202" t="s">
+        <v>428</v>
+      </c>
+      <c r="I32" s="203"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B33" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C33" s="204" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D33" s="204"/>
+      <c r="E33" s="200"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H33" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I33" s="203"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B34" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C34" s="204" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D34" s="119"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H34" s="202" t="s">
+        <v>428</v>
+      </c>
+      <c r="I34" s="203"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B35" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C35" s="204" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D35" s="205"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H35" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I35" s="203"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B36" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C36" s="119" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D36" s="204"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H36" s="202" t="s">
+        <v>428</v>
+      </c>
+      <c r="I36" s="203"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B37" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C37" s="119" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D37" s="204"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H37" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I37" s="203"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B38" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C38" s="119" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D38" s="204"/>
+      <c r="E38" s="200"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H38" s="202" t="s">
+        <v>428</v>
+      </c>
+      <c r="I38" s="203"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B39" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C39" s="119" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D39" s="204"/>
+      <c r="E39" s="200"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H39" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I39" s="203"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B40" s="199" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C40" s="119" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D40" s="204"/>
+      <c r="E40" s="200"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="201" t="s">
+        <v>457</v>
+      </c>
+      <c r="H40" s="202" t="s">
+        <v>428</v>
+      </c>
+      <c r="I40" s="203"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15729,20 +17042,20 @@
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="63.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="82" customWidth="1"/>
-    <col min="7" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.5" customWidth="1"/>
-    <col min="12" max="12" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="82" customWidth="1"/>
+    <col min="7" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
@@ -15771,7 +17084,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="11" t="s">
         <v>0</v>
       </c>
@@ -15788,7 +17101,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>238</v>
       </c>
@@ -15820,7 +17133,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
         <v>237</v>
       </c>
@@ -15847,7 +17160,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>239</v>
       </c>
@@ -15868,7 +17181,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="3:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="13"/>
       <c r="D8" s="22"/>
       <c r="E8" s="14"/>
@@ -15877,7 +17190,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -15888,7 +17201,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
         <v>297</v>
       </c>
@@ -15910,7 +17223,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" s="9" t="s">
         <v>246</v>
       </c>
@@ -15927,7 +17240,7 @@
       <c r="H11" s="27"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
         <v>244</v>
       </c>
@@ -15944,7 +17257,7 @@
       <c r="H12" s="27"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="3:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="13"/>
       <c r="D13" s="22"/>
       <c r="E13" s="14"/>
@@ -15953,7 +17266,7 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
         <v>20</v>
       </c>
@@ -15964,7 +17277,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15" s="9" t="s">
         <v>298</v>
       </c>
@@ -15990,7 +17303,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" s="9" t="s">
         <v>261</v>
       </c>
@@ -16011,7 +17324,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" s="9" t="s">
         <v>260</v>
       </c>
@@ -16032,7 +17345,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="13"/>
       <c r="D18" s="22"/>
       <c r="E18" s="14"/>
@@ -16041,7 +17354,7 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" s="11" t="s">
         <v>252</v>
       </c>
@@ -16052,7 +17365,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
         <v>253</v>
       </c>
@@ -16078,7 +17391,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" s="9" t="s">
         <v>258</v>
       </c>
@@ -16099,7 +17412,7 @@
       </c>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22" s="9" t="s">
         <v>259</v>
       </c>
@@ -16120,7 +17433,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="13"/>
       <c r="D23" s="22"/>
       <c r="E23" s="14"/>
@@ -16129,7 +17442,7 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" s="11" t="s">
         <v>265</v>
       </c>
@@ -16140,7 +17453,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C25" s="9" t="s">
         <v>266</v>
       </c>
@@ -16166,7 +17479,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
         <v>272</v>
       </c>
@@ -16187,7 +17500,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C27" s="9" t="s">
         <v>273</v>
       </c>
@@ -16208,7 +17521,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="13"/>
       <c r="D28" s="22"/>
       <c r="E28" s="14"/>
@@ -16217,7 +17530,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C29" s="11" t="s">
         <v>274</v>
       </c>
@@ -16228,7 +17541,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C30" s="9" t="s">
         <v>275</v>
       </c>
@@ -16254,7 +17567,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C31" s="9" t="s">
         <v>281</v>
       </c>
@@ -16275,7 +17588,7 @@
       </c>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C32" s="9" t="s">
         <v>282</v>
       </c>
@@ -16296,7 +17609,7 @@
       </c>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="13"/>
       <c r="D33" s="22"/>
       <c r="E33" s="14"/>
@@ -16305,7 +17618,7 @@
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C34" s="11" t="s">
         <v>283</v>
       </c>
@@ -16316,7 +17629,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C35" s="9" t="s">
         <v>284</v>
       </c>
@@ -16333,7 +17646,7 @@
       <c r="H35" s="27"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C36" s="9" t="s">
         <v>299</v>
       </c>
@@ -16356,7 +17669,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C37" s="9" t="s">
         <v>300</v>
       </c>
@@ -16379,7 +17692,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="13"/>
       <c r="D38" s="22"/>
       <c r="E38" s="14"/>
@@ -16388,7 +17701,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C39" s="11" t="s">
         <v>289</v>
       </c>
@@ -16399,7 +17712,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C40" s="9" t="s">
         <v>291</v>
       </c>
@@ -16420,7 +17733,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="13"/>
       <c r="D41" s="22"/>
       <c r="E41" s="14"/>
@@ -16429,7 +17742,7 @@
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C42" s="11" t="s">
         <v>290</v>
       </c>
@@ -16440,7 +17753,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C43" s="21" t="s">
         <v>292</v>
       </c>
@@ -16457,7 +17770,7 @@
       <c r="H43" s="27"/>
       <c r="I43" s="21"/>
     </row>
-    <row r="44" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="10"/>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
@@ -16467,7 +17780,7 @@
       <c r="H44" s="15"/>
       <c r="I44" s="22"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C45" s="11" t="s">
         <v>347</v>
       </c>
@@ -16478,7 +17791,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C46" s="9" t="s">
         <v>350</v>
       </c>
@@ -16489,7 +17802,7 @@
       <c r="H46" s="45"/>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C47" s="13"/>
       <c r="D47" s="22"/>
       <c r="E47" s="14"/>
@@ -16498,7 +17811,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C48" s="11" t="s">
         <v>348</v>
       </c>
@@ -16509,7 +17822,7 @@
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="9" t="s">
         <v>350</v>
       </c>
@@ -16520,7 +17833,7 @@
       <c r="H49" s="45"/>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C50" s="13"/>
       <c r="D50" s="22"/>
       <c r="E50" s="14"/>
@@ -16529,7 +17842,7 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C51" s="11" t="s">
         <v>349</v>
       </c>
@@ -16540,7 +17853,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C52" s="9" t="s">
         <v>350</v>
       </c>
@@ -16551,7 +17864,7 @@
       <c r="H52" s="45"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="13"/>
       <c r="D53" s="22"/>
       <c r="E53" s="14"/>
@@ -16574,7 +17887,7 @@
       <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16586,7 +17899,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16600,19 +17913,19 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="114" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="114" customWidth="1"/>
-    <col min="5" max="5" width="52.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="108" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.33203125" customWidth="1"/>
+    <col min="1" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="114" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="114" customWidth="1"/>
+    <col min="5" max="5" width="52.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="108" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="115" t="s">
         <v>463</v>
       </c>
@@ -16641,7 +17954,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="116" t="s">
         <v>409</v>
       </c>
@@ -16670,7 +17983,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="116" t="s">
         <v>409</v>
       </c>
@@ -16699,7 +18012,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="118" t="s">
         <v>419</v>
       </c>
@@ -16728,7 +18041,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="118" t="s">
         <v>419</v>
       </c>
@@ -16757,7 +18070,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="118" t="s">
         <v>419</v>
       </c>
@@ -16786,7 +18099,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="118" t="s">
         <v>419</v>
       </c>
@@ -16815,7 +18128,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="120" t="s">
         <v>470</v>
       </c>
@@ -16844,7 +18157,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="120" t="s">
         <v>470</v>
       </c>
@@ -16873,7 +18186,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="120" t="s">
         <v>470</v>
       </c>
@@ -16902,7 +18215,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="120" t="s">
         <v>470</v>
       </c>
@@ -16931,7 +18244,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="120" t="s">
         <v>470</v>
       </c>
@@ -16960,7 +18273,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="120" t="s">
         <v>470</v>
       </c>
@@ -16989,7 +18302,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="120" t="s">
         <v>470</v>
       </c>
@@ -17018,7 +18331,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="120" t="s">
         <v>470</v>
       </c>
@@ -17047,7 +18360,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="120" t="s">
         <v>470</v>
       </c>
@@ -17092,19 +18405,19 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="114" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="114" customWidth="1"/>
-    <col min="5" max="5" width="52.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="137" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="133" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.33203125" customWidth="1"/>
+    <col min="1" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="114" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="114" customWidth="1"/>
+    <col min="5" max="5" width="52.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="137" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="133" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="115" t="s">
         <v>463</v>
       </c>
@@ -17133,7 +18446,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="116" t="s">
         <v>409</v>
       </c>
@@ -17162,7 +18475,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="116" t="s">
         <v>409</v>
       </c>
@@ -17191,7 +18504,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
         <v>409</v>
       </c>
@@ -17220,7 +18533,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
         <v>409</v>
       </c>
@@ -17249,7 +18562,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">
         <v>409</v>
       </c>
@@ -17278,7 +18591,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="116" t="s">
         <v>409</v>
       </c>
@@ -17305,7 +18618,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="116" t="s">
         <v>409</v>
       </c>
@@ -17332,7 +18645,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="118" t="s">
         <v>419</v>
       </c>
@@ -17359,7 +18672,7 @@
       </c>
       <c r="I9" s="104"/>
     </row>
-    <row r="10" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="118" t="s">
         <v>419</v>
       </c>
@@ -17386,7 +18699,7 @@
       </c>
       <c r="I10" s="103"/>
     </row>
-    <row r="11" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="118" t="s">
         <v>419</v>
       </c>
@@ -17413,7 +18726,7 @@
       </c>
       <c r="I11" s="104"/>
     </row>
-    <row r="12" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="118" t="s">
         <v>419</v>
       </c>
@@ -17440,7 +18753,7 @@
       </c>
       <c r="I12" s="104"/>
     </row>
-    <row r="13" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="118" t="s">
         <v>419</v>
       </c>
@@ -17467,7 +18780,7 @@
       </c>
       <c r="I13" s="104"/>
     </row>
-    <row r="14" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="118" t="s">
         <v>419</v>
       </c>
@@ -17494,7 +18807,7 @@
       </c>
       <c r="I14" s="104"/>
     </row>
-    <row r="15" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="118" t="s">
         <v>419</v>
       </c>
@@ -17519,7 +18832,7 @@
       <c r="H15" s="128"/>
       <c r="I15" s="104"/>
     </row>
-    <row r="16" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="118" t="s">
         <v>419</v>
       </c>
@@ -17544,7 +18857,7 @@
       <c r="H16" s="128"/>
       <c r="I16" s="104"/>
     </row>
-    <row r="17" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="118" t="s">
         <v>419</v>
       </c>
@@ -17569,7 +18882,7 @@
       <c r="H17" s="128"/>
       <c r="I17" s="104"/>
     </row>
-    <row r="18" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="118" t="s">
         <v>419</v>
       </c>
@@ -17596,7 +18909,7 @@
       </c>
       <c r="I18" s="104"/>
     </row>
-    <row r="19" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="120" t="s">
         <v>470</v>
       </c>
@@ -17625,7 +18938,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="120" t="s">
         <v>470</v>
       </c>
@@ -17654,7 +18967,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="120" t="s">
         <v>470</v>
       </c>
@@ -17683,7 +18996,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="120" t="s">
         <v>470</v>
       </c>
@@ -17712,7 +19025,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="120" t="s">
         <v>470</v>
       </c>
@@ -17741,7 +19054,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="120" t="s">
         <v>470</v>
       </c>
@@ -17766,7 +19079,7 @@
       <c r="H24" s="131"/>
       <c r="I24" s="124"/>
     </row>
-    <row r="25" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="120" t="s">
         <v>470</v>
       </c>
@@ -17793,7 +19106,7 @@
       </c>
       <c r="I25" s="124"/>
     </row>
-    <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="120" t="s">
         <v>470</v>
       </c>
@@ -17820,7 +19133,7 @@
       </c>
       <c r="I26" s="124"/>
     </row>
-    <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="120" t="s">
         <v>470</v>
       </c>
@@ -17849,7 +19162,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="120" t="s">
         <v>470</v>
       </c>
@@ -17878,7 +19191,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="120" t="s">
         <v>470</v>
       </c>
@@ -17905,7 +19218,7 @@
       </c>
       <c r="I29" s="124"/>
     </row>
-    <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="120" t="s">
         <v>470</v>
       </c>
@@ -17932,7 +19245,7 @@
       </c>
       <c r="I30" s="123"/>
     </row>
-    <row r="31" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="120" t="s">
         <v>470</v>
       </c>
@@ -17959,7 +19272,7 @@
       </c>
       <c r="I31" s="124"/>
     </row>
-    <row r="32" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="120" t="s">
         <v>470</v>
       </c>
@@ -17986,7 +19299,7 @@
       </c>
       <c r="I32" s="124"/>
     </row>
-    <row r="33" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="120" t="s">
         <v>470</v>
       </c>
@@ -18013,7 +19326,7 @@
       </c>
       <c r="I33" s="123"/>
     </row>
-    <row r="34" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="120" t="s">
         <v>470</v>
       </c>
@@ -18040,7 +19353,7 @@
       </c>
       <c r="I34" s="123"/>
     </row>
-    <row r="35" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="120" t="s">
         <v>470</v>
       </c>
@@ -18067,7 +19380,7 @@
       </c>
       <c r="I35" s="124"/>
     </row>
-    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="120" t="s">
         <v>470</v>
       </c>
@@ -18094,7 +19407,7 @@
       </c>
       <c r="I36" s="124"/>
     </row>
-    <row r="37" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="120" t="s">
         <v>470</v>
       </c>
@@ -18121,7 +19434,7 @@
       </c>
       <c r="I37" s="123"/>
     </row>
-    <row r="38" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="120" t="s">
         <v>470</v>
       </c>
@@ -18148,7 +19461,7 @@
       </c>
       <c r="I38" s="123"/>
     </row>
-    <row r="39" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="120" t="s">
         <v>470</v>
       </c>
@@ -18175,7 +19488,7 @@
       </c>
       <c r="I39" s="124"/>
     </row>
-    <row r="40" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="120" t="s">
         <v>470</v>
       </c>
@@ -18202,7 +19515,7 @@
       </c>
       <c r="I40" s="124"/>
     </row>
-    <row r="41" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="120" t="s">
         <v>470</v>
       </c>
@@ -18231,7 +19544,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="120" t="s">
         <v>470</v>
       </c>
@@ -18258,7 +19571,7 @@
       </c>
       <c r="I42" s="124"/>
     </row>
-    <row r="43" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="120" t="s">
         <v>470</v>
       </c>
@@ -18285,7 +19598,7 @@
       </c>
       <c r="I43" s="124"/>
     </row>
-    <row r="44" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="120" t="s">
         <v>470</v>
       </c>
@@ -18314,7 +19627,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="120" t="s">
         <v>470</v>
       </c>
@@ -18343,7 +19656,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="120" t="s">
         <v>470</v>
       </c>
@@ -18370,7 +19683,7 @@
       </c>
       <c r="I46" s="124"/>
     </row>
-    <row r="47" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="120" t="s">
         <v>470</v>
       </c>
@@ -18397,7 +19710,7 @@
       </c>
       <c r="I47" s="124"/>
     </row>
-    <row r="48" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="120" t="s">
         <v>470</v>
       </c>
@@ -18438,19 +19751,19 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="114" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="114" customWidth="1"/>
-    <col min="5" max="5" width="52.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="137" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="133" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.33203125" customWidth="1"/>
+    <col min="1" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="114" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="114" customWidth="1"/>
+    <col min="5" max="5" width="52.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="137" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="133" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="115" t="s">
         <v>463</v>
       </c>
@@ -18479,7 +19792,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="116" t="s">
         <v>409</v>
       </c>
@@ -18508,7 +19821,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="116" t="s">
         <v>409</v>
       </c>
@@ -18537,7 +19850,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
         <v>409</v>
       </c>
@@ -18566,7 +19879,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
         <v>409</v>
       </c>
@@ -18595,7 +19908,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">
         <v>409</v>
       </c>
@@ -18624,7 +19937,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="116" t="s">
         <v>409</v>
       </c>
@@ -18651,7 +19964,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="116" t="s">
         <v>409</v>
       </c>
@@ -18678,7 +19991,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="118" t="s">
         <v>419</v>
       </c>
@@ -18705,7 +20018,7 @@
       </c>
       <c r="I9" s="104"/>
     </row>
-    <row r="10" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="118" t="s">
         <v>419</v>
       </c>
@@ -18732,7 +20045,7 @@
       </c>
       <c r="I10" s="103"/>
     </row>
-    <row r="11" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="118" t="s">
         <v>419</v>
       </c>
@@ -18759,7 +20072,7 @@
       </c>
       <c r="I11" s="104"/>
     </row>
-    <row r="12" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="118" t="s">
         <v>419</v>
       </c>
@@ -18786,7 +20099,7 @@
       </c>
       <c r="I12" s="104"/>
     </row>
-    <row r="13" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="118" t="s">
         <v>419</v>
       </c>
@@ -18813,7 +20126,7 @@
       </c>
       <c r="I13" s="104"/>
     </row>
-    <row r="14" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="118" t="s">
         <v>419</v>
       </c>
@@ -18840,7 +20153,7 @@
       </c>
       <c r="I14" s="104"/>
     </row>
-    <row r="15" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="118" t="s">
         <v>419</v>
       </c>
@@ -18865,7 +20178,7 @@
       <c r="H15" s="128"/>
       <c r="I15" s="104"/>
     </row>
-    <row r="16" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="118" t="s">
         <v>419</v>
       </c>
@@ -18890,7 +20203,7 @@
       <c r="H16" s="128"/>
       <c r="I16" s="104"/>
     </row>
-    <row r="17" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="118" t="s">
         <v>419</v>
       </c>
@@ -18915,7 +20228,7 @@
       <c r="H17" s="128"/>
       <c r="I17" s="104"/>
     </row>
-    <row r="18" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="118" t="s">
         <v>419</v>
       </c>
@@ -18942,7 +20255,7 @@
       </c>
       <c r="I18" s="104"/>
     </row>
-    <row r="19" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="120" t="s">
         <v>470</v>
       </c>
@@ -18971,7 +20284,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="120" t="s">
         <v>470</v>
       </c>
@@ -19000,7 +20313,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="120" t="s">
         <v>470</v>
       </c>
@@ -19029,7 +20342,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="120" t="s">
         <v>470</v>
       </c>
@@ -19058,7 +20371,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="120" t="s">
         <v>470</v>
       </c>
@@ -19087,7 +20400,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="120" t="s">
         <v>470</v>
       </c>
@@ -19112,7 +20425,7 @@
       <c r="H24" s="131"/>
       <c r="I24" s="124"/>
     </row>
-    <row r="25" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="120" t="s">
         <v>470</v>
       </c>
@@ -19139,7 +20452,7 @@
       </c>
       <c r="I25" s="124"/>
     </row>
-    <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="120" t="s">
         <v>470</v>
       </c>
@@ -19166,7 +20479,7 @@
       </c>
       <c r="I26" s="124"/>
     </row>
-    <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="120" t="s">
         <v>470</v>
       </c>
@@ -19195,7 +20508,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="120" t="s">
         <v>470</v>
       </c>
@@ -19224,7 +20537,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="120" t="s">
         <v>470</v>
       </c>
@@ -19251,7 +20564,7 @@
       </c>
       <c r="I29" s="124"/>
     </row>
-    <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="120" t="s">
         <v>470</v>
       </c>
@@ -19278,7 +20591,7 @@
       </c>
       <c r="I30" s="123"/>
     </row>
-    <row r="31" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="120" t="s">
         <v>470</v>
       </c>
@@ -19305,7 +20618,7 @@
       </c>
       <c r="I31" s="124"/>
     </row>
-    <row r="32" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="120" t="s">
         <v>470</v>
       </c>
@@ -19332,7 +20645,7 @@
       </c>
       <c r="I32" s="124"/>
     </row>
-    <row r="33" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="120" t="s">
         <v>470</v>
       </c>
@@ -19359,7 +20672,7 @@
       </c>
       <c r="I33" s="123"/>
     </row>
-    <row r="34" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="120" t="s">
         <v>470</v>
       </c>
@@ -19386,7 +20699,7 @@
       </c>
       <c r="I34" s="123"/>
     </row>
-    <row r="35" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="120" t="s">
         <v>470</v>
       </c>
@@ -19413,7 +20726,7 @@
       </c>
       <c r="I35" s="124"/>
     </row>
-    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="120" t="s">
         <v>470</v>
       </c>
@@ -19440,7 +20753,7 @@
       </c>
       <c r="I36" s="124"/>
     </row>
-    <row r="37" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="120" t="s">
         <v>470</v>
       </c>
@@ -19467,7 +20780,7 @@
       </c>
       <c r="I37" s="123"/>
     </row>
-    <row r="38" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="120" t="s">
         <v>470</v>
       </c>
@@ -19494,7 +20807,7 @@
       </c>
       <c r="I38" s="123"/>
     </row>
-    <row r="39" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="120" t="s">
         <v>470</v>
       </c>
@@ -19521,7 +20834,7 @@
       </c>
       <c r="I39" s="124"/>
     </row>
-    <row r="40" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="120" t="s">
         <v>470</v>
       </c>
@@ -19548,7 +20861,7 @@
       </c>
       <c r="I40" s="124"/>
     </row>
-    <row r="41" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="120" t="s">
         <v>470</v>
       </c>
@@ -19577,7 +20890,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="120" t="s">
         <v>470</v>
       </c>
@@ -19604,7 +20917,7 @@
       </c>
       <c r="I42" s="124"/>
     </row>
-    <row r="43" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="120" t="s">
         <v>470</v>
       </c>
@@ -19631,7 +20944,7 @@
       </c>
       <c r="I43" s="124"/>
     </row>
-    <row r="44" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="120" t="s">
         <v>470</v>
       </c>
@@ -19660,7 +20973,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="120" t="s">
         <v>470</v>
       </c>
@@ -19689,7 +21002,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="120" t="s">
         <v>470</v>
       </c>
@@ -19716,7 +21029,7 @@
       </c>
       <c r="I46" s="124"/>
     </row>
-    <row r="47" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="120" t="s">
         <v>470</v>
       </c>
@@ -19743,7 +21056,7 @@
       </c>
       <c r="I47" s="124"/>
     </row>
-    <row r="48" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="120" t="s">
         <v>470</v>
       </c>
@@ -19783,20 +21096,20 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.5" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="141" t="s">
         <v>463</v>
       </c>
@@ -19825,7 +21138,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="147" t="s">
         <v>409</v>
       </c>
@@ -19854,7 +21167,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="147" t="s">
         <v>409</v>
       </c>
@@ -19883,7 +21196,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
         <v>409</v>
       </c>
@@ -19912,7 +21225,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="147" t="s">
         <v>409</v>
       </c>
@@ -19941,7 +21254,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="147" t="s">
         <v>409</v>
       </c>
@@ -19970,7 +21283,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="147" t="s">
         <v>409</v>
       </c>
@@ -19999,7 +21312,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="147" t="s">
         <v>409</v>
       </c>
@@ -20028,7 +21341,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="153" t="s">
         <v>419</v>
       </c>
@@ -20057,7 +21370,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="153" t="s">
         <v>419</v>
       </c>
@@ -20086,7 +21399,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="158" t="s">
         <v>470</v>
       </c>
@@ -20115,7 +21428,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="158" t="s">
         <v>470</v>
       </c>
@@ -20144,7 +21457,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="158" t="s">
         <v>470</v>
       </c>
@@ -20173,7 +21486,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="158" t="s">
         <v>470</v>
       </c>
@@ -20202,7 +21515,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="158" t="s">
         <v>470</v>
       </c>
@@ -20231,7 +21544,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="158" t="s">
         <v>470</v>
       </c>
@@ -20260,7 +21573,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="158" t="s">
         <v>470</v>
       </c>
@@ -20289,7 +21602,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="158" t="s">
         <v>470</v>
       </c>
@@ -20318,7 +21631,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="158" t="s">
         <v>470</v>
       </c>
@@ -20347,7 +21660,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="158" t="s">
         <v>470</v>
       </c>
@@ -20374,7 +21687,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="158" t="s">
         <v>470</v>
       </c>
@@ -20401,7 +21714,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="158" t="s">
         <v>470</v>
       </c>
@@ -20430,7 +21743,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="158" t="s">
         <v>470</v>
       </c>
@@ -20459,7 +21772,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="158" t="s">
         <v>470</v>
       </c>
@@ -20488,7 +21801,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="158" t="s">
         <v>470</v>
       </c>
@@ -20517,7 +21830,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="158" t="s">
         <v>470</v>
       </c>
@@ -20547,7 +21860,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="158" t="s">
         <v>470</v>
       </c>
@@ -20574,7 +21887,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="158" t="s">
         <v>470</v>
       </c>
@@ -20603,7 +21916,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="158" t="s">
         <v>470</v>
       </c>
@@ -20632,7 +21945,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="158" t="s">
         <v>470</v>
       </c>
@@ -20661,7 +21974,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="158" t="s">
         <v>470</v>
       </c>
@@ -20690,7 +22003,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="158" t="s">
         <v>470</v>
       </c>
@@ -20732,20 +22045,20 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="115" t="s">
         <v>463</v>
       </c>
@@ -20774,7 +22087,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="116" t="s">
         <v>409</v>
       </c>
@@ -20803,7 +22116,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="116" t="s">
         <v>409</v>
       </c>
@@ -20832,7 +22145,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="118" t="s">
         <v>419</v>
       </c>
@@ -20861,7 +22174,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="120" t="s">
         <v>470</v>
       </c>
@@ -20890,7 +22203,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="120" t="s">
         <v>470</v>
       </c>
@@ -20919,7 +22232,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="120" t="s">
         <v>470</v>
       </c>
@@ -20948,7 +22261,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="120" t="s">
         <v>470</v>
       </c>
@@ -20977,7 +22290,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="120" t="s">
         <v>470</v>
       </c>
@@ -21006,7 +22319,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="120" t="s">
         <v>470</v>
       </c>
@@ -21035,7 +22348,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="120" t="s">
         <v>470</v>
       </c>
@@ -21064,7 +22377,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="158" t="s">
         <v>470</v>
       </c>

--- a/tables/aed_variable_tables.xlsx
+++ b/tables/aed_variable_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\aed-science\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthipsey/AED Dropbox/05_Software/AED/aed-science/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6C2896-8F92-4EC8-A03E-E27F1C5C9F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED225A2-A175-3641-B37C-784766FA5E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29230" yWindow="490" windowWidth="29580" windowHeight="19980" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9720" yWindow="500" windowWidth="37140" windowHeight="24540" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pelagic" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="aed_organic_matter" sheetId="10" r:id="rId10"/>
     <sheet name="aed_phytoplankton" sheetId="11" r:id="rId11"/>
     <sheet name="aed_habitat" sheetId="12" r:id="rId12"/>
+    <sheet name="aed_pesticide" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -103,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4307" uniqueCount="1648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5340" uniqueCount="1664">
   <si>
     <t>Oxygen</t>
   </si>
@@ -5155,6 +5156,54 @@
   </si>
   <si>
     <t>diag_level = ?</t>
+  </si>
+  <si>
+    <t>aed_pesticide</t>
+  </si>
+  <si>
+    <t>PST_{group}</t>
+  </si>
+  <si>
+    <t>select `group` using index from `aed_pesticide_pars` database</t>
+  </si>
+  <si>
+    <t>\mathbf{C_d}</t>
+  </si>
+  <si>
+    <t>pesticide `group` dissolved water column concentration</t>
+  </si>
+  <si>
+    <t>pesticide `group` sorbed water column concentration</t>
+  </si>
+  <si>
+    <t>\mathbf{C_doc}</t>
+  </si>
+  <si>
+    <t>\mathbf{C_p}</t>
+  </si>
+  <si>
+    <t>mmol\: /m^3</t>
+  </si>
+  <si>
+    <t>\mathbf{GPP}</t>
+  </si>
+  <si>
+    <t>mmol\: C/m^3 /d</t>
+  </si>
+  <si>
+    <t>required for $C_p$ resuspension, set via `resus_link`</t>
+  </si>
+  <si>
+    <t>phytoplankton productivity rate</t>
+  </si>
+  <si>
+    <t>PST_{group}_sed</t>
+  </si>
+  <si>
+    <t>pesticide `group` sediment concentration</t>
+  </si>
+  <si>
+    <t>mmol\: /m^2</t>
   </si>
 </sst>
 </file>
@@ -6376,19 +6425,19 @@
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="63.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="61" customWidth="1"/>
-    <col min="7" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="63.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="61" customWidth="1"/>
+    <col min="7" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
@@ -6417,7 +6466,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C4" s="37" t="s">
         <v>0</v>
       </c>
@@ -6434,7 +6483,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
         <v>310</v>
       </c>
@@ -6466,7 +6515,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -6481,7 +6530,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C7" s="11" t="s">
         <v>6</v>
       </c>
@@ -6492,7 +6541,7 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C8" s="47" t="s">
         <v>310</v>
       </c>
@@ -6518,7 +6567,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -6539,7 +6588,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
@@ -6560,7 +6609,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
@@ -6583,7 +6632,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C12" s="9" t="s">
         <v>27</v>
       </c>
@@ -6604,7 +6653,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C13" s="9" t="s">
         <v>18</v>
       </c>
@@ -6628,7 +6677,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C14" s="9" t="s">
         <v>19</v>
       </c>
@@ -6649,7 +6698,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="14"/>
@@ -6658,7 +6707,7 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C16" s="11" t="s">
         <v>20</v>
       </c>
@@ -6669,7 +6718,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
         <v>310</v>
       </c>
@@ -6695,7 +6744,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="13"/>
       <c r="D18" s="22"/>
       <c r="E18" s="14"/>
@@ -6704,7 +6753,7 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C19" s="11" t="s">
         <v>21</v>
       </c>
@@ -6715,7 +6764,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
         <v>310</v>
       </c>
@@ -6738,7 +6787,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
         <v>310</v>
       </c>
@@ -6761,7 +6810,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C22" s="9" t="s">
         <v>23</v>
       </c>
@@ -6787,7 +6836,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C23" s="9" t="s">
         <v>24</v>
       </c>
@@ -6808,7 +6857,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C24" s="9" t="s">
         <v>28</v>
       </c>
@@ -6829,7 +6878,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C25" s="9" t="s">
         <v>30</v>
       </c>
@@ -6855,7 +6904,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C26" s="9" t="s">
         <v>24</v>
       </c>
@@ -6876,7 +6925,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C27" s="9" t="s">
         <v>28</v>
       </c>
@@ -6897,7 +6946,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C28" s="93" t="s">
         <v>34</v>
       </c>
@@ -6923,7 +6972,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>404</v>
       </c>
@@ -6947,7 +6996,7 @@
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>404</v>
       </c>
@@ -6971,7 +7020,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>404</v>
       </c>
@@ -7000,7 +7049,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>404</v>
       </c>
@@ -7024,7 +7073,7 @@
       </c>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C33" s="93" t="s">
         <v>44</v>
       </c>
@@ -7045,7 +7094,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C34" s="93" t="s">
         <v>46</v>
       </c>
@@ -7066,7 +7115,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>404</v>
       </c>
@@ -7095,7 +7144,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C36" s="93" t="s">
         <v>49</v>
       </c>
@@ -7117,7 +7166,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>404</v>
       </c>
@@ -7141,7 +7190,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>404</v>
       </c>
@@ -7165,7 +7214,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>404</v>
       </c>
@@ -7192,7 +7241,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>404</v>
       </c>
@@ -7219,7 +7268,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>404</v>
       </c>
@@ -7246,7 +7295,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C42" s="13"/>
       <c r="D42" s="22"/>
       <c r="E42" s="14"/>
@@ -7255,7 +7304,7 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C43" s="11" t="s">
         <v>301</v>
       </c>
@@ -7266,7 +7315,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
         <v>310</v>
       </c>
@@ -7289,7 +7338,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
         <v>310</v>
       </c>
@@ -7312,7 +7361,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C46" s="9" t="s">
         <v>63</v>
       </c>
@@ -7331,7 +7380,7 @@
       <c r="H46" s="27"/>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C47" s="9" t="s">
         <v>61</v>
       </c>
@@ -7350,7 +7399,7 @@
       <c r="H47" s="27"/>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C48" s="9" t="s">
         <v>65</v>
       </c>
@@ -7369,7 +7418,7 @@
       </c>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C49" s="9" t="s">
         <v>65</v>
       </c>
@@ -7388,7 +7437,7 @@
       </c>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C50" s="9" t="s">
         <v>70</v>
       </c>
@@ -7405,7 +7454,7 @@
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C51" s="13"/>
       <c r="D51" s="22"/>
       <c r="E51" s="14"/>
@@ -7414,7 +7463,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C52" s="11" t="s">
         <v>71</v>
       </c>
@@ -7425,7 +7474,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
         <v>310</v>
       </c>
@@ -7448,7 +7497,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C54" s="43" t="s">
         <v>310</v>
       </c>
@@ -7471,7 +7520,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C55" s="43" t="s">
         <v>310</v>
       </c>
@@ -7494,7 +7543,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C56" s="43" t="s">
         <v>310</v>
       </c>
@@ -7517,7 +7566,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C57" s="43" t="s">
         <v>310</v>
       </c>
@@ -7540,7 +7589,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
         <v>310</v>
       </c>
@@ -7563,7 +7612,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C59" s="43" t="s">
         <v>310</v>
       </c>
@@ -7586,7 +7635,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
         <v>310</v>
       </c>
@@ -7609,7 +7658,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C61" s="43" t="s">
         <v>310</v>
       </c>
@@ -7632,7 +7681,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
         <v>310</v>
       </c>
@@ -7655,7 +7704,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C63" s="9" t="s">
         <v>72</v>
       </c>
@@ -7678,7 +7727,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C64" s="9" t="s">
         <v>74</v>
       </c>
@@ -7701,7 +7750,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C65" s="9" t="s">
         <v>75</v>
       </c>
@@ -7724,7 +7773,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C66" s="9" t="s">
         <v>79</v>
       </c>
@@ -7745,7 +7794,7 @@
       </c>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C67" s="9" t="s">
         <v>80</v>
       </c>
@@ -7766,7 +7815,7 @@
       </c>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C68" s="9" t="s">
         <v>83</v>
       </c>
@@ -7789,7 +7838,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C69" s="9" t="s">
         <v>84</v>
       </c>
@@ -7810,7 +7859,7 @@
       </c>
       <c r="I69" s="10"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C70" s="9" t="s">
         <v>87</v>
       </c>
@@ -7831,7 +7880,7 @@
       </c>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C71" s="9" t="s">
         <v>90</v>
       </c>
@@ -7854,7 +7903,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C72" s="9" t="s">
         <v>92</v>
       </c>
@@ -7875,7 +7924,7 @@
       </c>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C73" s="9" t="s">
         <v>94</v>
       </c>
@@ -7896,7 +7945,7 @@
       </c>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C74" s="9" t="s">
         <v>96</v>
       </c>
@@ -7919,7 +7968,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>404</v>
       </c>
@@ -7941,7 +7990,7 @@
       </c>
       <c r="I75" s="10"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>404</v>
       </c>
@@ -7961,7 +8010,7 @@
       <c r="H76" s="27"/>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>404</v>
       </c>
@@ -7981,7 +8030,7 @@
       <c r="H77" s="27"/>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>404</v>
       </c>
@@ -8001,7 +8050,7 @@
       <c r="H78" s="27"/>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>404</v>
       </c>
@@ -8023,7 +8072,7 @@
       </c>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>404</v>
       </c>
@@ -8045,7 +8094,7 @@
       </c>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>404</v>
       </c>
@@ -8065,7 +8114,7 @@
       <c r="H81" s="27"/>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C82" s="9" t="s">
         <v>116</v>
       </c>
@@ -8084,7 +8133,7 @@
       <c r="H82" s="27"/>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C83" s="9" t="s">
         <v>117</v>
       </c>
@@ -8103,7 +8152,7 @@
       <c r="H83" s="27"/>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C84" s="9" t="s">
         <v>121</v>
       </c>
@@ -8122,7 +8171,7 @@
       <c r="H84" s="27"/>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C85" s="9" t="s">
         <v>122</v>
       </c>
@@ -8141,7 +8190,7 @@
       <c r="H85" s="27"/>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C86" s="9" t="s">
         <v>124</v>
       </c>
@@ -8162,7 +8211,7 @@
       </c>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C87" s="9" t="s">
         <v>126</v>
       </c>
@@ -8183,7 +8232,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C88" s="9" t="s">
         <v>215</v>
       </c>
@@ -8204,7 +8253,7 @@
       </c>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C89" s="9" t="s">
         <v>218</v>
       </c>
@@ -8221,7 +8270,7 @@
       <c r="H89" s="27"/>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C90" s="9" t="s">
         <v>219</v>
       </c>
@@ -8238,7 +8287,7 @@
       <c r="H90" s="27"/>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C91" s="9" t="s">
         <v>223</v>
       </c>
@@ -8259,7 +8308,7 @@
       </c>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C92" s="9" t="s">
         <v>224</v>
       </c>
@@ -8276,7 +8325,7 @@
       <c r="H92" s="27"/>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C93" s="9" t="s">
         <v>225</v>
       </c>
@@ -8293,7 +8342,7 @@
       <c r="H93" s="27"/>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C94" s="13"/>
       <c r="D94" s="22"/>
       <c r="E94" s="14"/>
@@ -8302,7 +8351,7 @@
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C95" s="11" t="s">
         <v>128</v>
       </c>
@@ -8313,7 +8362,7 @@
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
         <v>310</v>
       </c>
@@ -8334,7 +8383,7 @@
       </c>
       <c r="I96" s="45"/>
     </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C97" s="9" t="s">
         <v>129</v>
       </c>
@@ -8353,7 +8402,7 @@
       </c>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C98" s="9" t="s">
         <v>133</v>
       </c>
@@ -8372,7 +8421,7 @@
       </c>
       <c r="I98" s="10"/>
     </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C99" s="9" t="s">
         <v>134</v>
       </c>
@@ -8393,7 +8442,7 @@
       </c>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C100" s="9" t="s">
         <v>135</v>
       </c>
@@ -8414,7 +8463,7 @@
       </c>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C101" s="9" t="s">
         <v>136</v>
       </c>
@@ -8435,7 +8484,7 @@
       </c>
       <c r="I101" s="10"/>
     </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C102" s="9" t="s">
         <v>141</v>
       </c>
@@ -8456,7 +8505,7 @@
       </c>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C103" s="9" t="s">
         <v>142</v>
       </c>
@@ -8477,7 +8526,7 @@
       </c>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C104" s="9" t="s">
         <v>147</v>
       </c>
@@ -8496,7 +8545,7 @@
       </c>
       <c r="I104" s="10"/>
     </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C105" s="9" t="s">
         <v>148</v>
       </c>
@@ -8515,7 +8564,7 @@
       <c r="H105" s="27"/>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C106" s="9" t="s">
         <v>150</v>
       </c>
@@ -8538,7 +8587,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C107" s="9" t="s">
         <v>156</v>
       </c>
@@ -8561,7 +8610,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C108" s="9" t="s">
         <v>153</v>
       </c>
@@ -8582,7 +8631,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C109" s="9" t="s">
         <v>159</v>
       </c>
@@ -8603,7 +8652,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C110" s="9" t="s">
         <v>160</v>
       </c>
@@ -8624,7 +8673,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C111" s="9" t="s">
         <v>161</v>
       </c>
@@ -8645,7 +8694,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C112" s="9" t="s">
         <v>165</v>
       </c>
@@ -8664,7 +8713,7 @@
       </c>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C113" s="9" t="s">
         <v>169</v>
       </c>
@@ -8683,7 +8732,7 @@
       </c>
       <c r="I113" s="10"/>
     </row>
-    <row r="114" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C114" s="9" t="s">
         <v>170</v>
       </c>
@@ -8700,7 +8749,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="115" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C115" s="9" t="s">
         <v>173</v>
       </c>
@@ -8721,7 +8770,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="116" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C116" s="9" t="s">
         <v>179</v>
       </c>
@@ -8742,7 +8791,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C117" s="9" t="s">
         <v>175</v>
       </c>
@@ -8763,7 +8812,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="118" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C118" s="9" t="s">
         <v>180</v>
       </c>
@@ -8784,7 +8833,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="119" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C119" s="9" t="s">
         <v>183</v>
       </c>
@@ -8805,7 +8854,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="120" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C120" s="9" t="s">
         <v>185</v>
       </c>
@@ -8828,7 +8877,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="121" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C121" s="9" t="s">
         <v>187</v>
       </c>
@@ -8851,7 +8900,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="122" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C122" s="9" t="s">
         <v>191</v>
       </c>
@@ -8872,7 +8921,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="123" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C123" s="9" t="s">
         <v>192</v>
       </c>
@@ -8891,7 +8940,7 @@
       </c>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C124" s="9" t="s">
         <v>192</v>
       </c>
@@ -8910,7 +8959,7 @@
       </c>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C125" s="9" t="s">
         <v>197</v>
       </c>
@@ -8929,7 +8978,7 @@
       </c>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C126" s="9" t="s">
         <v>200</v>
       </c>
@@ -8955,7 +9004,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="127" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C127" s="9" t="s">
         <v>230</v>
       </c>
@@ -8976,7 +9025,7 @@
       </c>
       <c r="I127" s="10"/>
     </row>
-    <row r="128" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C128" s="9" t="s">
         <v>204</v>
       </c>
@@ -8997,7 +9046,7 @@
       </c>
       <c r="I128" s="10"/>
     </row>
-    <row r="129" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C129" s="9" t="s">
         <v>229</v>
       </c>
@@ -9018,7 +9067,7 @@
       </c>
       <c r="I129" s="10"/>
     </row>
-    <row r="130" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C130" s="9" t="s">
         <v>207</v>
       </c>
@@ -9039,7 +9088,7 @@
       </c>
       <c r="I130" s="10"/>
     </row>
-    <row r="131" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C131" s="9" t="s">
         <v>209</v>
       </c>
@@ -9058,7 +9107,7 @@
       </c>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C132" s="9" t="s">
         <v>212</v>
       </c>
@@ -9077,7 +9126,7 @@
       </c>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C133" s="9" t="s">
         <v>213</v>
       </c>
@@ -9096,7 +9145,7 @@
       </c>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C134" s="21" t="s">
         <v>231</v>
       </c>
@@ -9115,7 +9164,7 @@
       </c>
       <c r="I134" s="21"/>
     </row>
-    <row r="135" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C135" s="13"/>
       <c r="D135" s="22"/>
       <c r="E135" s="14"/>
@@ -9139,20 +9188,20 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="137" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="137" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
         <v>463</v>
       </c>
@@ -9181,7 +9230,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="116" t="s">
         <v>409</v>
       </c>
@@ -9208,7 +9257,7 @@
       </c>
       <c r="I2" s="100"/>
     </row>
-    <row r="3" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="116" t="s">
         <v>409</v>
       </c>
@@ -9233,7 +9282,7 @@
       <c r="H3" s="126"/>
       <c r="I3" s="100"/>
     </row>
-    <row r="4" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="116" t="s">
         <v>409</v>
       </c>
@@ -9258,7 +9307,7 @@
       <c r="H4" s="126"/>
       <c r="I4" s="100"/>
     </row>
-    <row r="5" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="116" t="s">
         <v>409</v>
       </c>
@@ -9283,7 +9332,7 @@
       <c r="H5" s="126"/>
       <c r="I5" s="100"/>
     </row>
-    <row r="6" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="116" t="s">
         <v>409</v>
       </c>
@@ -9308,7 +9357,7 @@
       <c r="H6" s="126"/>
       <c r="I6" s="100"/>
     </row>
-    <row r="7" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="116" t="s">
         <v>409</v>
       </c>
@@ -9333,7 +9382,7 @@
       <c r="H7" s="126"/>
       <c r="I7" s="100"/>
     </row>
-    <row r="8" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="116" t="s">
         <v>409</v>
       </c>
@@ -9360,7 +9409,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="116" t="s">
         <v>409</v>
       </c>
@@ -9389,7 +9438,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="116" t="s">
         <v>409</v>
       </c>
@@ -9418,7 +9467,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="116" t="s">
         <v>409</v>
       </c>
@@ -9447,7 +9496,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="116" t="s">
         <v>409</v>
       </c>
@@ -9474,7 +9523,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="116" t="s">
         <v>409</v>
       </c>
@@ -9501,7 +9550,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="116" t="s">
         <v>409</v>
       </c>
@@ -9528,7 +9577,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="116" t="s">
         <v>409</v>
       </c>
@@ -9557,7 +9606,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="116" t="s">
         <v>409</v>
       </c>
@@ -9584,7 +9633,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="116" t="s">
         <v>409</v>
       </c>
@@ -9611,7 +9660,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="116" t="s">
         <v>409</v>
       </c>
@@ -9638,7 +9687,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="116" t="s">
         <v>409</v>
       </c>
@@ -9665,7 +9714,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="116" t="s">
         <v>409</v>
       </c>
@@ -9692,7 +9741,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="116" t="s">
         <v>409</v>
       </c>
@@ -9719,7 +9768,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="116" t="s">
         <v>409</v>
       </c>
@@ -9748,7 +9797,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="116" t="s">
         <v>409</v>
       </c>
@@ -9777,7 +9826,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="116" t="s">
         <v>409</v>
       </c>
@@ -9806,7 +9855,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="116" t="s">
         <v>409</v>
       </c>
@@ -9833,7 +9882,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="118" t="s">
         <v>419</v>
       </c>
@@ -9858,7 +9907,7 @@
       <c r="H26" s="128"/>
       <c r="I26" s="104"/>
     </row>
-    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="118" t="s">
         <v>419</v>
       </c>
@@ -9883,7 +9932,7 @@
       <c r="H27" s="128"/>
       <c r="I27" s="104"/>
     </row>
-    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="118" t="s">
         <v>419</v>
       </c>
@@ -9906,7 +9955,7 @@
       <c r="H28" s="128"/>
       <c r="I28" s="104"/>
     </row>
-    <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="118" t="s">
         <v>419</v>
       </c>
@@ -9929,7 +9978,7 @@
       <c r="H29" s="128"/>
       <c r="I29" s="104"/>
     </row>
-    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="118" t="s">
         <v>419</v>
       </c>
@@ -9952,7 +10001,7 @@
       <c r="H30" s="128"/>
       <c r="I30" s="104"/>
     </row>
-    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="118" t="s">
         <v>419</v>
       </c>
@@ -9977,7 +10026,7 @@
       <c r="H31" s="128"/>
       <c r="I31" s="104"/>
     </row>
-    <row r="32" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="118" t="s">
         <v>419</v>
       </c>
@@ -10002,7 +10051,7 @@
       <c r="H32" s="128"/>
       <c r="I32" s="104"/>
     </row>
-    <row r="33" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="118" t="s">
         <v>419</v>
       </c>
@@ -10027,7 +10076,7 @@
       <c r="H33" s="128"/>
       <c r="I33" s="104"/>
     </row>
-    <row r="34" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="118" t="s">
         <v>419</v>
       </c>
@@ -10052,7 +10101,7 @@
       <c r="H34" s="128"/>
       <c r="I34" s="104"/>
     </row>
-    <row r="35" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="118" t="s">
         <v>419</v>
       </c>
@@ -10077,7 +10126,7 @@
       <c r="H35" s="128"/>
       <c r="I35" s="104"/>
     </row>
-    <row r="36" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="118" t="s">
         <v>419</v>
       </c>
@@ -10102,7 +10151,7 @@
       <c r="H36" s="128"/>
       <c r="I36" s="104"/>
     </row>
-    <row r="37" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="118" t="s">
         <v>419</v>
       </c>
@@ -10127,7 +10176,7 @@
       <c r="H37" s="128"/>
       <c r="I37" s="104"/>
     </row>
-    <row r="38" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="118" t="s">
         <v>419</v>
       </c>
@@ -10152,7 +10201,7 @@
       <c r="H38" s="128"/>
       <c r="I38" s="104"/>
     </row>
-    <row r="39" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="118" t="s">
         <v>419</v>
       </c>
@@ -10177,7 +10226,7 @@
       <c r="H39" s="128"/>
       <c r="I39" s="104"/>
     </row>
-    <row r="40" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="118" t="s">
         <v>419</v>
       </c>
@@ -10202,7 +10251,7 @@
       <c r="H40" s="128"/>
       <c r="I40" s="104"/>
     </row>
-    <row r="41" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="118" t="s">
         <v>419</v>
       </c>
@@ -10227,7 +10276,7 @@
       <c r="H41" s="128"/>
       <c r="I41" s="104"/>
     </row>
-    <row r="42" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="118" t="s">
         <v>419</v>
       </c>
@@ -10254,7 +10303,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="118" t="s">
         <v>419</v>
       </c>
@@ -10279,7 +10328,7 @@
       <c r="H43" s="128"/>
       <c r="I43" s="104"/>
     </row>
-    <row r="44" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="118" t="s">
         <v>419</v>
       </c>
@@ -10304,7 +10353,7 @@
       <c r="H44" s="128"/>
       <c r="I44" s="104"/>
     </row>
-    <row r="45" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="118" t="s">
         <v>419</v>
       </c>
@@ -10329,7 +10378,7 @@
       <c r="H45" s="128"/>
       <c r="I45" s="104"/>
     </row>
-    <row r="46" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="118" t="s">
         <v>419</v>
       </c>
@@ -10354,7 +10403,7 @@
       <c r="H46" s="128"/>
       <c r="I46" s="104"/>
     </row>
-    <row r="47" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="118" t="s">
         <v>419</v>
       </c>
@@ -10379,7 +10428,7 @@
       <c r="H47" s="128"/>
       <c r="I47" s="104"/>
     </row>
-    <row r="48" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="118" t="s">
         <v>419</v>
       </c>
@@ -10404,7 +10453,7 @@
       <c r="H48" s="128"/>
       <c r="I48" s="104"/>
     </row>
-    <row r="49" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="118" t="s">
         <v>419</v>
       </c>
@@ -10429,7 +10478,7 @@
       <c r="H49" s="128"/>
       <c r="I49" s="104"/>
     </row>
-    <row r="50" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="118" t="s">
         <v>419</v>
       </c>
@@ -10454,7 +10503,7 @@
       <c r="H50" s="128"/>
       <c r="I50" s="104"/>
     </row>
-    <row r="51" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="118" t="s">
         <v>419</v>
       </c>
@@ -10479,7 +10528,7 @@
       <c r="H51" s="128"/>
       <c r="I51" s="104"/>
     </row>
-    <row r="52" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="118" t="s">
         <v>419</v>
       </c>
@@ -10504,7 +10553,7 @@
       <c r="H52" s="128"/>
       <c r="I52" s="104"/>
     </row>
-    <row r="53" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="118" t="s">
         <v>419</v>
       </c>
@@ -10529,7 +10578,7 @@
       <c r="H53" s="128"/>
       <c r="I53" s="104"/>
     </row>
-    <row r="54" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="118" t="s">
         <v>419</v>
       </c>
@@ -10554,7 +10603,7 @@
       <c r="H54" s="128"/>
       <c r="I54" s="104"/>
     </row>
-    <row r="55" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="120" t="s">
         <v>470</v>
       </c>
@@ -10583,7 +10632,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="120" t="s">
         <v>470</v>
       </c>
@@ -10612,7 +10661,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="120" t="s">
         <v>470</v>
       </c>
@@ -10641,7 +10690,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="120" t="s">
         <v>470</v>
       </c>
@@ -10670,7 +10719,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="120" t="s">
         <v>470</v>
       </c>
@@ -10699,7 +10748,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="120" t="s">
         <v>470</v>
       </c>
@@ -10728,7 +10777,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="120" t="s">
         <v>470</v>
       </c>
@@ -10757,7 +10806,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="120" t="s">
         <v>470</v>
       </c>
@@ -10782,7 +10831,7 @@
       <c r="H62" s="130"/>
       <c r="I62" s="123"/>
     </row>
-    <row r="63" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="120" t="s">
         <v>470</v>
       </c>
@@ -10807,7 +10856,7 @@
       <c r="H63" s="130"/>
       <c r="I63" s="123"/>
     </row>
-    <row r="64" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="120" t="s">
         <v>470</v>
       </c>
@@ -10832,7 +10881,7 @@
       <c r="H64" s="130"/>
       <c r="I64" s="123"/>
     </row>
-    <row r="65" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="120" t="s">
         <v>470</v>
       </c>
@@ -10859,7 +10908,7 @@
       </c>
       <c r="I65" s="123"/>
     </row>
-    <row r="66" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="120" t="s">
         <v>470</v>
       </c>
@@ -10884,7 +10933,7 @@
       <c r="H66" s="130"/>
       <c r="I66" s="123"/>
     </row>
-    <row r="67" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="120" t="s">
         <v>470</v>
       </c>
@@ -10909,7 +10958,7 @@
       <c r="H67" s="130"/>
       <c r="I67" s="123"/>
     </row>
-    <row r="68" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="120" t="s">
         <v>470</v>
       </c>
@@ -10934,7 +10983,7 @@
       <c r="H68" s="130"/>
       <c r="I68" s="123"/>
     </row>
-    <row r="69" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="120" t="s">
         <v>470</v>
       </c>
@@ -10959,7 +11008,7 @@
       <c r="H69" s="130"/>
       <c r="I69" s="123"/>
     </row>
-    <row r="70" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="120" t="s">
         <v>470</v>
       </c>
@@ -10986,7 +11035,7 @@
       </c>
       <c r="I70" s="123"/>
     </row>
-    <row r="71" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="120" t="s">
         <v>470</v>
       </c>
@@ -11013,7 +11062,7 @@
       </c>
       <c r="I71" s="164"/>
     </row>
-    <row r="72" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="120" t="s">
         <v>470</v>
       </c>
@@ -11038,7 +11087,7 @@
       <c r="H72" s="176"/>
       <c r="I72" s="164"/>
     </row>
-    <row r="73" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="120" t="s">
         <v>470</v>
       </c>
@@ -11067,7 +11116,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="120" t="s">
         <v>470</v>
       </c>
@@ -11096,7 +11145,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="120" t="s">
         <v>470</v>
       </c>
@@ -11125,7 +11174,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="120" t="s">
         <v>470</v>
       </c>
@@ -11154,7 +11203,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="120" t="s">
         <v>470</v>
       </c>
@@ -11183,7 +11232,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="120" t="s">
         <v>470</v>
       </c>
@@ -11212,7 +11261,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="120" t="s">
         <v>470</v>
       </c>
@@ -11241,7 +11290,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="120" t="s">
         <v>470</v>
       </c>
@@ -11270,7 +11319,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="120" t="s">
         <v>470</v>
       </c>
@@ -11299,7 +11348,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="120" t="s">
         <v>470</v>
       </c>
@@ -11328,7 +11377,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="120" t="s">
         <v>470</v>
       </c>
@@ -11355,7 +11404,7 @@
       </c>
       <c r="I83" s="123"/>
     </row>
-    <row r="84" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="120" t="s">
         <v>470</v>
       </c>
@@ -11380,7 +11429,7 @@
       <c r="H84" s="130"/>
       <c r="I84" s="123"/>
     </row>
-    <row r="85" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="120" t="s">
         <v>470</v>
       </c>
@@ -11405,7 +11454,7 @@
       <c r="H85" s="130"/>
       <c r="I85" s="123"/>
     </row>
-    <row r="86" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="120" t="s">
         <v>470</v>
       </c>
@@ -11430,7 +11479,7 @@
       <c r="H86" s="130"/>
       <c r="I86" s="123"/>
     </row>
-    <row r="87" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="120" t="s">
         <v>470</v>
       </c>
@@ -11455,7 +11504,7 @@
       <c r="H87" s="130"/>
       <c r="I87" s="123"/>
     </row>
-    <row r="88" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="120" t="s">
         <v>470</v>
       </c>
@@ -11480,7 +11529,7 @@
       <c r="H88" s="130"/>
       <c r="I88" s="123"/>
     </row>
-    <row r="89" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="120" t="s">
         <v>470</v>
       </c>
@@ -11507,7 +11556,7 @@
       </c>
       <c r="I89" s="124"/>
     </row>
-    <row r="90" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="120" t="s">
         <v>470</v>
       </c>
@@ -11534,7 +11583,7 @@
       </c>
       <c r="I90" s="123"/>
     </row>
-    <row r="91" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="120" t="s">
         <v>470</v>
       </c>
@@ -11561,7 +11610,7 @@
       </c>
       <c r="I91" s="124"/>
     </row>
-    <row r="92" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="120" t="s">
         <v>470</v>
       </c>
@@ -11588,7 +11637,7 @@
       </c>
       <c r="I92" s="124"/>
     </row>
-    <row r="93" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="120" t="s">
         <v>470</v>
       </c>
@@ -11613,7 +11662,7 @@
       </c>
       <c r="I93" s="124"/>
     </row>
-    <row r="94" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="120" t="s">
         <v>470</v>
       </c>
@@ -11640,7 +11689,7 @@
       </c>
       <c r="I94" s="124"/>
     </row>
-    <row r="95" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="120" t="s">
         <v>470</v>
       </c>
@@ -11667,7 +11716,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="120" t="s">
         <v>470</v>
       </c>
@@ -11694,7 +11743,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="120" t="s">
         <v>470</v>
       </c>
@@ -11721,7 +11770,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="120" t="s">
         <v>470</v>
       </c>
@@ -11748,7 +11797,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="120" t="s">
         <v>470</v>
       </c>
@@ -11775,7 +11824,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="120" t="s">
         <v>470</v>
       </c>
@@ -11802,7 +11851,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="120" t="s">
         <v>470</v>
       </c>
@@ -11829,7 +11878,7 @@
       </c>
       <c r="I101" s="123"/>
     </row>
-    <row r="102" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="120" t="s">
         <v>470</v>
       </c>
@@ -11856,7 +11905,7 @@
       </c>
       <c r="I102" s="123"/>
     </row>
-    <row r="103" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="120" t="s">
         <v>470</v>
       </c>
@@ -11881,7 +11930,7 @@
       <c r="H103" s="130"/>
       <c r="I103" s="123"/>
     </row>
-    <row r="104" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="120" t="s">
         <v>470</v>
       </c>
@@ -11906,7 +11955,7 @@
       <c r="H104" s="130"/>
       <c r="I104" s="123"/>
     </row>
-    <row r="105" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="120" t="s">
         <v>470</v>
       </c>
@@ -11931,7 +11980,7 @@
       <c r="H105" s="130"/>
       <c r="I105" s="123"/>
     </row>
-    <row r="106" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="120" t="s">
         <v>470</v>
       </c>
@@ -11956,7 +12005,7 @@
       <c r="H106" s="130"/>
       <c r="I106" s="123"/>
     </row>
-    <row r="107" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="120" t="s">
         <v>470</v>
       </c>
@@ -11983,7 +12032,7 @@
       </c>
       <c r="I107" s="123"/>
     </row>
-    <row r="108" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="120" t="s">
         <v>470</v>
       </c>
@@ -12008,7 +12057,7 @@
       <c r="H108" s="130"/>
       <c r="I108" s="123"/>
     </row>
-    <row r="109" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="120" t="s">
         <v>470</v>
       </c>
@@ -12033,7 +12082,7 @@
       <c r="H109" s="130"/>
       <c r="I109" s="123"/>
     </row>
-    <row r="110" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="120" t="s">
         <v>470</v>
       </c>
@@ -12060,7 +12109,7 @@
       </c>
       <c r="I110" s="123"/>
     </row>
-    <row r="111" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="120" t="s">
         <v>470</v>
       </c>
@@ -12087,7 +12136,7 @@
       </c>
       <c r="I111" s="124"/>
     </row>
-    <row r="112" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="120" t="s">
         <v>470</v>
       </c>
@@ -12114,7 +12163,7 @@
       </c>
       <c r="I112" s="124"/>
     </row>
-    <row r="113" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="120" t="s">
         <v>470</v>
       </c>
@@ -12141,7 +12190,7 @@
       </c>
       <c r="I113" s="124"/>
     </row>
-    <row r="114" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="120" t="s">
         <v>470</v>
       </c>
@@ -12177,24 +12226,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005F3198-C033-B548-8CE3-0194F9495F17}">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H142" sqref="H142"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="137" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="137" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
         <v>463</v>
       </c>
@@ -12223,7 +12272,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="116" t="s">
         <v>409</v>
       </c>
@@ -12252,7 +12301,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="116" t="s">
         <v>409</v>
       </c>
@@ -12281,7 +12330,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="116" t="s">
         <v>409</v>
       </c>
@@ -12310,7 +12359,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="116" t="s">
         <v>409</v>
       </c>
@@ -12339,7 +12388,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="116" t="s">
         <v>409</v>
       </c>
@@ -12368,7 +12417,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="116" t="s">
         <v>409</v>
       </c>
@@ -12395,7 +12444,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="116" t="s">
         <v>409</v>
       </c>
@@ -12422,7 +12471,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="116" t="s">
         <v>409</v>
       </c>
@@ -12449,7 +12498,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="116" t="s">
         <v>409</v>
       </c>
@@ -12478,7 +12527,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="116" t="s">
         <v>409</v>
       </c>
@@ -12505,7 +12554,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="116" t="s">
         <v>409</v>
       </c>
@@ -12534,7 +12583,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="116" t="s">
         <v>409</v>
       </c>
@@ -12561,7 +12610,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="116" t="s">
         <v>409</v>
       </c>
@@ -12588,7 +12637,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="116" t="s">
         <v>409</v>
       </c>
@@ -12615,7 +12664,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="116" t="s">
         <v>409</v>
       </c>
@@ -12642,7 +12691,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="116" t="s">
         <v>409</v>
       </c>
@@ -12669,7 +12718,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="116" t="s">
         <v>409</v>
       </c>
@@ -12696,7 +12745,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="116" t="s">
         <v>409</v>
       </c>
@@ -12725,7 +12774,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="118" t="s">
         <v>419</v>
       </c>
@@ -12750,7 +12799,7 @@
       <c r="H20" s="128"/>
       <c r="I20" s="104"/>
     </row>
-    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="118" t="s">
         <v>419</v>
       </c>
@@ -12775,7 +12824,7 @@
       <c r="H21" s="128"/>
       <c r="I21" s="104"/>
     </row>
-    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="118" t="s">
         <v>419</v>
       </c>
@@ -12800,7 +12849,7 @@
       <c r="H22" s="128"/>
       <c r="I22" s="104"/>
     </row>
-    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="118" t="s">
         <v>419</v>
       </c>
@@ -12825,7 +12874,7 @@
       <c r="H23" s="128"/>
       <c r="I23" s="104"/>
     </row>
-    <row r="24" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="118" t="s">
         <v>419</v>
       </c>
@@ -12850,7 +12899,7 @@
       <c r="H24" s="128"/>
       <c r="I24" s="104"/>
     </row>
-    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="118" t="s">
         <v>419</v>
       </c>
@@ -12875,7 +12924,7 @@
       <c r="H25" s="128"/>
       <c r="I25" s="104"/>
     </row>
-    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="118" t="s">
         <v>419</v>
       </c>
@@ -12900,7 +12949,7 @@
       <c r="H26" s="128"/>
       <c r="I26" s="104"/>
     </row>
-    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="118" t="s">
         <v>419</v>
       </c>
@@ -12925,7 +12974,7 @@
       <c r="H27" s="128"/>
       <c r="I27" s="104"/>
     </row>
-    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="118" t="s">
         <v>419</v>
       </c>
@@ -12950,7 +12999,7 @@
       <c r="H28" s="128"/>
       <c r="I28" s="104"/>
     </row>
-    <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="118" t="s">
         <v>419</v>
       </c>
@@ -12975,7 +13024,7 @@
       <c r="H29" s="128"/>
       <c r="I29" s="104"/>
     </row>
-    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="118" t="s">
         <v>419</v>
       </c>
@@ -13000,7 +13049,7 @@
       <c r="H30" s="128"/>
       <c r="I30" s="104"/>
     </row>
-    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="118" t="s">
         <v>419</v>
       </c>
@@ -13025,7 +13074,7 @@
       <c r="H31" s="128"/>
       <c r="I31" s="104"/>
     </row>
-    <row r="32" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="118" t="s">
         <v>419</v>
       </c>
@@ -13054,7 +13103,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="118" t="s">
         <v>419</v>
       </c>
@@ -13081,7 +13130,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="118" t="s">
         <v>419</v>
       </c>
@@ -13108,7 +13157,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="118" t="s">
         <v>419</v>
       </c>
@@ -13135,7 +13184,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="118" t="s">
         <v>419</v>
       </c>
@@ -13160,7 +13209,7 @@
       <c r="H36" s="128"/>
       <c r="I36" s="104"/>
     </row>
-    <row r="37" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="118" t="s">
         <v>419</v>
       </c>
@@ -13185,7 +13234,7 @@
       <c r="H37" s="128"/>
       <c r="I37" s="104"/>
     </row>
-    <row r="38" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="118" t="s">
         <v>419</v>
       </c>
@@ -13210,7 +13259,7 @@
       <c r="H38" s="128"/>
       <c r="I38" s="104"/>
     </row>
-    <row r="39" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="118" t="s">
         <v>419</v>
       </c>
@@ -13235,7 +13284,7 @@
       <c r="H39" s="128"/>
       <c r="I39" s="104"/>
     </row>
-    <row r="40" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="118" t="s">
         <v>419</v>
       </c>
@@ -13260,7 +13309,7 @@
       <c r="H40" s="128"/>
       <c r="I40" s="104"/>
     </row>
-    <row r="41" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="118" t="s">
         <v>419</v>
       </c>
@@ -13285,7 +13334,7 @@
       <c r="H41" s="128"/>
       <c r="I41" s="104"/>
     </row>
-    <row r="42" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="118" t="s">
         <v>419</v>
       </c>
@@ -13310,7 +13359,7 @@
       <c r="H42" s="128"/>
       <c r="I42" s="104"/>
     </row>
-    <row r="43" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="118" t="s">
         <v>419</v>
       </c>
@@ -13335,7 +13384,7 @@
       <c r="H43" s="128"/>
       <c r="I43" s="104"/>
     </row>
-    <row r="44" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="118" t="s">
         <v>419</v>
       </c>
@@ -13360,7 +13409,7 @@
       <c r="H44" s="128"/>
       <c r="I44" s="104"/>
     </row>
-    <row r="45" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="118" t="s">
         <v>419</v>
       </c>
@@ -13385,7 +13434,7 @@
       <c r="H45" s="128"/>
       <c r="I45" s="104"/>
     </row>
-    <row r="46" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="118" t="s">
         <v>419</v>
       </c>
@@ -13410,7 +13459,7 @@
       <c r="H46" s="128"/>
       <c r="I46" s="104"/>
     </row>
-    <row r="47" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="118" t="s">
         <v>419</v>
       </c>
@@ -13435,7 +13484,7 @@
       <c r="H47" s="128"/>
       <c r="I47" s="104"/>
     </row>
-    <row r="48" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="118" t="s">
         <v>419</v>
       </c>
@@ -13460,7 +13509,7 @@
       <c r="H48" s="128"/>
       <c r="I48" s="104"/>
     </row>
-    <row r="49" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="118" t="s">
         <v>419</v>
       </c>
@@ -13485,7 +13534,7 @@
       <c r="H49" s="128"/>
       <c r="I49" s="104"/>
     </row>
-    <row r="50" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="118" t="s">
         <v>419</v>
       </c>
@@ -13510,7 +13559,7 @@
       <c r="H50" s="128"/>
       <c r="I50" s="104"/>
     </row>
-    <row r="51" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="118" t="s">
         <v>419</v>
       </c>
@@ -13535,7 +13584,7 @@
       <c r="H51" s="128"/>
       <c r="I51" s="104"/>
     </row>
-    <row r="52" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="118" t="s">
         <v>419</v>
       </c>
@@ -13560,7 +13609,7 @@
       <c r="H52" s="128"/>
       <c r="I52" s="104"/>
     </row>
-    <row r="53" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="118" t="s">
         <v>419</v>
       </c>
@@ -13587,7 +13636,7 @@
       </c>
       <c r="I53" s="104"/>
     </row>
-    <row r="54" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="118" t="s">
         <v>419</v>
       </c>
@@ -13614,7 +13663,7 @@
       </c>
       <c r="I54" s="104"/>
     </row>
-    <row r="55" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="118" t="s">
         <v>419</v>
       </c>
@@ -13641,7 +13690,7 @@
       </c>
       <c r="I55" s="104"/>
     </row>
-    <row r="56" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="118" t="s">
         <v>419</v>
       </c>
@@ -13668,7 +13717,7 @@
       </c>
       <c r="I56" s="104"/>
     </row>
-    <row r="57" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="118" t="s">
         <v>419</v>
       </c>
@@ -13695,7 +13744,7 @@
       </c>
       <c r="I57" s="104"/>
     </row>
-    <row r="58" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="118" t="s">
         <v>419</v>
       </c>
@@ -13722,7 +13771,7 @@
       </c>
       <c r="I58" s="104"/>
     </row>
-    <row r="59" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="118" t="s">
         <v>419</v>
       </c>
@@ -13747,7 +13796,7 @@
       <c r="H59" s="128"/>
       <c r="I59" s="104"/>
     </row>
-    <row r="60" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="118" t="s">
         <v>419</v>
       </c>
@@ -13772,7 +13821,7 @@
       <c r="H60" s="128"/>
       <c r="I60" s="104"/>
     </row>
-    <row r="61" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="118" t="s">
         <v>419</v>
       </c>
@@ -13797,7 +13846,7 @@
       <c r="H61" s="128"/>
       <c r="I61" s="104"/>
     </row>
-    <row r="62" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="118" t="s">
         <v>419</v>
       </c>
@@ -13824,7 +13873,7 @@
       </c>
       <c r="I62" s="104"/>
     </row>
-    <row r="63" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="120" t="s">
         <v>470</v>
       </c>
@@ -13853,7 +13902,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="120" t="s">
         <v>470</v>
       </c>
@@ -13882,7 +13931,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="120" t="s">
         <v>470</v>
       </c>
@@ -13909,7 +13958,7 @@
       </c>
       <c r="I65" s="123"/>
     </row>
-    <row r="66" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="120" t="s">
         <v>470</v>
       </c>
@@ -13936,7 +13985,7 @@
       </c>
       <c r="I66" s="123"/>
     </row>
-    <row r="67" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="120" t="s">
         <v>470</v>
       </c>
@@ -13963,7 +14012,7 @@
       </c>
       <c r="I67" s="123"/>
     </row>
-    <row r="68" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="120" t="s">
         <v>470</v>
       </c>
@@ -13992,7 +14041,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="120" t="s">
         <v>470</v>
       </c>
@@ -14019,7 +14068,7 @@
       </c>
       <c r="I69" s="123"/>
     </row>
-    <row r="70" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="120" t="s">
         <v>470</v>
       </c>
@@ -14046,7 +14095,7 @@
       </c>
       <c r="I70" s="123"/>
     </row>
-    <row r="71" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="120" t="s">
         <v>470</v>
       </c>
@@ -14071,7 +14120,7 @@
       <c r="H71" s="130"/>
       <c r="I71" s="123"/>
     </row>
-    <row r="72" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="120" t="s">
         <v>470</v>
       </c>
@@ -14096,7 +14145,7 @@
       <c r="H72" s="130"/>
       <c r="I72" s="123"/>
     </row>
-    <row r="73" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="120" t="s">
         <v>470</v>
       </c>
@@ -14123,7 +14172,7 @@
       </c>
       <c r="I73" s="123"/>
     </row>
-    <row r="74" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="120" t="s">
         <v>470</v>
       </c>
@@ -14150,7 +14199,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="120" t="s">
         <v>470</v>
       </c>
@@ -14177,7 +14226,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="120" t="s">
         <v>470</v>
       </c>
@@ -14202,7 +14251,7 @@
       <c r="H76" s="130"/>
       <c r="I76" s="123"/>
     </row>
-    <row r="77" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="120" t="s">
         <v>470</v>
       </c>
@@ -14227,7 +14276,7 @@
       <c r="H77" s="130"/>
       <c r="I77" s="123"/>
     </row>
-    <row r="78" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="120" t="s">
         <v>470</v>
       </c>
@@ -14254,7 +14303,7 @@
       </c>
       <c r="I78" s="123"/>
     </row>
-    <row r="79" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="120" t="s">
         <v>470</v>
       </c>
@@ -14281,7 +14330,7 @@
       </c>
       <c r="I79" s="123"/>
     </row>
-    <row r="80" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="120" t="s">
         <v>470</v>
       </c>
@@ -14308,7 +14357,7 @@
       </c>
       <c r="I80" s="123"/>
     </row>
-    <row r="81" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="120" t="s">
         <v>470</v>
       </c>
@@ -14335,7 +14384,7 @@
       </c>
       <c r="I81" s="123"/>
     </row>
-    <row r="82" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="120" t="s">
         <v>470</v>
       </c>
@@ -14362,7 +14411,7 @@
       </c>
       <c r="I82" s="123"/>
     </row>
-    <row r="83" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="120" t="s">
         <v>470</v>
       </c>
@@ -14387,7 +14436,7 @@
       <c r="H83" s="130"/>
       <c r="I83" s="123"/>
     </row>
-    <row r="84" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="120" t="s">
         <v>470</v>
       </c>
@@ -14412,7 +14461,7 @@
       <c r="H84" s="130"/>
       <c r="I84" s="123"/>
     </row>
-    <row r="85" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="120" t="s">
         <v>470</v>
       </c>
@@ -14437,7 +14486,7 @@
       <c r="H85" s="130"/>
       <c r="I85" s="123"/>
     </row>
-    <row r="86" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="120" t="s">
         <v>470</v>
       </c>
@@ -14464,7 +14513,7 @@
       </c>
       <c r="I86" s="123"/>
     </row>
-    <row r="87" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="120" t="s">
         <v>470</v>
       </c>
@@ -14491,7 +14540,7 @@
       </c>
       <c r="I87" s="123"/>
     </row>
-    <row r="88" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="120" t="s">
         <v>470</v>
       </c>
@@ -14518,7 +14567,7 @@
       </c>
       <c r="I88" s="123"/>
     </row>
-    <row r="89" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="120" t="s">
         <v>470</v>
       </c>
@@ -14545,7 +14594,7 @@
       </c>
       <c r="I89" s="123"/>
     </row>
-    <row r="90" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="120" t="s">
         <v>470</v>
       </c>
@@ -14570,7 +14619,7 @@
       <c r="H90" s="130"/>
       <c r="I90" s="123"/>
     </row>
-    <row r="91" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="120" t="s">
         <v>470</v>
       </c>
@@ -14595,7 +14644,7 @@
       <c r="H91" s="130"/>
       <c r="I91" s="123"/>
     </row>
-    <row r="92" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="120" t="s">
         <v>470</v>
       </c>
@@ -14622,7 +14671,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="120" t="s">
         <v>470</v>
       </c>
@@ -14649,7 +14698,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="120" t="s">
         <v>470</v>
       </c>
@@ -14676,7 +14725,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="120" t="s">
         <v>470</v>
       </c>
@@ -14703,7 +14752,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="120" t="s">
         <v>470</v>
       </c>
@@ -14730,7 +14779,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="120" t="s">
         <v>470</v>
       </c>
@@ -14757,7 +14806,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="120" t="s">
         <v>470</v>
       </c>
@@ -14782,7 +14831,7 @@
       <c r="H98" s="130"/>
       <c r="I98" s="123"/>
     </row>
-    <row r="99" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="120" t="s">
         <v>470</v>
       </c>
@@ -14807,7 +14856,7 @@
       <c r="H99" s="130"/>
       <c r="I99" s="123"/>
     </row>
-    <row r="100" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="120" t="s">
         <v>470</v>
       </c>
@@ -14832,7 +14881,7 @@
       <c r="H100" s="130"/>
       <c r="I100" s="123"/>
     </row>
-    <row r="101" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="120" t="s">
         <v>470</v>
       </c>
@@ -14857,7 +14906,7 @@
       <c r="H101" s="130"/>
       <c r="I101" s="123"/>
     </row>
-    <row r="102" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="120" t="s">
         <v>470</v>
       </c>
@@ -14882,7 +14931,7 @@
       <c r="H102" s="130"/>
       <c r="I102" s="123"/>
     </row>
-    <row r="103" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="120" t="s">
         <v>470</v>
       </c>
@@ -14907,7 +14956,7 @@
       <c r="H103" s="130"/>
       <c r="I103" s="123"/>
     </row>
-    <row r="104" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="120" t="s">
         <v>470</v>
       </c>
@@ -14932,7 +14981,7 @@
       <c r="H104" s="130"/>
       <c r="I104" s="123"/>
     </row>
-    <row r="105" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="120" t="s">
         <v>470</v>
       </c>
@@ -14957,7 +15006,7 @@
       <c r="H105" s="130"/>
       <c r="I105" s="123"/>
     </row>
-    <row r="106" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="120" t="s">
         <v>470</v>
       </c>
@@ -14982,7 +15031,7 @@
       <c r="H106" s="130"/>
       <c r="I106" s="123"/>
     </row>
-    <row r="107" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="120" t="s">
         <v>470</v>
       </c>
@@ -15007,7 +15056,7 @@
       <c r="H107" s="130"/>
       <c r="I107" s="123"/>
     </row>
-    <row r="108" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="120" t="s">
         <v>470</v>
       </c>
@@ -15032,7 +15081,7 @@
       <c r="H108" s="130"/>
       <c r="I108" s="123"/>
     </row>
-    <row r="109" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="120" t="s">
         <v>470</v>
       </c>
@@ -15057,7 +15106,7 @@
       <c r="H109" s="130"/>
       <c r="I109" s="123"/>
     </row>
-    <row r="110" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="120" t="s">
         <v>470</v>
       </c>
@@ -15086,7 +15135,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="120" t="s">
         <v>470</v>
       </c>
@@ -15113,7 +15162,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="120" t="s">
         <v>470</v>
       </c>
@@ -15140,7 +15189,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="120" t="s">
         <v>470</v>
       </c>
@@ -15167,7 +15216,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="120" t="s">
         <v>470</v>
       </c>
@@ -15194,7 +15243,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="120" t="s">
         <v>470</v>
       </c>
@@ -15221,7 +15270,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15248,7 +15297,7 @@
       </c>
       <c r="I116" s="191"/>
     </row>
-    <row r="117" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15275,7 +15324,7 @@
       </c>
       <c r="I117" s="191"/>
     </row>
-    <row r="118" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15302,7 +15351,7 @@
       </c>
       <c r="I118" s="191"/>
     </row>
-    <row r="119" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15329,7 +15378,7 @@
       </c>
       <c r="I119" s="194"/>
     </row>
-    <row r="120" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15356,7 +15405,7 @@
       </c>
       <c r="I120" s="194"/>
     </row>
-    <row r="121" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15383,7 +15432,7 @@
       </c>
       <c r="I121" s="194"/>
     </row>
-    <row r="122" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15410,7 +15459,7 @@
       </c>
       <c r="I122" s="194"/>
     </row>
-    <row r="123" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15437,7 +15486,7 @@
       </c>
       <c r="I123" s="194"/>
     </row>
-    <row r="124" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15464,7 +15513,7 @@
       </c>
       <c r="I124" s="194"/>
     </row>
-    <row r="125" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15491,7 +15540,7 @@
       </c>
       <c r="I125" s="194"/>
     </row>
-    <row r="126" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15518,7 +15567,7 @@
       </c>
       <c r="I126" s="194"/>
     </row>
-    <row r="127" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15545,7 +15594,7 @@
       </c>
       <c r="I127" s="194"/>
     </row>
-    <row r="128" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15572,7 +15621,7 @@
       </c>
       <c r="I128" s="194"/>
     </row>
-    <row r="129" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15599,7 +15648,7 @@
       </c>
       <c r="I129" s="194"/>
     </row>
-    <row r="130" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15626,7 +15675,7 @@
       </c>
       <c r="I130" s="194"/>
     </row>
-    <row r="131" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15653,7 +15702,7 @@
       </c>
       <c r="I131" s="194"/>
     </row>
-    <row r="132" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15680,7 +15729,7 @@
       </c>
       <c r="I132" s="194"/>
     </row>
-    <row r="133" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15707,7 +15756,7 @@
       </c>
       <c r="I133" s="194"/>
     </row>
-    <row r="134" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15734,7 +15783,7 @@
       </c>
       <c r="I134" s="194"/>
     </row>
-    <row r="135" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15761,7 +15810,7 @@
       </c>
       <c r="I135" s="194"/>
     </row>
-    <row r="136" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15788,7 +15837,7 @@
       </c>
       <c r="I136" s="194"/>
     </row>
-    <row r="137" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15815,7 +15864,7 @@
       </c>
       <c r="I137" s="194"/>
     </row>
-    <row r="138" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15842,7 +15891,7 @@
       </c>
       <c r="I138" s="194"/>
     </row>
-    <row r="139" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15869,7 +15918,7 @@
       </c>
       <c r="I139" s="194"/>
     </row>
-    <row r="140" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15896,7 +15945,7 @@
       </c>
       <c r="I140" s="194"/>
     </row>
-    <row r="141" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15923,7 +15972,7 @@
       </c>
       <c r="I141" s="194"/>
     </row>
-    <row r="142" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15952,7 +16001,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="186" t="s">
         <v>1288</v>
       </c>
@@ -15981,7 +16030,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="186" t="s">
         <v>1288</v>
       </c>
@@ -16010,7 +16059,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="186" t="s">
         <v>1288</v>
       </c>
@@ -16049,19 +16098,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B3F271-01A4-7446-AB67-7D8A099FB523}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
         <v>463</v>
       </c>
@@ -16090,7 +16139,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
         <v>419</v>
       </c>
@@ -16115,7 +16164,7 @@
       </c>
       <c r="I2" s="104"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="118" t="s">
         <v>419</v>
       </c>
@@ -16140,7 +16189,7 @@
       </c>
       <c r="I3" s="103"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="118" t="s">
         <v>419</v>
       </c>
@@ -16165,7 +16214,7 @@
       </c>
       <c r="I4" s="104"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="118" t="s">
         <v>419</v>
       </c>
@@ -16190,7 +16239,7 @@
       </c>
       <c r="I5" s="104"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="118" t="s">
         <v>419</v>
       </c>
@@ -16215,7 +16264,7 @@
       </c>
       <c r="I6" s="104"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="118" t="s">
         <v>419</v>
       </c>
@@ -16240,7 +16289,7 @@
       </c>
       <c r="I7" s="104"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="118" t="s">
         <v>419</v>
       </c>
@@ -16265,7 +16314,7 @@
       </c>
       <c r="I8" s="104"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="118" t="s">
         <v>419</v>
       </c>
@@ -16290,7 +16339,7 @@
       </c>
       <c r="I9" s="104"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="118" t="s">
         <v>419</v>
       </c>
@@ -16315,7 +16364,7 @@
       </c>
       <c r="I10" s="104"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="118" t="s">
         <v>419</v>
       </c>
@@ -16340,7 +16389,7 @@
       </c>
       <c r="I11" s="104"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="118" t="s">
         <v>419</v>
       </c>
@@ -16365,7 +16414,7 @@
       </c>
       <c r="I12" s="104"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="118" t="s">
         <v>419</v>
       </c>
@@ -16390,7 +16439,7 @@
       </c>
       <c r="I13" s="104"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="118" t="s">
         <v>419</v>
       </c>
@@ -16415,7 +16464,7 @@
       </c>
       <c r="I14" s="104"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="118" t="s">
         <v>419</v>
       </c>
@@ -16440,7 +16489,7 @@
       </c>
       <c r="I15" s="203"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="118" t="s">
         <v>419</v>
       </c>
@@ -16465,7 +16514,7 @@
       </c>
       <c r="I16" s="203"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="118" t="s">
         <v>419</v>
       </c>
@@ -16490,7 +16539,7 @@
       </c>
       <c r="I17" s="203"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="118" t="s">
         <v>419</v>
       </c>
@@ -16515,7 +16564,7 @@
       </c>
       <c r="I18" s="203"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="118" t="s">
         <v>419</v>
       </c>
@@ -16540,7 +16589,7 @@
       </c>
       <c r="I19" s="203"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="118" t="s">
         <v>419</v>
       </c>
@@ -16565,7 +16614,7 @@
       </c>
       <c r="I20" s="203"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="118" t="s">
         <v>419</v>
       </c>
@@ -16590,7 +16639,7 @@
       </c>
       <c r="I21" s="203"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="118" t="s">
         <v>419</v>
       </c>
@@ -16615,7 +16664,7 @@
       </c>
       <c r="I22" s="203"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="118" t="s">
         <v>419</v>
       </c>
@@ -16640,7 +16689,7 @@
       </c>
       <c r="I23" s="104"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="118" t="s">
         <v>419</v>
       </c>
@@ -16665,7 +16714,7 @@
       </c>
       <c r="I24" s="203"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="118" t="s">
         <v>419</v>
       </c>
@@ -16690,7 +16739,7 @@
       </c>
       <c r="I25" s="203"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="118" t="s">
         <v>419</v>
       </c>
@@ -16715,7 +16764,7 @@
       </c>
       <c r="I26" s="104"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="118" t="s">
         <v>419</v>
       </c>
@@ -16740,7 +16789,7 @@
       </c>
       <c r="I27" s="104"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="118" t="s">
         <v>419</v>
       </c>
@@ -16765,7 +16814,7 @@
       </c>
       <c r="I28" s="203"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="118" t="s">
         <v>419</v>
       </c>
@@ -16790,7 +16839,7 @@
       </c>
       <c r="I29" s="203"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="118" t="s">
         <v>419</v>
       </c>
@@ -16815,7 +16864,7 @@
       </c>
       <c r="I30" s="104"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="118" t="s">
         <v>419</v>
       </c>
@@ -16840,7 +16889,7 @@
       </c>
       <c r="I31" s="104"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="118" t="s">
         <v>419</v>
       </c>
@@ -16861,7 +16910,7 @@
       </c>
       <c r="I32" s="203"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="118" t="s">
         <v>419</v>
       </c>
@@ -16882,7 +16931,7 @@
       </c>
       <c r="I33" s="203"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="118" t="s">
         <v>419</v>
       </c>
@@ -16903,7 +16952,7 @@
       </c>
       <c r="I34" s="203"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="118" t="s">
         <v>419</v>
       </c>
@@ -16924,7 +16973,7 @@
       </c>
       <c r="I35" s="203"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="118" t="s">
         <v>419</v>
       </c>
@@ -16945,7 +16994,7 @@
       </c>
       <c r="I36" s="203"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="118" t="s">
         <v>419</v>
       </c>
@@ -16966,7 +17015,7 @@
       </c>
       <c r="I37" s="203"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="118" t="s">
         <v>419</v>
       </c>
@@ -16987,7 +17036,7 @@
       </c>
       <c r="I38" s="203"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="118" t="s">
         <v>419</v>
       </c>
@@ -17008,7 +17057,7 @@
       </c>
       <c r="I39" s="203"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="118" t="s">
         <v>419</v>
       </c>
@@ -17028,6 +17077,3576 @@
         <v>428</v>
       </c>
       <c r="I40" s="203"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A0A253-44C3-EB4A-8FB1-CD9BD45339BC}">
+  <dimension ref="A1:I134"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="137" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="115" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1" s="115" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1" s="115" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1" s="122" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1" s="97" t="s">
+        <v>411</v>
+      </c>
+      <c r="F1" s="97" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="134" t="s">
+        <v>414</v>
+      </c>
+      <c r="H1" s="125" t="s">
+        <v>413</v>
+      </c>
+      <c r="I1" s="98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="116" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2" s="116" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C2" s="117" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D2" s="117" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E2" s="99" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F2" s="99" t="s">
+        <v>1656</v>
+      </c>
+      <c r="G2" s="135" t="s">
+        <v>456</v>
+      </c>
+      <c r="H2" s="126" t="s">
+        <v>901</v>
+      </c>
+      <c r="I2" s="100" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="116" t="s">
+        <v>409</v>
+      </c>
+      <c r="B3" s="116" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C3" s="117" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D3" s="117" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E3" s="99" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F3" s="99" t="s">
+        <v>1656</v>
+      </c>
+      <c r="G3" s="135" t="s">
+        <v>456</v>
+      </c>
+      <c r="H3" s="126" t="s">
+        <v>901</v>
+      </c>
+      <c r="I3" s="100" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="116" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="116" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C4" s="117" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D4" s="117" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E4" s="99" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F4" s="99" t="s">
+        <v>1656</v>
+      </c>
+      <c r="G4" s="135" t="s">
+        <v>456</v>
+      </c>
+      <c r="H4" s="126" t="s">
+        <v>901</v>
+      </c>
+      <c r="I4" s="100" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="116" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" s="116" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C5" s="117" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D5" s="117" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E5" s="99" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G5" s="135" t="s">
+        <v>457</v>
+      </c>
+      <c r="H5" s="126" t="s">
+        <v>364</v>
+      </c>
+      <c r="I5" s="100" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="116" t="s">
+        <v>409</v>
+      </c>
+      <c r="B6" s="116" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" s="117" t="s">
+        <v>770</v>
+      </c>
+      <c r="D6" s="117" t="s">
+        <v>800</v>
+      </c>
+      <c r="E6" s="99" t="s">
+        <v>818</v>
+      </c>
+      <c r="F6" s="99" t="s">
+        <v>580</v>
+      </c>
+      <c r="G6" s="135" t="s">
+        <v>456</v>
+      </c>
+      <c r="H6" s="126" t="s">
+        <v>427</v>
+      </c>
+      <c r="I6" s="101" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="116" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7" s="116" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D7" s="117" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E7" s="99" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F7" s="99" t="s">
+        <v>1658</v>
+      </c>
+      <c r="G7" s="135" t="s">
+        <v>456</v>
+      </c>
+      <c r="H7" s="126"/>
+      <c r="I7" s="101" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="116" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8" s="116" t="s">
+        <v>465</v>
+      </c>
+      <c r="C8" s="117" t="s">
+        <v>799</v>
+      </c>
+      <c r="D8" s="117" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E8" s="99" t="s">
+        <v>838</v>
+      </c>
+      <c r="F8" s="99" t="s">
+        <v>839</v>
+      </c>
+      <c r="G8" s="135" t="s">
+        <v>457</v>
+      </c>
+      <c r="H8" s="126" t="s">
+        <v>679</v>
+      </c>
+      <c r="I8" s="101" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B9" s="118" t="s">
+        <v>468</v>
+      </c>
+      <c r="C9" s="119" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D9" s="119" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E9" s="119" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F9" s="102" t="s">
+        <v>582</v>
+      </c>
+      <c r="G9" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H9" s="128"/>
+      <c r="I9" s="104"/>
+    </row>
+    <row r="10" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B10" s="118" t="s">
+        <v>468</v>
+      </c>
+      <c r="C10" s="119" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D10" s="119" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E10" s="119" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F10" s="102" t="s">
+        <v>583</v>
+      </c>
+      <c r="G10" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H10" s="128"/>
+      <c r="I10" s="104"/>
+    </row>
+    <row r="11" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B11" s="118" t="s">
+        <v>468</v>
+      </c>
+      <c r="C11" s="119" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D11" s="119" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E11" s="119" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F11" s="102" t="s">
+        <v>582</v>
+      </c>
+      <c r="G11" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H11" s="128"/>
+      <c r="I11" s="104"/>
+    </row>
+    <row r="12" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" s="118" t="s">
+        <v>468</v>
+      </c>
+      <c r="C12" s="119" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D12" s="119" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E12" s="119" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F12" s="102" t="s">
+        <v>582</v>
+      </c>
+      <c r="G12" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H12" s="128"/>
+      <c r="I12" s="104"/>
+    </row>
+    <row r="13" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B13" s="118" t="s">
+        <v>863</v>
+      </c>
+      <c r="C13" s="182" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D13" s="119" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E13" s="119" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F13" s="102" t="s">
+        <v>896</v>
+      </c>
+      <c r="G13" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H13" s="128"/>
+      <c r="I13" s="104"/>
+    </row>
+    <row r="14" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" s="118" t="s">
+        <v>863</v>
+      </c>
+      <c r="C14" s="182" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D14" s="119" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E14" s="119" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F14" s="102" t="s">
+        <v>896</v>
+      </c>
+      <c r="G14" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H14" s="128"/>
+      <c r="I14" s="104"/>
+    </row>
+    <row r="15" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" s="118" t="s">
+        <v>863</v>
+      </c>
+      <c r="C15" s="182" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D15" s="119" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E15" s="119" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F15" s="102" t="s">
+        <v>896</v>
+      </c>
+      <c r="G15" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H15" s="128"/>
+      <c r="I15" s="104"/>
+    </row>
+    <row r="16" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B16" s="118" t="s">
+        <v>863</v>
+      </c>
+      <c r="C16" s="182" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D16" s="138" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E16" s="119" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F16" s="102" t="s">
+        <v>897</v>
+      </c>
+      <c r="G16" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H16" s="128"/>
+      <c r="I16" s="104"/>
+    </row>
+    <row r="17" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B17" s="118" t="s">
+        <v>863</v>
+      </c>
+      <c r="C17" s="182" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D17" s="138" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E17" s="119" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F17" s="102" t="s">
+        <v>582</v>
+      </c>
+      <c r="G17" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H17" s="128"/>
+      <c r="I17" s="104"/>
+    </row>
+    <row r="18" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B18" s="118" t="s">
+        <v>863</v>
+      </c>
+      <c r="C18" s="119" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D18" s="119" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E18" s="119" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F18" s="102" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G18" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H18" s="128"/>
+      <c r="I18" s="104"/>
+    </row>
+    <row r="19" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B19" s="118" t="s">
+        <v>863</v>
+      </c>
+      <c r="C19" s="119" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D19" s="119" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E19" s="119" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F19" s="102" t="s">
+        <v>828</v>
+      </c>
+      <c r="G19" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H19" s="128"/>
+      <c r="I19" s="104"/>
+    </row>
+    <row r="20" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B20" s="118" t="s">
+        <v>863</v>
+      </c>
+      <c r="C20" s="119" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D20" s="119" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E20" s="119" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F20" s="102" t="s">
+        <v>721</v>
+      </c>
+      <c r="G20" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H20" s="128"/>
+      <c r="I20" s="104"/>
+    </row>
+    <row r="21" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" s="118" t="s">
+        <v>863</v>
+      </c>
+      <c r="C21" s="119" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D21" s="119" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E21" s="119" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F21" s="102" t="s">
+        <v>893</v>
+      </c>
+      <c r="G21" s="136" t="s">
+        <v>457</v>
+      </c>
+      <c r="H21" s="128" t="s">
+        <v>1537</v>
+      </c>
+      <c r="I21" s="104" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B22" s="118" t="s">
+        <v>863</v>
+      </c>
+      <c r="C22" s="119" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D22" s="119" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E22" s="119" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F22" s="102" t="s">
+        <v>583</v>
+      </c>
+      <c r="G22" s="136" t="s">
+        <v>457</v>
+      </c>
+      <c r="H22" s="128"/>
+      <c r="I22" s="104" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B23" s="118" t="s">
+        <v>863</v>
+      </c>
+      <c r="C23" s="119" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D23" s="119" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E23" s="119" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F23" s="102" t="s">
+        <v>583</v>
+      </c>
+      <c r="G23" s="136" t="s">
+        <v>457</v>
+      </c>
+      <c r="H23" s="128"/>
+      <c r="I23" s="104" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B24" s="118" t="s">
+        <v>863</v>
+      </c>
+      <c r="C24" s="119" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D24" s="138" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E24" s="119" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F24" s="102" t="s">
+        <v>583</v>
+      </c>
+      <c r="G24" s="136" t="s">
+        <v>457</v>
+      </c>
+      <c r="H24" s="128"/>
+      <c r="I24" s="104" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B25" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C25" s="119" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D25" s="119" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E25" s="119" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F25" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H25" s="128"/>
+      <c r="I25" s="104"/>
+    </row>
+    <row r="26" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B26" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C26" s="119" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D26" s="138" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E26" s="119" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F26" s="102" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H26" s="128"/>
+      <c r="I26" s="104"/>
+    </row>
+    <row r="27" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B27" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C27" s="119" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D27" s="119" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E27" s="119" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F27" s="102" t="s">
+        <v>582</v>
+      </c>
+      <c r="G27" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H27" s="128"/>
+      <c r="I27" s="104"/>
+    </row>
+    <row r="28" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B28" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C28" s="119" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D28" s="119" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E28" s="119" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F28" s="102" t="s">
+        <v>582</v>
+      </c>
+      <c r="G28" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H28" s="128"/>
+      <c r="I28" s="104"/>
+    </row>
+    <row r="29" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B29" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C29" s="119" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D29" s="119" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E29" s="119" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F29" s="102" t="s">
+        <v>582</v>
+      </c>
+      <c r="G29" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H29" s="128"/>
+      <c r="I29" s="104"/>
+    </row>
+    <row r="30" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B30" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C30" s="119" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D30" s="119" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E30" s="119" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F30" s="102" t="s">
+        <v>582</v>
+      </c>
+      <c r="G30" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H30" s="128"/>
+      <c r="I30" s="104"/>
+    </row>
+    <row r="31" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B31" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C31" s="119" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D31" s="119" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E31" s="138" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F31" s="102" t="s">
+        <v>582</v>
+      </c>
+      <c r="G31" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H31" s="128"/>
+      <c r="I31" s="104"/>
+    </row>
+    <row r="32" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B32" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C32" s="119" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D32" s="119" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E32" s="119" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F32" s="102" t="s">
+        <v>828</v>
+      </c>
+      <c r="G32" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H32" s="128"/>
+      <c r="I32" s="104"/>
+    </row>
+    <row r="33" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B33" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C33" s="119" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D33" s="119" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E33" s="119" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F33" s="102" t="s">
+        <v>828</v>
+      </c>
+      <c r="G33" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H33" s="128"/>
+      <c r="I33" s="104"/>
+    </row>
+    <row r="34" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B34" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C34" s="119" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D34" s="119" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E34" s="119" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F34" s="102" t="s">
+        <v>828</v>
+      </c>
+      <c r="G34" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H34" s="128"/>
+      <c r="I34" s="104"/>
+    </row>
+    <row r="35" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B35" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C35" s="119" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D35" s="119" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E35" s="119" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F35" s="102" t="s">
+        <v>828</v>
+      </c>
+      <c r="G35" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H35" s="128"/>
+      <c r="I35" s="104"/>
+    </row>
+    <row r="36" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B36" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C36" s="119" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D36" s="119" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E36" s="138" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F36" s="102" t="s">
+        <v>828</v>
+      </c>
+      <c r="G36" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H36" s="128"/>
+      <c r="I36" s="104"/>
+    </row>
+    <row r="37" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B37" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C37" s="119" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D37" s="119" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E37" s="119" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F37" s="102" t="s">
+        <v>897</v>
+      </c>
+      <c r="G37" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H37" s="128"/>
+      <c r="I37" s="104"/>
+    </row>
+    <row r="38" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B38" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C38" s="119" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D38" s="119" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E38" s="119" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F38" s="102" t="s">
+        <v>897</v>
+      </c>
+      <c r="G38" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H38" s="128"/>
+      <c r="I38" s="104"/>
+    </row>
+    <row r="39" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B39" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C39" s="119" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D39" s="119" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E39" s="119" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F39" s="102" t="s">
+        <v>897</v>
+      </c>
+      <c r="G39" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H39" s="128"/>
+      <c r="I39" s="104"/>
+    </row>
+    <row r="40" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B40" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C40" s="119" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D40" s="119" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E40" s="119" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F40" s="102" t="s">
+        <v>897</v>
+      </c>
+      <c r="G40" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H40" s="128"/>
+      <c r="I40" s="104"/>
+    </row>
+    <row r="41" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B41" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C41" s="119" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D41" s="119" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E41" s="138" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F41" s="102" t="s">
+        <v>897</v>
+      </c>
+      <c r="G41" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H41" s="128"/>
+      <c r="I41" s="104"/>
+    </row>
+    <row r="42" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B42" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C42" s="119" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D42" s="119" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E42" s="119" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F42" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H42" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I42" s="104"/>
+    </row>
+    <row r="43" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B43" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C43" s="119" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D43" s="119" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E43" s="119" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F43" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H43" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I43" s="104"/>
+    </row>
+    <row r="44" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B44" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C44" s="119" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D44" s="119" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E44" s="119" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F44" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H44" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I44" s="104"/>
+    </row>
+    <row r="45" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B45" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C45" s="119" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D45" s="138" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E45" s="119" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F45" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H45" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I45" s="104"/>
+    </row>
+    <row r="46" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B46" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C46" s="119" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D46" s="138" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E46" s="119" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F46" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H46" s="128" t="s">
+        <v>1222</v>
+      </c>
+      <c r="I46" s="104"/>
+    </row>
+    <row r="47" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B47" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C47" s="119" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D47" s="138" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E47" s="119" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F47" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H47" s="183" t="s">
+        <v>399</v>
+      </c>
+      <c r="I47" s="104"/>
+    </row>
+    <row r="48" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B48" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C48" s="119" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D48" s="119" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E48" s="119" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F48" s="102" t="s">
+        <v>582</v>
+      </c>
+      <c r="G48" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H48" s="128"/>
+      <c r="I48" s="104"/>
+    </row>
+    <row r="49" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B49" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C49" s="119" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D49" s="119" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E49" s="119" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F49" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H49" s="128"/>
+      <c r="I49" s="104"/>
+    </row>
+    <row r="50" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B50" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C50" s="119" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D50" s="119" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E50" s="119" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F50" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H50" s="128"/>
+      <c r="I50" s="104"/>
+    </row>
+    <row r="51" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B51" s="118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C51" s="119" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D51" s="119" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E51" s="119" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F51" s="102" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G51" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H51" s="128" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I51" s="104"/>
+    </row>
+    <row r="52" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B52" s="120" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C52" s="121" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D52" s="121" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E52" s="106" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F52" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="132" t="s">
+        <v>440</v>
+      </c>
+      <c r="H52" s="130" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" s="123" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B53" s="120" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C53" s="121" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D53" s="121" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E53" s="106" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F53" s="105" t="s">
+        <v>580</v>
+      </c>
+      <c r="G53" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H53" s="130" t="s">
+        <v>901</v>
+      </c>
+      <c r="I53" s="123" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B54" s="120" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C54" s="121" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D54" s="121" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E54" s="106" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F54" s="105" t="s">
+        <v>580</v>
+      </c>
+      <c r="G54" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H54" s="130" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I54" s="123"/>
+    </row>
+    <row r="55" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B55" s="120" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C55" s="121" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" s="121" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E55" s="106" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F55" s="105" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G55" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H55" s="130" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I55" s="123"/>
+    </row>
+    <row r="56" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B56" s="120" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C56" s="121" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" s="121" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E56" s="106" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F56" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="G56" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H56" s="130" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I56" s="123"/>
+    </row>
+    <row r="57" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B57" s="120" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C57" s="121" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D57" s="121" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E57" s="106" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F57" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="132" t="s">
+        <v>451</v>
+      </c>
+      <c r="H57" s="130" t="s">
+        <v>365</v>
+      </c>
+      <c r="I57" s="123" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B58" s="120" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C58" s="121" t="s">
+        <v>205</v>
+      </c>
+      <c r="D58" s="121" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E58" s="106" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H58" s="130" t="s">
+        <v>953</v>
+      </c>
+      <c r="I58" s="123"/>
+    </row>
+    <row r="59" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B59" s="120" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C59" s="121" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="121" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E59" s="106" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F59" s="105" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G59" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H59" s="130" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I59" s="123"/>
+    </row>
+    <row r="60" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B60" s="120" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C60" s="121" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="121" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E60" s="106" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F60" s="105" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G60" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H60" s="130"/>
+      <c r="I60" s="123"/>
+    </row>
+    <row r="61" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B61" s="120" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C61" s="121" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="121" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E61" s="106" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F61" s="105" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G61" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H61" s="130"/>
+      <c r="I61" s="123"/>
+    </row>
+    <row r="62" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B62" s="120" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C62" s="121" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D62" s="121" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E62" s="106" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F62" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="132" t="s">
+        <v>451</v>
+      </c>
+      <c r="H62" s="130" t="s">
+        <v>365</v>
+      </c>
+      <c r="I62" s="123"/>
+    </row>
+    <row r="63" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B63" s="120" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C63" s="121" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" s="121" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="106" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F63" s="105" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G63" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H63" s="130"/>
+      <c r="I63" s="123" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B64" s="120" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C64" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="E64" s="106" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F64" s="105" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G64" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H64" s="130"/>
+      <c r="I64" s="123" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B65" s="120" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C65" s="121" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D65" s="121" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E65" s="106" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F65" s="105" t="s">
+        <v>946</v>
+      </c>
+      <c r="G65" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H65" s="130"/>
+      <c r="I65" s="123"/>
+    </row>
+    <row r="66" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B66" s="120" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C66" s="121" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66" s="121" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E66" s="106" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F66" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H66" s="130"/>
+      <c r="I66" s="123"/>
+    </row>
+    <row r="67" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B67" s="120" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C67" s="121" t="s">
+        <v>206</v>
+      </c>
+      <c r="D67" s="121" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E67" s="106" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F67" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="G67" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H67" s="130" t="s">
+        <v>1357</v>
+      </c>
+      <c r="I67" s="123"/>
+    </row>
+    <row r="68" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B68" s="120" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C68" s="121" t="s">
+        <v>208</v>
+      </c>
+      <c r="D68" s="121" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E68" s="106" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F68" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H68" s="130" t="s">
+        <v>953</v>
+      </c>
+      <c r="I68" s="123"/>
+    </row>
+    <row r="69" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B69" s="120" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C69" s="121" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D69" s="121" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E69" s="106" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F69" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H69" s="130" t="s">
+        <v>428</v>
+      </c>
+      <c r="I69" s="123"/>
+    </row>
+    <row r="70" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B70" s="120" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C70" s="121" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" s="121" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E70" s="106" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F70" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H70" s="130" t="s">
+        <v>1483</v>
+      </c>
+      <c r="I70" s="123"/>
+    </row>
+    <row r="71" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B71" s="120" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C71" s="121" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D71" s="184" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E71" s="106" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F71" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="132" t="s">
+        <v>451</v>
+      </c>
+      <c r="H71" s="130" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I71" s="123"/>
+    </row>
+    <row r="72" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B72" s="120" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C72" s="121" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" s="121" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E72" s="106" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F72" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H72" s="130"/>
+      <c r="I72" s="123"/>
+    </row>
+    <row r="73" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B73" s="120" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C73" s="121" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" s="121" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E73" s="106" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F73" s="105" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G73" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H73" s="130"/>
+      <c r="I73" s="123"/>
+    </row>
+    <row r="74" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B74" s="120" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C74" s="121" t="s">
+        <v>144</v>
+      </c>
+      <c r="D74" s="121" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E74" s="106" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F74" s="105" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G74" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H74" s="130"/>
+      <c r="I74" s="123"/>
+    </row>
+    <row r="75" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B75" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="121" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D75" s="121" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E75" s="106" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F75" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="132" t="s">
+        <v>451</v>
+      </c>
+      <c r="H75" s="130" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I75" s="123"/>
+    </row>
+    <row r="76" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B76" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="121" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D76" s="121" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E76" s="106" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F76" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="132" t="s">
+        <v>451</v>
+      </c>
+      <c r="H76" s="130" t="s">
+        <v>545</v>
+      </c>
+      <c r="I76" s="123"/>
+    </row>
+    <row r="77" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B77" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="121" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D77" s="184" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E77" s="106" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F77" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="132" t="s">
+        <v>451</v>
+      </c>
+      <c r="H77" s="185" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I77" s="123"/>
+    </row>
+    <row r="78" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B78" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="121" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D78" s="184" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E78" s="106" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F78" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="132" t="s">
+        <v>451</v>
+      </c>
+      <c r="H78" s="185" t="s">
+        <v>610</v>
+      </c>
+      <c r="I78" s="123"/>
+    </row>
+    <row r="79" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B79" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="121" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" s="121" t="s">
+        <v>171</v>
+      </c>
+      <c r="E79" s="106" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F79" s="105" t="s">
+        <v>828</v>
+      </c>
+      <c r="G79" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H79" s="130"/>
+      <c r="I79" s="123"/>
+    </row>
+    <row r="80" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B80" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="121" t="s">
+        <v>176</v>
+      </c>
+      <c r="D80" s="121" t="s">
+        <v>176</v>
+      </c>
+      <c r="E80" s="106" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F80" s="105" t="s">
+        <v>828</v>
+      </c>
+      <c r="G80" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H80" s="130"/>
+      <c r="I80" s="123"/>
+    </row>
+    <row r="81" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B81" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="121" t="s">
+        <v>186</v>
+      </c>
+      <c r="D81" s="121" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E81" s="106" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F81" s="105" t="s">
+        <v>828</v>
+      </c>
+      <c r="G81" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H81" s="130"/>
+      <c r="I81" s="123" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B82" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" s="121" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E82" s="106" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F82" s="105" t="s">
+        <v>828</v>
+      </c>
+      <c r="G82" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H82" s="130"/>
+      <c r="I82" s="123" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B83" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="D83" s="121" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E83" s="106" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F83" s="105" t="s">
+        <v>828</v>
+      </c>
+      <c r="G83" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H83" s="130"/>
+      <c r="I83" s="123" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B84" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="121" t="s">
+        <v>193</v>
+      </c>
+      <c r="D84" s="121" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E84" s="106" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F84" s="105" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G84" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H84" s="130"/>
+      <c r="I84" s="123" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B85" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" s="121" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E85" s="106" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F85" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H85" s="130"/>
+      <c r="I85" s="123" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B86" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="121" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" s="121" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E86" s="106" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F86" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="G86" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H86" s="130"/>
+      <c r="I86" s="123" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B87" s="120" t="s">
+        <v>301</v>
+      </c>
+      <c r="C87" s="121" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D87" s="184" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E87" s="106" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F87" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="132" t="s">
+        <v>451</v>
+      </c>
+      <c r="H87" s="130"/>
+      <c r="I87" s="123"/>
+    </row>
+    <row r="88" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B88" s="120" t="s">
+        <v>301</v>
+      </c>
+      <c r="C88" s="121" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D88" s="184" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E88" s="106" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F88" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="132" t="s">
+        <v>451</v>
+      </c>
+      <c r="H88" s="130"/>
+      <c r="I88" s="123"/>
+    </row>
+    <row r="89" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B89" s="120" t="s">
+        <v>301</v>
+      </c>
+      <c r="C89" s="121" t="s">
+        <v>174</v>
+      </c>
+      <c r="D89" s="121" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E89" s="106" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F89" s="105" t="s">
+        <v>721</v>
+      </c>
+      <c r="G89" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H89" s="130"/>
+      <c r="I89" s="123"/>
+    </row>
+    <row r="90" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B90" s="120" t="s">
+        <v>301</v>
+      </c>
+      <c r="C90" s="121" t="s">
+        <v>177</v>
+      </c>
+      <c r="D90" s="121" t="s">
+        <v>177</v>
+      </c>
+      <c r="E90" s="106" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F90" s="105" t="s">
+        <v>721</v>
+      </c>
+      <c r="G90" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H90" s="130"/>
+      <c r="I90" s="123"/>
+    </row>
+    <row r="91" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B91" s="120" t="s">
+        <v>301</v>
+      </c>
+      <c r="C91" s="121" t="s">
+        <v>188</v>
+      </c>
+      <c r="D91" s="121" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E91" s="106" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F91" s="105" t="s">
+        <v>721</v>
+      </c>
+      <c r="G91" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H91" s="130"/>
+      <c r="I91" s="123"/>
+    </row>
+    <row r="92" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B92" s="120" t="s">
+        <v>301</v>
+      </c>
+      <c r="C92" s="121" t="s">
+        <v>163</v>
+      </c>
+      <c r="D92" s="121" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E92" s="106" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F92" s="105" t="s">
+        <v>721</v>
+      </c>
+      <c r="G92" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H92" s="130"/>
+      <c r="I92" s="123"/>
+    </row>
+    <row r="93" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B93" s="120" t="s">
+        <v>301</v>
+      </c>
+      <c r="C93" s="121" t="s">
+        <v>162</v>
+      </c>
+      <c r="D93" s="121" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E93" s="106" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F93" s="105" t="s">
+        <v>721</v>
+      </c>
+      <c r="G93" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H93" s="130"/>
+      <c r="I93" s="123"/>
+    </row>
+    <row r="94" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B94" s="120" t="s">
+        <v>301</v>
+      </c>
+      <c r="C94" s="121" t="s">
+        <v>195</v>
+      </c>
+      <c r="D94" s="121" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E94" s="106" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F94" s="105" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G94" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H94" s="130"/>
+      <c r="I94" s="123"/>
+    </row>
+    <row r="95" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B95" s="120" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="121" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D95" s="184" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E95" s="106" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F95" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="132" t="s">
+        <v>451</v>
+      </c>
+      <c r="H95" s="130"/>
+      <c r="I95" s="123"/>
+    </row>
+    <row r="96" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B96" s="120" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="121" t="s">
+        <v>181</v>
+      </c>
+      <c r="D96" s="121" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E96" s="106" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F96" s="105" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G96" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H96" s="130"/>
+      <c r="I96" s="123"/>
+    </row>
+    <row r="97" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B97" s="120" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="121" t="s">
+        <v>184</v>
+      </c>
+      <c r="D97" s="121" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E97" s="106" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F97" s="105" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G97" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H97" s="130"/>
+      <c r="I97" s="123"/>
+    </row>
+    <row r="98" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B98" s="120" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="121" t="s">
+        <v>189</v>
+      </c>
+      <c r="D98" s="121" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E98" s="106" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F98" s="105" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G98" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H98" s="130"/>
+      <c r="I98" s="123"/>
+    </row>
+    <row r="99" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B99" s="120" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C99" s="121" t="s">
+        <v>232</v>
+      </c>
+      <c r="D99" s="121" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E99" s="106" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F99" s="105" t="s">
+        <v>217</v>
+      </c>
+      <c r="G99" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H99" s="130" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I99" s="124" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B100" s="120" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C100" s="121" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D100" s="121" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E100" s="106" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F100" s="105" t="s">
+        <v>222</v>
+      </c>
+      <c r="G100" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H100" s="130"/>
+      <c r="I100" s="124" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B101" s="120" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C101" s="121" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D101" s="121" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E101" s="106" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F101" s="105" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G101" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H101" s="130"/>
+      <c r="I101" s="124" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B102" s="120" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C102" s="121" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D102" s="121" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E102" s="106" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F102" s="105" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G102" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H102" s="130"/>
+      <c r="I102" s="124" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B103" s="120" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C103" s="121" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D103" s="121" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E103" s="106" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F103" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H103" s="130"/>
+      <c r="I103" s="124" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B104" s="120" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C104" s="121" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D104" s="121" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E104" s="106" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F104" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H104" s="130"/>
+      <c r="I104" s="124" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B105" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C105" s="187" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D105" s="187" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E105" s="188" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F105" s="188" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="189" t="s">
+        <v>451</v>
+      </c>
+      <c r="H105" s="190" t="s">
+        <v>1438</v>
+      </c>
+      <c r="I105" s="191"/>
+    </row>
+    <row r="106" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B106" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C106" s="187" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D106" s="187" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E106" s="188" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F106" s="188" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="189" t="s">
+        <v>451</v>
+      </c>
+      <c r="H106" s="190" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I106" s="191"/>
+    </row>
+    <row r="107" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B107" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C107" s="187" t="s">
+        <v>932</v>
+      </c>
+      <c r="D107" s="187" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E107" s="188" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F107" s="188" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="189" t="s">
+        <v>451</v>
+      </c>
+      <c r="H107" s="190" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I107" s="191"/>
+    </row>
+    <row r="108" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B108" s="186" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C108" s="187" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D108" s="187" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E108" s="188" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F108" s="192" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" s="189" t="s">
+        <v>418</v>
+      </c>
+      <c r="H108" s="193" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I108" s="194"/>
+    </row>
+    <row r="109" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B109" s="186" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C109" s="187" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D109" s="187" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E109" s="188" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F109" s="192" t="s">
+        <v>51</v>
+      </c>
+      <c r="G109" s="189" t="s">
+        <v>418</v>
+      </c>
+      <c r="H109" s="196" t="s">
+        <v>1460</v>
+      </c>
+      <c r="I109" s="194"/>
+    </row>
+    <row r="110" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B110" s="186" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C110" s="187" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D110" s="187" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E110" s="188" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F110" s="192" t="s">
+        <v>51</v>
+      </c>
+      <c r="G110" s="189" t="s">
+        <v>418</v>
+      </c>
+      <c r="H110" s="196" t="s">
+        <v>428</v>
+      </c>
+      <c r="I110" s="194"/>
+    </row>
+    <row r="111" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B111" s="186" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C111" s="187" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D111" s="187" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E111" s="188" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F111" s="192" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G111" s="189" t="s">
+        <v>418</v>
+      </c>
+      <c r="H111" s="196" t="s">
+        <v>430</v>
+      </c>
+      <c r="I111" s="194"/>
+    </row>
+    <row r="112" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B112" s="186" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C112" s="187" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D112" s="187" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E112" s="188" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F112" s="192" t="s">
+        <v>893</v>
+      </c>
+      <c r="G112" s="189" t="s">
+        <v>418</v>
+      </c>
+      <c r="H112" s="196" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I112" s="194"/>
+    </row>
+    <row r="113" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B113" s="186" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C113" s="187" t="s">
+        <v>933</v>
+      </c>
+      <c r="D113" s="187" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E113" s="188" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F113" s="192" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="189" t="s">
+        <v>418</v>
+      </c>
+      <c r="H113" s="193" t="s">
+        <v>654</v>
+      </c>
+      <c r="I113" s="194"/>
+    </row>
+    <row r="114" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B114" s="186" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C114" s="187" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D114" s="187" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E114" s="188" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F114" s="192" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="189" t="s">
+        <v>451</v>
+      </c>
+      <c r="H114" s="196" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I114" s="194"/>
+    </row>
+    <row r="115" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B115" s="186" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C115" s="187" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D115" s="187" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E115" s="188" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F115" s="192" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="189" t="s">
+        <v>451</v>
+      </c>
+      <c r="H115" s="190" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I115" s="194"/>
+    </row>
+    <row r="116" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B116" s="186" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C116" s="187" t="s">
+        <v>934</v>
+      </c>
+      <c r="D116" s="187" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="188" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F116" s="192" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H116" s="195" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I116" s="194"/>
+    </row>
+    <row r="117" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B117" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C117" s="187" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D117" s="187" t="s">
+        <v>290</v>
+      </c>
+      <c r="E117" s="188" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F117" s="192" t="s">
+        <v>721</v>
+      </c>
+      <c r="G117" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H117" s="195" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I117" s="194"/>
+    </row>
+    <row r="118" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B118" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C118" s="187" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D118" s="187" t="s">
+        <v>289</v>
+      </c>
+      <c r="E118" s="188" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F118" s="197" t="s">
+        <v>828</v>
+      </c>
+      <c r="G118" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H118" s="195" t="s">
+        <v>1542</v>
+      </c>
+      <c r="I118" s="194"/>
+    </row>
+    <row r="119" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B119" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C119" s="187" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D119" s="187" t="s">
+        <v>283</v>
+      </c>
+      <c r="E119" s="188" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F119" s="197" t="s">
+        <v>580</v>
+      </c>
+      <c r="G119" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H119" s="195" t="s">
+        <v>1543</v>
+      </c>
+      <c r="I119" s="194"/>
+    </row>
+    <row r="120" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B120" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C120" s="187" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D120" s="187" t="s">
+        <v>396</v>
+      </c>
+      <c r="E120" s="198" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F120" s="192" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G120" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H120" s="195" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I120" s="194"/>
+    </row>
+    <row r="121" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B121" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C121" s="187" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D121" s="187" t="s">
+        <v>349</v>
+      </c>
+      <c r="E121" s="198" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F121" s="192" t="s">
+        <v>721</v>
+      </c>
+      <c r="G121" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H121" s="195" t="s">
+        <v>1545</v>
+      </c>
+      <c r="I121" s="194"/>
+    </row>
+    <row r="122" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B122" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C122" s="187" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D122" s="187" t="s">
+        <v>348</v>
+      </c>
+      <c r="E122" s="198" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F122" s="197" t="s">
+        <v>828</v>
+      </c>
+      <c r="G122" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H122" s="195" t="s">
+        <v>1546</v>
+      </c>
+      <c r="I122" s="194"/>
+    </row>
+    <row r="123" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B123" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C123" s="187" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D123" s="187" t="s">
+        <v>347</v>
+      </c>
+      <c r="E123" s="198" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F123" s="197" t="s">
+        <v>580</v>
+      </c>
+      <c r="G123" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H123" s="195" t="s">
+        <v>1547</v>
+      </c>
+      <c r="I123" s="194"/>
+    </row>
+    <row r="124" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B124" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C124" s="187" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D124" s="187" t="s">
+        <v>396</v>
+      </c>
+      <c r="E124" s="198" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F124" s="192" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G124" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H124" s="195" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I124" s="194"/>
+    </row>
+    <row r="125" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B125" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C125" s="187" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D125" s="187" t="s">
+        <v>274</v>
+      </c>
+      <c r="E125" s="198" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F125" s="192" t="s">
+        <v>721</v>
+      </c>
+      <c r="G125" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H125" s="195" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I125" s="194"/>
+    </row>
+    <row r="126" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B126" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C126" s="187" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D126" s="187" t="s">
+        <v>966</v>
+      </c>
+      <c r="E126" s="198" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F126" s="192" t="s">
+        <v>828</v>
+      </c>
+      <c r="G126" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H126" s="195" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I126" s="194"/>
+    </row>
+    <row r="127" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B127" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C127" s="187" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D127" s="187" t="s">
+        <v>973</v>
+      </c>
+      <c r="E127" s="198" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F127" s="192" t="s">
+        <v>828</v>
+      </c>
+      <c r="G127" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H127" s="195" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I127" s="194"/>
+    </row>
+    <row r="128" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B128" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C128" s="187" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D128" s="187" t="s">
+        <v>396</v>
+      </c>
+      <c r="E128" s="198" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F128" s="192" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G128" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H128" s="195" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I128" s="194"/>
+    </row>
+    <row r="129" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B129" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C129" s="187" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D129" s="187" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E129" s="198" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F129" s="192" t="s">
+        <v>559</v>
+      </c>
+      <c r="G129" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H129" s="195" t="s">
+        <v>747</v>
+      </c>
+      <c r="I129" s="194"/>
+    </row>
+    <row r="130" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B130" s="186" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C130" s="187" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D130" s="187" t="s">
+        <v>972</v>
+      </c>
+      <c r="E130" s="198" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F130" s="197" t="s">
+        <v>580</v>
+      </c>
+      <c r="G130" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H130" s="195" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I130" s="194"/>
+    </row>
+    <row r="131" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B131" s="186" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C131" s="187" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D131" s="187" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="188" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F131" s="192" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="H131" s="195" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I131" s="194" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B132" s="186" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C132" s="187" t="s">
+        <v>130</v>
+      </c>
+      <c r="D132" s="187" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E132" s="188" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F132" s="192" t="s">
+        <v>947</v>
+      </c>
+      <c r="G132" s="189" t="s">
+        <v>418</v>
+      </c>
+      <c r="H132" s="195">
+        <v>900</v>
+      </c>
+      <c r="I132" s="194" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B133" s="186" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C133" s="187" t="s">
+        <v>131</v>
+      </c>
+      <c r="D133" s="187" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E133" s="188" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F133" s="192" t="s">
+        <v>947</v>
+      </c>
+      <c r="G133" s="189" t="s">
+        <v>418</v>
+      </c>
+      <c r="H133" s="195">
+        <v>1200</v>
+      </c>
+      <c r="I133" s="194" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B134" s="186" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C134" s="187" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D134" s="187" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="188" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F134" s="192" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" s="189" t="s">
+        <v>451</v>
+      </c>
+      <c r="H134" s="195" t="s">
+        <v>679</v>
+      </c>
+      <c r="I134" s="194" t="s">
+        <v>1458</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17042,20 +20661,20 @@
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="63.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="82" customWidth="1"/>
-    <col min="7" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="63.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="82" customWidth="1"/>
+    <col min="7" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.5" customWidth="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
@@ -17084,7 +20703,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C4" s="11" t="s">
         <v>0</v>
       </c>
@@ -17101,7 +20720,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C5" s="9" t="s">
         <v>238</v>
       </c>
@@ -17133,7 +20752,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C6" s="9" t="s">
         <v>237</v>
       </c>
@@ -17160,7 +20779,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C7" s="9" t="s">
         <v>239</v>
       </c>
@@ -17181,7 +20800,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="13"/>
       <c r="D8" s="22"/>
       <c r="E8" s="14"/>
@@ -17190,7 +20809,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -17201,7 +20820,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C10" s="9" t="s">
         <v>297</v>
       </c>
@@ -17223,7 +20842,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C11" s="9" t="s">
         <v>246</v>
       </c>
@@ -17240,7 +20859,7 @@
       <c r="H11" s="27"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C12" s="9" t="s">
         <v>244</v>
       </c>
@@ -17257,7 +20876,7 @@
       <c r="H12" s="27"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" s="13"/>
       <c r="D13" s="22"/>
       <c r="E13" s="14"/>
@@ -17266,7 +20885,7 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C14" s="11" t="s">
         <v>20</v>
       </c>
@@ -17277,7 +20896,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C15" s="9" t="s">
         <v>298</v>
       </c>
@@ -17303,7 +20922,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C16" s="9" t="s">
         <v>261</v>
       </c>
@@ -17324,7 +20943,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C17" s="9" t="s">
         <v>260</v>
       </c>
@@ -17345,7 +20964,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="13"/>
       <c r="D18" s="22"/>
       <c r="E18" s="14"/>
@@ -17354,7 +20973,7 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C19" s="11" t="s">
         <v>252</v>
       </c>
@@ -17365,7 +20984,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C20" s="9" t="s">
         <v>253</v>
       </c>
@@ -17391,7 +21010,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C21" s="9" t="s">
         <v>258</v>
       </c>
@@ -17412,7 +21031,7 @@
       </c>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C22" s="9" t="s">
         <v>259</v>
       </c>
@@ -17433,7 +21052,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="13"/>
       <c r="D23" s="22"/>
       <c r="E23" s="14"/>
@@ -17442,7 +21061,7 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C24" s="11" t="s">
         <v>265</v>
       </c>
@@ -17453,7 +21072,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C25" s="9" t="s">
         <v>266</v>
       </c>
@@ -17479,7 +21098,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C26" s="9" t="s">
         <v>272</v>
       </c>
@@ -17500,7 +21119,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C27" s="9" t="s">
         <v>273</v>
       </c>
@@ -17521,7 +21140,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C28" s="13"/>
       <c r="D28" s="22"/>
       <c r="E28" s="14"/>
@@ -17530,7 +21149,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C29" s="11" t="s">
         <v>274</v>
       </c>
@@ -17541,7 +21160,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C30" s="9" t="s">
         <v>275</v>
       </c>
@@ -17567,7 +21186,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C31" s="9" t="s">
         <v>281</v>
       </c>
@@ -17588,7 +21207,7 @@
       </c>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C32" s="9" t="s">
         <v>282</v>
       </c>
@@ -17609,7 +21228,7 @@
       </c>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="13"/>
       <c r="D33" s="22"/>
       <c r="E33" s="14"/>
@@ -17618,7 +21237,7 @@
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C34" s="11" t="s">
         <v>283</v>
       </c>
@@ -17629,7 +21248,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C35" s="9" t="s">
         <v>284</v>
       </c>
@@ -17646,7 +21265,7 @@
       <c r="H35" s="27"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C36" s="9" t="s">
         <v>299</v>
       </c>
@@ -17669,7 +21288,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C37" s="9" t="s">
         <v>300</v>
       </c>
@@ -17692,7 +21311,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C38" s="13"/>
       <c r="D38" s="22"/>
       <c r="E38" s="14"/>
@@ -17701,7 +21320,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C39" s="11" t="s">
         <v>289</v>
       </c>
@@ -17712,7 +21331,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C40" s="9" t="s">
         <v>291</v>
       </c>
@@ -17733,7 +21352,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C41" s="13"/>
       <c r="D41" s="22"/>
       <c r="E41" s="14"/>
@@ -17742,7 +21361,7 @@
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C42" s="11" t="s">
         <v>290</v>
       </c>
@@ -17753,7 +21372,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C43" s="21" t="s">
         <v>292</v>
       </c>
@@ -17770,7 +21389,7 @@
       <c r="H43" s="27"/>
       <c r="I43" s="21"/>
     </row>
-    <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="10"/>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
@@ -17780,7 +21399,7 @@
       <c r="H44" s="15"/>
       <c r="I44" s="22"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C45" s="11" t="s">
         <v>347</v>
       </c>
@@ -17791,7 +21410,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C46" s="9" t="s">
         <v>350</v>
       </c>
@@ -17802,7 +21421,7 @@
       <c r="H46" s="45"/>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C47" s="13"/>
       <c r="D47" s="22"/>
       <c r="E47" s="14"/>
@@ -17811,7 +21430,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C48" s="11" t="s">
         <v>348</v>
       </c>
@@ -17822,7 +21441,7 @@
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C49" s="9" t="s">
         <v>350</v>
       </c>
@@ -17833,7 +21452,7 @@
       <c r="H49" s="45"/>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C50" s="13"/>
       <c r="D50" s="22"/>
       <c r="E50" s="14"/>
@@ -17842,7 +21461,7 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C51" s="11" t="s">
         <v>349</v>
       </c>
@@ -17853,7 +21472,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C52" s="9" t="s">
         <v>350</v>
       </c>
@@ -17864,7 +21483,7 @@
       <c r="H52" s="45"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C53" s="13"/>
       <c r="D53" s="22"/>
       <c r="E53" s="14"/>
@@ -17887,7 +21506,7 @@
       <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17899,7 +21518,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17913,19 +21532,19 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="114" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="114" customWidth="1"/>
-    <col min="5" max="5" width="52.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.28515625" customWidth="1"/>
+    <col min="1" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="114" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="114" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="108" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
         <v>463</v>
       </c>
@@ -17954,7 +21573,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="116" t="s">
         <v>409</v>
       </c>
@@ -17983,7 +21602,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="116" t="s">
         <v>409</v>
       </c>
@@ -18012,7 +21631,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="118" t="s">
         <v>419</v>
       </c>
@@ -18041,7 +21660,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="118" t="s">
         <v>419</v>
       </c>
@@ -18070,7 +21689,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="118" t="s">
         <v>419</v>
       </c>
@@ -18099,7 +21718,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="118" t="s">
         <v>419</v>
       </c>
@@ -18128,7 +21747,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="120" t="s">
         <v>470</v>
       </c>
@@ -18157,7 +21776,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="120" t="s">
         <v>470</v>
       </c>
@@ -18186,7 +21805,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="120" t="s">
         <v>470</v>
       </c>
@@ -18215,7 +21834,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="120" t="s">
         <v>470</v>
       </c>
@@ -18244,7 +21863,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="120" t="s">
         <v>470</v>
       </c>
@@ -18273,7 +21892,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="120" t="s">
         <v>470</v>
       </c>
@@ -18302,7 +21921,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="120" t="s">
         <v>470</v>
       </c>
@@ -18331,7 +21950,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="120" t="s">
         <v>470</v>
       </c>
@@ -18360,7 +21979,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="120" t="s">
         <v>470</v>
       </c>
@@ -18405,19 +22024,19 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="114" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="114" customWidth="1"/>
-    <col min="5" max="5" width="52.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="137" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="133" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.28515625" customWidth="1"/>
+    <col min="1" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="114" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="114" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="137" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="133" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
         <v>463</v>
       </c>
@@ -18446,7 +22065,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="116" t="s">
         <v>409</v>
       </c>
@@ -18475,7 +22094,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="116" t="s">
         <v>409</v>
       </c>
@@ -18504,7 +22123,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="116" t="s">
         <v>409</v>
       </c>
@@ -18533,7 +22152,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="116" t="s">
         <v>409</v>
       </c>
@@ -18562,7 +22181,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="116" t="s">
         <v>409</v>
       </c>
@@ -18591,7 +22210,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="116" t="s">
         <v>409</v>
       </c>
@@ -18618,7 +22237,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="116" t="s">
         <v>409</v>
       </c>
@@ -18645,7 +22264,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="118" t="s">
         <v>419</v>
       </c>
@@ -18672,7 +22291,7 @@
       </c>
       <c r="I9" s="104"/>
     </row>
-    <row r="10" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="118" t="s">
         <v>419</v>
       </c>
@@ -18699,7 +22318,7 @@
       </c>
       <c r="I10" s="103"/>
     </row>
-    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="118" t="s">
         <v>419</v>
       </c>
@@ -18726,7 +22345,7 @@
       </c>
       <c r="I11" s="104"/>
     </row>
-    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="118" t="s">
         <v>419</v>
       </c>
@@ -18753,7 +22372,7 @@
       </c>
       <c r="I12" s="104"/>
     </row>
-    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="118" t="s">
         <v>419</v>
       </c>
@@ -18780,7 +22399,7 @@
       </c>
       <c r="I13" s="104"/>
     </row>
-    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="118" t="s">
         <v>419</v>
       </c>
@@ -18807,7 +22426,7 @@
       </c>
       <c r="I14" s="104"/>
     </row>
-    <row r="15" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="118" t="s">
         <v>419</v>
       </c>
@@ -18832,7 +22451,7 @@
       <c r="H15" s="128"/>
       <c r="I15" s="104"/>
     </row>
-    <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="118" t="s">
         <v>419</v>
       </c>
@@ -18857,7 +22476,7 @@
       <c r="H16" s="128"/>
       <c r="I16" s="104"/>
     </row>
-    <row r="17" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="118" t="s">
         <v>419</v>
       </c>
@@ -18882,7 +22501,7 @@
       <c r="H17" s="128"/>
       <c r="I17" s="104"/>
     </row>
-    <row r="18" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="118" t="s">
         <v>419</v>
       </c>
@@ -18909,7 +22528,7 @@
       </c>
       <c r="I18" s="104"/>
     </row>
-    <row r="19" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="120" t="s">
         <v>470</v>
       </c>
@@ -18938,7 +22557,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="120" t="s">
         <v>470</v>
       </c>
@@ -18967,7 +22586,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="120" t="s">
         <v>470</v>
       </c>
@@ -18996,7 +22615,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="120" t="s">
         <v>470</v>
       </c>
@@ -19025,7 +22644,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="120" t="s">
         <v>470</v>
       </c>
@@ -19054,7 +22673,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="120" t="s">
         <v>470</v>
       </c>
@@ -19079,7 +22698,7 @@
       <c r="H24" s="131"/>
       <c r="I24" s="124"/>
     </row>
-    <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="120" t="s">
         <v>470</v>
       </c>
@@ -19106,7 +22725,7 @@
       </c>
       <c r="I25" s="124"/>
     </row>
-    <row r="26" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="120" t="s">
         <v>470</v>
       </c>
@@ -19133,7 +22752,7 @@
       </c>
       <c r="I26" s="124"/>
     </row>
-    <row r="27" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="120" t="s">
         <v>470</v>
       </c>
@@ -19162,7 +22781,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="120" t="s">
         <v>470</v>
       </c>
@@ -19191,7 +22810,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="120" t="s">
         <v>470</v>
       </c>
@@ -19218,7 +22837,7 @@
       </c>
       <c r="I29" s="124"/>
     </row>
-    <row r="30" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="120" t="s">
         <v>470</v>
       </c>
@@ -19245,7 +22864,7 @@
       </c>
       <c r="I30" s="123"/>
     </row>
-    <row r="31" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="120" t="s">
         <v>470</v>
       </c>
@@ -19272,7 +22891,7 @@
       </c>
       <c r="I31" s="124"/>
     </row>
-    <row r="32" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="120" t="s">
         <v>470</v>
       </c>
@@ -19299,7 +22918,7 @@
       </c>
       <c r="I32" s="124"/>
     </row>
-    <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="120" t="s">
         <v>470</v>
       </c>
@@ -19326,7 +22945,7 @@
       </c>
       <c r="I33" s="123"/>
     </row>
-    <row r="34" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="120" t="s">
         <v>470</v>
       </c>
@@ -19353,7 +22972,7 @@
       </c>
       <c r="I34" s="123"/>
     </row>
-    <row r="35" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="120" t="s">
         <v>470</v>
       </c>
@@ -19380,7 +22999,7 @@
       </c>
       <c r="I35" s="124"/>
     </row>
-    <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="120" t="s">
         <v>470</v>
       </c>
@@ -19407,7 +23026,7 @@
       </c>
       <c r="I36" s="124"/>
     </row>
-    <row r="37" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="120" t="s">
         <v>470</v>
       </c>
@@ -19434,7 +23053,7 @@
       </c>
       <c r="I37" s="123"/>
     </row>
-    <row r="38" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="120" t="s">
         <v>470</v>
       </c>
@@ -19461,7 +23080,7 @@
       </c>
       <c r="I38" s="123"/>
     </row>
-    <row r="39" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="120" t="s">
         <v>470</v>
       </c>
@@ -19488,7 +23107,7 @@
       </c>
       <c r="I39" s="124"/>
     </row>
-    <row r="40" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="120" t="s">
         <v>470</v>
       </c>
@@ -19515,7 +23134,7 @@
       </c>
       <c r="I40" s="124"/>
     </row>
-    <row r="41" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="120" t="s">
         <v>470</v>
       </c>
@@ -19544,7 +23163,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="120" t="s">
         <v>470</v>
       </c>
@@ -19571,7 +23190,7 @@
       </c>
       <c r="I42" s="124"/>
     </row>
-    <row r="43" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="120" t="s">
         <v>470</v>
       </c>
@@ -19598,7 +23217,7 @@
       </c>
       <c r="I43" s="124"/>
     </row>
-    <row r="44" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="120" t="s">
         <v>470</v>
       </c>
@@ -19627,7 +23246,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="120" t="s">
         <v>470</v>
       </c>
@@ -19656,7 +23275,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="120" t="s">
         <v>470</v>
       </c>
@@ -19683,7 +23302,7 @@
       </c>
       <c r="I46" s="124"/>
     </row>
-    <row r="47" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="120" t="s">
         <v>470</v>
       </c>
@@ -19710,7 +23329,7 @@
       </c>
       <c r="I47" s="124"/>
     </row>
-    <row r="48" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="120" t="s">
         <v>470</v>
       </c>
@@ -19751,19 +23370,19 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="114" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="114" customWidth="1"/>
-    <col min="5" max="5" width="52.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="137" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="133" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.28515625" customWidth="1"/>
+    <col min="1" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="114" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="114" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="137" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="133" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
         <v>463</v>
       </c>
@@ -19792,7 +23411,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="116" t="s">
         <v>409</v>
       </c>
@@ -19821,7 +23440,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="116" t="s">
         <v>409</v>
       </c>
@@ -19850,7 +23469,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="116" t="s">
         <v>409</v>
       </c>
@@ -19879,7 +23498,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="116" t="s">
         <v>409</v>
       </c>
@@ -19908,7 +23527,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="116" t="s">
         <v>409</v>
       </c>
@@ -19937,7 +23556,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="116" t="s">
         <v>409</v>
       </c>
@@ -19964,7 +23583,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="116" t="s">
         <v>409</v>
       </c>
@@ -19991,7 +23610,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="118" t="s">
         <v>419</v>
       </c>
@@ -20018,7 +23637,7 @@
       </c>
       <c r="I9" s="104"/>
     </row>
-    <row r="10" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="118" t="s">
         <v>419</v>
       </c>
@@ -20045,7 +23664,7 @@
       </c>
       <c r="I10" s="103"/>
     </row>
-    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="118" t="s">
         <v>419</v>
       </c>
@@ -20072,7 +23691,7 @@
       </c>
       <c r="I11" s="104"/>
     </row>
-    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="118" t="s">
         <v>419</v>
       </c>
@@ -20099,7 +23718,7 @@
       </c>
       <c r="I12" s="104"/>
     </row>
-    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="118" t="s">
         <v>419</v>
       </c>
@@ -20126,7 +23745,7 @@
       </c>
       <c r="I13" s="104"/>
     </row>
-    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="118" t="s">
         <v>419</v>
       </c>
@@ -20153,7 +23772,7 @@
       </c>
       <c r="I14" s="104"/>
     </row>
-    <row r="15" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="118" t="s">
         <v>419</v>
       </c>
@@ -20178,7 +23797,7 @@
       <c r="H15" s="128"/>
       <c r="I15" s="104"/>
     </row>
-    <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="118" t="s">
         <v>419</v>
       </c>
@@ -20203,7 +23822,7 @@
       <c r="H16" s="128"/>
       <c r="I16" s="104"/>
     </row>
-    <row r="17" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="118" t="s">
         <v>419</v>
       </c>
@@ -20228,7 +23847,7 @@
       <c r="H17" s="128"/>
       <c r="I17" s="104"/>
     </row>
-    <row r="18" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="118" t="s">
         <v>419</v>
       </c>
@@ -20255,7 +23874,7 @@
       </c>
       <c r="I18" s="104"/>
     </row>
-    <row r="19" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="120" t="s">
         <v>470</v>
       </c>
@@ -20284,7 +23903,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="120" t="s">
         <v>470</v>
       </c>
@@ -20313,7 +23932,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="120" t="s">
         <v>470</v>
       </c>
@@ -20342,7 +23961,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="120" t="s">
         <v>470</v>
       </c>
@@ -20371,7 +23990,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="120" t="s">
         <v>470</v>
       </c>
@@ -20400,7 +24019,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="120" t="s">
         <v>470</v>
       </c>
@@ -20425,7 +24044,7 @@
       <c r="H24" s="131"/>
       <c r="I24" s="124"/>
     </row>
-    <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="120" t="s">
         <v>470</v>
       </c>
@@ -20452,7 +24071,7 @@
       </c>
       <c r="I25" s="124"/>
     </row>
-    <row r="26" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="120" t="s">
         <v>470</v>
       </c>
@@ -20479,7 +24098,7 @@
       </c>
       <c r="I26" s="124"/>
     </row>
-    <row r="27" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="120" t="s">
         <v>470</v>
       </c>
@@ -20508,7 +24127,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="120" t="s">
         <v>470</v>
       </c>
@@ -20537,7 +24156,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="120" t="s">
         <v>470</v>
       </c>
@@ -20564,7 +24183,7 @@
       </c>
       <c r="I29" s="124"/>
     </row>
-    <row r="30" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="120" t="s">
         <v>470</v>
       </c>
@@ -20591,7 +24210,7 @@
       </c>
       <c r="I30" s="123"/>
     </row>
-    <row r="31" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="120" t="s">
         <v>470</v>
       </c>
@@ -20618,7 +24237,7 @@
       </c>
       <c r="I31" s="124"/>
     </row>
-    <row r="32" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="120" t="s">
         <v>470</v>
       </c>
@@ -20645,7 +24264,7 @@
       </c>
       <c r="I32" s="124"/>
     </row>
-    <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="120" t="s">
         <v>470</v>
       </c>
@@ -20672,7 +24291,7 @@
       </c>
       <c r="I33" s="123"/>
     </row>
-    <row r="34" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="120" t="s">
         <v>470</v>
       </c>
@@ -20699,7 +24318,7 @@
       </c>
       <c r="I34" s="123"/>
     </row>
-    <row r="35" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="120" t="s">
         <v>470</v>
       </c>
@@ -20726,7 +24345,7 @@
       </c>
       <c r="I35" s="124"/>
     </row>
-    <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="120" t="s">
         <v>470</v>
       </c>
@@ -20753,7 +24372,7 @@
       </c>
       <c r="I36" s="124"/>
     </row>
-    <row r="37" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="120" t="s">
         <v>470</v>
       </c>
@@ -20780,7 +24399,7 @@
       </c>
       <c r="I37" s="123"/>
     </row>
-    <row r="38" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="120" t="s">
         <v>470</v>
       </c>
@@ -20807,7 +24426,7 @@
       </c>
       <c r="I38" s="123"/>
     </row>
-    <row r="39" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="120" t="s">
         <v>470</v>
       </c>
@@ -20834,7 +24453,7 @@
       </c>
       <c r="I39" s="124"/>
     </row>
-    <row r="40" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="120" t="s">
         <v>470</v>
       </c>
@@ -20861,7 +24480,7 @@
       </c>
       <c r="I40" s="124"/>
     </row>
-    <row r="41" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="120" t="s">
         <v>470</v>
       </c>
@@ -20890,7 +24509,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="120" t="s">
         <v>470</v>
       </c>
@@ -20917,7 +24536,7 @@
       </c>
       <c r="I42" s="124"/>
     </row>
-    <row r="43" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="120" t="s">
         <v>470</v>
       </c>
@@ -20944,7 +24563,7 @@
       </c>
       <c r="I43" s="124"/>
     </row>
-    <row r="44" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="120" t="s">
         <v>470</v>
       </c>
@@ -20973,7 +24592,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="120" t="s">
         <v>470</v>
       </c>
@@ -21002,7 +24621,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="120" t="s">
         <v>470</v>
       </c>
@@ -21029,7 +24648,7 @@
       </c>
       <c r="I46" s="124"/>
     </row>
-    <row r="47" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="120" t="s">
         <v>470</v>
       </c>
@@ -21056,7 +24675,7 @@
       </c>
       <c r="I47" s="124"/>
     </row>
-    <row r="48" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="120" t="s">
         <v>470</v>
       </c>
@@ -21096,20 +24715,20 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="141" t="s">
         <v>463</v>
       </c>
@@ -21138,7 +24757,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="147" t="s">
         <v>409</v>
       </c>
@@ -21167,7 +24786,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="147" t="s">
         <v>409</v>
       </c>
@@ -21196,7 +24815,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="116" t="s">
         <v>409</v>
       </c>
@@ -21225,7 +24844,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="147" t="s">
         <v>409</v>
       </c>
@@ -21254,7 +24873,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="147" t="s">
         <v>409</v>
       </c>
@@ -21283,7 +24902,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="147" t="s">
         <v>409</v>
       </c>
@@ -21312,7 +24931,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="147" t="s">
         <v>409</v>
       </c>
@@ -21341,7 +24960,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="153" t="s">
         <v>419</v>
       </c>
@@ -21370,7 +24989,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="153" t="s">
         <v>419</v>
       </c>
@@ -21399,7 +25018,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="158" t="s">
         <v>470</v>
       </c>
@@ -21428,7 +25047,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="158" t="s">
         <v>470</v>
       </c>
@@ -21457,7 +25076,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="158" t="s">
         <v>470</v>
       </c>
@@ -21486,7 +25105,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="158" t="s">
         <v>470</v>
       </c>
@@ -21515,7 +25134,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="158" t="s">
         <v>470</v>
       </c>
@@ -21544,7 +25163,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="158" t="s">
         <v>470</v>
       </c>
@@ -21573,7 +25192,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="158" t="s">
         <v>470</v>
       </c>
@@ -21602,7 +25221,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="158" t="s">
         <v>470</v>
       </c>
@@ -21631,7 +25250,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="158" t="s">
         <v>470</v>
       </c>
@@ -21660,7 +25279,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="158" t="s">
         <v>470</v>
       </c>
@@ -21687,7 +25306,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="158" t="s">
         <v>470</v>
       </c>
@@ -21714,7 +25333,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="158" t="s">
         <v>470</v>
       </c>
@@ -21743,7 +25362,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="158" t="s">
         <v>470</v>
       </c>
@@ -21772,7 +25391,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="158" t="s">
         <v>470</v>
       </c>
@@ -21801,7 +25420,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="158" t="s">
         <v>470</v>
       </c>
@@ -21830,7 +25449,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="158" t="s">
         <v>470</v>
       </c>
@@ -21860,7 +25479,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="158" t="s">
         <v>470</v>
       </c>
@@ -21887,7 +25506,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="158" t="s">
         <v>470</v>
       </c>
@@ -21916,7 +25535,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="158" t="s">
         <v>470</v>
       </c>
@@ -21945,7 +25564,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="158" t="s">
         <v>470</v>
       </c>
@@ -21974,7 +25593,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="158" t="s">
         <v>470</v>
       </c>
@@ -22003,7 +25622,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="158" t="s">
         <v>470</v>
       </c>
@@ -22045,20 +25664,20 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
         <v>463</v>
       </c>
@@ -22087,7 +25706,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="116" t="s">
         <v>409</v>
       </c>
@@ -22116,7 +25735,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="116" t="s">
         <v>409</v>
       </c>
@@ -22145,7 +25764,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="118" t="s">
         <v>419</v>
       </c>
@@ -22174,7 +25793,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="120" t="s">
         <v>470</v>
       </c>
@@ -22203,7 +25822,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="120" t="s">
         <v>470</v>
       </c>
@@ -22232,7 +25851,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="120" t="s">
         <v>470</v>
       </c>
@@ -22261,7 +25880,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="120" t="s">
         <v>470</v>
       </c>
@@ -22290,7 +25909,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="120" t="s">
         <v>470</v>
       </c>
@@ -22319,7 +25938,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="120" t="s">
         <v>470</v>
       </c>
@@ -22348,7 +25967,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="120" t="s">
         <v>470</v>
       </c>
@@ -22377,7 +25996,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="158" t="s">
         <v>470</v>
       </c>

--- a/tables/aed_variable_tables.xlsx
+++ b/tables/aed_variable_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthipsey/AED Dropbox/05_Software/AED/aed-science/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED225A2-A175-3641-B37C-784766FA5E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC50BE2-B603-6343-B6FB-AB51AD2F75EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9720" yWindow="500" windowWidth="37140" windowHeight="24540" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5340" uniqueCount="1664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5341" uniqueCount="1688">
   <si>
     <t>Oxygen</t>
   </si>
@@ -5176,34 +5176,106 @@
     <t>pesticide `group` sorbed water column concentration</t>
   </si>
   <si>
-    <t>\mathbf{C_doc}</t>
-  </si>
-  <si>
     <t>\mathbf{C_p}</t>
   </si>
   <si>
     <t>mmol\: /m^3</t>
   </si>
   <si>
-    <t>\mathbf{GPP}</t>
-  </si>
-  <si>
     <t>mmol\: C/m^3 /d</t>
   </si>
   <si>
     <t>required for $C_p$ resuspension, set via `resus_link`</t>
   </si>
   <si>
-    <t>phytoplankton productivity rate</t>
-  </si>
-  <si>
     <t>PST_{group}_sed</t>
   </si>
   <si>
-    <t>pesticide `group` sediment concentration</t>
-  </si>
-  <si>
     <t>mmol\: /m^2</t>
+  </si>
+  <si>
+    <t>\mathbf{SS}_{1:X}</t>
+  </si>
+  <si>
+    <t>NCS_ss{1:X}</t>
+  </si>
+  <si>
+    <t>particulate `group` X water column concentration</t>
+  </si>
+  <si>
+    <t>PST_{group}_pw</t>
+  </si>
+  <si>
+    <t>pesticide `group` sediment particulate concentration</t>
+  </si>
+  <si>
+    <t>pesticide `group` sediment porewater concentration</t>
+  </si>
+  <si>
+    <t>PST_{name}_atm</t>
+  </si>
+  <si>
+    <t>pesticide group volatilisation rate</t>
+  </si>
+  <si>
+    <t>mmol/m^2/d</t>
+  </si>
+  <si>
+    <t>PST_{name}_dsf</t>
+  </si>
+  <si>
+    <t>pesticide group dissolved sediment flux rate</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{gpp}^{PHY}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phytoplankton community gross primary production rate </t>
+  </si>
+  <si>
+    <t>\mathbf{C_{doc}}</t>
+  </si>
+  <si>
+    <t>\mathbf{C_p^{sed}}</t>
+  </si>
+  <si>
+    <t>\mathbf{C_d^{sed}}</t>
+  </si>
+  <si>
+    <t>activated when `pest_sorbent` includes $DOC$</t>
+  </si>
+  <si>
+    <t>activated when `pest_sorbent` includes 1 or more $SS$</t>
+  </si>
+  <si>
+    <t>activated when `simSediment` $=$ true</t>
+  </si>
+  <si>
+    <t>optionally linked  when `pest_sorbent` includes $DOC$</t>
+  </si>
+  <si>
+    <t>optionally linked  when `pest_sorbent` includes $SS$</t>
+  </si>
+  <si>
+    <t>required for $C_d$ biological uptake, set via `gpp_variable`</t>
+  </si>
+  <si>
+    <t>NCS_ss{1:X}_vvel</t>
+  </si>
+  <si>
+    <t>\mathbf{\mathcal{V}}_{ss}</t>
+  </si>
+  <si>
+    <t>sediment particle settling rate</t>
+  </si>
+  <si>
+    <t>-1 - 0</t>
+  </si>
+  <si>
+    <t>required for $C_p$ sedimentation, set when `pest_sorbent` includes $SS$</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{atm}^{\mathbb{PST_{name}}}}</t>
   </si>
 </sst>
 </file>
@@ -17088,7 +17160,7 @@
   <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17150,7 +17222,7 @@
         <v>1652</v>
       </c>
       <c r="F2" s="99" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="G2" s="135" t="s">
         <v>456</v>
@@ -17173,13 +17245,13 @@
         <v>1649</v>
       </c>
       <c r="D3" s="117" t="s">
-        <v>1654</v>
+        <v>1673</v>
       </c>
       <c r="E3" s="99" t="s">
         <v>1653</v>
       </c>
       <c r="F3" s="99" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="G3" s="135" t="s">
         <v>456</v>
@@ -17188,7 +17260,7 @@
         <v>901</v>
       </c>
       <c r="I3" s="100" t="s">
-        <v>1650</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -17202,13 +17274,13 @@
         <v>1649</v>
       </c>
       <c r="D4" s="117" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="E4" s="99" t="s">
         <v>1653</v>
       </c>
       <c r="F4" s="99" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="G4" s="135" t="s">
         <v>456</v>
@@ -17217,7 +17289,7 @@
         <v>901</v>
       </c>
       <c r="I4" s="100" t="s">
-        <v>1650</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -17228,16 +17300,16 @@
         <v>1648</v>
       </c>
       <c r="C5" s="117" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="D5" s="117" t="s">
-        <v>1655</v>
+        <v>1674</v>
       </c>
       <c r="E5" s="99" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="F5" s="99" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="G5" s="135" t="s">
         <v>457</v>
@@ -17246,7 +17318,7 @@
         <v>364</v>
       </c>
       <c r="I5" s="100" t="s">
-        <v>1197</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -17254,28 +17326,28 @@
         <v>409</v>
       </c>
       <c r="B6" s="116" t="s">
-        <v>465</v>
+        <v>1648</v>
       </c>
       <c r="C6" s="117" t="s">
-        <v>770</v>
+        <v>1663</v>
       </c>
       <c r="D6" s="117" t="s">
-        <v>800</v>
+        <v>1675</v>
       </c>
       <c r="E6" s="99" t="s">
-        <v>818</v>
+        <v>1665</v>
       </c>
       <c r="F6" s="99" t="s">
-        <v>580</v>
+        <v>1659</v>
       </c>
       <c r="G6" s="135" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H6" s="126" t="s">
-        <v>427</v>
-      </c>
-      <c r="I6" s="101" t="s">
-        <v>880</v>
+        <v>364</v>
+      </c>
+      <c r="I6" s="100" t="s">
+        <v>1678</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -17286,23 +17358,25 @@
         <v>465</v>
       </c>
       <c r="C7" s="117" t="s">
-        <v>1205</v>
+        <v>770</v>
       </c>
       <c r="D7" s="117" t="s">
-        <v>1657</v>
+        <v>800</v>
       </c>
       <c r="E7" s="99" t="s">
-        <v>1660</v>
+        <v>818</v>
       </c>
       <c r="F7" s="99" t="s">
-        <v>1658</v>
+        <v>580</v>
       </c>
       <c r="G7" s="135" t="s">
         <v>456</v>
       </c>
-      <c r="H7" s="126"/>
+      <c r="H7" s="126" t="s">
+        <v>427</v>
+      </c>
       <c r="I7" s="101" t="s">
-        <v>880</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -17313,123 +17387,133 @@
         <v>465</v>
       </c>
       <c r="C8" s="117" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D8" s="117" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E8" s="99" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F8" s="99" t="s">
+        <v>672</v>
+      </c>
+      <c r="G8" s="135" t="s">
+        <v>456</v>
+      </c>
+      <c r="H8" s="126" t="s">
+        <v>427</v>
+      </c>
+      <c r="I8" s="101" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="116" t="s">
+        <v>409</v>
+      </c>
+      <c r="B9" s="116" t="s">
+        <v>465</v>
+      </c>
+      <c r="C9" s="117" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D9" s="117" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E9" s="99" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F9" s="99" t="s">
+        <v>1656</v>
+      </c>
+      <c r="G9" s="135" t="s">
+        <v>456</v>
+      </c>
+      <c r="H9" s="126"/>
+      <c r="I9" s="101" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="116" t="s">
+        <v>409</v>
+      </c>
+      <c r="B10" s="116" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" s="117" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D10" s="117" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E10" s="99" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F10" s="99" t="s">
+        <v>671</v>
+      </c>
+      <c r="G10" s="135" t="s">
+        <v>456</v>
+      </c>
+      <c r="H10" s="126" t="s">
+        <v>1685</v>
+      </c>
+      <c r="I10" s="101" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="116" t="s">
+        <v>409</v>
+      </c>
+      <c r="B11" s="116" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" s="117" t="s">
         <v>799</v>
       </c>
-      <c r="D8" s="117" t="s">
+      <c r="D11" s="117" t="s">
         <v>1191</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E11" s="99" t="s">
         <v>838</v>
       </c>
-      <c r="F8" s="99" t="s">
+      <c r="F11" s="99" t="s">
         <v>839</v>
       </c>
-      <c r="G8" s="135" t="s">
+      <c r="G11" s="135" t="s">
         <v>457</v>
       </c>
-      <c r="H8" s="126" t="s">
+      <c r="H11" s="126" t="s">
         <v>679</v>
       </c>
-      <c r="I8" s="101" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="118" t="s">
-        <v>419</v>
-      </c>
-      <c r="B9" s="118" t="s">
-        <v>468</v>
-      </c>
-      <c r="C9" s="119" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D9" s="119" t="s">
-        <v>1497</v>
-      </c>
-      <c r="E9" s="119" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F9" s="102" t="s">
-        <v>582</v>
-      </c>
-      <c r="G9" s="136" t="s">
-        <v>456</v>
-      </c>
-      <c r="H9" s="128"/>
-      <c r="I9" s="104"/>
-    </row>
-    <row r="10" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="118" t="s">
-        <v>419</v>
-      </c>
-      <c r="B10" s="118" t="s">
-        <v>468</v>
-      </c>
-      <c r="C10" s="119" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D10" s="119" t="s">
-        <v>1496</v>
-      </c>
-      <c r="E10" s="119" t="s">
-        <v>1247</v>
-      </c>
-      <c r="F10" s="102" t="s">
-        <v>583</v>
-      </c>
-      <c r="G10" s="136" t="s">
-        <v>456</v>
-      </c>
-      <c r="H10" s="128"/>
-      <c r="I10" s="104"/>
-    </row>
-    <row r="11" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="118" t="s">
-        <v>419</v>
-      </c>
-      <c r="B11" s="118" t="s">
-        <v>468</v>
-      </c>
-      <c r="C11" s="119" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D11" s="119" t="s">
-        <v>1495</v>
-      </c>
-      <c r="E11" s="119" t="s">
-        <v>1245</v>
-      </c>
-      <c r="F11" s="102" t="s">
-        <v>582</v>
-      </c>
-      <c r="G11" s="136" t="s">
-        <v>456</v>
-      </c>
-      <c r="H11" s="128"/>
-      <c r="I11" s="104"/>
+      <c r="I11" s="101" t="s">
+        <v>1657</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B12" s="118" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C12" s="119" t="s">
-        <v>1206</v>
+        <v>1666</v>
       </c>
       <c r="D12" s="119" t="s">
-        <v>1538</v>
+        <v>1687</v>
       </c>
       <c r="E12" s="119" t="s">
-        <v>1173</v>
+        <v>1667</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>582</v>
+        <v>1668</v>
       </c>
       <c r="G12" s="136" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H12" s="128"/>
       <c r="I12" s="104"/>
@@ -17439,22 +17523,22 @@
         <v>419</v>
       </c>
       <c r="B13" s="118" t="s">
-        <v>863</v>
-      </c>
-      <c r="C13" s="182" t="s">
-        <v>1207</v>
+        <v>469</v>
+      </c>
+      <c r="C13" s="119" t="s">
+        <v>1669</v>
       </c>
       <c r="D13" s="119" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E13" s="119" t="s">
-        <v>1536</v>
+        <v>1670</v>
       </c>
       <c r="F13" s="102" t="s">
-        <v>896</v>
+        <v>1668</v>
       </c>
       <c r="G13" s="136" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H13" s="128"/>
       <c r="I13" s="104"/>
@@ -17464,23 +17548,13 @@
         <v>419</v>
       </c>
       <c r="B14" s="118" t="s">
-        <v>863</v>
-      </c>
-      <c r="C14" s="182" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D14" s="119" t="s">
-        <v>1493</v>
-      </c>
-      <c r="E14" s="119" t="s">
-        <v>1535</v>
-      </c>
-      <c r="F14" s="102" t="s">
-        <v>896</v>
-      </c>
-      <c r="G14" s="136" t="s">
-        <v>456</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="136"/>
       <c r="H14" s="128"/>
       <c r="I14" s="104"/>
     </row>
@@ -17489,7 +17563,7 @@
         <v>419</v>
       </c>
       <c r="B15" s="118" t="s">
-        <v>863</v>
+        <v>469</v>
       </c>
       <c r="C15" s="182" t="s">
         <v>1209</v>
@@ -17514,7 +17588,7 @@
         <v>419</v>
       </c>
       <c r="B16" s="118" t="s">
-        <v>863</v>
+        <v>469</v>
       </c>
       <c r="C16" s="182" t="s">
         <v>1210</v>
@@ -17539,7 +17613,7 @@
         <v>419</v>
       </c>
       <c r="B17" s="118" t="s">
-        <v>863</v>
+        <v>469</v>
       </c>
       <c r="C17" s="182" t="s">
         <v>1211</v>
@@ -17564,7 +17638,7 @@
         <v>419</v>
       </c>
       <c r="B18" s="118" t="s">
-        <v>863</v>
+        <v>469</v>
       </c>
       <c r="C18" s="119" t="s">
         <v>1202</v>
@@ -17589,7 +17663,7 @@
         <v>419</v>
       </c>
       <c r="B19" s="118" t="s">
-        <v>863</v>
+        <v>469</v>
       </c>
       <c r="C19" s="119" t="s">
         <v>1203</v>
@@ -17614,7 +17688,7 @@
         <v>419</v>
       </c>
       <c r="B20" s="118" t="s">
-        <v>863</v>
+        <v>469</v>
       </c>
       <c r="C20" s="119" t="s">
         <v>1204</v>
@@ -17639,7 +17713,7 @@
         <v>419</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>863</v>
+        <v>469</v>
       </c>
       <c r="C21" s="119" t="s">
         <v>1216</v>
@@ -17668,7 +17742,7 @@
         <v>419</v>
       </c>
       <c r="B22" s="118" t="s">
-        <v>863</v>
+        <v>469</v>
       </c>
       <c r="C22" s="119" t="s">
         <v>1217</v>
@@ -17695,7 +17769,7 @@
         <v>419</v>
       </c>
       <c r="B23" s="118" t="s">
-        <v>863</v>
+        <v>469</v>
       </c>
       <c r="C23" s="119" t="s">
         <v>1218</v>
@@ -17722,7 +17796,7 @@
         <v>419</v>
       </c>
       <c r="B24" s="118" t="s">
-        <v>863</v>
+        <v>469</v>
       </c>
       <c r="C24" s="119" t="s">
         <v>1219</v>
@@ -17749,7 +17823,7 @@
         <v>419</v>
       </c>
       <c r="B25" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C25" s="119" t="s">
         <v>1223</v>
@@ -17774,7 +17848,7 @@
         <v>419</v>
       </c>
       <c r="B26" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C26" s="119" t="s">
         <v>1224</v>
@@ -17799,7 +17873,7 @@
         <v>419</v>
       </c>
       <c r="B27" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C27" s="119" t="s">
         <v>1225</v>
@@ -17824,7 +17898,7 @@
         <v>419</v>
       </c>
       <c r="B28" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C28" s="119" t="s">
         <v>1226</v>
@@ -17849,7 +17923,7 @@
         <v>419</v>
       </c>
       <c r="B29" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C29" s="119" t="s">
         <v>1227</v>
@@ -17874,7 +17948,7 @@
         <v>419</v>
       </c>
       <c r="B30" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C30" s="119" t="s">
         <v>1228</v>
@@ -17899,7 +17973,7 @@
         <v>419</v>
       </c>
       <c r="B31" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C31" s="119" t="s">
         <v>1229</v>
@@ -17924,7 +17998,7 @@
         <v>419</v>
       </c>
       <c r="B32" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C32" s="119" t="s">
         <v>1230</v>
@@ -17949,7 +18023,7 @@
         <v>419</v>
       </c>
       <c r="B33" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C33" s="119" t="s">
         <v>1231</v>
@@ -17974,7 +18048,7 @@
         <v>419</v>
       </c>
       <c r="B34" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C34" s="119" t="s">
         <v>1232</v>
@@ -17999,7 +18073,7 @@
         <v>419</v>
       </c>
       <c r="B35" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C35" s="119" t="s">
         <v>1233</v>
@@ -18024,7 +18098,7 @@
         <v>419</v>
       </c>
       <c r="B36" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C36" s="119" t="s">
         <v>1234</v>
@@ -18049,7 +18123,7 @@
         <v>419</v>
       </c>
       <c r="B37" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C37" s="119" t="s">
         <v>1235</v>
@@ -18074,7 +18148,7 @@
         <v>419</v>
       </c>
       <c r="B38" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C38" s="119" t="s">
         <v>1236</v>
@@ -18099,7 +18173,7 @@
         <v>419</v>
       </c>
       <c r="B39" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C39" s="119" t="s">
         <v>1237</v>
@@ -18124,7 +18198,7 @@
         <v>419</v>
       </c>
       <c r="B40" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C40" s="119" t="s">
         <v>1238</v>
@@ -18149,7 +18223,7 @@
         <v>419</v>
       </c>
       <c r="B41" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C41" s="119" t="s">
         <v>1248</v>
@@ -18174,7 +18248,7 @@
         <v>419</v>
       </c>
       <c r="B42" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C42" s="119" t="s">
         <v>1239</v>
@@ -18201,7 +18275,7 @@
         <v>419</v>
       </c>
       <c r="B43" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C43" s="119" t="s">
         <v>1240</v>
@@ -18228,7 +18302,7 @@
         <v>419</v>
       </c>
       <c r="B44" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C44" s="119" t="s">
         <v>1241</v>
@@ -18255,7 +18329,7 @@
         <v>419</v>
       </c>
       <c r="B45" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C45" s="119" t="s">
         <v>1242</v>
@@ -18282,7 +18356,7 @@
         <v>419</v>
       </c>
       <c r="B46" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C46" s="119" t="s">
         <v>1243</v>
@@ -18309,7 +18383,7 @@
         <v>419</v>
       </c>
       <c r="B47" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C47" s="119" t="s">
         <v>1244</v>
@@ -18336,7 +18410,7 @@
         <v>419</v>
       </c>
       <c r="B48" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C48" s="119" t="s">
         <v>1213</v>
@@ -18361,7 +18435,7 @@
         <v>419</v>
       </c>
       <c r="B49" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C49" s="119" t="s">
         <v>1214</v>
@@ -18386,7 +18460,7 @@
         <v>419</v>
       </c>
       <c r="B50" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C50" s="119" t="s">
         <v>1215</v>
@@ -18411,7 +18485,7 @@
         <v>419</v>
       </c>
       <c r="B51" s="118" t="s">
-        <v>1171</v>
+        <v>469</v>
       </c>
       <c r="C51" s="119" t="s">
         <v>1212</v>

--- a/tables/aed_variable_tables.xlsx
+++ b/tables/aed_variable_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthipsey/AED Dropbox/05_Software/AED/aed-science/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD2/AED Dropbox/03_Software/AED/aed-science/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F11E0D7-E9A1-4E4A-90AC-CB08DEE44BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1755F53-4709-AE46-ACC2-AB4A10CA4CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="500" windowWidth="37140" windowHeight="24540" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9720" yWindow="500" windowWidth="37140" windowHeight="24540" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pelagic" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="aed_phytoplankton" sheetId="11" r:id="rId11"/>
     <sheet name="aed_habitat" sheetId="12" r:id="rId12"/>
     <sheet name="aed_pesticide" sheetId="13" r:id="rId13"/>
+    <sheet name="aed_macroalgae" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4711" uniqueCount="1783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5741" uniqueCount="1945">
   <si>
     <t>Oxygen</t>
   </si>
@@ -5561,6 +5562,492 @@
   </si>
   <si>
     <t>used if $\Theta_{sed}^{pst}$ is 0</t>
+  </si>
+  <si>
+    <t>aed_macroalgae</t>
+  </si>
+  <si>
+    <t>MAG_{group}</t>
+  </si>
+  <si>
+    <t>MAG_{group}_IN</t>
+  </si>
+  <si>
+    <t>MAG_{group}_IP</t>
+  </si>
+  <si>
+    <t>MAG_slg</t>
+  </si>
+  <si>
+    <t>\mathbf{SLG}</t>
+  </si>
+  <si>
+    <t>\mathbf{MIP}</t>
+  </si>
+  <si>
+    <t>\mathbf{MIN}</t>
+  </si>
+  <si>
+    <t>\mathbf{MAG}</t>
+  </si>
+  <si>
+    <t>macroalgae `group` water column concentration</t>
+  </si>
+  <si>
+    <t>internal nitrogen concentration of macroalgae `group`</t>
+  </si>
+  <si>
+    <t>internal phosphorus concentration of macroalgae `group`</t>
+  </si>
+  <si>
+    <t>macroalgae `group` slough water column concentration</t>
+  </si>
+  <si>
+    <t>macroalgae community sedimentation flux</t>
+  </si>
+  <si>
+    <t>macroalgae community resuspension flux</t>
+  </si>
+  <si>
+    <t>gross macroalgae community  primary production rate</t>
+  </si>
+  <si>
+    <t>net macroalgae community production</t>
+  </si>
+  <si>
+    <t>macroalgae community $NO_3$ uptake rate</t>
+  </si>
+  <si>
+    <t>macroalgae community $NH_4$ uptake rate</t>
+  </si>
+  <si>
+    <t>macroalgae community $N_2$ uptake rate</t>
+  </si>
+  <si>
+    <t>macroalgae community $PO_4$ uptake rate</t>
+  </si>
+  <si>
+    <t>macroalgae community $CO_2$ uptake rate</t>
+  </si>
+  <si>
+    <t>total macroalgae nitrogen concentration</t>
+  </si>
+  <si>
+    <t>total macroalgae phosphorus concentration</t>
+  </si>
+  <si>
+    <t>benthic macroalgae primary production</t>
+  </si>
+  <si>
+    <t>benthic macroalgae net production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">macroalgae internal N:P ratio for the $a^{th}$ group, `name` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">macroalgae sedimentation velocity for the $a^{th}$ group, `name` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">macroalgae gross primary production for the $a^{th}$ group, `name` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">macroalgae respiration rate for the $a^{th}$ group, `name` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">macroalgae excretion rate for the $a^{th}$ group, `name` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">macroalgae mortality rate for the $a^{th}$ group, `name` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">macroalgae sedimentation rate for the $a^{th}$ group, `name` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">macroalgae growth limitation function for the $a^{th}$ group, `name` </t>
+  </si>
+  <si>
+    <t>gross macroalgae $P:R$ ratio</t>
+  </si>
+  <si>
+    <t>net macroalgae P:R ratio</t>
+  </si>
+  <si>
+    <t>name of macroalgae group</t>
+  </si>
+  <si>
+    <t>user specified name of chosen macroalgae group, $a$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initial concentration of macroalgae </t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum concentration of macroalgae </t>
+  </si>
+  <si>
+    <t>macroalgae group maximum growth rate at $20^{\circ}C$</t>
+  </si>
+  <si>
+    <t>macroalgae respiration/metabolic loss rate at $20^{\circ}C$</t>
+  </si>
+  <si>
+    <t>number of macroalgae groups/species</t>
+  </si>
+  <si>
+    <t>macroalgae parameter database file</t>
+  </si>
+  <si>
+    <t>select `group` using index from `aed_MAGto_pars` database</t>
+  </si>
+  <si>
+    <t>required for MAG resuspension, set via `resus_link`</t>
+  </si>
+  <si>
+    <t>MAG_set</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{set}^{\mathbb{MAG}}}</t>
+  </si>
+  <si>
+    <t>MAG_res</t>
+  </si>
+  <si>
+    <t>\mathbf{\hat{f}_{res}^{\mathbb{MAG}}}</t>
+  </si>
+  <si>
+    <t>MAG_gpp</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{gpp}^{\mathbb{MAG}}}</t>
+  </si>
+  <si>
+    <t>MAG_ncp</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{gpp}^{\mathbb{MAG}}} - \mathbf{f_{rsp}^{\mathbb{MAG}}}</t>
+  </si>
+  <si>
+    <t>MAG_upt_no3</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{upt_{NO3}}^{\mathbb{MAG}}}</t>
+  </si>
+  <si>
+    <t>MAG_upt_nh4</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{upt_{NH4}}^{\mathbb{MAG}}}</t>
+  </si>
+  <si>
+    <t>MAG_upt_n2</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{upt_{N2}}^{\mathbb{MAG}}}</t>
+  </si>
+  <si>
+    <t>MAG_upt_po4</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{upt_{PO4}}^{\mathbb{MAG}}}</t>
+  </si>
+  <si>
+    <t>MAG_upt_dic</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{upt_{DIC}}^{\mathbb{MAG}}}</t>
+  </si>
+  <si>
+    <t>MAG_tchla</t>
+  </si>
+  <si>
+    <t>total chloroMAGll-a concentration</t>
+  </si>
+  <si>
+    <t>MAG_in</t>
+  </si>
+  <si>
+    <t>MAG_ip</t>
+  </si>
+  <si>
+    <t>MAG_mpb_ben</t>
+  </si>
+  <si>
+    <t>microMAGtobenthos concentration</t>
+  </si>
+  <si>
+    <t>MAG_mpb_gpp</t>
+  </si>
+  <si>
+    <t>MAG_mpb_rsp</t>
+  </si>
+  <si>
+    <t>MAG_mpb_swi</t>
+  </si>
+  <si>
+    <t>microMAGtobenthos vertical exchange</t>
+  </si>
+  <si>
+    <t>MAG_{name}_NtoP</t>
+  </si>
+  <si>
+    <t>\mathbf{\chi_{N:P}^{MAG}}</t>
+  </si>
+  <si>
+    <t>MAG_{name}_vvel</t>
+  </si>
+  <si>
+    <t>\mathbf{\omega_{p}^{MAG_a}}</t>
+  </si>
+  <si>
+    <t>MAG_{name}_gpp_c</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{gpp}^{MAG_a}}</t>
+  </si>
+  <si>
+    <t>MAG_{name}_rsp_c</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{rsp}^{MAG_a}}</t>
+  </si>
+  <si>
+    <t>MAG_{name}_exc_c</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{exc}^{MAG_a}}</t>
+  </si>
+  <si>
+    <t>MAG_{name}_mor_c</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{mor}^{MAG_a}}</t>
+  </si>
+  <si>
+    <t>MAG_{name}_set_c</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{set}^{MAG_a}}</t>
+  </si>
+  <si>
+    <t>MAG_{name}_gpp_n</t>
+  </si>
+  <si>
+    <t>MAG_{name}_rsp_n</t>
+  </si>
+  <si>
+    <t>MAG_{name}_exc_n</t>
+  </si>
+  <si>
+    <t>MAG_{name}_mor_n</t>
+  </si>
+  <si>
+    <t>MAG_{name}_set_n</t>
+  </si>
+  <si>
+    <t>MAG_{name}_gpp_p</t>
+  </si>
+  <si>
+    <t>MAG_{name}_rsp_p</t>
+  </si>
+  <si>
+    <t>MAG_{name}_exc_p</t>
+  </si>
+  <si>
+    <t>MAG_{name}_mor_p</t>
+  </si>
+  <si>
+    <t>MAG_{name}_set_p</t>
+  </si>
+  <si>
+    <t>MAG_{name}_fI</t>
+  </si>
+  <si>
+    <t>\mathbf{\Phi_{light}^{MAG_{a}}}</t>
+  </si>
+  <si>
+    <t>MAG_{name}_fNit</t>
+  </si>
+  <si>
+    <t>\mathbf{\Phi_{N}^{MAG_{a}}}</t>
+  </si>
+  <si>
+    <t>MAG_{name}_fPho</t>
+  </si>
+  <si>
+    <t>\mathbf{\Phi_{P}^{MAG_{a}}}</t>
+  </si>
+  <si>
+    <t>MAG_{name}_fSil</t>
+  </si>
+  <si>
+    <t>\mathbf{\Phi_{Si}^{MAG_{a}}}</t>
+  </si>
+  <si>
+    <t>MAG_{name}_fT</t>
+  </si>
+  <si>
+    <t>\mathbf{\Phi_{tem}^{MAG_{a}}}</t>
+  </si>
+  <si>
+    <t>MAG_{name}_fSal</t>
+  </si>
+  <si>
+    <t>\mathbf{\Phi_{sal}^{MAG_{a}}}</t>
+  </si>
+  <si>
+    <t>MAG_tMAG</t>
+  </si>
+  <si>
+    <t>\mathbf{TMAG}</t>
+  </si>
+  <si>
+    <t>total macroalgae community, $\mathbb{MAG}$ concentration</t>
+  </si>
+  <si>
+    <t>MAG_ppr</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{gpp}^{\mathbb{MAG}}} / \mathbf{f_{rsp}^{\mathbb{MAG}}}</t>
+  </si>
+  <si>
+    <t>MAG_npr</t>
+  </si>
+  <si>
+    <t>\mathbf{f_{ncp}^{\mathbb{MAG}}} / \mathbf{f_{rsp}^{\mathbb{MAG}}}</t>
+  </si>
+  <si>
+    <t>MAG_par</t>
+  </si>
+  <si>
+    <t>MAG |_{t=0}</t>
+  </si>
+  <si>
+    <t>MAG_0</t>
+  </si>
+  <si>
+    <t>\chi_{C:chla}^{MAG}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon to chloroMAGll ratio </t>
+  </si>
+  <si>
+    <t>R_{growth}^{MAG}</t>
+  </si>
+  <si>
+    <t>\Theta_{tem}^{MAG}</t>
+  </si>
+  <si>
+    <t>\theta_{growth}^{MAG}</t>
+  </si>
+  <si>
+    <t>\Theta_{lgt}^{MAG}</t>
+  </si>
+  <si>
+    <t>used if $\Theta_{lgt}^{MAG}$ is 0</t>
+  </si>
+  <si>
+    <t>used if $\Theta_{lgt}^{MAG}$ is 1</t>
+  </si>
+  <si>
+    <t>KeMAG</t>
+  </si>
+  <si>
+    <t>R_{resp}^{MAG}</t>
+  </si>
+  <si>
+    <t>\theta_{resp}^{MAG}</t>
+  </si>
+  <si>
+    <t>\Theta_{sal}^{MAG}</t>
+  </si>
+  <si>
+    <t>\Theta_{din}^{MAG}</t>
+  </si>
+  <si>
+    <t>\Theta_{don}^{MAG}</t>
+  </si>
+  <si>
+    <t>\Theta_{n2}^{MAG}</t>
+  </si>
+  <si>
+    <t>\Theta_{in}^{MAG}</t>
+  </si>
+  <si>
+    <t>\chi_{ncon}^{MAG}</t>
+  </si>
+  <si>
+    <t>\chi_{nmin}^{MAG}</t>
+  </si>
+  <si>
+    <t>\chi_{nmax}^{MAG}</t>
+  </si>
+  <si>
+    <t>R_{nuptake}^{MAG}</t>
+  </si>
+  <si>
+    <t>R_{nfix}^{MAG}</t>
+  </si>
+  <si>
+    <t>\Theta_{dip}^{MAG}</t>
+  </si>
+  <si>
+    <t>\Theta_{ip}^{MAG}</t>
+  </si>
+  <si>
+    <t>\chi_{pcon}^{MAG}</t>
+  </si>
+  <si>
+    <t>\chi_{pmin}^{MAG}</t>
+  </si>
+  <si>
+    <t>\chi_{pmax}^{MAG}</t>
+  </si>
+  <si>
+    <t>R_{puptake}^{MAG}</t>
+  </si>
+  <si>
+    <t>\omega_{MAG}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">used if $\Theta_{set}^{MAG}$ is 1 or 2 </t>
+  </si>
+  <si>
+    <t>\mathbb{MAG}</t>
+  </si>
+  <si>
+    <t>\Theta_{set}^{MAG}</t>
+  </si>
+  <si>
+    <t>option to set the method of settling for $MAG$ group $a$</t>
+  </si>
+  <si>
+    <t>\Theta_{mpb}^{MAG}</t>
+  </si>
+  <si>
+    <t>\Theta_{resus}^{MAG}</t>
+  </si>
+  <si>
+    <t>fraction to set the amount of resuspension for $MAG$ group $a$</t>
+  </si>
+  <si>
+    <t>Slough model</t>
+  </si>
+  <si>
+    <t>`aed_malgae_pars.csv`</t>
+  </si>
+  <si>
+    <t>num_malgae</t>
+  </si>
+  <si>
+    <t>N_{m}^{MAG}</t>
+  </si>
+  <si>
+    <t>the_malgae</t>
+  </si>
+  <si>
+    <t>set of chosen group ID's within the database file, where $m \in \mathbb{MAG}$</t>
+  </si>
+  <si>
+    <t>fix</t>
   </si>
 </sst>
 </file>
@@ -6466,7 +6953,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6754,7 +7241,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12571,7 +13058,7 @@
   <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17431,7 +17918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A0A253-44C3-EB4A-8FB1-CD9BD45339BC}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="133" zoomScaleNormal="158" workbookViewId="0">
+    <sheetView topLeftCell="B15" zoomScale="133" zoomScaleNormal="158" workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
@@ -18858,6 +19345,3555 @@
         <v>679</v>
       </c>
       <c r="I55" s="182" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EEDB39-1970-D247-AA19-96F23255FBDA}">
+  <dimension ref="A1:I133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="127" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1" s="105" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1" s="105" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1" s="112" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1" s="88" t="s">
+        <v>411</v>
+      </c>
+      <c r="F1" s="88" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="124" t="s">
+        <v>414</v>
+      </c>
+      <c r="H1" s="115" t="s">
+        <v>413</v>
+      </c>
+      <c r="I1" s="89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C2" s="107" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D2" s="107" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>1792</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>580</v>
+      </c>
+      <c r="G2" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="H2" s="116" t="s">
+        <v>901</v>
+      </c>
+      <c r="I2" s="91" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B3" s="106" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D3" s="107" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E3" s="90" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F3" s="90" t="s">
+        <v>828</v>
+      </c>
+      <c r="G3" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="H3" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="I3" s="91" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D4" s="107" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F4" s="90" t="s">
+        <v>721</v>
+      </c>
+      <c r="G4" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="H4" s="116" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I4" s="91" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" s="106" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C5" s="158" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F5" s="90" t="s">
+        <v>580</v>
+      </c>
+      <c r="G5" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="H5" s="116" t="s">
+        <v>364</v>
+      </c>
+      <c r="I5" s="91" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B6" s="106" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>415</v>
+      </c>
+      <c r="D6" s="107" t="s">
+        <v>474</v>
+      </c>
+      <c r="E6" s="90" t="s">
+        <v>563</v>
+      </c>
+      <c r="F6" s="90" t="s">
+        <v>580</v>
+      </c>
+      <c r="G6" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="H6" s="157"/>
+      <c r="I6" s="92" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7" s="106" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>790</v>
+      </c>
+      <c r="D7" s="158" t="s">
+        <v>810</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>829</v>
+      </c>
+      <c r="F7" s="90" t="s">
+        <v>828</v>
+      </c>
+      <c r="G7" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="H7" s="157"/>
+      <c r="I7" s="92" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8" s="106" t="s">
+        <v>465</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>661</v>
+      </c>
+      <c r="D8" s="158" t="s">
+        <v>676</v>
+      </c>
+      <c r="E8" s="90" t="s">
+        <v>668</v>
+      </c>
+      <c r="F8" s="90" t="s">
+        <v>721</v>
+      </c>
+      <c r="G8" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="H8" s="157"/>
+      <c r="I8" s="92" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B9" s="106" t="s">
+        <v>465</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>452</v>
+      </c>
+      <c r="D9" s="107" t="s">
+        <v>477</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>560</v>
+      </c>
+      <c r="F9" s="90" t="s">
+        <v>559</v>
+      </c>
+      <c r="G9" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="H9" s="157" t="s">
+        <v>508</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B10" s="106" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>791</v>
+      </c>
+      <c r="D10" s="158" t="s">
+        <v>811</v>
+      </c>
+      <c r="E10" s="90" t="s">
+        <v>830</v>
+      </c>
+      <c r="F10" s="90" t="s">
+        <v>828</v>
+      </c>
+      <c r="G10" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="H10" s="157"/>
+      <c r="I10" s="92" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B11" s="106" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>770</v>
+      </c>
+      <c r="D11" s="107" t="s">
+        <v>800</v>
+      </c>
+      <c r="E11" s="90" t="s">
+        <v>818</v>
+      </c>
+      <c r="F11" s="90" t="s">
+        <v>580</v>
+      </c>
+      <c r="G11" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="H11" s="116" t="s">
+        <v>427</v>
+      </c>
+      <c r="I11" s="92" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B12" s="106" t="s">
+        <v>465</v>
+      </c>
+      <c r="C12" s="107" t="s">
+        <v>771</v>
+      </c>
+      <c r="D12" s="107" t="s">
+        <v>801</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>819</v>
+      </c>
+      <c r="F12" s="90" t="s">
+        <v>580</v>
+      </c>
+      <c r="G12" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="H12" s="116"/>
+      <c r="I12" s="92" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B13" s="106" t="s">
+        <v>465</v>
+      </c>
+      <c r="C13" s="107" t="s">
+        <v>772</v>
+      </c>
+      <c r="D13" s="107" t="s">
+        <v>802</v>
+      </c>
+      <c r="E13" s="90" t="s">
+        <v>820</v>
+      </c>
+      <c r="F13" s="90" t="s">
+        <v>828</v>
+      </c>
+      <c r="G13" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="H13" s="116"/>
+      <c r="I13" s="92" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B14" s="106" t="s">
+        <v>465</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>773</v>
+      </c>
+      <c r="D14" s="107" t="s">
+        <v>803</v>
+      </c>
+      <c r="E14" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="F14" s="90" t="s">
+        <v>828</v>
+      </c>
+      <c r="G14" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="H14" s="116"/>
+      <c r="I14" s="92" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B15" s="106" t="s">
+        <v>465</v>
+      </c>
+      <c r="C15" s="107" t="s">
+        <v>774</v>
+      </c>
+      <c r="D15" s="107" t="s">
+        <v>804</v>
+      </c>
+      <c r="E15" s="90" t="s">
+        <v>822</v>
+      </c>
+      <c r="F15" s="90" t="s">
+        <v>721</v>
+      </c>
+      <c r="G15" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="H15" s="116"/>
+      <c r="I15" s="92" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B16" s="106" t="s">
+        <v>465</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>775</v>
+      </c>
+      <c r="D16" s="107" t="s">
+        <v>805</v>
+      </c>
+      <c r="E16" s="90" t="s">
+        <v>823</v>
+      </c>
+      <c r="F16" s="90" t="s">
+        <v>721</v>
+      </c>
+      <c r="G16" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="H16" s="116"/>
+      <c r="I16" s="92" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B17" s="106" t="s">
+        <v>465</v>
+      </c>
+      <c r="C17" s="107" t="s">
+        <v>767</v>
+      </c>
+      <c r="D17" s="107" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E17" s="90" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F17" s="90" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G17" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="H17" s="116"/>
+      <c r="I17" s="92" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B18" s="106" t="s">
+        <v>465</v>
+      </c>
+      <c r="C18" s="107" t="s">
+        <v>799</v>
+      </c>
+      <c r="D18" s="107" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E18" s="90" t="s">
+        <v>838</v>
+      </c>
+      <c r="F18" s="90" t="s">
+        <v>839</v>
+      </c>
+      <c r="G18" s="125" t="s">
+        <v>457</v>
+      </c>
+      <c r="H18" s="116" t="s">
+        <v>679</v>
+      </c>
+      <c r="I18" s="92" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B19" s="108" t="s">
+        <v>468</v>
+      </c>
+      <c r="C19" s="109" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D19" s="109" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E19" s="109" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F19" s="93" t="s">
+        <v>582</v>
+      </c>
+      <c r="G19" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H19" s="118"/>
+      <c r="I19" s="95"/>
+    </row>
+    <row r="20" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B20" s="108" t="s">
+        <v>468</v>
+      </c>
+      <c r="C20" s="109" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D20" s="109" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E20" s="109" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F20" s="93" t="s">
+        <v>583</v>
+      </c>
+      <c r="G20" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H20" s="118"/>
+      <c r="I20" s="95"/>
+    </row>
+    <row r="21" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" s="108" t="s">
+        <v>468</v>
+      </c>
+      <c r="C21" s="109" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D21" s="109" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E21" s="109" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F21" s="93" t="s">
+        <v>582</v>
+      </c>
+      <c r="G21" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H21" s="118"/>
+      <c r="I21" s="95"/>
+    </row>
+    <row r="22" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B22" s="108" t="s">
+        <v>468</v>
+      </c>
+      <c r="C22" s="109" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D22" s="109" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E22" s="109" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F22" s="93" t="s">
+        <v>582</v>
+      </c>
+      <c r="G22" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H22" s="118"/>
+      <c r="I22" s="95"/>
+    </row>
+    <row r="23" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B23" s="108" t="s">
+        <v>863</v>
+      </c>
+      <c r="C23" s="170" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D23" s="109" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E23" s="109" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F23" s="93" t="s">
+        <v>896</v>
+      </c>
+      <c r="G23" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H23" s="118"/>
+      <c r="I23" s="95"/>
+    </row>
+    <row r="24" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B24" s="108" t="s">
+        <v>863</v>
+      </c>
+      <c r="C24" s="170" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D24" s="109" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E24" s="109" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F24" s="93" t="s">
+        <v>896</v>
+      </c>
+      <c r="G24" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H24" s="118"/>
+      <c r="I24" s="95"/>
+    </row>
+    <row r="25" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B25" s="108" t="s">
+        <v>863</v>
+      </c>
+      <c r="C25" s="170" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D25" s="109" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E25" s="109" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F25" s="93" t="s">
+        <v>896</v>
+      </c>
+      <c r="G25" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H25" s="118"/>
+      <c r="I25" s="95"/>
+    </row>
+    <row r="26" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B26" s="108" t="s">
+        <v>863</v>
+      </c>
+      <c r="C26" s="170" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D26" s="128" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E26" s="109" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F26" s="93" t="s">
+        <v>897</v>
+      </c>
+      <c r="G26" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H26" s="118"/>
+      <c r="I26" s="95"/>
+    </row>
+    <row r="27" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B27" s="108" t="s">
+        <v>863</v>
+      </c>
+      <c r="C27" s="170" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D27" s="128" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E27" s="109" t="s">
+        <v>1804</v>
+      </c>
+      <c r="F27" s="93" t="s">
+        <v>582</v>
+      </c>
+      <c r="G27" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H27" s="118"/>
+      <c r="I27" s="95"/>
+    </row>
+    <row r="28" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B28" s="108" t="s">
+        <v>863</v>
+      </c>
+      <c r="C28" s="109" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D28" s="109" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E28" s="109" t="s">
+        <v>1848</v>
+      </c>
+      <c r="F28" s="93" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G28" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H28" s="118"/>
+      <c r="I28" s="95"/>
+    </row>
+    <row r="29" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B29" s="108" t="s">
+        <v>863</v>
+      </c>
+      <c r="C29" s="109" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D29" s="109" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E29" s="109" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F29" s="93" t="s">
+        <v>828</v>
+      </c>
+      <c r="G29" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H29" s="118"/>
+      <c r="I29" s="95"/>
+    </row>
+    <row r="30" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B30" s="108" t="s">
+        <v>863</v>
+      </c>
+      <c r="C30" s="109" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D30" s="109" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E30" s="109" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F30" s="93" t="s">
+        <v>721</v>
+      </c>
+      <c r="G30" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H30" s="118"/>
+      <c r="I30" s="95"/>
+    </row>
+    <row r="31" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B31" s="108" t="s">
+        <v>863</v>
+      </c>
+      <c r="C31" s="109" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D31" s="109" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E31" s="109" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F31" s="93" t="s">
+        <v>893</v>
+      </c>
+      <c r="G31" s="126" t="s">
+        <v>457</v>
+      </c>
+      <c r="H31" s="118" t="s">
+        <v>1537</v>
+      </c>
+      <c r="I31" s="95" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B32" s="108" t="s">
+        <v>863</v>
+      </c>
+      <c r="C32" s="109" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D32" s="109" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E32" s="109" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F32" s="93" t="s">
+        <v>583</v>
+      </c>
+      <c r="G32" s="126" t="s">
+        <v>457</v>
+      </c>
+      <c r="H32" s="118"/>
+      <c r="I32" s="95" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B33" s="108" t="s">
+        <v>863</v>
+      </c>
+      <c r="C33" s="109" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D33" s="109" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E33" s="109" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F33" s="93" t="s">
+        <v>583</v>
+      </c>
+      <c r="G33" s="126" t="s">
+        <v>457</v>
+      </c>
+      <c r="H33" s="118"/>
+      <c r="I33" s="95" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B34" s="108" t="s">
+        <v>863</v>
+      </c>
+      <c r="C34" s="109" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D34" s="128" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E34" s="109" t="s">
+        <v>1856</v>
+      </c>
+      <c r="F34" s="93" t="s">
+        <v>583</v>
+      </c>
+      <c r="G34" s="126" t="s">
+        <v>457</v>
+      </c>
+      <c r="H34" s="118"/>
+      <c r="I34" s="95" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B35" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C35" s="109" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D35" s="109" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E35" s="109" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F35" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H35" s="118"/>
+      <c r="I35" s="95"/>
+    </row>
+    <row r="36" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B36" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C36" s="109" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D36" s="128" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E36" s="109" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F36" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="G36" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H36" s="118"/>
+      <c r="I36" s="95"/>
+    </row>
+    <row r="37" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B37" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C37" s="109" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D37" s="109" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E37" s="109" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F37" s="93" t="s">
+        <v>582</v>
+      </c>
+      <c r="G37" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H37" s="118"/>
+      <c r="I37" s="95"/>
+    </row>
+    <row r="38" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B38" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C38" s="109" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D38" s="109" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E38" s="109" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F38" s="93" t="s">
+        <v>582</v>
+      </c>
+      <c r="G38" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H38" s="118"/>
+      <c r="I38" s="95"/>
+    </row>
+    <row r="39" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B39" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C39" s="109" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D39" s="109" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E39" s="109" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F39" s="93" t="s">
+        <v>582</v>
+      </c>
+      <c r="G39" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H39" s="118"/>
+      <c r="I39" s="95"/>
+    </row>
+    <row r="40" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B40" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C40" s="109" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D40" s="109" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E40" s="109" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F40" s="93" t="s">
+        <v>582</v>
+      </c>
+      <c r="G40" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H40" s="118"/>
+      <c r="I40" s="95"/>
+    </row>
+    <row r="41" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B41" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C41" s="109" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D41" s="109" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E41" s="128" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F41" s="93" t="s">
+        <v>582</v>
+      </c>
+      <c r="G41" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H41" s="118"/>
+      <c r="I41" s="95"/>
+    </row>
+    <row r="42" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B42" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C42" s="109" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D42" s="109" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E42" s="109" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F42" s="93" t="s">
+        <v>828</v>
+      </c>
+      <c r="G42" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H42" s="118"/>
+      <c r="I42" s="95"/>
+    </row>
+    <row r="43" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B43" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C43" s="109" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D43" s="109" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E43" s="109" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F43" s="93" t="s">
+        <v>828</v>
+      </c>
+      <c r="G43" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H43" s="118"/>
+      <c r="I43" s="95"/>
+    </row>
+    <row r="44" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B44" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C44" s="109" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D44" s="109" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E44" s="109" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F44" s="93" t="s">
+        <v>828</v>
+      </c>
+      <c r="G44" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H44" s="118"/>
+      <c r="I44" s="95"/>
+    </row>
+    <row r="45" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B45" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C45" s="109" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D45" s="109" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E45" s="109" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F45" s="93" t="s">
+        <v>828</v>
+      </c>
+      <c r="G45" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H45" s="118"/>
+      <c r="I45" s="95"/>
+    </row>
+    <row r="46" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B46" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C46" s="109" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D46" s="109" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E46" s="128" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F46" s="93" t="s">
+        <v>828</v>
+      </c>
+      <c r="G46" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H46" s="118"/>
+      <c r="I46" s="95"/>
+    </row>
+    <row r="47" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B47" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C47" s="109" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D47" s="109" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E47" s="109" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F47" s="93" t="s">
+        <v>897</v>
+      </c>
+      <c r="G47" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H47" s="118"/>
+      <c r="I47" s="95"/>
+    </row>
+    <row r="48" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B48" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C48" s="109" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D48" s="109" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E48" s="109" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F48" s="93" t="s">
+        <v>897</v>
+      </c>
+      <c r="G48" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H48" s="118"/>
+      <c r="I48" s="95"/>
+    </row>
+    <row r="49" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B49" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C49" s="109" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D49" s="109" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E49" s="109" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F49" s="93" t="s">
+        <v>897</v>
+      </c>
+      <c r="G49" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H49" s="118"/>
+      <c r="I49" s="95"/>
+    </row>
+    <row r="50" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B50" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C50" s="109" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D50" s="109" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E50" s="109" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F50" s="93" t="s">
+        <v>897</v>
+      </c>
+      <c r="G50" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H50" s="118"/>
+      <c r="I50" s="95"/>
+    </row>
+    <row r="51" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B51" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C51" s="109" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D51" s="109" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E51" s="128" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F51" s="93" t="s">
+        <v>897</v>
+      </c>
+      <c r="G51" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H51" s="118"/>
+      <c r="I51" s="95"/>
+    </row>
+    <row r="52" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B52" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C52" s="109" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D52" s="109" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E52" s="109" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F52" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H52" s="118" t="s">
+        <v>428</v>
+      </c>
+      <c r="I52" s="95"/>
+    </row>
+    <row r="53" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B53" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C53" s="109" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D53" s="109" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E53" s="109" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F53" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H53" s="118" t="s">
+        <v>428</v>
+      </c>
+      <c r="I53" s="95"/>
+    </row>
+    <row r="54" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B54" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C54" s="109" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D54" s="109" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E54" s="109" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F54" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H54" s="118" t="s">
+        <v>428</v>
+      </c>
+      <c r="I54" s="95"/>
+    </row>
+    <row r="55" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B55" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C55" s="109" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D55" s="128" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E55" s="109" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F55" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H55" s="118" t="s">
+        <v>428</v>
+      </c>
+      <c r="I55" s="95"/>
+    </row>
+    <row r="56" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B56" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C56" s="109" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D56" s="128" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E56" s="109" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F56" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H56" s="118" t="s">
+        <v>1222</v>
+      </c>
+      <c r="I56" s="95"/>
+    </row>
+    <row r="57" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B57" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C57" s="109" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D57" s="128" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E57" s="109" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F57" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H57" s="171" t="s">
+        <v>399</v>
+      </c>
+      <c r="I57" s="95"/>
+    </row>
+    <row r="58" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B58" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C58" s="109" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D58" s="109" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E58" s="109" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F58" s="93" t="s">
+        <v>582</v>
+      </c>
+      <c r="G58" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H58" s="118"/>
+      <c r="I58" s="95"/>
+    </row>
+    <row r="59" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B59" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C59" s="109" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D59" s="109" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E59" s="109" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F59" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H59" s="118"/>
+      <c r="I59" s="95"/>
+    </row>
+    <row r="60" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B60" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C60" s="109" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D60" s="109" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E60" s="109" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F60" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H60" s="118"/>
+      <c r="I60" s="95"/>
+    </row>
+    <row r="61" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B61" s="108" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C61" s="109" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D61" s="109" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E61" s="109" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F61" s="93" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G61" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H61" s="118" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I61" s="95"/>
+    </row>
+    <row r="62" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B62" s="110" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C62" s="111" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D62" s="111" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E62" s="97" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F62" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="122" t="s">
+        <v>440</v>
+      </c>
+      <c r="H62" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="113" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B63" s="110" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C63" s="111" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D63" s="111" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E63" s="97" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F63" s="96" t="s">
+        <v>580</v>
+      </c>
+      <c r="G63" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H63" s="120" t="s">
+        <v>901</v>
+      </c>
+      <c r="I63" s="113" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B64" s="110" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C64" s="111" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D64" s="111" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E64" s="97" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F64" s="96" t="s">
+        <v>580</v>
+      </c>
+      <c r="G64" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H64" s="120" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I64" s="113"/>
+    </row>
+    <row r="65" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B65" s="110" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C65" s="111" t="s">
+        <v>201</v>
+      </c>
+      <c r="D65" s="111" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E65" s="97" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F65" s="96" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G65" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H65" s="120" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I65" s="113"/>
+    </row>
+    <row r="66" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B66" s="110" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C66" s="111" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="111" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E66" s="97" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F66" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="G66" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H66" s="120" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I66" s="113"/>
+    </row>
+    <row r="67" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B67" s="110" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C67" s="111" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D67" s="111" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E67" s="97" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F67" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="122" t="s">
+        <v>451</v>
+      </c>
+      <c r="H67" s="120" t="s">
+        <v>365</v>
+      </c>
+      <c r="I67" s="113" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B68" s="110" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C68" s="111" t="s">
+        <v>205</v>
+      </c>
+      <c r="D68" s="111" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E68" s="97" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F68" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H68" s="120" t="s">
+        <v>953</v>
+      </c>
+      <c r="I68" s="113"/>
+    </row>
+    <row r="69" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B69" s="110" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C69" s="111" t="s">
+        <v>138</v>
+      </c>
+      <c r="D69" s="111" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E69" s="97" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F69" s="96" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G69" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H69" s="120" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I69" s="113"/>
+    </row>
+    <row r="70" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B70" s="110" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C70" s="111" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" s="111" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E70" s="97" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F70" s="96" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G70" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H70" s="120"/>
+      <c r="I70" s="113"/>
+    </row>
+    <row r="71" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B71" s="110" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C71" s="111" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" s="111" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E71" s="97" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F71" s="96" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G71" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H71" s="120"/>
+      <c r="I71" s="113"/>
+    </row>
+    <row r="72" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B72" s="110" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C72" s="111" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D72" s="111" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E72" s="97" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F72" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="122" t="s">
+        <v>451</v>
+      </c>
+      <c r="H72" s="120" t="s">
+        <v>365</v>
+      </c>
+      <c r="I72" s="113"/>
+    </row>
+    <row r="73" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B73" s="110" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C73" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="E73" s="97" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F73" s="96" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G73" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H73" s="120"/>
+      <c r="I73" s="113" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B74" s="110" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C74" s="111" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" s="111" t="s">
+        <v>157</v>
+      </c>
+      <c r="E74" s="97" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F74" s="96" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G74" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H74" s="120"/>
+      <c r="I74" s="113" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B75" s="110" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C75" s="111" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D75" s="111" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E75" s="97" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F75" s="96" t="s">
+        <v>946</v>
+      </c>
+      <c r="G75" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H75" s="120"/>
+      <c r="I75" s="113"/>
+    </row>
+    <row r="76" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B76" s="110" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C76" s="111" t="s">
+        <v>211</v>
+      </c>
+      <c r="D76" s="111" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E76" s="97" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F76" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H76" s="120"/>
+      <c r="I76" s="113"/>
+    </row>
+    <row r="77" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B77" s="110" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C77" s="111" t="s">
+        <v>206</v>
+      </c>
+      <c r="D77" s="111" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E77" s="97" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F77" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="G77" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H77" s="120" t="s">
+        <v>1357</v>
+      </c>
+      <c r="I77" s="113"/>
+    </row>
+    <row r="78" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B78" s="110" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C78" s="111" t="s">
+        <v>208</v>
+      </c>
+      <c r="D78" s="111" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E78" s="97" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F78" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H78" s="120" t="s">
+        <v>953</v>
+      </c>
+      <c r="I78" s="113"/>
+    </row>
+    <row r="79" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B79" s="110" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C79" s="111" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D79" s="111" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E79" s="97" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F79" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H79" s="120" t="s">
+        <v>428</v>
+      </c>
+      <c r="I79" s="113"/>
+    </row>
+    <row r="80" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B80" s="110" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C80" s="111" t="s">
+        <v>214</v>
+      </c>
+      <c r="D80" s="111" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E80" s="97" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F80" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H80" s="120" t="s">
+        <v>1483</v>
+      </c>
+      <c r="I80" s="113"/>
+    </row>
+    <row r="81" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B81" s="110" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C81" s="111" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D81" s="172" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E81" s="97" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F81" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="122" t="s">
+        <v>451</v>
+      </c>
+      <c r="H81" s="120" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I81" s="113"/>
+    </row>
+    <row r="82" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B82" s="110" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C82" s="111" t="s">
+        <v>146</v>
+      </c>
+      <c r="D82" s="111" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E82" s="97" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F82" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H82" s="120"/>
+      <c r="I82" s="113"/>
+    </row>
+    <row r="83" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B83" s="110" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C83" s="111" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" s="111" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E83" s="97" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F83" s="96" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G83" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H83" s="120"/>
+      <c r="I83" s="113"/>
+    </row>
+    <row r="84" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B84" s="110" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C84" s="111" t="s">
+        <v>144</v>
+      </c>
+      <c r="D84" s="111" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E84" s="97" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F84" s="96" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G84" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H84" s="120"/>
+      <c r="I84" s="113"/>
+    </row>
+    <row r="85" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B85" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="111" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D85" s="111" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E85" s="97" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F85" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="122" t="s">
+        <v>451</v>
+      </c>
+      <c r="H85" s="120" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I85" s="113"/>
+    </row>
+    <row r="86" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B86" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="111" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D86" s="111" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E86" s="97" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F86" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="122" t="s">
+        <v>451</v>
+      </c>
+      <c r="H86" s="120" t="s">
+        <v>545</v>
+      </c>
+      <c r="I86" s="113"/>
+    </row>
+    <row r="87" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B87" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="111" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D87" s="172" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E87" s="97" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F87" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="122" t="s">
+        <v>451</v>
+      </c>
+      <c r="H87" s="173" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I87" s="113"/>
+    </row>
+    <row r="88" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B88" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="111" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D88" s="172" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E88" s="97" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F88" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="122" t="s">
+        <v>451</v>
+      </c>
+      <c r="H88" s="173" t="s">
+        <v>610</v>
+      </c>
+      <c r="I88" s="113"/>
+    </row>
+    <row r="89" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B89" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="D89" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="E89" s="97" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F89" s="96" t="s">
+        <v>828</v>
+      </c>
+      <c r="G89" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H89" s="120"/>
+      <c r="I89" s="113"/>
+    </row>
+    <row r="90" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B90" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="D90" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="E90" s="97" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F90" s="96" t="s">
+        <v>828</v>
+      </c>
+      <c r="G90" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H90" s="120"/>
+      <c r="I90" s="113"/>
+    </row>
+    <row r="91" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B91" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="D91" s="111" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E91" s="97" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F91" s="96" t="s">
+        <v>828</v>
+      </c>
+      <c r="G91" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H91" s="120"/>
+      <c r="I91" s="113" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B92" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="D92" s="111" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E92" s="97" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F92" s="96" t="s">
+        <v>828</v>
+      </c>
+      <c r="G92" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H92" s="120"/>
+      <c r="I92" s="113" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B93" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="111" t="s">
+        <v>154</v>
+      </c>
+      <c r="D93" s="111" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E93" s="97" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F93" s="96" t="s">
+        <v>828</v>
+      </c>
+      <c r="G93" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H93" s="120"/>
+      <c r="I93" s="113" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B94" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="111" t="s">
+        <v>193</v>
+      </c>
+      <c r="D94" s="111" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E94" s="97" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F94" s="96" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G94" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H94" s="120"/>
+      <c r="I94" s="113" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B95" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="D95" s="111" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E95" s="97" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F95" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H95" s="120"/>
+      <c r="I95" s="113" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B96" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="D96" s="111" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E96" s="97" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F96" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="G96" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H96" s="120"/>
+      <c r="I96" s="113" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B97" s="110" t="s">
+        <v>301</v>
+      </c>
+      <c r="C97" s="111" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D97" s="172" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E97" s="97" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F97" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="122" t="s">
+        <v>451</v>
+      </c>
+      <c r="H97" s="120"/>
+      <c r="I97" s="113"/>
+    </row>
+    <row r="98" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B98" s="110" t="s">
+        <v>301</v>
+      </c>
+      <c r="C98" s="111" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D98" s="172" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E98" s="97" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F98" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="122" t="s">
+        <v>451</v>
+      </c>
+      <c r="H98" s="120"/>
+      <c r="I98" s="113"/>
+    </row>
+    <row r="99" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B99" s="110" t="s">
+        <v>301</v>
+      </c>
+      <c r="C99" s="111" t="s">
+        <v>174</v>
+      </c>
+      <c r="D99" s="111" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E99" s="97" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F99" s="96" t="s">
+        <v>721</v>
+      </c>
+      <c r="G99" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H99" s="120"/>
+      <c r="I99" s="113"/>
+    </row>
+    <row r="100" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B100" s="110" t="s">
+        <v>301</v>
+      </c>
+      <c r="C100" s="111" t="s">
+        <v>177</v>
+      </c>
+      <c r="D100" s="111" t="s">
+        <v>177</v>
+      </c>
+      <c r="E100" s="97" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F100" s="96" t="s">
+        <v>721</v>
+      </c>
+      <c r="G100" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H100" s="120"/>
+      <c r="I100" s="113"/>
+    </row>
+    <row r="101" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B101" s="110" t="s">
+        <v>301</v>
+      </c>
+      <c r="C101" s="111" t="s">
+        <v>188</v>
+      </c>
+      <c r="D101" s="111" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E101" s="97" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F101" s="96" t="s">
+        <v>721</v>
+      </c>
+      <c r="G101" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H101" s="120"/>
+      <c r="I101" s="113"/>
+    </row>
+    <row r="102" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B102" s="110" t="s">
+        <v>301</v>
+      </c>
+      <c r="C102" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="D102" s="111" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E102" s="97" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F102" s="96" t="s">
+        <v>721</v>
+      </c>
+      <c r="G102" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H102" s="120"/>
+      <c r="I102" s="113"/>
+    </row>
+    <row r="103" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B103" s="110" t="s">
+        <v>301</v>
+      </c>
+      <c r="C103" s="111" t="s">
+        <v>162</v>
+      </c>
+      <c r="D103" s="111" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E103" s="97" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F103" s="96" t="s">
+        <v>721</v>
+      </c>
+      <c r="G103" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H103" s="120"/>
+      <c r="I103" s="113"/>
+    </row>
+    <row r="104" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B104" s="110" t="s">
+        <v>301</v>
+      </c>
+      <c r="C104" s="111" t="s">
+        <v>195</v>
+      </c>
+      <c r="D104" s="111" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E104" s="97" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F104" s="96" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G104" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H104" s="120"/>
+      <c r="I104" s="113"/>
+    </row>
+    <row r="105" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="B105" s="110" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C105" s="111" t="s">
+        <v>232</v>
+      </c>
+      <c r="D105" s="111" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E105" s="97" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F105" s="96" t="s">
+        <v>217</v>
+      </c>
+      <c r="G105" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="H105" s="120" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I105" s="114" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B106" s="174" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C106" s="175" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D106" s="175" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E106" s="176" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F106" s="176" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="177" t="s">
+        <v>451</v>
+      </c>
+      <c r="H106" s="178" t="s">
+        <v>1438</v>
+      </c>
+      <c r="I106" s="179"/>
+    </row>
+    <row r="107" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B107" s="174" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C107" s="175" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D107" s="175" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E107" s="176" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F107" s="176" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="177" t="s">
+        <v>451</v>
+      </c>
+      <c r="H107" s="178" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I107" s="179"/>
+    </row>
+    <row r="108" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B108" s="174" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C108" s="175" t="s">
+        <v>932</v>
+      </c>
+      <c r="D108" s="175" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E108" s="176" t="s">
+        <v>1934</v>
+      </c>
+      <c r="F108" s="176" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" s="177" t="s">
+        <v>451</v>
+      </c>
+      <c r="H108" s="178" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I108" s="179"/>
+    </row>
+    <row r="109" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B109" s="174" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C109" s="175" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D109" s="175" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E109" s="176" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F109" s="180" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="177" t="s">
+        <v>418</v>
+      </c>
+      <c r="H109" s="181" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I109" s="182"/>
+    </row>
+    <row r="110" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B110" s="174" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C110" s="175" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D110" s="175" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E110" s="176" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F110" s="180" t="s">
+        <v>51</v>
+      </c>
+      <c r="G110" s="177" t="s">
+        <v>418</v>
+      </c>
+      <c r="H110" s="184" t="s">
+        <v>1460</v>
+      </c>
+      <c r="I110" s="182"/>
+    </row>
+    <row r="111" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B111" s="174" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C111" s="175" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D111" s="175" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E111" s="176" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F111" s="180" t="s">
+        <v>51</v>
+      </c>
+      <c r="G111" s="177" t="s">
+        <v>418</v>
+      </c>
+      <c r="H111" s="184" t="s">
+        <v>428</v>
+      </c>
+      <c r="I111" s="182"/>
+    </row>
+    <row r="112" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B112" s="174" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C112" s="175" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D112" s="175" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E112" s="176" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F112" s="180" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G112" s="177" t="s">
+        <v>418</v>
+      </c>
+      <c r="H112" s="184" t="s">
+        <v>430</v>
+      </c>
+      <c r="I112" s="182"/>
+    </row>
+    <row r="113" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B113" s="174" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C113" s="175" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D113" s="175" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E113" s="176" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F113" s="180" t="s">
+        <v>893</v>
+      </c>
+      <c r="G113" s="177" t="s">
+        <v>418</v>
+      </c>
+      <c r="H113" s="184" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I113" s="182"/>
+    </row>
+    <row r="114" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B114" s="174" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C114" s="175" t="s">
+        <v>933</v>
+      </c>
+      <c r="D114" s="175" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E114" s="176" t="s">
+        <v>1937</v>
+      </c>
+      <c r="F114" s="180" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="177" t="s">
+        <v>418</v>
+      </c>
+      <c r="H114" s="181" t="s">
+        <v>654</v>
+      </c>
+      <c r="I114" s="182"/>
+    </row>
+    <row r="115" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B115" s="174" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C115" s="175" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D115" s="175" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E115" s="176" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F115" s="180" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="177" t="s">
+        <v>451</v>
+      </c>
+      <c r="H115" s="184" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I115" s="182"/>
+    </row>
+    <row r="116" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B116" s="174" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C116" s="175" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D116" s="175" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E116" s="176" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F116" s="180" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="177" t="s">
+        <v>451</v>
+      </c>
+      <c r="H116" s="178" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I116" s="182"/>
+    </row>
+    <row r="117" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B117" s="174" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C117" s="175" t="s">
+        <v>934</v>
+      </c>
+      <c r="D117" s="175" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="176" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F117" s="180" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" s="177" t="s">
+        <v>440</v>
+      </c>
+      <c r="H117" s="183" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I117" s="182"/>
+    </row>
+    <row r="118" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B118" s="174" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C118" s="175" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D118" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="E118" s="176" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F118" s="180" t="s">
+        <v>721</v>
+      </c>
+      <c r="G118" s="177" t="s">
+        <v>440</v>
+      </c>
+      <c r="H118" s="183" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I118" s="182"/>
+    </row>
+    <row r="119" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B119" s="174" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C119" s="175" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D119" s="175" t="s">
+        <v>289</v>
+      </c>
+      <c r="E119" s="176" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F119" s="185" t="s">
+        <v>828</v>
+      </c>
+      <c r="G119" s="177" t="s">
+        <v>440</v>
+      </c>
+      <c r="H119" s="183" t="s">
+        <v>1542</v>
+      </c>
+      <c r="I119" s="182"/>
+    </row>
+    <row r="120" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B120" s="174" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C120" s="175" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D120" s="175" t="s">
+        <v>283</v>
+      </c>
+      <c r="E120" s="176" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F120" s="185" t="s">
+        <v>580</v>
+      </c>
+      <c r="G120" s="177" t="s">
+        <v>440</v>
+      </c>
+      <c r="H120" s="183" t="s">
+        <v>1543</v>
+      </c>
+      <c r="I120" s="182"/>
+    </row>
+    <row r="121" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B121" s="174" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C121" s="175" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D121" s="175" t="s">
+        <v>396</v>
+      </c>
+      <c r="E121" s="186" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F121" s="180" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G121" s="177" t="s">
+        <v>440</v>
+      </c>
+      <c r="H121" s="183" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I121" s="182"/>
+    </row>
+    <row r="122" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B122" s="174" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C122" s="175" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D122" s="175" t="s">
+        <v>349</v>
+      </c>
+      <c r="E122" s="186" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F122" s="180" t="s">
+        <v>721</v>
+      </c>
+      <c r="G122" s="177" t="s">
+        <v>440</v>
+      </c>
+      <c r="H122" s="183" t="s">
+        <v>1545</v>
+      </c>
+      <c r="I122" s="182"/>
+    </row>
+    <row r="123" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B123" s="174" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C123" s="175" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D123" s="175" t="s">
+        <v>348</v>
+      </c>
+      <c r="E123" s="186" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F123" s="185" t="s">
+        <v>828</v>
+      </c>
+      <c r="G123" s="177" t="s">
+        <v>440</v>
+      </c>
+      <c r="H123" s="183" t="s">
+        <v>1546</v>
+      </c>
+      <c r="I123" s="182"/>
+    </row>
+    <row r="124" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B124" s="174" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C124" s="175" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D124" s="175" t="s">
+        <v>347</v>
+      </c>
+      <c r="E124" s="186" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F124" s="185" t="s">
+        <v>580</v>
+      </c>
+      <c r="G124" s="177" t="s">
+        <v>440</v>
+      </c>
+      <c r="H124" s="183" t="s">
+        <v>1547</v>
+      </c>
+      <c r="I124" s="182"/>
+    </row>
+    <row r="125" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B125" s="174" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C125" s="175" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D125" s="175" t="s">
+        <v>396</v>
+      </c>
+      <c r="E125" s="186" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F125" s="180" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G125" s="177" t="s">
+        <v>440</v>
+      </c>
+      <c r="H125" s="183" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I125" s="182"/>
+    </row>
+    <row r="126" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B126" s="174" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C126" s="175" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D126" s="175" t="s">
+        <v>274</v>
+      </c>
+      <c r="E126" s="186" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F126" s="180" t="s">
+        <v>721</v>
+      </c>
+      <c r="G126" s="177" t="s">
+        <v>440</v>
+      </c>
+      <c r="H126" s="183" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I126" s="182"/>
+    </row>
+    <row r="127" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B127" s="174" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C127" s="175" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D127" s="175" t="s">
+        <v>966</v>
+      </c>
+      <c r="E127" s="186" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F127" s="180" t="s">
+        <v>828</v>
+      </c>
+      <c r="G127" s="177" t="s">
+        <v>440</v>
+      </c>
+      <c r="H127" s="183" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I127" s="182"/>
+    </row>
+    <row r="128" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B128" s="174" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C128" s="175" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D128" s="175" t="s">
+        <v>973</v>
+      </c>
+      <c r="E128" s="186" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F128" s="180" t="s">
+        <v>828</v>
+      </c>
+      <c r="G128" s="177" t="s">
+        <v>440</v>
+      </c>
+      <c r="H128" s="183" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I128" s="182"/>
+    </row>
+    <row r="129" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B129" s="174" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C129" s="175" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D129" s="175" t="s">
+        <v>396</v>
+      </c>
+      <c r="E129" s="186" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F129" s="180" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G129" s="177" t="s">
+        <v>440</v>
+      </c>
+      <c r="H129" s="183" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I129" s="182"/>
+    </row>
+    <row r="130" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B130" s="174" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C130" s="175" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D130" s="175" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E130" s="186" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F130" s="180" t="s">
+        <v>559</v>
+      </c>
+      <c r="G130" s="177" t="s">
+        <v>440</v>
+      </c>
+      <c r="H130" s="183" t="s">
+        <v>747</v>
+      </c>
+      <c r="I130" s="182"/>
+    </row>
+    <row r="131" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B131" s="174" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C131" s="175" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D131" s="175" t="s">
+        <v>972</v>
+      </c>
+      <c r="E131" s="186" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F131" s="185" t="s">
+        <v>580</v>
+      </c>
+      <c r="G131" s="177" t="s">
+        <v>440</v>
+      </c>
+      <c r="H131" s="183" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I131" s="182"/>
+    </row>
+    <row r="132" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B132" s="174" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C132" s="175" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D132" s="175" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="176" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F132" s="180" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" s="177" t="s">
+        <v>440</v>
+      </c>
+      <c r="H132" s="183" t="s">
+        <v>1939</v>
+      </c>
+      <c r="I132" s="182" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="174" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B133" s="174" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C133" s="175" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D133" s="175" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="176" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F133" s="180" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" s="177" t="s">
+        <v>451</v>
+      </c>
+      <c r="H133" s="183" t="s">
+        <v>679</v>
+      </c>
+      <c r="I133" s="182" t="s">
         <v>1458</v>
       </c>
     </row>
